--- a/calc/files/ems_int.xlsx
+++ b/calc/files/ems_int.xlsx
@@ -1696,7 +1696,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left"/>
@@ -1777,6 +1777,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="3" fontId="6" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2247,6 +2248,14 @@
       <c r="H11" s="27" t="n">
         <v>52.75</v>
       </c>
+      <c r="J11" s="28" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D11*1.2</f>
+        <v>113.58</v>
+      </c>
+      <c r="K11" s="28" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E11*1.2</f>
+        <v>136.38</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="13" t="n">
@@ -2273,6 +2282,26 @@
       <c r="H12" s="27" t="n">
         <v>8.55</v>
       </c>
+      <c r="J12" s="28" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D12*1.2</f>
+        <v>73.25999999999999</v>
+      </c>
+      <c r="K12" s="28" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E12*1.2</f>
+        <v>78.71999999999998</v>
+      </c>
+      <c r="L12" s="28" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F12*1.2</f>
+        <v>75.05999999999999</v>
+      </c>
+      <c r="M12" s="28" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G12*1.2</f>
+        <v>80.52</v>
+      </c>
+      <c r="N12" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">(G12+H12)*1.2</f>
+        <v>90.77999999999999</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="13" t="n">
@@ -2541,7 +2570,7 @@
       <c r="B23" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="27" t="s">
@@ -2749,7 +2778,7 @@
       <c r="B31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="30" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="27" t="n">
@@ -2801,7 +2830,7 @@
       <c r="B33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="31" t="s">
         <v>59</v>
       </c>
       <c r="D33" s="27" t="n">
@@ -2905,7 +2934,7 @@
       <c r="B37" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="27" t="n">
@@ -2931,7 +2960,7 @@
       <c r="B38" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="31" t="s">
         <v>69</v>
       </c>
       <c r="D38" s="27" t="n">
@@ -3061,7 +3090,7 @@
       <c r="B43" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="32" t="s">
         <v>79</v>
       </c>
       <c r="D43" s="27" t="n">
@@ -3087,7 +3116,7 @@
       <c r="B44" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="29" t="s">
         <v>81</v>
       </c>
       <c r="D44" s="27" t="n">
@@ -3113,7 +3142,7 @@
       <c r="B45" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="31" t="s">
         <v>83</v>
       </c>
       <c r="D45" s="27" t="s">
@@ -3139,7 +3168,7 @@
       <c r="B46" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="31" t="s">
         <v>86</v>
       </c>
       <c r="D46" s="27" t="n">
@@ -3165,7 +3194,7 @@
       <c r="B47" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="31" t="s">
         <v>88</v>
       </c>
       <c r="D47" s="27" t="n">
@@ -3393,10 +3422,10 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="56">
-      <c r="A56" s="32" t="n">
+      <c r="A56" s="33" t="n">
         <v>46</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="34" t="s">
         <v>105</v>
       </c>
       <c r="C56" s="26" t="s">
@@ -3418,7 +3447,7 @@
         <v>38.95</v>
       </c>
     </row>
-    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="57" s="34">
+    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="57" s="35">
       <c r="A57" s="13" t="n">
         <v>47</v>
       </c>
@@ -3561,19 +3590,19 @@
       <c r="C60" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="35" t="n">
+      <c r="D60" s="36" t="n">
         <v>68.9</v>
       </c>
-      <c r="E60" s="36" t="n">
+      <c r="E60" s="37" t="n">
         <v>74.55</v>
       </c>
-      <c r="F60" s="36" t="n">
+      <c r="F60" s="37" t="n">
         <v>71.35</v>
       </c>
-      <c r="G60" s="36" t="n">
+      <c r="G60" s="37" t="n">
         <v>75.9</v>
       </c>
-      <c r="H60" s="36" t="n">
+      <c r="H60" s="37" t="n">
         <v>13.8</v>
       </c>
     </row>
@@ -3630,28 +3659,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="63">
-      <c r="A63" s="32" t="n">
+      <c r="A63" s="33" t="n">
         <v>53</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="C63" s="28" t="s">
+      <c r="C63" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="D63" s="37" t="s">
+      <c r="D63" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E63" s="37" t="s">
+      <c r="E63" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="F63" s="37" t="s">
+      <c r="F63" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="G63" s="37" t="s">
+      <c r="G63" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="H63" s="37" t="s">
+      <c r="H63" s="38" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3662,7 +3691,7 @@
       <c r="B64" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C64" s="29" t="s">
         <v>122</v>
       </c>
       <c r="D64" s="27" t="s">
@@ -3740,7 +3769,7 @@
       <c r="B67" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="39" t="s">
         <v>128</v>
       </c>
       <c r="D67" s="27" t="n">
@@ -3766,7 +3795,7 @@
       <c r="B68" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="39" t="s">
         <v>130</v>
       </c>
       <c r="D68" s="27" t="n">
@@ -4055,19 +4084,19 @@
       <c r="C79" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="D79" s="35" t="n">
+      <c r="D79" s="36" t="n">
         <v>101.9</v>
       </c>
-      <c r="E79" s="36" t="n">
+      <c r="E79" s="37" t="n">
         <v>110.4</v>
       </c>
-      <c r="F79" s="36" t="n">
+      <c r="F79" s="37" t="n">
         <v>103.95</v>
       </c>
-      <c r="G79" s="36" t="n">
+      <c r="G79" s="37" t="n">
         <v>112.4</v>
       </c>
-      <c r="H79" s="36" t="n">
+      <c r="H79" s="37" t="n">
         <v>15.3</v>
       </c>
     </row>
@@ -4078,22 +4107,22 @@
       <c r="B80" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C80" s="28" t="s">
+      <c r="C80" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="D80" s="39" t="n">
+      <c r="D80" s="40" t="n">
         <v>60.95</v>
       </c>
-      <c r="E80" s="40" t="n">
+      <c r="E80" s="41" t="n">
         <v>65.45</v>
       </c>
-      <c r="F80" s="40" t="n">
+      <c r="F80" s="41" t="n">
         <v>61.9</v>
       </c>
-      <c r="G80" s="40" t="n">
+      <c r="G80" s="41" t="n">
         <v>67.95</v>
       </c>
-      <c r="H80" s="40" t="n">
+      <c r="H80" s="41" t="n">
         <v>13.45</v>
       </c>
     </row>
@@ -4104,7 +4133,7 @@
       <c r="B81" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C81" s="30" t="s">
+      <c r="C81" s="31" t="s">
         <v>156</v>
       </c>
       <c r="D81" s="27" t="n">
@@ -4416,7 +4445,7 @@
       <c r="B93" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="C93" s="28" t="s">
+      <c r="C93" s="29" t="s">
         <v>180</v>
       </c>
       <c r="D93" s="27" t="n">
@@ -4468,7 +4497,7 @@
       <c r="B95" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="C95" s="28" t="s">
+      <c r="C95" s="29" t="s">
         <v>184</v>
       </c>
       <c r="D95" s="27" t="n">
@@ -4494,7 +4523,7 @@
       <c r="B96" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C96" s="28" t="s">
+      <c r="C96" s="29" t="s">
         <v>186</v>
       </c>
       <c r="D96" s="27" t="n">
@@ -4520,7 +4549,7 @@
       <c r="B97" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C97" s="41" t="s">
+      <c r="C97" s="42" t="s">
         <v>188</v>
       </c>
       <c r="D97" s="27" t="n">
@@ -4598,7 +4627,7 @@
       <c r="B100" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="C100" s="30" t="s">
+      <c r="C100" s="31" t="s">
         <v>194</v>
       </c>
       <c r="D100" s="27" t="n">
@@ -4624,7 +4653,7 @@
       <c r="B101" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C101" s="28" t="s">
+      <c r="C101" s="29" t="s">
         <v>196</v>
       </c>
       <c r="D101" s="27" t="n">
@@ -4780,7 +4809,7 @@
       <c r="B107" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C107" s="28" t="s">
+      <c r="C107" s="29" t="s">
         <v>208</v>
       </c>
       <c r="D107" s="27" t="n">
@@ -5118,7 +5147,7 @@
       <c r="B120" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="C120" s="30" t="s">
+      <c r="C120" s="31" t="s">
         <v>234</v>
       </c>
       <c r="D120" s="27" t="n">
@@ -5144,7 +5173,7 @@
       <c r="B121" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="C121" s="28" t="s">
+      <c r="C121" s="29" t="s">
         <v>236</v>
       </c>
       <c r="D121" s="27" t="n">
@@ -5319,7 +5348,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="128" s="42">
+    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="128" s="43">
       <c r="A128" s="13" t="n">
         <v>118</v>
       </c>
@@ -5345,7 +5374,7 @@
         <v>33.95</v>
       </c>
     </row>
-    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="129" s="42">
+    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="129" s="43">
       <c r="A129" s="13" t="n">
         <v>119</v>
       </c>
@@ -5710,557 +5739,557 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="143">
-      <c r="A143" s="32" t="n">
+      <c r="A143" s="33" t="n">
         <v>133</v>
       </c>
-      <c r="B143" s="33" t="s">
+      <c r="B143" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="C143" s="28" t="s">
+      <c r="C143" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="D143" s="37" t="n">
+      <c r="D143" s="38" t="n">
         <v>71.65</v>
       </c>
-      <c r="E143" s="37" t="n">
+      <c r="E143" s="38" t="n">
         <v>83.15</v>
       </c>
-      <c r="F143" s="37" t="n">
+      <c r="F143" s="38" t="n">
         <v>74.2</v>
       </c>
-      <c r="G143" s="37" t="n">
+      <c r="G143" s="38" t="n">
         <v>82.2</v>
       </c>
-      <c r="H143" s="37" t="n">
+      <c r="H143" s="38" t="n">
         <v>23.05</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="144">
-      <c r="A144" s="32" t="n">
+      <c r="A144" s="33" t="n">
         <v>134</v>
       </c>
-      <c r="B144" s="33" t="s">
+      <c r="B144" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="C144" s="38" t="s">
+      <c r="C144" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="D144" s="37" t="n">
+      <c r="D144" s="38" t="n">
         <v>70.4</v>
       </c>
-      <c r="E144" s="37" t="n">
+      <c r="E144" s="38" t="n">
         <v>78.7</v>
       </c>
-      <c r="F144" s="37" t="n">
+      <c r="F144" s="38" t="n">
         <v>71.85</v>
       </c>
-      <c r="G144" s="37" t="n">
+      <c r="G144" s="38" t="n">
         <v>80.2</v>
       </c>
-      <c r="H144" s="37" t="n">
+      <c r="H144" s="38" t="n">
         <v>16.7</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="145">
-      <c r="A145" s="32" t="n">
+      <c r="A145" s="33" t="n">
         <v>135</v>
       </c>
-      <c r="B145" s="33" t="s">
+      <c r="B145" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="C145" s="38" t="s">
+      <c r="C145" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="D145" s="37" t="n">
+      <c r="D145" s="38" t="n">
         <v>57</v>
       </c>
-      <c r="E145" s="37" t="n">
+      <c r="E145" s="38" t="n">
         <v>65.3</v>
       </c>
-      <c r="F145" s="37" t="n">
+      <c r="F145" s="38" t="n">
         <v>58.45</v>
       </c>
-      <c r="G145" s="37" t="n">
+      <c r="G145" s="38" t="n">
         <v>66.8</v>
       </c>
-      <c r="H145" s="37" t="n">
+      <c r="H145" s="38" t="n">
         <v>18.65</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="146">
-      <c r="A146" s="32" t="n">
+      <c r="A146" s="33" t="n">
         <v>136</v>
       </c>
-      <c r="B146" s="33" t="s">
+      <c r="B146" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="C146" s="38" t="s">
+      <c r="C146" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="D146" s="37" t="n">
+      <c r="D146" s="38" t="n">
         <v>80.85</v>
       </c>
-      <c r="E146" s="37" t="n">
+      <c r="E146" s="38" t="n">
         <v>95.5</v>
       </c>
-      <c r="F146" s="37" t="n">
+      <c r="F146" s="38" t="n">
         <v>83.55</v>
       </c>
-      <c r="G146" s="37" t="n">
+      <c r="G146" s="38" t="n">
         <v>97.05</v>
       </c>
-      <c r="H146" s="37" t="n">
+      <c r="H146" s="38" t="n">
         <v>36.3</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="147">
-      <c r="A147" s="32" t="n">
+      <c r="A147" s="33" t="n">
         <v>137</v>
       </c>
-      <c r="B147" s="33" t="s">
+      <c r="B147" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="C147" s="28" t="s">
+      <c r="C147" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="D147" s="37" t="s">
+      <c r="D147" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E147" s="37" t="s">
+      <c r="E147" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="F147" s="37" t="s">
+      <c r="F147" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="G147" s="37" t="s">
+      <c r="G147" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="H147" s="37" t="s">
+      <c r="H147" s="38" t="s">
         <v>84</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="148">
-      <c r="A148" s="32" t="n">
+      <c r="A148" s="33" t="n">
         <v>138</v>
       </c>
-      <c r="B148" s="33" t="s">
+      <c r="B148" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="C148" s="38" t="s">
+      <c r="C148" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="D148" s="37" t="n">
+      <c r="D148" s="38" t="n">
         <v>68.85</v>
       </c>
-      <c r="E148" s="37" t="n">
+      <c r="E148" s="38" t="n">
         <v>91.85</v>
       </c>
-      <c r="F148" s="37" t="n">
+      <c r="F148" s="38" t="n">
         <v>71.15</v>
       </c>
-      <c r="G148" s="37" t="n">
+      <c r="G148" s="38" t="n">
         <v>94.25</v>
       </c>
-      <c r="H148" s="37" t="n">
+      <c r="H148" s="38" t="n">
         <v>43.5</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="149">
-      <c r="A149" s="32" t="n">
+      <c r="A149" s="33" t="n">
         <v>139</v>
       </c>
-      <c r="B149" s="33" t="s">
+      <c r="B149" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="C149" s="38" t="s">
+      <c r="C149" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="D149" s="37" t="n">
+      <c r="D149" s="38" t="n">
         <v>78.05</v>
       </c>
-      <c r="E149" s="37" t="n">
+      <c r="E149" s="38" t="n">
         <v>97.25</v>
       </c>
-      <c r="F149" s="37" t="n">
+      <c r="F149" s="38" t="n">
         <v>80.65</v>
       </c>
-      <c r="G149" s="37" t="n">
+      <c r="G149" s="38" t="n">
         <v>98.55</v>
       </c>
-      <c r="H149" s="37" t="n">
+      <c r="H149" s="38" t="n">
         <v>41.6</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="150">
-      <c r="A150" s="32" t="n">
+      <c r="A150" s="33" t="n">
         <v>140</v>
       </c>
-      <c r="B150" s="33" t="s">
+      <c r="B150" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="C150" s="38" t="s">
+      <c r="C150" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="D150" s="37" t="n">
+      <c r="D150" s="38" t="n">
         <v>50.5</v>
       </c>
-      <c r="E150" s="37" t="n">
+      <c r="E150" s="38" t="n">
         <v>54.05</v>
       </c>
-      <c r="F150" s="37" t="n">
+      <c r="F150" s="38" t="n">
         <v>53.5</v>
       </c>
-      <c r="G150" s="37" t="n">
+      <c r="G150" s="38" t="n">
         <v>56.85</v>
       </c>
-      <c r="H150" s="37" t="n">
+      <c r="H150" s="38" t="n">
         <v>4.1</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="151">
-      <c r="A151" s="32" t="n">
+      <c r="A151" s="33" t="n">
         <v>141</v>
       </c>
-      <c r="B151" s="33" t="s">
+      <c r="B151" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="C151" s="38" t="s">
+      <c r="C151" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="D151" s="43" t="n">
+      <c r="D151" s="44" t="n">
         <v>50.7</v>
       </c>
-      <c r="E151" s="44" t="n">
+      <c r="E151" s="45" t="n">
         <v>55.6</v>
       </c>
-      <c r="F151" s="44" t="n">
+      <c r="F151" s="45" t="n">
         <v>52.95</v>
       </c>
-      <c r="G151" s="44" t="n">
+      <c r="G151" s="45" t="n">
         <v>61.9</v>
       </c>
-      <c r="H151" s="44" t="n">
+      <c r="H151" s="45" t="n">
         <v>12.9</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="152">
-      <c r="A152" s="32" t="n">
+      <c r="A152" s="33" t="n">
         <v>142</v>
       </c>
-      <c r="B152" s="33" t="s">
+      <c r="B152" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="C152" s="45" t="s">
+      <c r="C152" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="D152" s="37" t="n">
+      <c r="D152" s="38" t="n">
         <v>57.05</v>
       </c>
-      <c r="E152" s="37" t="n">
+      <c r="E152" s="38" t="n">
         <v>59.45</v>
       </c>
-      <c r="F152" s="37" t="n">
+      <c r="F152" s="38" t="n">
         <v>67.45</v>
       </c>
-      <c r="G152" s="37" t="n">
+      <c r="G152" s="38" t="n">
         <v>69.9</v>
       </c>
-      <c r="H152" s="37" t="n">
+      <c r="H152" s="38" t="n">
         <v>4.25</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="153">
-      <c r="A153" s="32" t="n">
+      <c r="A153" s="33" t="n">
         <v>143</v>
       </c>
-      <c r="B153" s="32" t="s">
+      <c r="B153" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="C153" s="46" t="s">
+      <c r="C153" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="D153" s="37" t="n">
+      <c r="D153" s="38" t="n">
         <v>38</v>
       </c>
-      <c r="E153" s="37" t="n">
+      <c r="E153" s="38" t="n">
         <v>39.35</v>
       </c>
-      <c r="F153" s="37" t="n">
+      <c r="F153" s="38" t="n">
         <v>39.6</v>
       </c>
-      <c r="G153" s="37" t="n">
+      <c r="G153" s="38" t="n">
         <v>40.95</v>
       </c>
-      <c r="H153" s="37" t="n">
+      <c r="H153" s="38" t="n">
         <v>2.85</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="154">
-      <c r="A154" s="32" t="n">
+      <c r="A154" s="33" t="n">
         <v>144</v>
       </c>
-      <c r="B154" s="32" t="s">
+      <c r="B154" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="C154" s="46" t="s">
+      <c r="C154" s="47" t="s">
         <v>302</v>
       </c>
-      <c r="D154" s="37" t="n">
+      <c r="D154" s="38" t="n">
         <v>49</v>
       </c>
-      <c r="E154" s="37" t="n">
+      <c r="E154" s="38" t="n">
         <v>50.4</v>
       </c>
-      <c r="F154" s="37" t="n">
+      <c r="F154" s="38" t="n">
         <v>50.65</v>
       </c>
-      <c r="G154" s="37" t="n">
+      <c r="G154" s="38" t="n">
         <v>52</v>
       </c>
-      <c r="H154" s="37" t="n">
+      <c r="H154" s="38" t="n">
         <v>2.85</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="155">
-      <c r="A155" s="32" t="n">
+      <c r="A155" s="33" t="n">
         <v>145</v>
       </c>
-      <c r="B155" s="32" t="s">
+      <c r="B155" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="C155" s="46" t="s">
+      <c r="C155" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="D155" s="37" t="n">
+      <c r="D155" s="38" t="n">
         <v>38.85</v>
       </c>
-      <c r="E155" s="37" t="n">
+      <c r="E155" s="38" t="n">
         <v>40.2</v>
       </c>
-      <c r="F155" s="37" t="n">
+      <c r="F155" s="38" t="n">
         <v>40.45</v>
       </c>
-      <c r="G155" s="37" t="n">
+      <c r="G155" s="38" t="n">
         <v>41.8</v>
       </c>
-      <c r="H155" s="37" t="n">
+      <c r="H155" s="38" t="n">
         <v>2.85</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="156">
-      <c r="A156" s="32" t="n">
+      <c r="A156" s="33" t="n">
         <v>146</v>
       </c>
-      <c r="B156" s="32" t="n"/>
-      <c r="C156" s="46" t="s">
+      <c r="B156" s="33" t="n"/>
+      <c r="C156" s="47" t="s">
         <v>305</v>
       </c>
-      <c r="D156" s="37" t="n">
+      <c r="D156" s="38" t="n">
         <v>56.65</v>
       </c>
-      <c r="E156" s="37" t="n">
+      <c r="E156" s="38" t="n">
         <v>58.25</v>
       </c>
-      <c r="F156" s="37" t="n">
+      <c r="F156" s="38" t="n">
         <v>59.8</v>
       </c>
-      <c r="G156" s="37" t="n">
+      <c r="G156" s="38" t="n">
         <v>61.55</v>
       </c>
-      <c r="H156" s="37" t="n">
+      <c r="H156" s="38" t="n">
         <v>2.85</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="157">
-      <c r="A157" s="32" t="n">
+      <c r="A157" s="33" t="n">
         <v>147</v>
       </c>
-      <c r="B157" s="33" t="s">
+      <c r="B157" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="C157" s="38" t="s">
+      <c r="C157" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="D157" s="37" t="n">
+      <c r="D157" s="38" t="n">
         <v>68.15</v>
       </c>
-      <c r="E157" s="37" t="n">
+      <c r="E157" s="38" t="n">
         <v>84.25</v>
       </c>
-      <c r="F157" s="37" t="n">
+      <c r="F157" s="38" t="n">
         <v>71.15</v>
       </c>
-      <c r="G157" s="37" t="n">
+      <c r="G157" s="38" t="n">
         <v>87.3</v>
       </c>
-      <c r="H157" s="37" t="n">
+      <c r="H157" s="38" t="n">
         <v>27.3</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="158">
-      <c r="A158" s="32" t="n">
+      <c r="A158" s="33" t="n">
         <v>148</v>
       </c>
-      <c r="B158" s="33" t="s">
+      <c r="B158" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="C158" s="38" t="s">
+      <c r="C158" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="D158" s="37" t="n">
+      <c r="D158" s="38" t="n">
         <v>70.75</v>
       </c>
-      <c r="E158" s="37" t="n">
+      <c r="E158" s="38" t="n">
         <v>75.8</v>
       </c>
-      <c r="F158" s="37" t="n">
+      <c r="F158" s="38" t="n">
         <v>73.1</v>
       </c>
-      <c r="G158" s="37" t="n">
+      <c r="G158" s="38" t="n">
         <v>78.1</v>
       </c>
-      <c r="H158" s="37" t="n">
+      <c r="H158" s="38" t="n">
         <v>10.1</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="159">
-      <c r="A159" s="32" t="n">
+      <c r="A159" s="33" t="n">
         <v>149</v>
       </c>
-      <c r="B159" s="33" t="s">
+      <c r="B159" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="C159" s="38" t="s">
+      <c r="C159" s="39" t="s">
         <v>311</v>
       </c>
-      <c r="D159" s="37" t="n">
+      <c r="D159" s="38" t="n">
         <v>86.7</v>
       </c>
-      <c r="E159" s="37" t="n">
+      <c r="E159" s="38" t="n">
         <v>111.35</v>
       </c>
-      <c r="F159" s="37" t="n">
+      <c r="F159" s="38" t="n">
         <v>88.2</v>
       </c>
-      <c r="G159" s="37" t="n">
+      <c r="G159" s="38" t="n">
         <v>112.85</v>
       </c>
-      <c r="H159" s="37" t="n">
+      <c r="H159" s="38" t="n">
         <v>49.3</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="160">
-      <c r="A160" s="32" t="n">
+      <c r="A160" s="33" t="n">
         <v>150</v>
       </c>
-      <c r="B160" s="33" t="s">
+      <c r="B160" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="C160" s="38" t="s">
+      <c r="C160" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="D160" s="37" t="n">
+      <c r="D160" s="38" t="n">
         <v>70</v>
       </c>
-      <c r="E160" s="37" t="n">
+      <c r="E160" s="38" t="n">
         <v>98.8</v>
       </c>
-      <c r="F160" s="37" t="n">
+      <c r="F160" s="38" t="n">
         <v>80</v>
       </c>
-      <c r="G160" s="37" t="n">
+      <c r="G160" s="38" t="n">
         <v>108.05</v>
       </c>
-      <c r="H160" s="37" t="n">
+      <c r="H160" s="38" t="n">
         <v>61.8</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="161">
-      <c r="A161" s="32" t="n">
+      <c r="A161" s="33" t="n">
         <v>151</v>
       </c>
-      <c r="B161" s="33" t="s">
+      <c r="B161" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="C161" s="38" t="s">
+      <c r="C161" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="D161" s="37" t="s">
+      <c r="D161" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E161" s="37" t="s">
+      <c r="E161" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F161" s="37" t="s">
+      <c r="F161" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="G161" s="37" t="s">
+      <c r="G161" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="H161" s="37" t="s">
+      <c r="H161" s="38" t="s">
         <v>25</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="162">
-      <c r="A162" s="32" t="n">
+      <c r="A162" s="33" t="n">
         <v>152</v>
       </c>
-      <c r="B162" s="33" t="s">
+      <c r="B162" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="C162" s="28" t="s">
+      <c r="C162" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="D162" s="37" t="n">
+      <c r="D162" s="38" t="n">
         <v>68.35</v>
       </c>
-      <c r="E162" s="37" t="n">
+      <c r="E162" s="38" t="n">
         <v>93.3</v>
       </c>
-      <c r="F162" s="37" t="n">
+      <c r="F162" s="38" t="n">
         <v>71.3</v>
       </c>
-      <c r="G162" s="37" t="n">
+      <c r="G162" s="38" t="n">
         <v>93.3</v>
       </c>
-      <c r="H162" s="37" t="n">
+      <c r="H162" s="38" t="n">
         <v>45.45</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="163">
-      <c r="A163" s="32" t="n">
+      <c r="A163" s="33" t="n">
         <v>153</v>
       </c>
-      <c r="B163" s="33" t="s">
+      <c r="B163" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="C163" s="38" t="s">
+      <c r="C163" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="D163" s="37" t="n">
+      <c r="D163" s="38" t="n">
         <v>79.35</v>
       </c>
-      <c r="E163" s="37" t="n">
+      <c r="E163" s="38" t="n">
         <v>92.1</v>
       </c>
-      <c r="F163" s="37" t="n">
+      <c r="F163" s="38" t="n">
         <v>80.85</v>
       </c>
-      <c r="G163" s="37" t="n">
+      <c r="G163" s="38" t="n">
         <v>93.6</v>
       </c>
-      <c r="H163" s="37" t="n">
+      <c r="H163" s="38" t="n">
         <v>24.15</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="164">
-      <c r="A164" s="32" t="n">
+      <c r="A164" s="33" t="n">
         <v>154</v>
       </c>
       <c r="B164" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="C164" s="47" t="s">
+      <c r="C164" s="48" t="s">
         <v>321</v>
       </c>
       <c r="D164" s="27" t="n">
@@ -6280,7 +6309,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="165">
-      <c r="A165" s="32" t="n">
+      <c r="A165" s="33" t="n">
         <v>155</v>
       </c>
       <c r="B165" s="25" t="s">
@@ -6306,7 +6335,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="166">
-      <c r="A166" s="32" t="n">
+      <c r="A166" s="33" t="n">
         <v>156</v>
       </c>
       <c r="B166" s="25" t="s">
@@ -6332,7 +6361,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="167">
-      <c r="A167" s="32" t="n">
+      <c r="A167" s="33" t="n">
         <v>157</v>
       </c>
       <c r="B167" s="25" t="s">
@@ -6358,7 +6387,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="168">
-      <c r="A168" s="32" t="n">
+      <c r="A168" s="33" t="n">
         <v>158</v>
       </c>
       <c r="B168" s="25" t="s">
@@ -6367,30 +6396,30 @@
       <c r="C168" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="D168" s="37" t="n">
+      <c r="D168" s="38" t="n">
         <v>257.25</v>
       </c>
-      <c r="E168" s="37" t="n">
+      <c r="E168" s="38" t="n">
         <v>293.9</v>
       </c>
-      <c r="F168" s="37" t="n">
+      <c r="F168" s="38" t="n">
         <v>258.8</v>
       </c>
-      <c r="G168" s="37" t="n">
+      <c r="G168" s="38" t="n">
         <v>295.45</v>
       </c>
-      <c r="H168" s="37" t="n">
+      <c r="H168" s="38" t="n">
         <v>141.1</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="169">
-      <c r="A169" s="32" t="n">
+      <c r="A169" s="33" t="n">
         <v>159</v>
       </c>
       <c r="B169" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="C169" s="28" t="s">
+      <c r="C169" s="29" t="s">
         <v>331</v>
       </c>
       <c r="D169" s="27" t="n">
@@ -6410,13 +6439,13 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="170">
-      <c r="A170" s="32" t="n">
+      <c r="A170" s="33" t="n">
         <v>160</v>
       </c>
       <c r="B170" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C170" s="28" t="s">
+      <c r="C170" s="29" t="s">
         <v>333</v>
       </c>
       <c r="D170" s="27" t="n">
@@ -6436,7 +6465,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="171">
-      <c r="A171" s="32" t="n">
+      <c r="A171" s="33" t="n">
         <v>161</v>
       </c>
       <c r="B171" s="25" t="s">
@@ -6462,7 +6491,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="172">
-      <c r="A172" s="32" t="n">
+      <c r="A172" s="33" t="n">
         <v>162</v>
       </c>
       <c r="B172" s="25" t="s">
@@ -6488,33 +6517,33 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="173">
-      <c r="A173" s="32" t="n">
+      <c r="A173" s="33" t="n">
         <v>163</v>
       </c>
-      <c r="B173" s="33" t="s">
+      <c r="B173" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="C173" s="38" t="s">
+      <c r="C173" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="D173" s="37" t="s">
+      <c r="D173" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E173" s="37" t="s">
+      <c r="E173" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F173" s="37" t="s">
+      <c r="F173" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="G173" s="37" t="s">
+      <c r="G173" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="H173" s="37" t="s">
+      <c r="H173" s="38" t="s">
         <v>25</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="174">
-      <c r="A174" s="32" t="n">
+      <c r="A174" s="33" t="n">
         <v>164</v>
       </c>
       <c r="B174" s="25" t="s">
@@ -6540,7 +6569,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="175">
-      <c r="A175" s="32" t="n">
+      <c r="A175" s="33" t="n">
         <v>165</v>
       </c>
       <c r="B175" s="25" t="s">
@@ -6566,7 +6595,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="176">
-      <c r="A176" s="32" t="n">
+      <c r="A176" s="33" t="n">
         <v>166</v>
       </c>
       <c r="B176" s="25" t="s">
@@ -6592,7 +6621,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="177">
-      <c r="A177" s="32" t="n">
+      <c r="A177" s="33" t="n">
         <v>167</v>
       </c>
       <c r="B177" s="25" t="s">
@@ -6618,7 +6647,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="178">
-      <c r="A178" s="32" t="n">
+      <c r="A178" s="33" t="n">
         <v>168</v>
       </c>
       <c r="B178" s="25" t="s">
@@ -6644,7 +6673,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="179">
-      <c r="A179" s="32" t="n">
+      <c r="A179" s="33" t="n">
         <v>169</v>
       </c>
       <c r="B179" s="25" t="s">
@@ -6670,13 +6699,13 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="180">
-      <c r="A180" s="32" t="n">
+      <c r="A180" s="33" t="n">
         <v>170</v>
       </c>
-      <c r="B180" s="48" t="s">
+      <c r="B180" s="49" t="s">
         <v>351</v>
       </c>
-      <c r="C180" s="49" t="s">
+      <c r="C180" s="50" t="s">
         <v>352</v>
       </c>
       <c r="D180" s="27" t="n">
@@ -6696,7 +6725,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="181">
-      <c r="A181" s="32" t="n">
+      <c r="A181" s="33" t="n">
         <v>171</v>
       </c>
       <c r="B181" s="25" t="s">
@@ -6722,7 +6751,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="182">
-      <c r="A182" s="32" t="n">
+      <c r="A182" s="33" t="n">
         <v>172</v>
       </c>
       <c r="B182" s="25" t="s">
@@ -6748,7 +6777,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="183">
-      <c r="A183" s="32" t="n">
+      <c r="A183" s="33" t="n">
         <v>173</v>
       </c>
       <c r="B183" s="25" t="s">
@@ -6774,7 +6803,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="184">
-      <c r="A184" s="32" t="n">
+      <c r="A184" s="33" t="n">
         <v>174</v>
       </c>
       <c r="B184" s="25" t="s">
@@ -6800,7 +6829,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="185">
-      <c r="A185" s="32" t="n">
+      <c r="A185" s="33" t="n">
         <v>175</v>
       </c>
       <c r="B185" s="25" t="s">
@@ -6826,13 +6855,13 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="186">
-      <c r="A186" s="32" t="n">
+      <c r="A186" s="33" t="n">
         <v>176</v>
       </c>
       <c r="B186" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="C186" s="50" t="s">
+      <c r="C186" s="51" t="s">
         <v>364</v>
       </c>
       <c r="D186" s="27" t="n">
@@ -6852,7 +6881,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="187">
-      <c r="A187" s="32" t="n">
+      <c r="A187" s="33" t="n">
         <v>177</v>
       </c>
       <c r="B187" s="13" t="s">
@@ -6878,7 +6907,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="188">
-      <c r="A188" s="32" t="n">
+      <c r="A188" s="33" t="n">
         <v>178</v>
       </c>
       <c r="B188" s="25" t="s">
@@ -6904,7 +6933,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="189">
-      <c r="A189" s="32" t="n">
+      <c r="A189" s="33" t="n">
         <v>179</v>
       </c>
       <c r="B189" s="25" t="s">
@@ -6930,7 +6959,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="190">
-      <c r="A190" s="32" t="n">
+      <c r="A190" s="33" t="n">
         <v>180</v>
       </c>
       <c r="B190" s="25" t="s">
@@ -6956,7 +6985,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="191">
-      <c r="A191" s="32" t="n">
+      <c r="A191" s="33" t="n">
         <v>181</v>
       </c>
       <c r="B191" s="25" t="s">
@@ -6982,7 +7011,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="192">
-      <c r="A192" s="32" t="n">
+      <c r="A192" s="33" t="n">
         <v>182</v>
       </c>
       <c r="B192" s="25" t="s">
@@ -7008,7 +7037,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="193">
-      <c r="A193" s="32" t="n">
+      <c r="A193" s="33" t="n">
         <v>183</v>
       </c>
       <c r="B193" s="25" t="s">
@@ -7034,7 +7063,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="194">
-      <c r="A194" s="32" t="n">
+      <c r="A194" s="33" t="n">
         <v>184</v>
       </c>
       <c r="B194" s="25" t="s">
@@ -7060,7 +7089,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="195">
-      <c r="A195" s="32" t="n">
+      <c r="A195" s="33" t="n">
         <v>185</v>
       </c>
       <c r="B195" s="25" t="s">
@@ -7086,7 +7115,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="196">
-      <c r="A196" s="32" t="n">
+      <c r="A196" s="33" t="n">
         <v>186</v>
       </c>
       <c r="B196" s="25" t="s">
@@ -7112,7 +7141,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="197">
-      <c r="A197" s="32" t="n">
+      <c r="A197" s="33" t="n">
         <v>187</v>
       </c>
       <c r="B197" s="25" t="s">
@@ -7138,7 +7167,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="198">
-      <c r="A198" s="32" t="n">
+      <c r="A198" s="33" t="n">
         <v>188</v>
       </c>
       <c r="B198" s="25" t="s">
@@ -7164,13 +7193,13 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="199">
-      <c r="A199" s="32" t="n">
+      <c r="A199" s="33" t="n">
         <v>189</v>
       </c>
       <c r="B199" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C199" s="51" t="s">
+      <c r="C199" s="52" t="s">
         <v>390</v>
       </c>
       <c r="D199" s="27" t="n">
@@ -7190,7 +7219,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="200">
-      <c r="A200" s="32" t="n">
+      <c r="A200" s="33" t="n">
         <v>190</v>
       </c>
       <c r="B200" s="25" t="s">
@@ -7216,7 +7245,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="201">
-      <c r="A201" s="32" t="n">
+      <c r="A201" s="33" t="n">
         <v>191</v>
       </c>
       <c r="B201" s="25" t="s">
@@ -7242,13 +7271,13 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="202">
-      <c r="A202" s="32" t="n">
+      <c r="A202" s="33" t="n">
         <v>192</v>
       </c>
       <c r="B202" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="C202" s="47" t="s">
+      <c r="C202" s="48" t="s">
         <v>396</v>
       </c>
       <c r="D202" s="27" t="n">
@@ -7266,10 +7295,10 @@
       <c r="H202" s="27" t="n">
         <v>32.15</v>
       </c>
-      <c r="M202" s="52" t="n"/>
+      <c r="M202" s="53" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="203">
-      <c r="A203" s="32" t="n">
+      <c r="A203" s="33" t="n">
         <v>193</v>
       </c>
       <c r="B203" s="25" t="s">
@@ -7295,7 +7324,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="204">
-      <c r="A204" s="32" t="n">
+      <c r="A204" s="33" t="n">
         <v>194</v>
       </c>
       <c r="B204" s="25" t="s">
@@ -7321,7 +7350,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="205">
-      <c r="A205" s="32" t="n">
+      <c r="A205" s="33" t="n">
         <v>195</v>
       </c>
       <c r="B205" s="25" t="s">
@@ -7347,7 +7376,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="206">
-      <c r="A206" s="32" t="n">
+      <c r="A206" s="33" t="n">
         <v>196</v>
       </c>
       <c r="B206" s="25" t="s">
@@ -7373,13 +7402,13 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="207">
-      <c r="A207" s="32" t="n">
+      <c r="A207" s="33" t="n">
         <v>197</v>
       </c>
       <c r="B207" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="C207" s="51" t="s">
+      <c r="C207" s="52" t="s">
         <v>406</v>
       </c>
       <c r="D207" s="27" t="n">
@@ -7399,7 +7428,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="208">
-      <c r="A208" s="32" t="n">
+      <c r="A208" s="33" t="n">
         <v>198</v>
       </c>
       <c r="B208" s="25" t="s">
@@ -7425,7 +7454,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="209">
-      <c r="A209" s="32" t="n">
+      <c r="A209" s="33" t="n">
         <v>199</v>
       </c>
       <c r="B209" s="25" t="s">
@@ -7451,7 +7480,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="210">
-      <c r="A210" s="32" t="n">
+      <c r="A210" s="33" t="n">
         <v>200</v>
       </c>
       <c r="B210" s="25" t="s">
@@ -7477,7 +7506,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="211">
-      <c r="A211" s="32" t="n">
+      <c r="A211" s="33" t="n">
         <v>201</v>
       </c>
       <c r="B211" s="25" t="s">
@@ -7503,7 +7532,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="212">
-      <c r="A212" s="32" t="n">
+      <c r="A212" s="33" t="n">
         <v>202</v>
       </c>
       <c r="B212" s="25" t="s">
@@ -7529,7 +7558,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="213">
-      <c r="A213" s="32" t="n">
+      <c r="A213" s="33" t="n">
         <v>203</v>
       </c>
       <c r="B213" s="25" t="s">
@@ -7555,7 +7584,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="214">
-      <c r="A214" s="32" t="n">
+      <c r="A214" s="33" t="n">
         <v>204</v>
       </c>
       <c r="B214" s="25" t="s">
@@ -7581,7 +7610,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="215">
-      <c r="A215" s="32" t="n">
+      <c r="A215" s="33" t="n">
         <v>205</v>
       </c>
       <c r="B215" s="25" t="s">
@@ -7607,7 +7636,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="216">
-      <c r="A216" s="32" t="n">
+      <c r="A216" s="33" t="n">
         <v>206</v>
       </c>
       <c r="B216" s="25" t="s">
@@ -7633,7 +7662,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="217">
-      <c r="A217" s="32" t="n">
+      <c r="A217" s="33" t="n">
         <v>207</v>
       </c>
       <c r="B217" s="25" t="s">
@@ -7714,15 +7743,15 @@
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
-      <c r="A1" s="53" t="n"/>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="54" t="n"/>
+      <c r="B1" s="55" t="s">
         <v>427</v>
       </c>
-      <c r="C1" s="55" t="s"/>
-      <c r="D1" s="55" t="s"/>
-      <c r="E1" s="55" t="s"/>
-      <c r="F1" s="55" t="s"/>
-      <c r="G1" s="56" t="s"/>
+      <c r="C1" s="56" t="s"/>
+      <c r="D1" s="56" t="s"/>
+      <c r="E1" s="56" t="s"/>
+      <c r="F1" s="56" t="s"/>
+      <c r="G1" s="57" t="s"/>
       <c r="H1" s="4" t="n"/>
       <c r="I1" s="4" t="n"/>
       <c r="J1" s="4" t="n"/>
@@ -7780,17 +7809,17 @@
       <c r="BJ1" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="47.2499923706055" outlineLevel="0" r="2">
-      <c r="A2" s="32" t="n">
+      <c r="A2" s="33" t="n">
         <v>208</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="58" t="s"/>
-      <c r="D2" s="58" t="s"/>
-      <c r="E2" s="58" t="s"/>
-      <c r="F2" s="58" t="s"/>
-      <c r="G2" s="59" t="s"/>
+      <c r="C2" s="59" t="s"/>
+      <c r="D2" s="59" t="s"/>
+      <c r="E2" s="59" t="s"/>
+      <c r="F2" s="59" t="s"/>
+      <c r="G2" s="60" t="s"/>
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
@@ -7848,17 +7877,17 @@
       <c r="BJ2" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="32" t="n">
+      <c r="A3" s="33" t="n">
         <v>209</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="58" t="s">
         <v>429</v>
       </c>
-      <c r="C3" s="58" t="s"/>
-      <c r="D3" s="58" t="s"/>
-      <c r="E3" s="58" t="s"/>
-      <c r="F3" s="59" t="s"/>
-      <c r="G3" s="60" t="n">
+      <c r="C3" s="59" t="s"/>
+      <c r="D3" s="59" t="s"/>
+      <c r="E3" s="59" t="s"/>
+      <c r="F3" s="60" t="s"/>
+      <c r="G3" s="61" t="n">
         <v>7.45</v>
       </c>
       <c r="H3" s="4" t="n"/>
@@ -7918,17 +7947,17 @@
       <c r="BJ3" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="32" t="n">
+      <c r="A4" s="33" t="n">
         <v>210</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="58" t="s">
         <v>430</v>
       </c>
-      <c r="C4" s="58" t="s"/>
-      <c r="D4" s="58" t="s"/>
-      <c r="E4" s="58" t="s"/>
-      <c r="F4" s="59" t="s"/>
-      <c r="G4" s="60" t="n">
+      <c r="C4" s="59" t="s"/>
+      <c r="D4" s="59" t="s"/>
+      <c r="E4" s="59" t="s"/>
+      <c r="F4" s="60" t="s"/>
+      <c r="G4" s="61" t="n">
         <v>0.33</v>
       </c>
       <c r="H4" s="4" t="n"/>
@@ -7988,17 +8017,17 @@
       <c r="BJ4" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="47.0068206787109" outlineLevel="0" r="5">
-      <c r="A5" s="32" t="n">
+      <c r="A5" s="33" t="n">
         <v>211</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="58" t="s">
         <v>431</v>
       </c>
-      <c r="C5" s="58" t="s"/>
-      <c r="D5" s="58" t="s"/>
-      <c r="E5" s="58" t="s"/>
-      <c r="F5" s="58" t="s"/>
-      <c r="G5" s="59" t="s"/>
+      <c r="C5" s="59" t="s"/>
+      <c r="D5" s="59" t="s"/>
+      <c r="E5" s="59" t="s"/>
+      <c r="F5" s="59" t="s"/>
+      <c r="G5" s="60" t="s"/>
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
@@ -8056,17 +8085,17 @@
       <c r="BJ5" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="55.4999847412109" outlineLevel="0" r="6">
-      <c r="A6" s="32" t="n">
+      <c r="A6" s="33" t="n">
         <v>212</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="58" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="58" t="s"/>
-      <c r="D6" s="58" t="s"/>
-      <c r="E6" s="58" t="s"/>
-      <c r="F6" s="58" t="s"/>
-      <c r="G6" s="59" t="s"/>
+      <c r="C6" s="59" t="s"/>
+      <c r="D6" s="59" t="s"/>
+      <c r="E6" s="59" t="s"/>
+      <c r="F6" s="59" t="s"/>
+      <c r="G6" s="60" t="s"/>
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
@@ -8124,17 +8153,17 @@
       <c r="BJ6" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="32" t="n">
+      <c r="A7" s="33" t="n">
         <v>213</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="58" t="s">
         <v>433</v>
       </c>
-      <c r="C7" s="58" t="s"/>
-      <c r="D7" s="58" t="s"/>
-      <c r="E7" s="58" t="s"/>
-      <c r="F7" s="58" t="s"/>
-      <c r="G7" s="59" t="s"/>
+      <c r="C7" s="59" t="s"/>
+      <c r="D7" s="59" t="s"/>
+      <c r="E7" s="59" t="s"/>
+      <c r="F7" s="59" t="s"/>
+      <c r="G7" s="60" t="s"/>
       <c r="H7" s="4" t="n"/>
       <c r="I7" s="4" t="n"/>
       <c r="J7" s="4" t="n"/>
@@ -8192,17 +8221,17 @@
       <c r="BJ7" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="32" t="n">
+      <c r="A8" s="33" t="n">
         <v>214</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="C8" s="62" t="s"/>
-      <c r="D8" s="62" t="s"/>
-      <c r="E8" s="62" t="s"/>
-      <c r="F8" s="63" t="s"/>
-      <c r="G8" s="64" t="n">
+      <c r="C8" s="63" t="s"/>
+      <c r="D8" s="63" t="s"/>
+      <c r="E8" s="63" t="s"/>
+      <c r="F8" s="64" t="s"/>
+      <c r="G8" s="65" t="n">
         <v>0.03</v>
       </c>
       <c r="H8" s="4" t="n"/>
@@ -8262,17 +8291,17 @@
       <c r="BJ8" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="9">
-      <c r="A9" s="32" t="n">
+      <c r="A9" s="33" t="n">
         <v>215</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="58" t="s">
         <v>435</v>
       </c>
-      <c r="C9" s="58" t="s"/>
-      <c r="D9" s="58" t="s"/>
-      <c r="E9" s="58" t="s"/>
-      <c r="F9" s="58" t="s"/>
-      <c r="G9" s="59" t="s"/>
+      <c r="C9" s="59" t="s"/>
+      <c r="D9" s="59" t="s"/>
+      <c r="E9" s="59" t="s"/>
+      <c r="F9" s="59" t="s"/>
+      <c r="G9" s="60" t="s"/>
       <c r="H9" s="4" t="n"/>
       <c r="I9" s="4" t="n"/>
       <c r="J9" s="4" t="n"/>
@@ -8330,17 +8359,17 @@
       <c r="BJ9" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="36.7616882324219" outlineLevel="0" r="10">
-      <c r="A10" s="32" t="n">
+      <c r="A10" s="33" t="n">
         <v>216</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="58" t="s">
         <v>436</v>
       </c>
-      <c r="C10" s="58" t="s"/>
-      <c r="D10" s="58" t="s"/>
-      <c r="E10" s="58" t="s"/>
-      <c r="F10" s="58" t="s"/>
-      <c r="G10" s="59" t="s"/>
+      <c r="C10" s="59" t="s"/>
+      <c r="D10" s="59" t="s"/>
+      <c r="E10" s="59" t="s"/>
+      <c r="F10" s="59" t="s"/>
+      <c r="G10" s="60" t="s"/>
       <c r="H10" s="4" t="n"/>
       <c r="I10" s="4" t="n"/>
       <c r="J10" s="4" t="n"/>

--- a/calc/files/ems_int.xlsx
+++ b/calc/files/ems_int.xlsx
@@ -1696,7 +1696,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left"/>
@@ -1777,7 +1777,6 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="3" fontId="6" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2117,7 +2116,7 @@
     <col customWidth="true" hidden="true" max="2" min="2" outlineLevel="0" style="1" width="14.3750505595425"/>
     <col customWidth="true" max="3" min="3" outlineLevel="0" style="2" width="29.4547581118144"/>
     <col customWidth="true" max="8" min="4" outlineLevel="0" style="3" width="10.5698894008421"/>
-    <col customWidth="true" max="9" min="9" outlineLevel="0" style="4" width="3.66422847449152"/>
+    <col customWidth="true" max="9" min="9" outlineLevel="0" style="4" width="6.29889871124128"/>
     <col bestFit="true" customWidth="true" max="16384" min="10" outlineLevel="0" style="4" width="12.5429361531306"/>
   </cols>
   <sheetData>
@@ -2248,11 +2247,11 @@
       <c r="H11" s="27" t="n">
         <v>52.75</v>
       </c>
-      <c r="J11" s="28" t="n">
+      <c r="J11" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D11*1.2</f>
         <v>113.58</v>
       </c>
-      <c r="K11" s="28" t="n">
+      <c r="K11" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E11*1.2</f>
         <v>136.38</v>
       </c>
@@ -2282,19 +2281,19 @@
       <c r="H12" s="27" t="n">
         <v>8.55</v>
       </c>
-      <c r="J12" s="28" t="n">
+      <c r="J12" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D12*1.2</f>
         <v>73.25999999999999</v>
       </c>
-      <c r="K12" s="28" t="n">
+      <c r="K12" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E12*1.2</f>
         <v>78.71999999999998</v>
       </c>
-      <c r="L12" s="28" t="n">
+      <c r="L12" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F12*1.2</f>
         <v>75.05999999999999</v>
       </c>
-      <c r="M12" s="28" t="n">
+      <c r="M12" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G12*1.2</f>
         <v>80.52</v>
       </c>
@@ -2570,7 +2569,7 @@
       <c r="B23" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="28" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="27" t="s">
@@ -2778,7 +2777,7 @@
       <c r="B31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="27" t="n">
@@ -2830,7 +2829,7 @@
       <c r="B33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="30" t="s">
         <v>59</v>
       </c>
       <c r="D33" s="27" t="n">
@@ -2926,6 +2925,26 @@
       <c r="H36" s="27" t="n">
         <v>51.15</v>
       </c>
+      <c r="I36" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D36*1.2</f>
+        <v>111.41999999999999</v>
+      </c>
+      <c r="J36" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E36*1.2</f>
+        <v>144.11999999999998</v>
+      </c>
+      <c r="K36" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F36*1.2</f>
+        <v>111.41999999999999</v>
+      </c>
+      <c r="L36" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G36*1.2</f>
+        <v>145.79999999999998</v>
+      </c>
+      <c r="M36" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">(G36+H36)*1.2</f>
+        <v>207.18</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="37">
       <c r="A37" s="13" t="n">
@@ -2934,7 +2953,7 @@
       <c r="B37" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="30" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="27" t="n">
@@ -2960,7 +2979,7 @@
       <c r="B38" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="30" t="s">
         <v>69</v>
       </c>
       <c r="D38" s="27" t="n">
@@ -3090,7 +3109,7 @@
       <c r="B43" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="31" t="s">
         <v>79</v>
       </c>
       <c r="D43" s="27" t="n">
@@ -3116,7 +3135,7 @@
       <c r="B44" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="28" t="s">
         <v>81</v>
       </c>
       <c r="D44" s="27" t="n">
@@ -3142,7 +3161,7 @@
       <c r="B45" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="30" t="s">
         <v>83</v>
       </c>
       <c r="D45" s="27" t="s">
@@ -3168,7 +3187,7 @@
       <c r="B46" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="30" t="s">
         <v>86</v>
       </c>
       <c r="D46" s="27" t="n">
@@ -3194,7 +3213,7 @@
       <c r="B47" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="30" t="s">
         <v>88</v>
       </c>
       <c r="D47" s="27" t="n">
@@ -3422,10 +3441,10 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="56">
-      <c r="A56" s="33" t="n">
+      <c r="A56" s="32" t="n">
         <v>46</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="33" t="s">
         <v>105</v>
       </c>
       <c r="C56" s="26" t="s">
@@ -3447,7 +3466,7 @@
         <v>38.95</v>
       </c>
     </row>
-    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="57" s="35">
+    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="57" s="34">
       <c r="A57" s="13" t="n">
         <v>47</v>
       </c>
@@ -3590,19 +3609,19 @@
       <c r="C60" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="36" t="n">
+      <c r="D60" s="35" t="n">
         <v>68.9</v>
       </c>
-      <c r="E60" s="37" t="n">
+      <c r="E60" s="36" t="n">
         <v>74.55</v>
       </c>
-      <c r="F60" s="37" t="n">
+      <c r="F60" s="36" t="n">
         <v>71.35</v>
       </c>
-      <c r="G60" s="37" t="n">
+      <c r="G60" s="36" t="n">
         <v>75.9</v>
       </c>
-      <c r="H60" s="37" t="n">
+      <c r="H60" s="36" t="n">
         <v>13.8</v>
       </c>
     </row>
@@ -3659,28 +3678,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="63">
-      <c r="A63" s="33" t="n">
+      <c r="A63" s="32" t="n">
         <v>53</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="D63" s="38" t="s">
+      <c r="D63" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="E63" s="38" t="s">
+      <c r="E63" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="F63" s="38" t="s">
+      <c r="F63" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G63" s="38" t="s">
+      <c r="G63" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="H63" s="38" t="s">
+      <c r="H63" s="37" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3691,7 +3710,7 @@
       <c r="B64" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="28" t="s">
         <v>122</v>
       </c>
       <c r="D64" s="27" t="s">
@@ -3769,7 +3788,7 @@
       <c r="B67" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="39" t="s">
+      <c r="C67" s="38" t="s">
         <v>128</v>
       </c>
       <c r="D67" s="27" t="n">
@@ -3795,7 +3814,7 @@
       <c r="B68" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="38" t="s">
         <v>130</v>
       </c>
       <c r="D68" s="27" t="n">
@@ -4084,19 +4103,19 @@
       <c r="C79" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="D79" s="36" t="n">
+      <c r="D79" s="35" t="n">
         <v>101.9</v>
       </c>
-      <c r="E79" s="37" t="n">
+      <c r="E79" s="36" t="n">
         <v>110.4</v>
       </c>
-      <c r="F79" s="37" t="n">
+      <c r="F79" s="36" t="n">
         <v>103.95</v>
       </c>
-      <c r="G79" s="37" t="n">
+      <c r="G79" s="36" t="n">
         <v>112.4</v>
       </c>
-      <c r="H79" s="37" t="n">
+      <c r="H79" s="36" t="n">
         <v>15.3</v>
       </c>
     </row>
@@ -4107,22 +4126,22 @@
       <c r="B80" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="C80" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D80" s="40" t="n">
+      <c r="D80" s="39" t="n">
         <v>60.95</v>
       </c>
-      <c r="E80" s="41" t="n">
+      <c r="E80" s="40" t="n">
         <v>65.45</v>
       </c>
-      <c r="F80" s="41" t="n">
+      <c r="F80" s="40" t="n">
         <v>61.9</v>
       </c>
-      <c r="G80" s="41" t="n">
+      <c r="G80" s="40" t="n">
         <v>67.95</v>
       </c>
-      <c r="H80" s="41" t="n">
+      <c r="H80" s="40" t="n">
         <v>13.45</v>
       </c>
     </row>
@@ -4133,7 +4152,7 @@
       <c r="B81" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C81" s="30" t="s">
         <v>156</v>
       </c>
       <c r="D81" s="27" t="n">
@@ -4445,7 +4464,7 @@
       <c r="B93" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="C93" s="29" t="s">
+      <c r="C93" s="28" t="s">
         <v>180</v>
       </c>
       <c r="D93" s="27" t="n">
@@ -4497,7 +4516,7 @@
       <c r="B95" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="C95" s="29" t="s">
+      <c r="C95" s="28" t="s">
         <v>184</v>
       </c>
       <c r="D95" s="27" t="n">
@@ -4523,7 +4542,7 @@
       <c r="B96" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C96" s="28" t="s">
         <v>186</v>
       </c>
       <c r="D96" s="27" t="n">
@@ -4549,7 +4568,7 @@
       <c r="B97" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C97" s="42" t="s">
+      <c r="C97" s="41" t="s">
         <v>188</v>
       </c>
       <c r="D97" s="27" t="n">
@@ -4627,7 +4646,7 @@
       <c r="B100" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="C100" s="31" t="s">
+      <c r="C100" s="30" t="s">
         <v>194</v>
       </c>
       <c r="D100" s="27" t="n">
@@ -4653,7 +4672,7 @@
       <c r="B101" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C101" s="29" t="s">
+      <c r="C101" s="28" t="s">
         <v>196</v>
       </c>
       <c r="D101" s="27" t="n">
@@ -4809,7 +4828,7 @@
       <c r="B107" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C107" s="29" t="s">
+      <c r="C107" s="28" t="s">
         <v>208</v>
       </c>
       <c r="D107" s="27" t="n">
@@ -5147,7 +5166,7 @@
       <c r="B120" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="C120" s="31" t="s">
+      <c r="C120" s="30" t="s">
         <v>234</v>
       </c>
       <c r="D120" s="27" t="n">
@@ -5173,7 +5192,7 @@
       <c r="B121" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="C121" s="29" t="s">
+      <c r="C121" s="28" t="s">
         <v>236</v>
       </c>
       <c r="D121" s="27" t="n">
@@ -5348,7 +5367,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="128" s="43">
+    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="128" s="42">
       <c r="A128" s="13" t="n">
         <v>118</v>
       </c>
@@ -5374,7 +5393,7 @@
         <v>33.95</v>
       </c>
     </row>
-    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="129" s="43">
+    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="129" s="42">
       <c r="A129" s="13" t="n">
         <v>119</v>
       </c>
@@ -5739,557 +5758,557 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="143">
-      <c r="A143" s="33" t="n">
+      <c r="A143" s="32" t="n">
         <v>133</v>
       </c>
-      <c r="B143" s="34" t="s">
+      <c r="B143" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="C143" s="29" t="s">
+      <c r="C143" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="D143" s="38" t="n">
+      <c r="D143" s="37" t="n">
         <v>71.65</v>
       </c>
-      <c r="E143" s="38" t="n">
+      <c r="E143" s="37" t="n">
         <v>83.15</v>
       </c>
-      <c r="F143" s="38" t="n">
+      <c r="F143" s="37" t="n">
         <v>74.2</v>
       </c>
-      <c r="G143" s="38" t="n">
+      <c r="G143" s="37" t="n">
         <v>82.2</v>
       </c>
-      <c r="H143" s="38" t="n">
+      <c r="H143" s="37" t="n">
         <v>23.05</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="144">
-      <c r="A144" s="33" t="n">
+      <c r="A144" s="32" t="n">
         <v>134</v>
       </c>
-      <c r="B144" s="34" t="s">
+      <c r="B144" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="C144" s="39" t="s">
+      <c r="C144" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="D144" s="38" t="n">
+      <c r="D144" s="37" t="n">
         <v>70.4</v>
       </c>
-      <c r="E144" s="38" t="n">
+      <c r="E144" s="37" t="n">
         <v>78.7</v>
       </c>
-      <c r="F144" s="38" t="n">
+      <c r="F144" s="37" t="n">
         <v>71.85</v>
       </c>
-      <c r="G144" s="38" t="n">
+      <c r="G144" s="37" t="n">
         <v>80.2</v>
       </c>
-      <c r="H144" s="38" t="n">
+      <c r="H144" s="37" t="n">
         <v>16.7</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="145">
-      <c r="A145" s="33" t="n">
+      <c r="A145" s="32" t="n">
         <v>135</v>
       </c>
-      <c r="B145" s="34" t="s">
+      <c r="B145" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="C145" s="39" t="s">
+      <c r="C145" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="D145" s="38" t="n">
+      <c r="D145" s="37" t="n">
         <v>57</v>
       </c>
-      <c r="E145" s="38" t="n">
+      <c r="E145" s="37" t="n">
         <v>65.3</v>
       </c>
-      <c r="F145" s="38" t="n">
+      <c r="F145" s="37" t="n">
         <v>58.45</v>
       </c>
-      <c r="G145" s="38" t="n">
+      <c r="G145" s="37" t="n">
         <v>66.8</v>
       </c>
-      <c r="H145" s="38" t="n">
+      <c r="H145" s="37" t="n">
         <v>18.65</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="146">
-      <c r="A146" s="33" t="n">
+      <c r="A146" s="32" t="n">
         <v>136</v>
       </c>
-      <c r="B146" s="34" t="s">
+      <c r="B146" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="C146" s="39" t="s">
+      <c r="C146" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="D146" s="38" t="n">
+      <c r="D146" s="37" t="n">
         <v>80.85</v>
       </c>
-      <c r="E146" s="38" t="n">
+      <c r="E146" s="37" t="n">
         <v>95.5</v>
       </c>
-      <c r="F146" s="38" t="n">
+      <c r="F146" s="37" t="n">
         <v>83.55</v>
       </c>
-      <c r="G146" s="38" t="n">
+      <c r="G146" s="37" t="n">
         <v>97.05</v>
       </c>
-      <c r="H146" s="38" t="n">
+      <c r="H146" s="37" t="n">
         <v>36.3</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="147">
-      <c r="A147" s="33" t="n">
+      <c r="A147" s="32" t="n">
         <v>137</v>
       </c>
-      <c r="B147" s="34" t="s">
+      <c r="B147" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="C147" s="29" t="s">
+      <c r="C147" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="D147" s="38" t="s">
+      <c r="D147" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="E147" s="38" t="s">
+      <c r="E147" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="F147" s="38" t="s">
+      <c r="F147" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G147" s="38" t="s">
+      <c r="G147" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="H147" s="38" t="s">
+      <c r="H147" s="37" t="s">
         <v>84</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="148">
-      <c r="A148" s="33" t="n">
+      <c r="A148" s="32" t="n">
         <v>138</v>
       </c>
-      <c r="B148" s="34" t="s">
+      <c r="B148" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="C148" s="39" t="s">
+      <c r="C148" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="D148" s="38" t="n">
+      <c r="D148" s="37" t="n">
         <v>68.85</v>
       </c>
-      <c r="E148" s="38" t="n">
+      <c r="E148" s="37" t="n">
         <v>91.85</v>
       </c>
-      <c r="F148" s="38" t="n">
+      <c r="F148" s="37" t="n">
         <v>71.15</v>
       </c>
-      <c r="G148" s="38" t="n">
+      <c r="G148" s="37" t="n">
         <v>94.25</v>
       </c>
-      <c r="H148" s="38" t="n">
+      <c r="H148" s="37" t="n">
         <v>43.5</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="149">
-      <c r="A149" s="33" t="n">
+      <c r="A149" s="32" t="n">
         <v>139</v>
       </c>
-      <c r="B149" s="34" t="s">
+      <c r="B149" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="C149" s="39" t="s">
+      <c r="C149" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="D149" s="38" t="n">
+      <c r="D149" s="37" t="n">
         <v>78.05</v>
       </c>
-      <c r="E149" s="38" t="n">
+      <c r="E149" s="37" t="n">
         <v>97.25</v>
       </c>
-      <c r="F149" s="38" t="n">
+      <c r="F149" s="37" t="n">
         <v>80.65</v>
       </c>
-      <c r="G149" s="38" t="n">
+      <c r="G149" s="37" t="n">
         <v>98.55</v>
       </c>
-      <c r="H149" s="38" t="n">
+      <c r="H149" s="37" t="n">
         <v>41.6</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="150">
-      <c r="A150" s="33" t="n">
+      <c r="A150" s="32" t="n">
         <v>140</v>
       </c>
-      <c r="B150" s="34" t="s">
+      <c r="B150" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="C150" s="39" t="s">
+      <c r="C150" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="D150" s="38" t="n">
+      <c r="D150" s="37" t="n">
         <v>50.5</v>
       </c>
-      <c r="E150" s="38" t="n">
+      <c r="E150" s="37" t="n">
         <v>54.05</v>
       </c>
-      <c r="F150" s="38" t="n">
+      <c r="F150" s="37" t="n">
         <v>53.5</v>
       </c>
-      <c r="G150" s="38" t="n">
+      <c r="G150" s="37" t="n">
         <v>56.85</v>
       </c>
-      <c r="H150" s="38" t="n">
+      <c r="H150" s="37" t="n">
         <v>4.1</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="151">
-      <c r="A151" s="33" t="n">
+      <c r="A151" s="32" t="n">
         <v>141</v>
       </c>
-      <c r="B151" s="34" t="s">
+      <c r="B151" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="C151" s="39" t="s">
+      <c r="C151" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="D151" s="44" t="n">
+      <c r="D151" s="43" t="n">
         <v>50.7</v>
       </c>
-      <c r="E151" s="45" t="n">
+      <c r="E151" s="44" t="n">
         <v>55.6</v>
       </c>
-      <c r="F151" s="45" t="n">
+      <c r="F151" s="44" t="n">
         <v>52.95</v>
       </c>
-      <c r="G151" s="45" t="n">
+      <c r="G151" s="44" t="n">
         <v>61.9</v>
       </c>
-      <c r="H151" s="45" t="n">
+      <c r="H151" s="44" t="n">
         <v>12.9</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="152">
-      <c r="A152" s="33" t="n">
+      <c r="A152" s="32" t="n">
         <v>142</v>
       </c>
-      <c r="B152" s="34" t="s">
+      <c r="B152" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="C152" s="46" t="s">
+      <c r="C152" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="D152" s="38" t="n">
+      <c r="D152" s="37" t="n">
         <v>57.05</v>
       </c>
-      <c r="E152" s="38" t="n">
+      <c r="E152" s="37" t="n">
         <v>59.45</v>
       </c>
-      <c r="F152" s="38" t="n">
+      <c r="F152" s="37" t="n">
         <v>67.45</v>
       </c>
-      <c r="G152" s="38" t="n">
+      <c r="G152" s="37" t="n">
         <v>69.9</v>
       </c>
-      <c r="H152" s="38" t="n">
+      <c r="H152" s="37" t="n">
         <v>4.25</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="153">
-      <c r="A153" s="33" t="n">
+      <c r="A153" s="32" t="n">
         <v>143</v>
       </c>
-      <c r="B153" s="33" t="s">
+      <c r="B153" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="C153" s="47" t="s">
+      <c r="C153" s="46" t="s">
         <v>300</v>
       </c>
-      <c r="D153" s="38" t="n">
+      <c r="D153" s="37" t="n">
         <v>38</v>
       </c>
-      <c r="E153" s="38" t="n">
+      <c r="E153" s="37" t="n">
         <v>39.35</v>
       </c>
-      <c r="F153" s="38" t="n">
+      <c r="F153" s="37" t="n">
         <v>39.6</v>
       </c>
-      <c r="G153" s="38" t="n">
+      <c r="G153" s="37" t="n">
         <v>40.95</v>
       </c>
-      <c r="H153" s="38" t="n">
+      <c r="H153" s="37" t="n">
         <v>2.85</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="154">
-      <c r="A154" s="33" t="n">
+      <c r="A154" s="32" t="n">
         <v>144</v>
       </c>
-      <c r="B154" s="33" t="s">
+      <c r="B154" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="C154" s="47" t="s">
+      <c r="C154" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="D154" s="38" t="n">
+      <c r="D154" s="37" t="n">
         <v>49</v>
       </c>
-      <c r="E154" s="38" t="n">
+      <c r="E154" s="37" t="n">
         <v>50.4</v>
       </c>
-      <c r="F154" s="38" t="n">
+      <c r="F154" s="37" t="n">
         <v>50.65</v>
       </c>
-      <c r="G154" s="38" t="n">
+      <c r="G154" s="37" t="n">
         <v>52</v>
       </c>
-      <c r="H154" s="38" t="n">
+      <c r="H154" s="37" t="n">
         <v>2.85</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="155">
-      <c r="A155" s="33" t="n">
+      <c r="A155" s="32" t="n">
         <v>145</v>
       </c>
-      <c r="B155" s="33" t="s">
+      <c r="B155" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="C155" s="47" t="s">
+      <c r="C155" s="46" t="s">
         <v>304</v>
       </c>
-      <c r="D155" s="38" t="n">
+      <c r="D155" s="37" t="n">
         <v>38.85</v>
       </c>
-      <c r="E155" s="38" t="n">
+      <c r="E155" s="37" t="n">
         <v>40.2</v>
       </c>
-      <c r="F155" s="38" t="n">
+      <c r="F155" s="37" t="n">
         <v>40.45</v>
       </c>
-      <c r="G155" s="38" t="n">
+      <c r="G155" s="37" t="n">
         <v>41.8</v>
       </c>
-      <c r="H155" s="38" t="n">
+      <c r="H155" s="37" t="n">
         <v>2.85</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="156">
-      <c r="A156" s="33" t="n">
+      <c r="A156" s="32" t="n">
         <v>146</v>
       </c>
-      <c r="B156" s="33" t="n"/>
-      <c r="C156" s="47" t="s">
+      <c r="B156" s="32" t="n"/>
+      <c r="C156" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="D156" s="38" t="n">
+      <c r="D156" s="37" t="n">
         <v>56.65</v>
       </c>
-      <c r="E156" s="38" t="n">
+      <c r="E156" s="37" t="n">
         <v>58.25</v>
       </c>
-      <c r="F156" s="38" t="n">
+      <c r="F156" s="37" t="n">
         <v>59.8</v>
       </c>
-      <c r="G156" s="38" t="n">
+      <c r="G156" s="37" t="n">
         <v>61.55</v>
       </c>
-      <c r="H156" s="38" t="n">
+      <c r="H156" s="37" t="n">
         <v>2.85</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="157">
-      <c r="A157" s="33" t="n">
+      <c r="A157" s="32" t="n">
         <v>147</v>
       </c>
-      <c r="B157" s="34" t="s">
+      <c r="B157" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="C157" s="39" t="s">
+      <c r="C157" s="38" t="s">
         <v>307</v>
       </c>
-      <c r="D157" s="38" t="n">
+      <c r="D157" s="37" t="n">
         <v>68.15</v>
       </c>
-      <c r="E157" s="38" t="n">
+      <c r="E157" s="37" t="n">
         <v>84.25</v>
       </c>
-      <c r="F157" s="38" t="n">
+      <c r="F157" s="37" t="n">
         <v>71.15</v>
       </c>
-      <c r="G157" s="38" t="n">
+      <c r="G157" s="37" t="n">
         <v>87.3</v>
       </c>
-      <c r="H157" s="38" t="n">
+      <c r="H157" s="37" t="n">
         <v>27.3</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="158">
-      <c r="A158" s="33" t="n">
+      <c r="A158" s="32" t="n">
         <v>148</v>
       </c>
-      <c r="B158" s="34" t="s">
+      <c r="B158" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="C158" s="39" t="s">
+      <c r="C158" s="38" t="s">
         <v>309</v>
       </c>
-      <c r="D158" s="38" t="n">
+      <c r="D158" s="37" t="n">
         <v>70.75</v>
       </c>
-      <c r="E158" s="38" t="n">
+      <c r="E158" s="37" t="n">
         <v>75.8</v>
       </c>
-      <c r="F158" s="38" t="n">
+      <c r="F158" s="37" t="n">
         <v>73.1</v>
       </c>
-      <c r="G158" s="38" t="n">
+      <c r="G158" s="37" t="n">
         <v>78.1</v>
       </c>
-      <c r="H158" s="38" t="n">
+      <c r="H158" s="37" t="n">
         <v>10.1</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="159">
-      <c r="A159" s="33" t="n">
+      <c r="A159" s="32" t="n">
         <v>149</v>
       </c>
-      <c r="B159" s="34" t="s">
+      <c r="B159" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="C159" s="39" t="s">
+      <c r="C159" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="D159" s="38" t="n">
+      <c r="D159" s="37" t="n">
         <v>86.7</v>
       </c>
-      <c r="E159" s="38" t="n">
+      <c r="E159" s="37" t="n">
         <v>111.35</v>
       </c>
-      <c r="F159" s="38" t="n">
+      <c r="F159" s="37" t="n">
         <v>88.2</v>
       </c>
-      <c r="G159" s="38" t="n">
+      <c r="G159" s="37" t="n">
         <v>112.85</v>
       </c>
-      <c r="H159" s="38" t="n">
+      <c r="H159" s="37" t="n">
         <v>49.3</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="160">
-      <c r="A160" s="33" t="n">
+      <c r="A160" s="32" t="n">
         <v>150</v>
       </c>
-      <c r="B160" s="34" t="s">
+      <c r="B160" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="C160" s="39" t="s">
+      <c r="C160" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="D160" s="38" t="n">
+      <c r="D160" s="37" t="n">
         <v>70</v>
       </c>
-      <c r="E160" s="38" t="n">
+      <c r="E160" s="37" t="n">
         <v>98.8</v>
       </c>
-      <c r="F160" s="38" t="n">
+      <c r="F160" s="37" t="n">
         <v>80</v>
       </c>
-      <c r="G160" s="38" t="n">
+      <c r="G160" s="37" t="n">
         <v>108.05</v>
       </c>
-      <c r="H160" s="38" t="n">
+      <c r="H160" s="37" t="n">
         <v>61.8</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="161">
-      <c r="A161" s="33" t="n">
+      <c r="A161" s="32" t="n">
         <v>151</v>
       </c>
-      <c r="B161" s="34" t="s">
+      <c r="B161" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="C161" s="39" t="s">
+      <c r="C161" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="D161" s="38" t="s">
+      <c r="D161" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E161" s="38" t="s">
+      <c r="E161" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F161" s="38" t="s">
+      <c r="F161" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G161" s="38" t="s">
+      <c r="G161" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H161" s="38" t="s">
+      <c r="H161" s="37" t="s">
         <v>25</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="162">
-      <c r="A162" s="33" t="n">
+      <c r="A162" s="32" t="n">
         <v>152</v>
       </c>
-      <c r="B162" s="34" t="s">
+      <c r="B162" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="C162" s="29" t="s">
+      <c r="C162" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="D162" s="38" t="n">
+      <c r="D162" s="37" t="n">
         <v>68.35</v>
       </c>
-      <c r="E162" s="38" t="n">
+      <c r="E162" s="37" t="n">
         <v>93.3</v>
       </c>
-      <c r="F162" s="38" t="n">
+      <c r="F162" s="37" t="n">
         <v>71.3</v>
       </c>
-      <c r="G162" s="38" t="n">
+      <c r="G162" s="37" t="n">
         <v>93.3</v>
       </c>
-      <c r="H162" s="38" t="n">
+      <c r="H162" s="37" t="n">
         <v>45.45</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="163">
-      <c r="A163" s="33" t="n">
+      <c r="A163" s="32" t="n">
         <v>153</v>
       </c>
-      <c r="B163" s="34" t="s">
+      <c r="B163" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="C163" s="39" t="s">
+      <c r="C163" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="D163" s="38" t="n">
+      <c r="D163" s="37" t="n">
         <v>79.35</v>
       </c>
-      <c r="E163" s="38" t="n">
+      <c r="E163" s="37" t="n">
         <v>92.1</v>
       </c>
-      <c r="F163" s="38" t="n">
+      <c r="F163" s="37" t="n">
         <v>80.85</v>
       </c>
-      <c r="G163" s="38" t="n">
+      <c r="G163" s="37" t="n">
         <v>93.6</v>
       </c>
-      <c r="H163" s="38" t="n">
+      <c r="H163" s="37" t="n">
         <v>24.15</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="164">
-      <c r="A164" s="33" t="n">
+      <c r="A164" s="32" t="n">
         <v>154</v>
       </c>
       <c r="B164" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="C164" s="48" t="s">
+      <c r="C164" s="47" t="s">
         <v>321</v>
       </c>
       <c r="D164" s="27" t="n">
@@ -6309,7 +6328,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="165">
-      <c r="A165" s="33" t="n">
+      <c r="A165" s="32" t="n">
         <v>155</v>
       </c>
       <c r="B165" s="25" t="s">
@@ -6335,7 +6354,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="166">
-      <c r="A166" s="33" t="n">
+      <c r="A166" s="32" t="n">
         <v>156</v>
       </c>
       <c r="B166" s="25" t="s">
@@ -6361,7 +6380,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="167">
-      <c r="A167" s="33" t="n">
+      <c r="A167" s="32" t="n">
         <v>157</v>
       </c>
       <c r="B167" s="25" t="s">
@@ -6387,7 +6406,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="168">
-      <c r="A168" s="33" t="n">
+      <c r="A168" s="32" t="n">
         <v>158</v>
       </c>
       <c r="B168" s="25" t="s">
@@ -6396,30 +6415,30 @@
       <c r="C168" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="D168" s="38" t="n">
+      <c r="D168" s="37" t="n">
         <v>257.25</v>
       </c>
-      <c r="E168" s="38" t="n">
+      <c r="E168" s="37" t="n">
         <v>293.9</v>
       </c>
-      <c r="F168" s="38" t="n">
+      <c r="F168" s="37" t="n">
         <v>258.8</v>
       </c>
-      <c r="G168" s="38" t="n">
+      <c r="G168" s="37" t="n">
         <v>295.45</v>
       </c>
-      <c r="H168" s="38" t="n">
+      <c r="H168" s="37" t="n">
         <v>141.1</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="169">
-      <c r="A169" s="33" t="n">
+      <c r="A169" s="32" t="n">
         <v>159</v>
       </c>
       <c r="B169" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="C169" s="29" t="s">
+      <c r="C169" s="28" t="s">
         <v>331</v>
       </c>
       <c r="D169" s="27" t="n">
@@ -6439,13 +6458,13 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="170">
-      <c r="A170" s="33" t="n">
+      <c r="A170" s="32" t="n">
         <v>160</v>
       </c>
       <c r="B170" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C170" s="29" t="s">
+      <c r="C170" s="28" t="s">
         <v>333</v>
       </c>
       <c r="D170" s="27" t="n">
@@ -6465,7 +6484,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="171">
-      <c r="A171" s="33" t="n">
+      <c r="A171" s="32" t="n">
         <v>161</v>
       </c>
       <c r="B171" s="25" t="s">
@@ -6491,7 +6510,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="172">
-      <c r="A172" s="33" t="n">
+      <c r="A172" s="32" t="n">
         <v>162</v>
       </c>
       <c r="B172" s="25" t="s">
@@ -6517,33 +6536,33 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="173">
-      <c r="A173" s="33" t="n">
+      <c r="A173" s="32" t="n">
         <v>163</v>
       </c>
-      <c r="B173" s="34" t="s">
+      <c r="B173" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="C173" s="39" t="s">
+      <c r="C173" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="D173" s="38" t="s">
+      <c r="D173" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E173" s="38" t="s">
+      <c r="E173" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F173" s="38" t="s">
+      <c r="F173" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G173" s="38" t="s">
+      <c r="G173" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H173" s="38" t="s">
+      <c r="H173" s="37" t="s">
         <v>25</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="174">
-      <c r="A174" s="33" t="n">
+      <c r="A174" s="32" t="n">
         <v>164</v>
       </c>
       <c r="B174" s="25" t="s">
@@ -6569,7 +6588,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="175">
-      <c r="A175" s="33" t="n">
+      <c r="A175" s="32" t="n">
         <v>165</v>
       </c>
       <c r="B175" s="25" t="s">
@@ -6595,7 +6614,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="176">
-      <c r="A176" s="33" t="n">
+      <c r="A176" s="32" t="n">
         <v>166</v>
       </c>
       <c r="B176" s="25" t="s">
@@ -6621,7 +6640,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="177">
-      <c r="A177" s="33" t="n">
+      <c r="A177" s="32" t="n">
         <v>167</v>
       </c>
       <c r="B177" s="25" t="s">
@@ -6647,7 +6666,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="178">
-      <c r="A178" s="33" t="n">
+      <c r="A178" s="32" t="n">
         <v>168</v>
       </c>
       <c r="B178" s="25" t="s">
@@ -6673,7 +6692,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="179">
-      <c r="A179" s="33" t="n">
+      <c r="A179" s="32" t="n">
         <v>169</v>
       </c>
       <c r="B179" s="25" t="s">
@@ -6699,13 +6718,13 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="180">
-      <c r="A180" s="33" t="n">
+      <c r="A180" s="32" t="n">
         <v>170</v>
       </c>
-      <c r="B180" s="49" t="s">
+      <c r="B180" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="C180" s="50" t="s">
+      <c r="C180" s="49" t="s">
         <v>352</v>
       </c>
       <c r="D180" s="27" t="n">
@@ -6725,7 +6744,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="181">
-      <c r="A181" s="33" t="n">
+      <c r="A181" s="32" t="n">
         <v>171</v>
       </c>
       <c r="B181" s="25" t="s">
@@ -6751,7 +6770,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="182">
-      <c r="A182" s="33" t="n">
+      <c r="A182" s="32" t="n">
         <v>172</v>
       </c>
       <c r="B182" s="25" t="s">
@@ -6777,7 +6796,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="183">
-      <c r="A183" s="33" t="n">
+      <c r="A183" s="32" t="n">
         <v>173</v>
       </c>
       <c r="B183" s="25" t="s">
@@ -6803,7 +6822,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="184">
-      <c r="A184" s="33" t="n">
+      <c r="A184" s="32" t="n">
         <v>174</v>
       </c>
       <c r="B184" s="25" t="s">
@@ -6829,7 +6848,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="185">
-      <c r="A185" s="33" t="n">
+      <c r="A185" s="32" t="n">
         <v>175</v>
       </c>
       <c r="B185" s="25" t="s">
@@ -6855,13 +6874,13 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="186">
-      <c r="A186" s="33" t="n">
+      <c r="A186" s="32" t="n">
         <v>176</v>
       </c>
       <c r="B186" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="C186" s="51" t="s">
+      <c r="C186" s="50" t="s">
         <v>364</v>
       </c>
       <c r="D186" s="27" t="n">
@@ -6881,7 +6900,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="187">
-      <c r="A187" s="33" t="n">
+      <c r="A187" s="32" t="n">
         <v>177</v>
       </c>
       <c r="B187" s="13" t="s">
@@ -6907,7 +6926,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="188">
-      <c r="A188" s="33" t="n">
+      <c r="A188" s="32" t="n">
         <v>178</v>
       </c>
       <c r="B188" s="25" t="s">
@@ -6933,7 +6952,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="189">
-      <c r="A189" s="33" t="n">
+      <c r="A189" s="32" t="n">
         <v>179</v>
       </c>
       <c r="B189" s="25" t="s">
@@ -6959,7 +6978,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="190">
-      <c r="A190" s="33" t="n">
+      <c r="A190" s="32" t="n">
         <v>180</v>
       </c>
       <c r="B190" s="25" t="s">
@@ -6985,7 +7004,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="191">
-      <c r="A191" s="33" t="n">
+      <c r="A191" s="32" t="n">
         <v>181</v>
       </c>
       <c r="B191" s="25" t="s">
@@ -7011,7 +7030,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="192">
-      <c r="A192" s="33" t="n">
+      <c r="A192" s="32" t="n">
         <v>182</v>
       </c>
       <c r="B192" s="25" t="s">
@@ -7037,7 +7056,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="193">
-      <c r="A193" s="33" t="n">
+      <c r="A193" s="32" t="n">
         <v>183</v>
       </c>
       <c r="B193" s="25" t="s">
@@ -7063,7 +7082,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="194">
-      <c r="A194" s="33" t="n">
+      <c r="A194" s="32" t="n">
         <v>184</v>
       </c>
       <c r="B194" s="25" t="s">
@@ -7089,7 +7108,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="195">
-      <c r="A195" s="33" t="n">
+      <c r="A195" s="32" t="n">
         <v>185</v>
       </c>
       <c r="B195" s="25" t="s">
@@ -7115,7 +7134,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="196">
-      <c r="A196" s="33" t="n">
+      <c r="A196" s="32" t="n">
         <v>186</v>
       </c>
       <c r="B196" s="25" t="s">
@@ -7141,7 +7160,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="197">
-      <c r="A197" s="33" t="n">
+      <c r="A197" s="32" t="n">
         <v>187</v>
       </c>
       <c r="B197" s="25" t="s">
@@ -7167,7 +7186,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="198">
-      <c r="A198" s="33" t="n">
+      <c r="A198" s="32" t="n">
         <v>188</v>
       </c>
       <c r="B198" s="25" t="s">
@@ -7193,13 +7212,13 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="199">
-      <c r="A199" s="33" t="n">
+      <c r="A199" s="32" t="n">
         <v>189</v>
       </c>
       <c r="B199" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C199" s="52" t="s">
+      <c r="C199" s="51" t="s">
         <v>390</v>
       </c>
       <c r="D199" s="27" t="n">
@@ -7219,7 +7238,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="200">
-      <c r="A200" s="33" t="n">
+      <c r="A200" s="32" t="n">
         <v>190</v>
       </c>
       <c r="B200" s="25" t="s">
@@ -7245,7 +7264,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="201">
-      <c r="A201" s="33" t="n">
+      <c r="A201" s="32" t="n">
         <v>191</v>
       </c>
       <c r="B201" s="25" t="s">
@@ -7271,13 +7290,13 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="202">
-      <c r="A202" s="33" t="n">
+      <c r="A202" s="32" t="n">
         <v>192</v>
       </c>
       <c r="B202" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="C202" s="48" t="s">
+      <c r="C202" s="47" t="s">
         <v>396</v>
       </c>
       <c r="D202" s="27" t="n">
@@ -7295,10 +7314,10 @@
       <c r="H202" s="27" t="n">
         <v>32.15</v>
       </c>
-      <c r="M202" s="53" t="n"/>
+      <c r="M202" s="52" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="203">
-      <c r="A203" s="33" t="n">
+      <c r="A203" s="32" t="n">
         <v>193</v>
       </c>
       <c r="B203" s="25" t="s">
@@ -7324,7 +7343,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="204">
-      <c r="A204" s="33" t="n">
+      <c r="A204" s="32" t="n">
         <v>194</v>
       </c>
       <c r="B204" s="25" t="s">
@@ -7350,7 +7369,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="205">
-      <c r="A205" s="33" t="n">
+      <c r="A205" s="32" t="n">
         <v>195</v>
       </c>
       <c r="B205" s="25" t="s">
@@ -7376,7 +7395,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="206">
-      <c r="A206" s="33" t="n">
+      <c r="A206" s="32" t="n">
         <v>196</v>
       </c>
       <c r="B206" s="25" t="s">
@@ -7402,13 +7421,13 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="207">
-      <c r="A207" s="33" t="n">
+      <c r="A207" s="32" t="n">
         <v>197</v>
       </c>
       <c r="B207" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="C207" s="52" t="s">
+      <c r="C207" s="51" t="s">
         <v>406</v>
       </c>
       <c r="D207" s="27" t="n">
@@ -7428,7 +7447,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="208">
-      <c r="A208" s="33" t="n">
+      <c r="A208" s="32" t="n">
         <v>198</v>
       </c>
       <c r="B208" s="25" t="s">
@@ -7454,7 +7473,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="209">
-      <c r="A209" s="33" t="n">
+      <c r="A209" s="32" t="n">
         <v>199</v>
       </c>
       <c r="B209" s="25" t="s">
@@ -7480,7 +7499,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="210">
-      <c r="A210" s="33" t="n">
+      <c r="A210" s="32" t="n">
         <v>200</v>
       </c>
       <c r="B210" s="25" t="s">
@@ -7506,7 +7525,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="211">
-      <c r="A211" s="33" t="n">
+      <c r="A211" s="32" t="n">
         <v>201</v>
       </c>
       <c r="B211" s="25" t="s">
@@ -7532,7 +7551,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="212">
-      <c r="A212" s="33" t="n">
+      <c r="A212" s="32" t="n">
         <v>202</v>
       </c>
       <c r="B212" s="25" t="s">
@@ -7558,7 +7577,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="213">
-      <c r="A213" s="33" t="n">
+      <c r="A213" s="32" t="n">
         <v>203</v>
       </c>
       <c r="B213" s="25" t="s">
@@ -7584,7 +7603,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="214">
-      <c r="A214" s="33" t="n">
+      <c r="A214" s="32" t="n">
         <v>204</v>
       </c>
       <c r="B214" s="25" t="s">
@@ -7610,7 +7629,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="215">
-      <c r="A215" s="33" t="n">
+      <c r="A215" s="32" t="n">
         <v>205</v>
       </c>
       <c r="B215" s="25" t="s">
@@ -7636,7 +7655,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="216">
-      <c r="A216" s="33" t="n">
+      <c r="A216" s="32" t="n">
         <v>206</v>
       </c>
       <c r="B216" s="25" t="s">
@@ -7662,7 +7681,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="217">
-      <c r="A217" s="33" t="n">
+      <c r="A217" s="32" t="n">
         <v>207</v>
       </c>
       <c r="B217" s="25" t="s">
@@ -7743,15 +7762,15 @@
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
-      <c r="A1" s="54" t="n"/>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="53" t="n"/>
+      <c r="B1" s="54" t="s">
         <v>427</v>
       </c>
-      <c r="C1" s="56" t="s"/>
-      <c r="D1" s="56" t="s"/>
-      <c r="E1" s="56" t="s"/>
-      <c r="F1" s="56" t="s"/>
-      <c r="G1" s="57" t="s"/>
+      <c r="C1" s="55" t="s"/>
+      <c r="D1" s="55" t="s"/>
+      <c r="E1" s="55" t="s"/>
+      <c r="F1" s="55" t="s"/>
+      <c r="G1" s="56" t="s"/>
       <c r="H1" s="4" t="n"/>
       <c r="I1" s="4" t="n"/>
       <c r="J1" s="4" t="n"/>
@@ -7809,17 +7828,17 @@
       <c r="BJ1" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="47.2499923706055" outlineLevel="0" r="2">
-      <c r="A2" s="33" t="n">
+      <c r="A2" s="32" t="n">
         <v>208</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="59" t="s"/>
-      <c r="D2" s="59" t="s"/>
-      <c r="E2" s="59" t="s"/>
-      <c r="F2" s="59" t="s"/>
-      <c r="G2" s="60" t="s"/>
+      <c r="C2" s="58" t="s"/>
+      <c r="D2" s="58" t="s"/>
+      <c r="E2" s="58" t="s"/>
+      <c r="F2" s="58" t="s"/>
+      <c r="G2" s="59" t="s"/>
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
@@ -7877,17 +7896,17 @@
       <c r="BJ2" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="33" t="n">
+      <c r="A3" s="32" t="n">
         <v>209</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="57" t="s">
         <v>429</v>
       </c>
-      <c r="C3" s="59" t="s"/>
-      <c r="D3" s="59" t="s"/>
-      <c r="E3" s="59" t="s"/>
-      <c r="F3" s="60" t="s"/>
-      <c r="G3" s="61" t="n">
+      <c r="C3" s="58" t="s"/>
+      <c r="D3" s="58" t="s"/>
+      <c r="E3" s="58" t="s"/>
+      <c r="F3" s="59" t="s"/>
+      <c r="G3" s="60" t="n">
         <v>7.45</v>
       </c>
       <c r="H3" s="4" t="n"/>
@@ -7947,17 +7966,17 @@
       <c r="BJ3" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="33" t="n">
+      <c r="A4" s="32" t="n">
         <v>210</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="57" t="s">
         <v>430</v>
       </c>
-      <c r="C4" s="59" t="s"/>
-      <c r="D4" s="59" t="s"/>
-      <c r="E4" s="59" t="s"/>
-      <c r="F4" s="60" t="s"/>
-      <c r="G4" s="61" t="n">
+      <c r="C4" s="58" t="s"/>
+      <c r="D4" s="58" t="s"/>
+      <c r="E4" s="58" t="s"/>
+      <c r="F4" s="59" t="s"/>
+      <c r="G4" s="60" t="n">
         <v>0.33</v>
       </c>
       <c r="H4" s="4" t="n"/>
@@ -8017,17 +8036,17 @@
       <c r="BJ4" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="47.0068206787109" outlineLevel="0" r="5">
-      <c r="A5" s="33" t="n">
+      <c r="A5" s="32" t="n">
         <v>211</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="57" t="s">
         <v>431</v>
       </c>
-      <c r="C5" s="59" t="s"/>
-      <c r="D5" s="59" t="s"/>
-      <c r="E5" s="59" t="s"/>
-      <c r="F5" s="59" t="s"/>
-      <c r="G5" s="60" t="s"/>
+      <c r="C5" s="58" t="s"/>
+      <c r="D5" s="58" t="s"/>
+      <c r="E5" s="58" t="s"/>
+      <c r="F5" s="58" t="s"/>
+      <c r="G5" s="59" t="s"/>
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
@@ -8085,17 +8104,17 @@
       <c r="BJ5" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="55.4999847412109" outlineLevel="0" r="6">
-      <c r="A6" s="33" t="n">
+      <c r="A6" s="32" t="n">
         <v>212</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="57" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="59" t="s"/>
-      <c r="D6" s="59" t="s"/>
-      <c r="E6" s="59" t="s"/>
-      <c r="F6" s="59" t="s"/>
-      <c r="G6" s="60" t="s"/>
+      <c r="C6" s="58" t="s"/>
+      <c r="D6" s="58" t="s"/>
+      <c r="E6" s="58" t="s"/>
+      <c r="F6" s="58" t="s"/>
+      <c r="G6" s="59" t="s"/>
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
@@ -8153,17 +8172,17 @@
       <c r="BJ6" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="33" t="n">
+      <c r="A7" s="32" t="n">
         <v>213</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="57" t="s">
         <v>433</v>
       </c>
-      <c r="C7" s="59" t="s"/>
-      <c r="D7" s="59" t="s"/>
-      <c r="E7" s="59" t="s"/>
-      <c r="F7" s="59" t="s"/>
-      <c r="G7" s="60" t="s"/>
+      <c r="C7" s="58" t="s"/>
+      <c r="D7" s="58" t="s"/>
+      <c r="E7" s="58" t="s"/>
+      <c r="F7" s="58" t="s"/>
+      <c r="G7" s="59" t="s"/>
       <c r="H7" s="4" t="n"/>
       <c r="I7" s="4" t="n"/>
       <c r="J7" s="4" t="n"/>
@@ -8221,17 +8240,17 @@
       <c r="BJ7" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="33" t="n">
+      <c r="A8" s="32" t="n">
         <v>214</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="61" t="s">
         <v>434</v>
       </c>
-      <c r="C8" s="63" t="s"/>
-      <c r="D8" s="63" t="s"/>
-      <c r="E8" s="63" t="s"/>
-      <c r="F8" s="64" t="s"/>
-      <c r="G8" s="65" t="n">
+      <c r="C8" s="62" t="s"/>
+      <c r="D8" s="62" t="s"/>
+      <c r="E8" s="62" t="s"/>
+      <c r="F8" s="63" t="s"/>
+      <c r="G8" s="64" t="n">
         <v>0.03</v>
       </c>
       <c r="H8" s="4" t="n"/>
@@ -8291,17 +8310,17 @@
       <c r="BJ8" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="9">
-      <c r="A9" s="33" t="n">
+      <c r="A9" s="32" t="n">
         <v>215</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="57" t="s">
         <v>435</v>
       </c>
-      <c r="C9" s="59" t="s"/>
-      <c r="D9" s="59" t="s"/>
-      <c r="E9" s="59" t="s"/>
-      <c r="F9" s="59" t="s"/>
-      <c r="G9" s="60" t="s"/>
+      <c r="C9" s="58" t="s"/>
+      <c r="D9" s="58" t="s"/>
+      <c r="E9" s="58" t="s"/>
+      <c r="F9" s="58" t="s"/>
+      <c r="G9" s="59" t="s"/>
       <c r="H9" s="4" t="n"/>
       <c r="I9" s="4" t="n"/>
       <c r="J9" s="4" t="n"/>
@@ -8358,18 +8377,18 @@
       <c r="BI9" s="4" t="n"/>
       <c r="BJ9" s="4" t="n"/>
     </row>
-    <row customHeight="true" ht="36.7616882324219" outlineLevel="0" r="10">
-      <c r="A10" s="33" t="n">
+    <row customHeight="true" ht="72.7587585449219" outlineLevel="0" r="10">
+      <c r="A10" s="32" t="n">
         <v>216</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="57" t="s">
         <v>436</v>
       </c>
-      <c r="C10" s="59" t="s"/>
-      <c r="D10" s="59" t="s"/>
-      <c r="E10" s="59" t="s"/>
-      <c r="F10" s="59" t="s"/>
-      <c r="G10" s="60" t="s"/>
+      <c r="C10" s="58" t="s"/>
+      <c r="D10" s="58" t="s"/>
+      <c r="E10" s="58" t="s"/>
+      <c r="F10" s="58" t="s"/>
+      <c r="G10" s="59" t="s"/>
       <c r="H10" s="4" t="n"/>
       <c r="I10" s="4" t="n"/>
       <c r="J10" s="4" t="n"/>

--- a/calc/files/ems_int.xlsx
+++ b/calc/files/ems_int.xlsx
@@ -1696,7 +1696,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left"/>
@@ -1786,6 +1786,9 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="3" fontId="6" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
@@ -1820,6 +1823,9 @@
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="3" fontId="1" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1844,9 +1850,6 @@
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="3" fontId="6" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="right"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="2" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment vertical="center" wrapText="true"/>
@@ -2106,17 +2109,17 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:BK217"/>
+  <dimension ref="A1:BE217"/>
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="12.5429361531306" defaultRowHeight="12.75" zeroHeight="false"/>
   <cols>
-    <col customWidth="true" max="1" min="1" outlineLevel="0" style="1" width="6.78492194756965"/>
+    <col customWidth="true" max="1" min="1" outlineLevel="0" style="1" width="7.98226123419924"/>
     <col customWidth="true" hidden="true" max="2" min="2" outlineLevel="0" style="1" width="14.3750505595425"/>
     <col customWidth="true" max="3" min="3" outlineLevel="0" style="2" width="29.4547581118144"/>
     <col customWidth="true" max="8" min="4" outlineLevel="0" style="3" width="10.5698894008421"/>
-    <col customWidth="true" max="9" min="9" outlineLevel="0" style="4" width="6.29889871124128"/>
+    <col customWidth="true" max="9" min="9" outlineLevel="0" style="3" width="7.49623799787087"/>
     <col bestFit="true" customWidth="true" max="16384" min="10" outlineLevel="0" style="4" width="12.5429361531306"/>
   </cols>
   <sheetData>
@@ -2247,13 +2250,8 @@
       <c r="H11" s="27" t="n">
         <v>52.75</v>
       </c>
-      <c r="J11" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D11*1.2</f>
-        <v>113.58</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E11*1.2</f>
-        <v>136.38</v>
+      <c r="I11" s="3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="12">
@@ -2281,25 +2279,8 @@
       <c r="H12" s="27" t="n">
         <v>8.55</v>
       </c>
-      <c r="J12" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D12*1.2</f>
-        <v>73.25999999999999</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E12*1.2</f>
-        <v>78.71999999999998</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F12*1.2</f>
-        <v>75.05999999999999</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G12*1.2</f>
-        <v>80.52</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">(G12+H12)*1.2</f>
-        <v>90.77999999999999</v>
+      <c r="I12" s="3" t="n">
+        <v>29</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="13">
@@ -2327,6 +2308,9 @@
       <c r="H13" s="27" t="n">
         <v>7.3</v>
       </c>
+      <c r="I13" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="13" t="n">
@@ -2353,6 +2337,9 @@
       <c r="H14" s="27" t="n">
         <v>25.5</v>
       </c>
+      <c r="I14" s="3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="13" t="n">
@@ -2379,6 +2366,9 @@
       <c r="H15" s="27" t="n">
         <v>22.3</v>
       </c>
+      <c r="I15" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="13" t="n">
@@ -2405,6 +2395,9 @@
       <c r="H16" s="27" t="s">
         <v>25</v>
       </c>
+      <c r="I16" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="13" t="n">
@@ -2431,6 +2424,9 @@
       <c r="H17" s="27" t="n">
         <v>39.1</v>
       </c>
+      <c r="I17" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="13" t="n">
@@ -2457,6 +2453,9 @@
       <c r="H18" s="27" t="n">
         <v>32.75</v>
       </c>
+      <c r="I18" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="13" t="n">
@@ -2483,6 +2482,9 @@
       <c r="H19" s="27" t="n">
         <v>43.8</v>
       </c>
+      <c r="I19" s="3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="20">
       <c r="A20" s="13" t="n">
@@ -2509,6 +2511,9 @@
       <c r="H20" s="27" t="n">
         <v>13.35</v>
       </c>
+      <c r="I20" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="21">
       <c r="A21" s="13" t="n">
@@ -2535,6 +2540,9 @@
       <c r="H21" s="27" t="n">
         <v>39.65</v>
       </c>
+      <c r="I21" s="3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="22">
       <c r="A22" s="13" t="n">
@@ -2561,6 +2569,9 @@
       <c r="H22" s="27" t="n">
         <v>14.75</v>
       </c>
+      <c r="I22" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="23">
       <c r="A23" s="13" t="n">
@@ -2587,6 +2598,9 @@
       <c r="H23" s="27" t="s">
         <v>25</v>
       </c>
+      <c r="I23" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="24">
       <c r="A24" s="13" t="n">
@@ -2613,6 +2627,9 @@
       <c r="H24" s="27" t="n">
         <v>23.2</v>
       </c>
+      <c r="I24" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="25">
       <c r="A25" s="13" t="n">
@@ -2639,6 +2656,9 @@
       <c r="H25" s="27" t="n">
         <v>29.7</v>
       </c>
+      <c r="I25" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="26">
       <c r="A26" s="13" t="n">
@@ -2665,6 +2685,9 @@
       <c r="H26" s="27" t="n">
         <v>27.2</v>
       </c>
+      <c r="I26" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="27">
       <c r="A27" s="13" t="n">
@@ -2691,6 +2714,9 @@
       <c r="H27" s="27" t="n">
         <v>40.45</v>
       </c>
+      <c r="I27" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="28">
       <c r="A28" s="13" t="n">
@@ -2717,6 +2743,9 @@
       <c r="H28" s="27" t="n">
         <v>9.7</v>
       </c>
+      <c r="I28" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="29">
       <c r="A29" s="13" t="n">
@@ -2743,6 +2772,9 @@
       <c r="H29" s="27" t="n">
         <v>32.6</v>
       </c>
+      <c r="I29" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="30">
       <c r="A30" s="13" t="n">
@@ -2769,6 +2801,9 @@
       <c r="H30" s="27" t="n">
         <v>29.3</v>
       </c>
+      <c r="I30" s="3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row customHeight="true" ht="18.75" outlineLevel="0" r="31">
       <c r="A31" s="13" t="n">
@@ -2795,6 +2830,9 @@
       <c r="H31" s="27" t="n">
         <v>47.45</v>
       </c>
+      <c r="I31" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="32">
       <c r="A32" s="13" t="n">
@@ -2821,6 +2859,9 @@
       <c r="H32" s="27" t="n">
         <v>13.4</v>
       </c>
+      <c r="I32" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="33">
       <c r="A33" s="13" t="n">
@@ -2847,6 +2888,9 @@
       <c r="H33" s="27" t="n">
         <v>46.85</v>
       </c>
+      <c r="I33" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="34">
       <c r="A34" s="13" t="n">
@@ -2873,6 +2917,9 @@
       <c r="H34" s="27" t="n">
         <v>14.5</v>
       </c>
+      <c r="I34" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="35">
       <c r="A35" s="13" t="n">
@@ -2899,6 +2946,9 @@
       <c r="H35" s="27" t="n">
         <v>35</v>
       </c>
+      <c r="I35" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="36">
       <c r="A36" s="13" t="n">
@@ -2925,25 +2975,8 @@
       <c r="H36" s="27" t="n">
         <v>51.15</v>
       </c>
-      <c r="I36" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D36*1.2</f>
-        <v>111.41999999999999</v>
-      </c>
-      <c r="J36" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E36*1.2</f>
-        <v>144.11999999999998</v>
-      </c>
-      <c r="K36" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F36*1.2</f>
-        <v>111.41999999999999</v>
-      </c>
-      <c r="L36" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G36*1.2</f>
-        <v>145.79999999999998</v>
-      </c>
-      <c r="M36" s="4" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">(G36+H36)*1.2</f>
-        <v>207.18</v>
+      <c r="I36" s="3" t="n">
+        <v>30</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="37">
@@ -2971,6 +3004,9 @@
       <c r="H37" s="27" t="n">
         <v>25.75</v>
       </c>
+      <c r="I37" s="31" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="38">
       <c r="A38" s="13" t="n">
@@ -2997,6 +3033,9 @@
       <c r="H38" s="27" t="n">
         <v>39.75</v>
       </c>
+      <c r="I38" s="31" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="39">
       <c r="A39" s="13" t="n">
@@ -3022,6 +3061,9 @@
       </c>
       <c r="H39" s="27" t="n">
         <v>33.2</v>
+      </c>
+      <c r="I39" s="31" t="n">
+        <v>29</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="40">
@@ -3049,6 +3091,9 @@
       <c r="H40" s="27" t="n">
         <v>41.65</v>
       </c>
+      <c r="I40" s="31" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="41">
       <c r="A41" s="13" t="n">
@@ -3075,6 +3120,9 @@
       <c r="H41" s="27" t="n">
         <v>54.9</v>
       </c>
+      <c r="I41" s="31" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="42">
       <c r="A42" s="13" t="n">
@@ -3101,6 +3149,9 @@
       <c r="H42" s="27" t="n">
         <v>10.1</v>
       </c>
+      <c r="I42" s="31" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="42.75" outlineLevel="0" r="43">
       <c r="A43" s="13" t="n">
@@ -3109,7 +3160,7 @@
       <c r="B43" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="32" t="s">
         <v>79</v>
       </c>
       <c r="D43" s="27" t="n">
@@ -3126,6 +3177,9 @@
       </c>
       <c r="H43" s="27" t="n">
         <v>12.65</v>
+      </c>
+      <c r="I43" s="31" t="n">
+        <v>29</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="44">
@@ -3153,6 +3207,9 @@
       <c r="H44" s="27" t="n">
         <v>111.55</v>
       </c>
+      <c r="I44" s="31" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="45">
       <c r="A45" s="13" t="n">
@@ -3179,6 +3236,9 @@
       <c r="H45" s="27" t="s">
         <v>84</v>
       </c>
+      <c r="I45" s="31" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="46">
       <c r="A46" s="13" t="n">
@@ -3205,6 +3265,9 @@
       <c r="H46" s="27" t="n">
         <v>21.9</v>
       </c>
+      <c r="I46" s="31" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="47">
       <c r="A47" s="13" t="n">
@@ -3231,6 +3294,9 @@
       <c r="H47" s="27" t="n">
         <v>37.15</v>
       </c>
+      <c r="I47" s="3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="48">
       <c r="A48" s="13" t="n">
@@ -3257,6 +3323,9 @@
       <c r="H48" s="27" t="n">
         <v>7.9</v>
       </c>
+      <c r="I48" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="49">
       <c r="A49" s="13" t="n">
@@ -3283,6 +3352,9 @@
       <c r="H49" s="27" t="n">
         <v>33.2</v>
       </c>
+      <c r="I49" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="50">
       <c r="A50" s="13" t="n">
@@ -3309,6 +3381,9 @@
       <c r="H50" s="27" t="n">
         <v>15.7</v>
       </c>
+      <c r="I50" s="3" t="n">
+        <v>31.5</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="51">
       <c r="A51" s="13" t="n">
@@ -3335,6 +3410,9 @@
       <c r="H51" s="27" t="n">
         <v>43</v>
       </c>
+      <c r="I51" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="52">
       <c r="A52" s="13" t="n">
@@ -3361,6 +3439,9 @@
       <c r="H52" s="27" t="n">
         <v>37</v>
       </c>
+      <c r="I52" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="53">
       <c r="A53" s="13" t="n">
@@ -3387,6 +3468,9 @@
       <c r="H53" s="27" t="n">
         <v>44.3</v>
       </c>
+      <c r="I53" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="54">
       <c r="A54" s="13" t="n">
@@ -3413,6 +3497,9 @@
       <c r="H54" s="27" t="n">
         <v>31.4</v>
       </c>
+      <c r="I54" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="55">
       <c r="A55" s="13" t="n">
@@ -3439,12 +3526,15 @@
       <c r="H55" s="27" t="n">
         <v>29.6</v>
       </c>
+      <c r="I55" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="56">
-      <c r="A56" s="32" t="n">
+      <c r="A56" s="33" t="n">
         <v>46</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="34" t="s">
         <v>105</v>
       </c>
       <c r="C56" s="26" t="s">
@@ -3465,8 +3555,11 @@
       <c r="H56" s="27" t="n">
         <v>38.95</v>
       </c>
-    </row>
-    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="57" s="34">
+      <c r="I56" s="3" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="57" s="35">
       <c r="A57" s="13" t="n">
         <v>47</v>
       </c>
@@ -3491,7 +3584,9 @@
       <c r="H57" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="I57" s="4" t="n"/>
+      <c r="I57" s="3" t="n">
+        <v>29</v>
+      </c>
       <c r="J57" s="4" t="n"/>
       <c r="K57" s="4" t="n"/>
       <c r="L57" s="4" t="n"/>
@@ -3540,12 +3635,6 @@
       <c r="BC57" s="4" t="n"/>
       <c r="BD57" s="4" t="n"/>
       <c r="BE57" s="4" t="n"/>
-      <c r="BF57" s="4" t="n"/>
-      <c r="BG57" s="4" t="n"/>
-      <c r="BH57" s="4" t="n"/>
-      <c r="BI57" s="4" t="n"/>
-      <c r="BJ57" s="4" t="n"/>
-      <c r="BK57" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="58">
       <c r="A58" s="13" t="n">
@@ -3572,6 +3661,9 @@
       <c r="H58" s="27" t="n">
         <v>8.8</v>
       </c>
+      <c r="I58" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="59">
       <c r="A59" s="13" t="n">
@@ -3598,6 +3690,9 @@
       <c r="H59" s="27" t="n">
         <v>32.8</v>
       </c>
+      <c r="I59" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="60">
       <c r="A60" s="13" t="n">
@@ -3609,20 +3704,23 @@
       <c r="C60" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="35" t="n">
+      <c r="D60" s="36" t="n">
         <v>68.9</v>
       </c>
-      <c r="E60" s="36" t="n">
+      <c r="E60" s="37" t="n">
         <v>74.55</v>
       </c>
-      <c r="F60" s="36" t="n">
+      <c r="F60" s="37" t="n">
         <v>71.35</v>
       </c>
-      <c r="G60" s="36" t="n">
+      <c r="G60" s="37" t="n">
         <v>75.9</v>
       </c>
-      <c r="H60" s="36" t="n">
+      <c r="H60" s="37" t="n">
         <v>13.8</v>
+      </c>
+      <c r="I60" s="3" t="n">
+        <v>29</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="61">
@@ -3650,6 +3748,9 @@
       <c r="H61" s="27" t="n">
         <v>5.65</v>
       </c>
+      <c r="I61" s="3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="62">
       <c r="A62" s="13" t="n">
@@ -3676,31 +3777,37 @@
       <c r="H62" s="27" t="n">
         <v>10.3</v>
       </c>
+      <c r="I62" s="3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="63">
-      <c r="A63" s="32" t="n">
+      <c r="A63" s="33" t="n">
         <v>53</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="34" t="s">
         <v>119</v>
       </c>
       <c r="C63" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="D63" s="37" t="s">
+      <c r="D63" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E63" s="37" t="s">
+      <c r="E63" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="F63" s="37" t="s">
+      <c r="F63" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="G63" s="37" t="s">
+      <c r="G63" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="H63" s="37" t="s">
+      <c r="H63" s="38" t="s">
         <v>84</v>
+      </c>
+      <c r="I63" s="3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="64">
@@ -3728,6 +3835,9 @@
       <c r="H64" s="27" t="s">
         <v>84</v>
       </c>
+      <c r="I64" s="3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="65">
       <c r="A65" s="13" t="n">
@@ -3754,6 +3864,9 @@
       <c r="H65" s="27" t="n">
         <v>43.65</v>
       </c>
+      <c r="I65" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="66">
       <c r="A66" s="13" t="n">
@@ -3780,6 +3893,9 @@
       <c r="H66" s="27" t="n">
         <v>43.65</v>
       </c>
+      <c r="I66" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="67">
       <c r="A67" s="13" t="n">
@@ -3788,7 +3904,7 @@
       <c r="B67" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="39" t="s">
         <v>128</v>
       </c>
       <c r="D67" s="27" t="n">
@@ -3805,6 +3921,9 @@
       </c>
       <c r="H67" s="27" t="n">
         <v>91.6</v>
+      </c>
+      <c r="I67" s="3" t="n">
+        <v>29</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="68">
@@ -3814,7 +3933,7 @@
       <c r="B68" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="39" t="s">
         <v>130</v>
       </c>
       <c r="D68" s="27" t="n">
@@ -3831,6 +3950,9 @@
       </c>
       <c r="H68" s="27" t="n">
         <v>40.25</v>
+      </c>
+      <c r="I68" s="3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="69">
@@ -3858,6 +3980,9 @@
       <c r="H69" s="27" t="n">
         <v>18</v>
       </c>
+      <c r="I69" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="70">
       <c r="A70" s="13" t="n">
@@ -3884,6 +4009,9 @@
       <c r="H70" s="27" t="n">
         <v>30.2</v>
       </c>
+      <c r="I70" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="71">
       <c r="A71" s="13" t="n">
@@ -3910,6 +4038,9 @@
       <c r="H71" s="27" t="n">
         <v>33</v>
       </c>
+      <c r="I71" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="72">
       <c r="A72" s="13" t="n">
@@ -3936,6 +4067,9 @@
       <c r="H72" s="27" t="n">
         <v>15</v>
       </c>
+      <c r="I72" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="73">
       <c r="A73" s="13" t="n">
@@ -3962,6 +4096,9 @@
       <c r="H73" s="27" t="n">
         <v>24.15</v>
       </c>
+      <c r="I73" s="3" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="74">
       <c r="A74" s="13" t="n">
@@ -3988,6 +4125,9 @@
       <c r="H74" s="27" t="n">
         <v>18</v>
       </c>
+      <c r="I74" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="75">
       <c r="A75" s="13" t="n">
@@ -4014,6 +4154,9 @@
       <c r="H75" s="27" t="n">
         <v>17.75</v>
       </c>
+      <c r="I75" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="76">
       <c r="A76" s="13" t="n">
@@ -4040,6 +4183,9 @@
       <c r="H76" s="27" t="s">
         <v>25</v>
       </c>
+      <c r="I76" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="77">
       <c r="A77" s="13" t="n">
@@ -4066,6 +4212,9 @@
       <c r="H77" s="27" t="n">
         <v>17.9</v>
       </c>
+      <c r="I77" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="78">
       <c r="A78" s="13" t="n">
@@ -4092,6 +4241,9 @@
       <c r="H78" s="27" t="n">
         <v>12.2</v>
       </c>
+      <c r="I78" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="79">
       <c r="A79" s="13" t="n">
@@ -4103,20 +4255,23 @@
       <c r="C79" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="D79" s="35" t="n">
+      <c r="D79" s="36" t="n">
         <v>101.9</v>
       </c>
-      <c r="E79" s="36" t="n">
+      <c r="E79" s="37" t="n">
         <v>110.4</v>
       </c>
-      <c r="F79" s="36" t="n">
+      <c r="F79" s="37" t="n">
         <v>103.95</v>
       </c>
-      <c r="G79" s="36" t="n">
+      <c r="G79" s="37" t="n">
         <v>112.4</v>
       </c>
-      <c r="H79" s="36" t="n">
+      <c r="H79" s="37" t="n">
         <v>15.3</v>
+      </c>
+      <c r="I79" s="3" t="n">
+        <v>29</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="80">
@@ -4129,20 +4284,23 @@
       <c r="C80" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D80" s="39" t="n">
+      <c r="D80" s="40" t="n">
         <v>60.95</v>
       </c>
-      <c r="E80" s="40" t="n">
+      <c r="E80" s="41" t="n">
         <v>65.45</v>
       </c>
-      <c r="F80" s="40" t="n">
+      <c r="F80" s="41" t="n">
         <v>61.9</v>
       </c>
-      <c r="G80" s="40" t="n">
+      <c r="G80" s="41" t="n">
         <v>67.95</v>
       </c>
-      <c r="H80" s="40" t="n">
+      <c r="H80" s="41" t="n">
         <v>13.45</v>
+      </c>
+      <c r="I80" s="3" t="n">
+        <v>29</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="81">
@@ -4170,6 +4328,9 @@
       <c r="H81" s="27" t="n">
         <v>13.45</v>
       </c>
+      <c r="I81" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="82">
       <c r="A82" s="13" t="n">
@@ -4196,6 +4357,9 @@
       <c r="H82" s="27" t="n">
         <v>8.55</v>
       </c>
+      <c r="I82" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="83">
       <c r="A83" s="13" t="n">
@@ -4222,6 +4386,9 @@
       <c r="H83" s="27" t="s">
         <v>25</v>
       </c>
+      <c r="I83" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="84">
       <c r="A84" s="13" t="n">
@@ -4248,6 +4415,9 @@
       <c r="H84" s="27" t="n">
         <v>41.75</v>
       </c>
+      <c r="I84" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="85">
       <c r="A85" s="13" t="n">
@@ -4274,6 +4444,9 @@
       <c r="H85" s="27" t="n">
         <v>8.5</v>
       </c>
+      <c r="I85" s="3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="86">
       <c r="A86" s="13" t="n">
@@ -4300,6 +4473,9 @@
       <c r="H86" s="27" t="n">
         <v>29.3</v>
       </c>
+      <c r="I86" s="3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="87">
       <c r="A87" s="13" t="n">
@@ -4326,6 +4502,9 @@
       <c r="H87" s="27" t="n">
         <v>34.6</v>
       </c>
+      <c r="I87" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="88">
       <c r="A88" s="13" t="n">
@@ -4352,6 +4531,9 @@
       <c r="H88" s="27" t="n">
         <v>27.75</v>
       </c>
+      <c r="I88" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="89">
       <c r="A89" s="13" t="n">
@@ -4378,6 +4560,9 @@
       <c r="H89" s="27" t="n">
         <v>42.05</v>
       </c>
+      <c r="I89" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="90">
       <c r="A90" s="13" t="n">
@@ -4404,6 +4589,9 @@
       <c r="H90" s="27" t="n">
         <v>30.9</v>
       </c>
+      <c r="I90" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="91">
       <c r="A91" s="13" t="n">
@@ -4430,6 +4618,9 @@
       <c r="H91" s="27" t="n">
         <v>25.6</v>
       </c>
+      <c r="I91" s="3" t="n">
+        <v>31.5</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="92">
       <c r="A92" s="13" t="n">
@@ -4456,6 +4647,9 @@
       <c r="H92" s="27" t="n">
         <v>11.71</v>
       </c>
+      <c r="I92" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="93">
       <c r="A93" s="13" t="n">
@@ -4482,6 +4676,9 @@
       <c r="H93" s="27" t="n">
         <v>10.15</v>
       </c>
+      <c r="I93" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="94">
       <c r="A94" s="13" t="n">
@@ -4508,6 +4705,9 @@
       <c r="H94" s="27" t="s">
         <v>84</v>
       </c>
+      <c r="I94" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="95">
       <c r="A95" s="13" t="n">
@@ -4534,6 +4734,9 @@
       <c r="H95" s="27" t="n">
         <v>24.95</v>
       </c>
+      <c r="I95" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="96">
       <c r="A96" s="13" t="n">
@@ -4560,6 +4763,9 @@
       <c r="H96" s="27" t="n">
         <v>22.45</v>
       </c>
+      <c r="I96" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="97">
       <c r="A97" s="13" t="n">
@@ -4568,7 +4774,7 @@
       <c r="B97" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C97" s="41" t="s">
+      <c r="C97" s="42" t="s">
         <v>188</v>
       </c>
       <c r="D97" s="27" t="n">
@@ -4585,6 +4791,9 @@
       </c>
       <c r="H97" s="27" t="n">
         <v>23.95</v>
+      </c>
+      <c r="I97" s="3" t="n">
+        <v>30</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="98">
@@ -4612,6 +4821,9 @@
       <c r="H98" s="27" t="n">
         <v>39.6</v>
       </c>
+      <c r="I98" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="99">
       <c r="A99" s="13" t="n">
@@ -4638,6 +4850,9 @@
       <c r="H99" s="27" t="n">
         <v>31.9</v>
       </c>
+      <c r="I99" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="100">
       <c r="A100" s="13" t="n">
@@ -4664,6 +4879,9 @@
       <c r="H100" s="27" t="n">
         <v>32.55</v>
       </c>
+      <c r="I100" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="101">
       <c r="A101" s="13" t="n">
@@ -4690,6 +4908,9 @@
       <c r="H101" s="27" t="n">
         <v>23.65</v>
       </c>
+      <c r="I101" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="102">
       <c r="A102" s="13" t="n">
@@ -4716,6 +4937,9 @@
       <c r="H102" s="27" t="n">
         <v>24.9</v>
       </c>
+      <c r="I102" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="103">
       <c r="A103" s="13" t="n">
@@ -4742,6 +4966,9 @@
       <c r="H103" s="27" t="n">
         <v>32.95</v>
       </c>
+      <c r="I103" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="104">
       <c r="A104" s="13" t="n">
@@ -4768,6 +4995,9 @@
       <c r="H104" s="27" t="n">
         <v>42.95</v>
       </c>
+      <c r="I104" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="105">
       <c r="A105" s="13" t="n">
@@ -4794,6 +5024,9 @@
       <c r="H105" s="27" t="n">
         <v>42.85</v>
       </c>
+      <c r="I105" s="3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="106">
       <c r="A106" s="13" t="n">
@@ -4820,6 +5053,9 @@
       <c r="H106" s="27" t="n">
         <v>23.7</v>
       </c>
+      <c r="I106" s="31" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="107">
       <c r="A107" s="13" t="n">
@@ -4846,6 +5082,9 @@
       <c r="H107" s="27" t="n">
         <v>53.25</v>
       </c>
+      <c r="I107" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="108">
       <c r="A108" s="13" t="n">
@@ -4872,6 +5111,9 @@
       <c r="H108" s="27" t="n">
         <v>27.75</v>
       </c>
+      <c r="I108" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="109">
       <c r="A109" s="13" t="n">
@@ -4898,6 +5140,9 @@
       <c r="H109" s="27" t="n">
         <v>8.85</v>
       </c>
+      <c r="I109" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="110">
       <c r="A110" s="13" t="n">
@@ -4924,6 +5169,9 @@
       <c r="H110" s="27" t="n">
         <v>31.25</v>
       </c>
+      <c r="I110" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="111">
       <c r="A111" s="13" t="n">
@@ -4950,6 +5198,9 @@
       <c r="H111" s="27" t="n">
         <v>25.05</v>
       </c>
+      <c r="I111" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="112">
       <c r="A112" s="13" t="n">
@@ -4976,6 +5227,9 @@
       <c r="H112" s="27" t="n">
         <v>28.25</v>
       </c>
+      <c r="I112" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="113">
       <c r="A113" s="13" t="n">
@@ -5002,6 +5256,9 @@
       <c r="H113" s="27" t="s">
         <v>25</v>
       </c>
+      <c r="I113" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="114">
       <c r="A114" s="13" t="n">
@@ -5028,6 +5285,9 @@
       <c r="H114" s="27" t="n">
         <v>4.25</v>
       </c>
+      <c r="I114" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="115">
       <c r="A115" s="13" t="n">
@@ -5054,6 +5314,9 @@
       <c r="H115" s="27" t="s">
         <v>25</v>
       </c>
+      <c r="I115" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="116">
       <c r="A116" s="13" t="n">
@@ -5080,6 +5343,9 @@
       <c r="H116" s="27" t="n">
         <v>9.8</v>
       </c>
+      <c r="I116" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="117">
       <c r="A117" s="13" t="n">
@@ -5106,6 +5372,9 @@
       <c r="H117" s="27" t="n">
         <v>36.4</v>
       </c>
+      <c r="I117" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="118">
       <c r="A118" s="13" t="n">
@@ -5132,6 +5401,9 @@
       <c r="H118" s="27" t="n">
         <v>45.55</v>
       </c>
+      <c r="I118" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="119">
       <c r="A119" s="13" t="n">
@@ -5158,6 +5430,9 @@
       <c r="H119" s="27" t="n">
         <v>33.95</v>
       </c>
+      <c r="I119" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="120">
       <c r="A120" s="13" t="n">
@@ -5184,6 +5459,9 @@
       <c r="H120" s="27" t="n">
         <v>33</v>
       </c>
+      <c r="I120" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="121">
       <c r="A121" s="13" t="n">
@@ -5210,6 +5488,9 @@
       <c r="H121" s="27" t="n">
         <v>24.7</v>
       </c>
+      <c r="I121" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="122">
       <c r="A122" s="13" t="n">
@@ -5236,6 +5517,9 @@
       <c r="H122" s="27" t="n">
         <v>36.95</v>
       </c>
+      <c r="I122" s="3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="123">
       <c r="A123" s="13" t="n">
@@ -5262,6 +5546,9 @@
       <c r="H123" s="27" t="n">
         <v>21.4</v>
       </c>
+      <c r="I123" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="124">
       <c r="A124" s="13" t="n">
@@ -5288,6 +5575,9 @@
       <c r="H124" s="27" t="n">
         <v>42.75</v>
       </c>
+      <c r="I124" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="125">
       <c r="A125" s="13" t="n">
@@ -5314,6 +5604,9 @@
       <c r="H125" s="27" t="n">
         <v>14.3</v>
       </c>
+      <c r="I125" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="126">
       <c r="A126" s="13" t="n">
@@ -5340,6 +5633,9 @@
       <c r="H126" s="27" t="n">
         <v>20.25</v>
       </c>
+      <c r="I126" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="127">
       <c r="A127" s="13" t="n">
@@ -5366,8 +5662,11 @@
       <c r="H127" s="27" t="n">
         <v>29.3</v>
       </c>
-    </row>
-    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="128" s="42">
+      <c r="I127" s="3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="128" s="43">
       <c r="A128" s="13" t="n">
         <v>118</v>
       </c>
@@ -5392,8 +5691,11 @@
       <c r="H128" s="27" t="n">
         <v>33.95</v>
       </c>
-    </row>
-    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="129" s="42">
+      <c r="I128" s="44" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="129" s="43">
       <c r="A129" s="13" t="n">
         <v>119</v>
       </c>
@@ -5417,6 +5719,9 @@
       </c>
       <c r="H129" s="27" t="n">
         <v>29.3</v>
+      </c>
+      <c r="I129" s="44" t="n">
+        <v>30</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="130">
@@ -5444,6 +5749,9 @@
       <c r="H130" s="27" t="n">
         <v>15.45</v>
       </c>
+      <c r="I130" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="131">
       <c r="A131" s="13" t="n">
@@ -5470,6 +5778,9 @@
       <c r="H131" s="27" t="n">
         <v>9.9</v>
       </c>
+      <c r="I131" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="132">
       <c r="A132" s="13" t="n">
@@ -5496,6 +5807,9 @@
       <c r="H132" s="27" t="n">
         <v>32.15</v>
       </c>
+      <c r="I132" s="3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="133">
       <c r="A133" s="13" t="n">
@@ -5522,6 +5836,9 @@
       <c r="H133" s="27" t="n">
         <v>30.3</v>
       </c>
+      <c r="I133" s="3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="134">
       <c r="A134" s="13" t="n">
@@ -5548,6 +5865,9 @@
       <c r="H134" s="27" t="n">
         <v>33.75</v>
       </c>
+      <c r="I134" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="135">
       <c r="A135" s="13" t="n">
@@ -5574,6 +5894,9 @@
       <c r="H135" s="27" t="n">
         <v>7.9</v>
       </c>
+      <c r="I135" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="136">
       <c r="A136" s="13" t="n">
@@ -5600,6 +5923,9 @@
       <c r="H136" s="27" t="n">
         <v>21.5</v>
       </c>
+      <c r="I136" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="137">
       <c r="A137" s="13" t="n">
@@ -5626,6 +5952,9 @@
       <c r="H137" s="27" t="n">
         <v>54.2</v>
       </c>
+      <c r="I137" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="138">
       <c r="A138" s="13" t="n">
@@ -5652,6 +5981,9 @@
       <c r="H138" s="27" t="n">
         <v>29.8</v>
       </c>
+      <c r="I138" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="139">
       <c r="A139" s="13" t="n">
@@ -5678,6 +6010,9 @@
       <c r="H139" s="27" t="n">
         <v>37.85</v>
       </c>
+      <c r="I139" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="140">
       <c r="A140" s="13" t="n">
@@ -5704,6 +6039,9 @@
       <c r="H140" s="27" t="n">
         <v>50.6</v>
       </c>
+      <c r="I140" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="141">
       <c r="A141" s="13" t="n">
@@ -5730,6 +6068,9 @@
       <c r="H141" s="27" t="s">
         <v>84</v>
       </c>
+      <c r="I141" s="3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="142">
       <c r="A142" s="13" t="n">
@@ -5756,559 +6097,625 @@
       <c r="H142" s="27" t="n">
         <v>11.3</v>
       </c>
+      <c r="I142" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="143">
-      <c r="A143" s="32" t="n">
+      <c r="A143" s="33" t="n">
         <v>133</v>
       </c>
-      <c r="B143" s="33" t="s">
+      <c r="B143" s="34" t="s">
         <v>279</v>
       </c>
       <c r="C143" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="D143" s="37" t="n">
+      <c r="D143" s="38" t="n">
         <v>71.65</v>
       </c>
-      <c r="E143" s="37" t="n">
+      <c r="E143" s="38" t="n">
         <v>83.15</v>
       </c>
-      <c r="F143" s="37" t="n">
+      <c r="F143" s="38" t="n">
         <v>74.2</v>
       </c>
-      <c r="G143" s="37" t="n">
+      <c r="G143" s="38" t="n">
         <v>82.2</v>
       </c>
-      <c r="H143" s="37" t="n">
+      <c r="H143" s="38" t="n">
         <v>23.05</v>
       </c>
+      <c r="I143" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="144">
-      <c r="A144" s="32" t="n">
+      <c r="A144" s="33" t="n">
         <v>134</v>
       </c>
-      <c r="B144" s="33" t="s">
+      <c r="B144" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="C144" s="38" t="s">
+      <c r="C144" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="D144" s="37" t="n">
+      <c r="D144" s="38" t="n">
         <v>70.4</v>
       </c>
-      <c r="E144" s="37" t="n">
+      <c r="E144" s="38" t="n">
         <v>78.7</v>
       </c>
-      <c r="F144" s="37" t="n">
+      <c r="F144" s="38" t="n">
         <v>71.85</v>
       </c>
-      <c r="G144" s="37" t="n">
+      <c r="G144" s="38" t="n">
         <v>80.2</v>
       </c>
-      <c r="H144" s="37" t="n">
+      <c r="H144" s="38" t="n">
         <v>16.7</v>
       </c>
+      <c r="I144" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="145">
-      <c r="A145" s="32" t="n">
+      <c r="A145" s="33" t="n">
         <v>135</v>
       </c>
-      <c r="B145" s="33" t="s">
+      <c r="B145" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="C145" s="38" t="s">
+      <c r="C145" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="D145" s="37" t="n">
+      <c r="D145" s="38" t="n">
         <v>57</v>
       </c>
-      <c r="E145" s="37" t="n">
+      <c r="E145" s="38" t="n">
         <v>65.3</v>
       </c>
-      <c r="F145" s="37" t="n">
+      <c r="F145" s="38" t="n">
         <v>58.45</v>
       </c>
-      <c r="G145" s="37" t="n">
+      <c r="G145" s="38" t="n">
         <v>66.8</v>
       </c>
-      <c r="H145" s="37" t="n">
+      <c r="H145" s="38" t="n">
         <v>18.65</v>
       </c>
+      <c r="I145" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="146">
-      <c r="A146" s="32" t="n">
+      <c r="A146" s="33" t="n">
         <v>136</v>
       </c>
-      <c r="B146" s="33" t="s">
+      <c r="B146" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="C146" s="38" t="s">
+      <c r="C146" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="D146" s="37" t="n">
+      <c r="D146" s="38" t="n">
         <v>80.85</v>
       </c>
-      <c r="E146" s="37" t="n">
+      <c r="E146" s="38" t="n">
         <v>95.5</v>
       </c>
-      <c r="F146" s="37" t="n">
+      <c r="F146" s="38" t="n">
         <v>83.55</v>
       </c>
-      <c r="G146" s="37" t="n">
+      <c r="G146" s="38" t="n">
         <v>97.05</v>
       </c>
-      <c r="H146" s="37" t="n">
+      <c r="H146" s="38" t="n">
         <v>36.3</v>
       </c>
+      <c r="I146" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="147">
-      <c r="A147" s="32" t="n">
+      <c r="A147" s="33" t="n">
         <v>137</v>
       </c>
-      <c r="B147" s="33" t="s">
+      <c r="B147" s="34" t="s">
         <v>287</v>
       </c>
       <c r="C147" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="D147" s="37" t="s">
+      <c r="D147" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E147" s="37" t="s">
+      <c r="E147" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="F147" s="37" t="s">
+      <c r="F147" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="G147" s="37" t="s">
+      <c r="G147" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="H147" s="37" t="s">
+      <c r="H147" s="38" t="s">
         <v>84</v>
       </c>
+      <c r="I147" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="148">
-      <c r="A148" s="32" t="n">
+      <c r="A148" s="33" t="n">
         <v>138</v>
       </c>
-      <c r="B148" s="33" t="s">
+      <c r="B148" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="C148" s="38" t="s">
+      <c r="C148" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="D148" s="37" t="n">
+      <c r="D148" s="38" t="n">
         <v>68.85</v>
       </c>
-      <c r="E148" s="37" t="n">
+      <c r="E148" s="38" t="n">
         <v>91.85</v>
       </c>
-      <c r="F148" s="37" t="n">
+      <c r="F148" s="38" t="n">
         <v>71.15</v>
       </c>
-      <c r="G148" s="37" t="n">
+      <c r="G148" s="38" t="n">
         <v>94.25</v>
       </c>
-      <c r="H148" s="37" t="n">
+      <c r="H148" s="38" t="n">
         <v>43.5</v>
       </c>
+      <c r="I148" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="149">
-      <c r="A149" s="32" t="n">
+      <c r="A149" s="33" t="n">
         <v>139</v>
       </c>
-      <c r="B149" s="33" t="s">
+      <c r="B149" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="C149" s="38" t="s">
+      <c r="C149" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="D149" s="37" t="n">
+      <c r="D149" s="38" t="n">
         <v>78.05</v>
       </c>
-      <c r="E149" s="37" t="n">
+      <c r="E149" s="38" t="n">
         <v>97.25</v>
       </c>
-      <c r="F149" s="37" t="n">
+      <c r="F149" s="38" t="n">
         <v>80.65</v>
       </c>
-      <c r="G149" s="37" t="n">
+      <c r="G149" s="38" t="n">
         <v>98.55</v>
       </c>
-      <c r="H149" s="37" t="n">
+      <c r="H149" s="38" t="n">
         <v>41.6</v>
       </c>
+      <c r="I149" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="150">
-      <c r="A150" s="32" t="n">
+      <c r="A150" s="33" t="n">
         <v>140</v>
       </c>
-      <c r="B150" s="33" t="s">
+      <c r="B150" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="C150" s="38" t="s">
+      <c r="C150" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="D150" s="37" t="n">
+      <c r="D150" s="38" t="n">
         <v>50.5</v>
       </c>
-      <c r="E150" s="37" t="n">
+      <c r="E150" s="38" t="n">
         <v>54.05</v>
       </c>
-      <c r="F150" s="37" t="n">
+      <c r="F150" s="38" t="n">
         <v>53.5</v>
       </c>
-      <c r="G150" s="37" t="n">
+      <c r="G150" s="38" t="n">
         <v>56.85</v>
       </c>
-      <c r="H150" s="37" t="n">
+      <c r="H150" s="38" t="n">
         <v>4.1</v>
       </c>
+      <c r="I150" s="3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="151">
-      <c r="A151" s="32" t="n">
+      <c r="A151" s="33" t="n">
         <v>141</v>
       </c>
-      <c r="B151" s="33" t="s">
+      <c r="B151" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="C151" s="38" t="s">
+      <c r="C151" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="D151" s="43" t="n">
+      <c r="D151" s="45" t="n">
         <v>50.7</v>
       </c>
-      <c r="E151" s="44" t="n">
+      <c r="E151" s="46" t="n">
         <v>55.6</v>
       </c>
-      <c r="F151" s="44" t="n">
+      <c r="F151" s="46" t="n">
         <v>52.95</v>
       </c>
-      <c r="G151" s="44" t="n">
+      <c r="G151" s="46" t="n">
         <v>61.9</v>
       </c>
-      <c r="H151" s="44" t="n">
+      <c r="H151" s="46" t="n">
         <v>12.9</v>
       </c>
+      <c r="I151" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="152">
-      <c r="A152" s="32" t="n">
+      <c r="A152" s="33" t="n">
         <v>142</v>
       </c>
-      <c r="B152" s="33" t="s">
+      <c r="B152" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="C152" s="45" t="s">
+      <c r="C152" s="47" t="s">
         <v>298</v>
       </c>
-      <c r="D152" s="37" t="n">
+      <c r="D152" s="38" t="n">
         <v>57.05</v>
       </c>
-      <c r="E152" s="37" t="n">
+      <c r="E152" s="38" t="n">
         <v>59.45</v>
       </c>
-      <c r="F152" s="37" t="n">
+      <c r="F152" s="38" t="n">
         <v>67.45</v>
       </c>
-      <c r="G152" s="37" t="n">
+      <c r="G152" s="38" t="n">
         <v>69.9</v>
       </c>
-      <c r="H152" s="37" t="n">
+      <c r="H152" s="38" t="n">
         <v>4.25</v>
       </c>
+      <c r="I152" s="3" t="n">
+        <v>31.5</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="153">
-      <c r="A153" s="32" t="n">
+      <c r="A153" s="33" t="n">
         <v>143</v>
       </c>
-      <c r="B153" s="32" t="s">
+      <c r="B153" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="C153" s="46" t="s">
+      <c r="C153" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D153" s="37" t="n">
+      <c r="D153" s="38" t="n">
         <v>38</v>
       </c>
-      <c r="E153" s="37" t="n">
+      <c r="E153" s="38" t="n">
         <v>39.35</v>
       </c>
-      <c r="F153" s="37" t="n">
+      <c r="F153" s="38" t="n">
         <v>39.6</v>
       </c>
-      <c r="G153" s="37" t="n">
+      <c r="G153" s="38" t="n">
         <v>40.95</v>
       </c>
-      <c r="H153" s="37" t="n">
+      <c r="H153" s="38" t="n">
         <v>2.85</v>
       </c>
+      <c r="I153" s="3" t="n">
+        <v>31.5</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="154">
-      <c r="A154" s="32" t="n">
+      <c r="A154" s="33" t="n">
         <v>144</v>
       </c>
-      <c r="B154" s="32" t="s">
+      <c r="B154" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="C154" s="46" t="s">
+      <c r="C154" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D154" s="37" t="n">
+      <c r="D154" s="38" t="n">
         <v>49</v>
       </c>
-      <c r="E154" s="37" t="n">
+      <c r="E154" s="38" t="n">
         <v>50.4</v>
       </c>
-      <c r="F154" s="37" t="n">
+      <c r="F154" s="38" t="n">
         <v>50.65</v>
       </c>
-      <c r="G154" s="37" t="n">
+      <c r="G154" s="38" t="n">
         <v>52</v>
       </c>
-      <c r="H154" s="37" t="n">
+      <c r="H154" s="38" t="n">
         <v>2.85</v>
       </c>
+      <c r="I154" s="3" t="n">
+        <v>31.5</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="155">
-      <c r="A155" s="32" t="n">
+      <c r="A155" s="33" t="n">
         <v>145</v>
       </c>
-      <c r="B155" s="32" t="s">
+      <c r="B155" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="C155" s="46" t="s">
+      <c r="C155" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="D155" s="37" t="n">
+      <c r="D155" s="38" t="n">
         <v>38.85</v>
       </c>
-      <c r="E155" s="37" t="n">
+      <c r="E155" s="38" t="n">
         <v>40.2</v>
       </c>
-      <c r="F155" s="37" t="n">
+      <c r="F155" s="38" t="n">
         <v>40.45</v>
       </c>
-      <c r="G155" s="37" t="n">
+      <c r="G155" s="38" t="n">
         <v>41.8</v>
       </c>
-      <c r="H155" s="37" t="n">
+      <c r="H155" s="38" t="n">
         <v>2.85</v>
       </c>
+      <c r="I155" s="3" t="n">
+        <v>31.5</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="156">
-      <c r="A156" s="32" t="n">
+      <c r="A156" s="33" t="n">
         <v>146</v>
       </c>
-      <c r="B156" s="32" t="n"/>
-      <c r="C156" s="46" t="s">
+      <c r="B156" s="33" t="n"/>
+      <c r="C156" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="D156" s="37" t="n">
+      <c r="D156" s="38" t="n">
         <v>56.65</v>
       </c>
-      <c r="E156" s="37" t="n">
+      <c r="E156" s="38" t="n">
         <v>58.25</v>
       </c>
-      <c r="F156" s="37" t="n">
+      <c r="F156" s="38" t="n">
         <v>59.8</v>
       </c>
-      <c r="G156" s="37" t="n">
+      <c r="G156" s="38" t="n">
         <v>61.55</v>
       </c>
-      <c r="H156" s="37" t="n">
+      <c r="H156" s="38" t="n">
         <v>2.85</v>
       </c>
+      <c r="I156" s="3" t="n">
+        <v>31.5</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="157">
-      <c r="A157" s="32" t="n">
+      <c r="A157" s="33" t="n">
         <v>147</v>
       </c>
-      <c r="B157" s="33" t="s">
+      <c r="B157" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="C157" s="38" t="s">
+      <c r="C157" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="D157" s="37" t="n">
+      <c r="D157" s="38" t="n">
         <v>68.15</v>
       </c>
-      <c r="E157" s="37" t="n">
+      <c r="E157" s="38" t="n">
         <v>84.25</v>
       </c>
-      <c r="F157" s="37" t="n">
+      <c r="F157" s="38" t="n">
         <v>71.15</v>
       </c>
-      <c r="G157" s="37" t="n">
+      <c r="G157" s="38" t="n">
         <v>87.3</v>
       </c>
-      <c r="H157" s="37" t="n">
+      <c r="H157" s="38" t="n">
         <v>27.3</v>
       </c>
+      <c r="I157" s="3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="158">
-      <c r="A158" s="32" t="n">
+      <c r="A158" s="33" t="n">
         <v>148</v>
       </c>
-      <c r="B158" s="33" t="s">
+      <c r="B158" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="C158" s="38" t="s">
+      <c r="C158" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="D158" s="37" t="n">
+      <c r="D158" s="38" t="n">
         <v>70.75</v>
       </c>
-      <c r="E158" s="37" t="n">
+      <c r="E158" s="38" t="n">
         <v>75.8</v>
       </c>
-      <c r="F158" s="37" t="n">
+      <c r="F158" s="38" t="n">
         <v>73.1</v>
       </c>
-      <c r="G158" s="37" t="n">
+      <c r="G158" s="38" t="n">
         <v>78.1</v>
       </c>
-      <c r="H158" s="37" t="n">
+      <c r="H158" s="38" t="n">
         <v>10.1</v>
       </c>
+      <c r="I158" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="159">
-      <c r="A159" s="32" t="n">
+      <c r="A159" s="33" t="n">
         <v>149</v>
       </c>
-      <c r="B159" s="33" t="s">
+      <c r="B159" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="C159" s="38" t="s">
+      <c r="C159" s="39" t="s">
         <v>311</v>
       </c>
-      <c r="D159" s="37" t="n">
+      <c r="D159" s="38" t="n">
         <v>86.7</v>
       </c>
-      <c r="E159" s="37" t="n">
+      <c r="E159" s="38" t="n">
         <v>111.35</v>
       </c>
-      <c r="F159" s="37" t="n">
+      <c r="F159" s="38" t="n">
         <v>88.2</v>
       </c>
-      <c r="G159" s="37" t="n">
+      <c r="G159" s="38" t="n">
         <v>112.85</v>
       </c>
-      <c r="H159" s="37" t="n">
+      <c r="H159" s="38" t="n">
         <v>49.3</v>
       </c>
+      <c r="I159" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="160">
-      <c r="A160" s="32" t="n">
+      <c r="A160" s="33" t="n">
         <v>150</v>
       </c>
-      <c r="B160" s="33" t="s">
+      <c r="B160" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="C160" s="38" t="s">
+      <c r="C160" s="39" t="s">
         <v>313</v>
       </c>
-      <c r="D160" s="37" t="n">
+      <c r="D160" s="38" t="n">
         <v>70</v>
       </c>
-      <c r="E160" s="37" t="n">
+      <c r="E160" s="38" t="n">
         <v>98.8</v>
       </c>
-      <c r="F160" s="37" t="n">
+      <c r="F160" s="38" t="n">
         <v>80</v>
       </c>
-      <c r="G160" s="37" t="n">
+      <c r="G160" s="38" t="n">
         <v>108.05</v>
       </c>
-      <c r="H160" s="37" t="n">
+      <c r="H160" s="38" t="n">
         <v>61.8</v>
       </c>
+      <c r="I160" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="161">
-      <c r="A161" s="32" t="n">
+      <c r="A161" s="33" t="n">
         <v>151</v>
       </c>
-      <c r="B161" s="33" t="s">
+      <c r="B161" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="C161" s="38" t="s">
+      <c r="C161" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="D161" s="37" t="s">
+      <c r="D161" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E161" s="37" t="s">
+      <c r="E161" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F161" s="37" t="s">
+      <c r="F161" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="G161" s="37" t="s">
+      <c r="G161" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="H161" s="37" t="s">
+      <c r="H161" s="38" t="s">
         <v>25</v>
       </c>
+      <c r="I161" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="162">
-      <c r="A162" s="32" t="n">
+      <c r="A162" s="33" t="n">
         <v>152</v>
       </c>
-      <c r="B162" s="33" t="s">
+      <c r="B162" s="34" t="s">
         <v>316</v>
       </c>
       <c r="C162" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="D162" s="37" t="n">
+      <c r="D162" s="38" t="n">
         <v>68.35</v>
       </c>
-      <c r="E162" s="37" t="n">
+      <c r="E162" s="38" t="n">
         <v>93.3</v>
       </c>
-      <c r="F162" s="37" t="n">
+      <c r="F162" s="38" t="n">
         <v>71.3</v>
       </c>
-      <c r="G162" s="37" t="n">
+      <c r="G162" s="38" t="n">
         <v>93.3</v>
       </c>
-      <c r="H162" s="37" t="n">
+      <c r="H162" s="38" t="n">
         <v>45.45</v>
       </c>
+      <c r="I162" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="163">
-      <c r="A163" s="32" t="n">
+      <c r="A163" s="33" t="n">
         <v>153</v>
       </c>
-      <c r="B163" s="33" t="s">
+      <c r="B163" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="C163" s="38" t="s">
+      <c r="C163" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="D163" s="37" t="n">
+      <c r="D163" s="38" t="n">
         <v>79.35</v>
       </c>
-      <c r="E163" s="37" t="n">
+      <c r="E163" s="38" t="n">
         <v>92.1</v>
       </c>
-      <c r="F163" s="37" t="n">
+      <c r="F163" s="38" t="n">
         <v>80.85</v>
       </c>
-      <c r="G163" s="37" t="n">
+      <c r="G163" s="38" t="n">
         <v>93.6</v>
       </c>
-      <c r="H163" s="37" t="n">
+      <c r="H163" s="38" t="n">
         <v>24.15</v>
       </c>
+      <c r="I163" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="164">
-      <c r="A164" s="32" t="n">
+      <c r="A164" s="33" t="n">
         <v>154</v>
       </c>
       <c r="B164" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="C164" s="47" t="s">
+      <c r="C164" s="49" t="s">
         <v>321</v>
       </c>
       <c r="D164" s="27" t="n">
@@ -6326,9 +6733,12 @@
       <c r="H164" s="27" t="n">
         <v>33.85</v>
       </c>
+      <c r="I164" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="165">
-      <c r="A165" s="32" t="n">
+      <c r="A165" s="33" t="n">
         <v>155</v>
       </c>
       <c r="B165" s="25" t="s">
@@ -6352,9 +6762,12 @@
       <c r="H165" s="27" t="n">
         <v>16.7</v>
       </c>
+      <c r="I165" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="166">
-      <c r="A166" s="32" t="n">
+      <c r="A166" s="33" t="n">
         <v>156</v>
       </c>
       <c r="B166" s="25" t="s">
@@ -6378,9 +6791,12 @@
       <c r="H166" s="27" t="n">
         <v>31.25</v>
       </c>
+      <c r="I166" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="167">
-      <c r="A167" s="32" t="n">
+      <c r="A167" s="33" t="n">
         <v>157</v>
       </c>
       <c r="B167" s="25" t="s">
@@ -6404,9 +6820,12 @@
       <c r="H167" s="27" t="n">
         <v>88.8</v>
       </c>
+      <c r="I167" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="168">
-      <c r="A168" s="32" t="n">
+      <c r="A168" s="33" t="n">
         <v>158</v>
       </c>
       <c r="B168" s="25" t="s">
@@ -6415,24 +6834,27 @@
       <c r="C168" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="D168" s="37" t="n">
+      <c r="D168" s="38" t="n">
         <v>257.25</v>
       </c>
-      <c r="E168" s="37" t="n">
+      <c r="E168" s="38" t="n">
         <v>293.9</v>
       </c>
-      <c r="F168" s="37" t="n">
+      <c r="F168" s="38" t="n">
         <v>258.8</v>
       </c>
-      <c r="G168" s="37" t="n">
+      <c r="G168" s="38" t="n">
         <v>295.45</v>
       </c>
-      <c r="H168" s="37" t="n">
+      <c r="H168" s="38" t="n">
         <v>141.1</v>
       </c>
+      <c r="I168" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="169">
-      <c r="A169" s="32" t="n">
+      <c r="A169" s="33" t="n">
         <v>159</v>
       </c>
       <c r="B169" s="25" t="s">
@@ -6456,9 +6878,12 @@
       <c r="H169" s="27" t="n">
         <v>33.6</v>
       </c>
+      <c r="I169" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="170">
-      <c r="A170" s="32" t="n">
+      <c r="A170" s="33" t="n">
         <v>160</v>
       </c>
       <c r="B170" s="13" t="s">
@@ -6482,9 +6907,12 @@
       <c r="H170" s="27" t="n">
         <v>60.25</v>
       </c>
+      <c r="I170" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="171">
-      <c r="A171" s="32" t="n">
+      <c r="A171" s="33" t="n">
         <v>161</v>
       </c>
       <c r="B171" s="25" t="s">
@@ -6508,9 +6936,12 @@
       <c r="H171" s="27" t="n">
         <v>13.6</v>
       </c>
+      <c r="I171" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="172">
-      <c r="A172" s="32" t="n">
+      <c r="A172" s="33" t="n">
         <v>162</v>
       </c>
       <c r="B172" s="25" t="s">
@@ -6534,35 +6965,41 @@
       <c r="H172" s="27" t="n">
         <v>20.8</v>
       </c>
+      <c r="I172" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="173">
-      <c r="A173" s="32" t="n">
+      <c r="A173" s="33" t="n">
         <v>163</v>
       </c>
-      <c r="B173" s="33" t="s">
+      <c r="B173" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="C173" s="38" t="s">
+      <c r="C173" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="D173" s="37" t="s">
+      <c r="D173" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E173" s="37" t="s">
+      <c r="E173" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F173" s="37" t="s">
+      <c r="F173" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="G173" s="37" t="s">
+      <c r="G173" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="H173" s="37" t="s">
+      <c r="H173" s="38" t="s">
         <v>25</v>
       </c>
+      <c r="I173" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="174">
-      <c r="A174" s="32" t="n">
+      <c r="A174" s="33" t="n">
         <v>164</v>
       </c>
       <c r="B174" s="25" t="s">
@@ -6586,9 +7023,12 @@
       <c r="H174" s="27" t="n">
         <v>10.3</v>
       </c>
+      <c r="I174" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="175">
-      <c r="A175" s="32" t="n">
+      <c r="A175" s="33" t="n">
         <v>165</v>
       </c>
       <c r="B175" s="25" t="s">
@@ -6612,9 +7052,12 @@
       <c r="H175" s="27" t="n">
         <v>9.8</v>
       </c>
+      <c r="I175" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="176">
-      <c r="A176" s="32" t="n">
+      <c r="A176" s="33" t="n">
         <v>166</v>
       </c>
       <c r="B176" s="25" t="s">
@@ -6638,9 +7081,12 @@
       <c r="H176" s="27" t="n">
         <v>41.4</v>
       </c>
+      <c r="I176" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="177">
-      <c r="A177" s="32" t="n">
+      <c r="A177" s="33" t="n">
         <v>167</v>
       </c>
       <c r="B177" s="25" t="s">
@@ -6664,9 +7110,12 @@
       <c r="H177" s="27" t="n">
         <v>25.05</v>
       </c>
+      <c r="I177" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="178">
-      <c r="A178" s="32" t="n">
+      <c r="A178" s="33" t="n">
         <v>168</v>
       </c>
       <c r="B178" s="25" t="s">
@@ -6690,9 +7139,12 @@
       <c r="H178" s="27" t="n">
         <v>30.35</v>
       </c>
+      <c r="I178" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="179">
-      <c r="A179" s="32" t="n">
+      <c r="A179" s="33" t="n">
         <v>169</v>
       </c>
       <c r="B179" s="25" t="s">
@@ -6716,15 +7168,18 @@
       <c r="H179" s="27" t="n">
         <v>24.95</v>
       </c>
+      <c r="I179" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="180">
-      <c r="A180" s="32" t="n">
+      <c r="A180" s="33" t="n">
         <v>170</v>
       </c>
-      <c r="B180" s="48" t="s">
+      <c r="B180" s="50" t="s">
         <v>351</v>
       </c>
-      <c r="C180" s="49" t="s">
+      <c r="C180" s="51" t="s">
         <v>352</v>
       </c>
       <c r="D180" s="27" t="n">
@@ -6742,9 +7197,12 @@
       <c r="H180" s="27" t="n">
         <v>23.05</v>
       </c>
+      <c r="I180" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="181">
-      <c r="A181" s="32" t="n">
+      <c r="A181" s="33" t="n">
         <v>171</v>
       </c>
       <c r="B181" s="25" t="s">
@@ -6768,9 +7226,12 @@
       <c r="H181" s="27" t="n">
         <v>27.55</v>
       </c>
+      <c r="I181" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="182">
-      <c r="A182" s="32" t="n">
+      <c r="A182" s="33" t="n">
         <v>172</v>
       </c>
       <c r="B182" s="25" t="s">
@@ -6794,9 +7255,12 @@
       <c r="H182" s="27" t="n">
         <v>17.1</v>
       </c>
+      <c r="I182" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="183">
-      <c r="A183" s="32" t="n">
+      <c r="A183" s="33" t="n">
         <v>173</v>
       </c>
       <c r="B183" s="25" t="s">
@@ -6820,9 +7284,12 @@
       <c r="H183" s="27" t="n">
         <v>19.25</v>
       </c>
+      <c r="I183" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="184">
-      <c r="A184" s="32" t="n">
+      <c r="A184" s="33" t="n">
         <v>174</v>
       </c>
       <c r="B184" s="25" t="s">
@@ -6846,9 +7313,12 @@
       <c r="H184" s="27" t="n">
         <v>24.85</v>
       </c>
+      <c r="I184" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="185">
-      <c r="A185" s="32" t="n">
+      <c r="A185" s="33" t="n">
         <v>175</v>
       </c>
       <c r="B185" s="25" t="s">
@@ -6872,15 +7342,18 @@
       <c r="H185" s="27" t="n">
         <v>124.75</v>
       </c>
+      <c r="I185" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="186">
-      <c r="A186" s="32" t="n">
+      <c r="A186" s="33" t="n">
         <v>176</v>
       </c>
       <c r="B186" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="C186" s="50" t="s">
+      <c r="C186" s="52" t="s">
         <v>364</v>
       </c>
       <c r="D186" s="27" t="n">
@@ -6898,9 +7371,12 @@
       <c r="H186" s="27" t="n">
         <v>27.55</v>
       </c>
+      <c r="I186" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="187">
-      <c r="A187" s="32" t="n">
+      <c r="A187" s="33" t="n">
         <v>177</v>
       </c>
       <c r="B187" s="13" t="s">
@@ -6924,9 +7400,12 @@
       <c r="H187" s="27" t="n">
         <v>57.4</v>
       </c>
+      <c r="I187" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="188">
-      <c r="A188" s="32" t="n">
+      <c r="A188" s="33" t="n">
         <v>178</v>
       </c>
       <c r="B188" s="25" t="s">
@@ -6950,9 +7429,12 @@
       <c r="H188" s="27" t="n">
         <v>36.8</v>
       </c>
+      <c r="I188" s="3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="189">
-      <c r="A189" s="32" t="n">
+      <c r="A189" s="33" t="n">
         <v>179</v>
       </c>
       <c r="B189" s="25" t="s">
@@ -6976,9 +7458,12 @@
       <c r="H189" s="27" t="n">
         <v>20.6</v>
       </c>
+      <c r="I189" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="190">
-      <c r="A190" s="32" t="n">
+      <c r="A190" s="33" t="n">
         <v>180</v>
       </c>
       <c r="B190" s="25" t="s">
@@ -7002,9 +7487,12 @@
       <c r="H190" s="27" t="n">
         <v>10.3</v>
       </c>
+      <c r="I190" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="191">
-      <c r="A191" s="32" t="n">
+      <c r="A191" s="33" t="n">
         <v>181</v>
       </c>
       <c r="B191" s="25" t="s">
@@ -7028,9 +7516,12 @@
       <c r="H191" s="27" t="n">
         <v>7.4</v>
       </c>
+      <c r="I191" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="192">
-      <c r="A192" s="32" t="n">
+      <c r="A192" s="33" t="n">
         <v>182</v>
       </c>
       <c r="B192" s="25" t="s">
@@ -7054,9 +7545,12 @@
       <c r="H192" s="27" t="n">
         <v>27.2</v>
       </c>
+      <c r="I192" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="193">
-      <c r="A193" s="32" t="n">
+      <c r="A193" s="33" t="n">
         <v>183</v>
       </c>
       <c r="B193" s="25" t="s">
@@ -7080,9 +7574,12 @@
       <c r="H193" s="27" t="n">
         <v>9.2</v>
       </c>
+      <c r="I193" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="194">
-      <c r="A194" s="32" t="n">
+      <c r="A194" s="33" t="n">
         <v>184</v>
       </c>
       <c r="B194" s="25" t="s">
@@ -7106,9 +7603,12 @@
       <c r="H194" s="27" t="s">
         <v>84</v>
       </c>
+      <c r="I194" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="195">
-      <c r="A195" s="32" t="n">
+      <c r="A195" s="33" t="n">
         <v>185</v>
       </c>
       <c r="B195" s="25" t="s">
@@ -7132,9 +7632,12 @@
       <c r="H195" s="27" t="n">
         <v>44.75</v>
       </c>
+      <c r="I195" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="196">
-      <c r="A196" s="32" t="n">
+      <c r="A196" s="33" t="n">
         <v>186</v>
       </c>
       <c r="B196" s="25" t="s">
@@ -7158,9 +7661,12 @@
       <c r="H196" s="27" t="n">
         <v>56.55</v>
       </c>
+      <c r="I196" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="197">
-      <c r="A197" s="32" t="n">
+      <c r="A197" s="33" t="n">
         <v>187</v>
       </c>
       <c r="B197" s="25" t="s">
@@ -7184,9 +7690,12 @@
       <c r="H197" s="27" t="n">
         <v>22.45</v>
       </c>
+      <c r="I197" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="198">
-      <c r="A198" s="32" t="n">
+      <c r="A198" s="33" t="n">
         <v>188</v>
       </c>
       <c r="B198" s="25" t="s">
@@ -7210,15 +7719,18 @@
       <c r="H198" s="27" t="s">
         <v>84</v>
       </c>
+      <c r="I198" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="199">
-      <c r="A199" s="32" t="n">
+      <c r="A199" s="33" t="n">
         <v>189</v>
       </c>
       <c r="B199" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C199" s="51" t="s">
+      <c r="C199" s="53" t="s">
         <v>390</v>
       </c>
       <c r="D199" s="27" t="n">
@@ -7236,9 +7748,12 @@
       <c r="H199" s="27" t="n">
         <v>10</v>
       </c>
+      <c r="I199" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="200">
-      <c r="A200" s="32" t="n">
+      <c r="A200" s="33" t="n">
         <v>190</v>
       </c>
       <c r="B200" s="25" t="s">
@@ -7262,9 +7777,12 @@
       <c r="H200" s="27" t="n">
         <v>37.1</v>
       </c>
+      <c r="I200" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="201">
-      <c r="A201" s="32" t="n">
+      <c r="A201" s="33" t="n">
         <v>191</v>
       </c>
       <c r="B201" s="25" t="s">
@@ -7288,15 +7806,18 @@
       <c r="H201" s="27" t="n">
         <v>11.1</v>
       </c>
+      <c r="I201" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="202">
-      <c r="A202" s="32" t="n">
+      <c r="A202" s="33" t="n">
         <v>192</v>
       </c>
       <c r="B202" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="C202" s="47" t="s">
+      <c r="C202" s="49" t="s">
         <v>396</v>
       </c>
       <c r="D202" s="27" t="n">
@@ -7314,10 +7835,12 @@
       <c r="H202" s="27" t="n">
         <v>32.15</v>
       </c>
-      <c r="M202" s="52" t="n"/>
+      <c r="I202" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="203">
-      <c r="A203" s="32" t="n">
+      <c r="A203" s="33" t="n">
         <v>193</v>
       </c>
       <c r="B203" s="25" t="s">
@@ -7341,9 +7864,12 @@
       <c r="H203" s="27" t="n">
         <v>43.65</v>
       </c>
+      <c r="I203" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="204">
-      <c r="A204" s="32" t="n">
+      <c r="A204" s="33" t="n">
         <v>194</v>
       </c>
       <c r="B204" s="25" t="s">
@@ -7367,9 +7893,12 @@
       <c r="H204" s="27" t="n">
         <v>23.75</v>
       </c>
+      <c r="I204" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="205">
-      <c r="A205" s="32" t="n">
+      <c r="A205" s="33" t="n">
         <v>195</v>
       </c>
       <c r="B205" s="25" t="s">
@@ -7393,9 +7922,12 @@
       <c r="H205" s="27" t="n">
         <v>8.8</v>
       </c>
+      <c r="I205" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="206">
-      <c r="A206" s="32" t="n">
+      <c r="A206" s="33" t="n">
         <v>196</v>
       </c>
       <c r="B206" s="25" t="s">
@@ -7419,15 +7951,18 @@
       <c r="H206" s="27" t="n">
         <v>48.95</v>
       </c>
+      <c r="I206" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="207">
-      <c r="A207" s="32" t="n">
+      <c r="A207" s="33" t="n">
         <v>197</v>
       </c>
       <c r="B207" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="C207" s="51" t="s">
+      <c r="C207" s="53" t="s">
         <v>406</v>
       </c>
       <c r="D207" s="27" t="n">
@@ -7445,9 +7980,12 @@
       <c r="H207" s="27" t="n">
         <v>9.7</v>
       </c>
+      <c r="I207" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="208">
-      <c r="A208" s="32" t="n">
+      <c r="A208" s="33" t="n">
         <v>198</v>
       </c>
       <c r="B208" s="25" t="s">
@@ -7471,9 +8009,12 @@
       <c r="H208" s="27" t="n">
         <v>10.25</v>
       </c>
+      <c r="I208" s="3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="209">
-      <c r="A209" s="32" t="n">
+      <c r="A209" s="33" t="n">
         <v>199</v>
       </c>
       <c r="B209" s="25" t="s">
@@ -7497,9 +8038,12 @@
       <c r="H209" s="27" t="n">
         <v>19.65</v>
       </c>
+      <c r="I209" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="210">
-      <c r="A210" s="32" t="n">
+      <c r="A210" s="33" t="n">
         <v>200</v>
       </c>
       <c r="B210" s="25" t="s">
@@ -7523,9 +8067,12 @@
       <c r="H210" s="27" t="n">
         <v>39.6</v>
       </c>
+      <c r="I210" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="211">
-      <c r="A211" s="32" t="n">
+      <c r="A211" s="33" t="n">
         <v>201</v>
       </c>
       <c r="B211" s="25" t="s">
@@ -7549,9 +8096,12 @@
       <c r="H211" s="27" t="n">
         <v>64.8</v>
       </c>
+      <c r="I211" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="212">
-      <c r="A212" s="32" t="n">
+      <c r="A212" s="33" t="n">
         <v>202</v>
       </c>
       <c r="B212" s="25" t="s">
@@ -7575,9 +8125,12 @@
       <c r="H212" s="27" t="n">
         <v>30.05</v>
       </c>
+      <c r="I212" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="213">
-      <c r="A213" s="32" t="n">
+      <c r="A213" s="33" t="n">
         <v>203</v>
       </c>
       <c r="B213" s="25" t="s">
@@ -7601,9 +8154,12 @@
       <c r="H213" s="27" t="n">
         <v>7.5</v>
       </c>
+      <c r="I213" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="214">
-      <c r="A214" s="32" t="n">
+      <c r="A214" s="33" t="n">
         <v>204</v>
       </c>
       <c r="B214" s="25" t="s">
@@ -7627,9 +8183,12 @@
       <c r="H214" s="27" t="n">
         <v>24.05</v>
       </c>
+      <c r="I214" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="215">
-      <c r="A215" s="32" t="n">
+      <c r="A215" s="33" t="n">
         <v>205</v>
       </c>
       <c r="B215" s="25" t="s">
@@ -7653,9 +8212,12 @@
       <c r="H215" s="27" t="n">
         <v>37.55</v>
       </c>
+      <c r="I215" s="3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="216">
-      <c r="A216" s="32" t="n">
+      <c r="A216" s="33" t="n">
         <v>206</v>
       </c>
       <c r="B216" s="25" t="s">
@@ -7679,9 +8241,12 @@
       <c r="H216" s="27" t="n">
         <v>36.8</v>
       </c>
+      <c r="I216" s="3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="217">
-      <c r="A217" s="32" t="n">
+      <c r="A217" s="33" t="n">
         <v>207</v>
       </c>
       <c r="B217" s="25" t="s">
@@ -7704,6 +8269,9 @@
       </c>
       <c r="H217" s="27" t="n">
         <v>28.4</v>
+      </c>
+      <c r="I217" s="3" t="n">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -7717,22 +8285,22 @@
   </mergeCells>
   <conditionalFormatting pivot="false" sqref="C180">
     <cfRule aboveAverage="true" bottom="false" dxfId="0" equalAverage="false" percent="false" priority="4" stopIfTrue="true" type="expression">
-      <formula>N180&gt;O180</formula>
+      <formula>#REF!&gt;I180</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="false" sqref="C180">
     <cfRule aboveAverage="true" bottom="false" dxfId="0" equalAverage="false" percent="false" priority="3" stopIfTrue="true" type="expression">
-      <formula>P180&gt;Q180</formula>
+      <formula>J180&gt;K180</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="false" sqref="C180">
     <cfRule aboveAverage="true" bottom="false" dxfId="0" equalAverage="false" percent="false" priority="2" stopIfTrue="true" type="expression">
-      <formula>N180&gt;P180</formula>
+      <formula>#REF!&gt;J180</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="false" sqref="C180">
     <cfRule aboveAverage="true" bottom="false" dxfId="0" equalAverage="false" percent="false" priority="1" stopIfTrue="true" type="expression">
-      <formula>O180&gt;Q180</formula>
+      <formula>I180&gt;K180</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins bottom="0.275590538978577" footer="0.275590538978577" header="0.196850389242172" left="0.787401556968689" right="0.196850389242172" top="0.393700778484344"/>
@@ -7762,15 +8330,15 @@
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
-      <c r="A1" s="53" t="n"/>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="54" t="n"/>
+      <c r="B1" s="55" t="s">
         <v>427</v>
       </c>
-      <c r="C1" s="55" t="s"/>
-      <c r="D1" s="55" t="s"/>
-      <c r="E1" s="55" t="s"/>
-      <c r="F1" s="55" t="s"/>
-      <c r="G1" s="56" t="s"/>
+      <c r="C1" s="56" t="s"/>
+      <c r="D1" s="56" t="s"/>
+      <c r="E1" s="56" t="s"/>
+      <c r="F1" s="56" t="s"/>
+      <c r="G1" s="57" t="s"/>
       <c r="H1" s="4" t="n"/>
       <c r="I1" s="4" t="n"/>
       <c r="J1" s="4" t="n"/>
@@ -7828,17 +8396,17 @@
       <c r="BJ1" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="47.2499923706055" outlineLevel="0" r="2">
-      <c r="A2" s="32" t="n">
+      <c r="A2" s="33" t="n">
         <v>208</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="58" t="s"/>
-      <c r="D2" s="58" t="s"/>
-      <c r="E2" s="58" t="s"/>
-      <c r="F2" s="58" t="s"/>
-      <c r="G2" s="59" t="s"/>
+      <c r="C2" s="59" t="s"/>
+      <c r="D2" s="59" t="s"/>
+      <c r="E2" s="59" t="s"/>
+      <c r="F2" s="59" t="s"/>
+      <c r="G2" s="60" t="s"/>
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
@@ -7896,17 +8464,17 @@
       <c r="BJ2" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="32" t="n">
+      <c r="A3" s="33" t="n">
         <v>209</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="58" t="s">
         <v>429</v>
       </c>
-      <c r="C3" s="58" t="s"/>
-      <c r="D3" s="58" t="s"/>
-      <c r="E3" s="58" t="s"/>
-      <c r="F3" s="59" t="s"/>
-      <c r="G3" s="60" t="n">
+      <c r="C3" s="59" t="s"/>
+      <c r="D3" s="59" t="s"/>
+      <c r="E3" s="59" t="s"/>
+      <c r="F3" s="60" t="s"/>
+      <c r="G3" s="61" t="n">
         <v>7.45</v>
       </c>
       <c r="H3" s="4" t="n"/>
@@ -7966,17 +8534,17 @@
       <c r="BJ3" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="32" t="n">
+      <c r="A4" s="33" t="n">
         <v>210</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="58" t="s">
         <v>430</v>
       </c>
-      <c r="C4" s="58" t="s"/>
-      <c r="D4" s="58" t="s"/>
-      <c r="E4" s="58" t="s"/>
-      <c r="F4" s="59" t="s"/>
-      <c r="G4" s="60" t="n">
+      <c r="C4" s="59" t="s"/>
+      <c r="D4" s="59" t="s"/>
+      <c r="E4" s="59" t="s"/>
+      <c r="F4" s="60" t="s"/>
+      <c r="G4" s="61" t="n">
         <v>0.33</v>
       </c>
       <c r="H4" s="4" t="n"/>
@@ -8036,17 +8604,17 @@
       <c r="BJ4" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="47.0068206787109" outlineLevel="0" r="5">
-      <c r="A5" s="32" t="n">
+      <c r="A5" s="33" t="n">
         <v>211</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="58" t="s">
         <v>431</v>
       </c>
-      <c r="C5" s="58" t="s"/>
-      <c r="D5" s="58" t="s"/>
-      <c r="E5" s="58" t="s"/>
-      <c r="F5" s="58" t="s"/>
-      <c r="G5" s="59" t="s"/>
+      <c r="C5" s="59" t="s"/>
+      <c r="D5" s="59" t="s"/>
+      <c r="E5" s="59" t="s"/>
+      <c r="F5" s="59" t="s"/>
+      <c r="G5" s="60" t="s"/>
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
@@ -8104,17 +8672,17 @@
       <c r="BJ5" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="55.4999847412109" outlineLevel="0" r="6">
-      <c r="A6" s="32" t="n">
+      <c r="A6" s="33" t="n">
         <v>212</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="58" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="58" t="s"/>
-      <c r="D6" s="58" t="s"/>
-      <c r="E6" s="58" t="s"/>
-      <c r="F6" s="58" t="s"/>
-      <c r="G6" s="59" t="s"/>
+      <c r="C6" s="59" t="s"/>
+      <c r="D6" s="59" t="s"/>
+      <c r="E6" s="59" t="s"/>
+      <c r="F6" s="59" t="s"/>
+      <c r="G6" s="60" t="s"/>
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
@@ -8172,17 +8740,17 @@
       <c r="BJ6" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="32" t="n">
+      <c r="A7" s="33" t="n">
         <v>213</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="58" t="s">
         <v>433</v>
       </c>
-      <c r="C7" s="58" t="s"/>
-      <c r="D7" s="58" t="s"/>
-      <c r="E7" s="58" t="s"/>
-      <c r="F7" s="58" t="s"/>
-      <c r="G7" s="59" t="s"/>
+      <c r="C7" s="59" t="s"/>
+      <c r="D7" s="59" t="s"/>
+      <c r="E7" s="59" t="s"/>
+      <c r="F7" s="59" t="s"/>
+      <c r="G7" s="60" t="s"/>
       <c r="H7" s="4" t="n"/>
       <c r="I7" s="4" t="n"/>
       <c r="J7" s="4" t="n"/>
@@ -8240,17 +8808,17 @@
       <c r="BJ7" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="32" t="n">
+      <c r="A8" s="33" t="n">
         <v>214</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="C8" s="62" t="s"/>
-      <c r="D8" s="62" t="s"/>
-      <c r="E8" s="62" t="s"/>
-      <c r="F8" s="63" t="s"/>
-      <c r="G8" s="64" t="n">
+      <c r="C8" s="63" t="s"/>
+      <c r="D8" s="63" t="s"/>
+      <c r="E8" s="63" t="s"/>
+      <c r="F8" s="64" t="s"/>
+      <c r="G8" s="65" t="n">
         <v>0.03</v>
       </c>
       <c r="H8" s="4" t="n"/>
@@ -8310,17 +8878,17 @@
       <c r="BJ8" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="9">
-      <c r="A9" s="32" t="n">
+      <c r="A9" s="33" t="n">
         <v>215</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="58" t="s">
         <v>435</v>
       </c>
-      <c r="C9" s="58" t="s"/>
-      <c r="D9" s="58" t="s"/>
-      <c r="E9" s="58" t="s"/>
-      <c r="F9" s="58" t="s"/>
-      <c r="G9" s="59" t="s"/>
+      <c r="C9" s="59" t="s"/>
+      <c r="D9" s="59" t="s"/>
+      <c r="E9" s="59" t="s"/>
+      <c r="F9" s="59" t="s"/>
+      <c r="G9" s="60" t="s"/>
       <c r="H9" s="4" t="n"/>
       <c r="I9" s="4" t="n"/>
       <c r="J9" s="4" t="n"/>
@@ -8378,17 +8946,17 @@
       <c r="BJ9" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="72.7587585449219" outlineLevel="0" r="10">
-      <c r="A10" s="32" t="n">
+      <c r="A10" s="33" t="n">
         <v>216</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="58" t="s">
         <v>436</v>
       </c>
-      <c r="C10" s="58" t="s"/>
-      <c r="D10" s="58" t="s"/>
-      <c r="E10" s="58" t="s"/>
-      <c r="F10" s="58" t="s"/>
-      <c r="G10" s="59" t="s"/>
+      <c r="C10" s="59" t="s"/>
+      <c r="D10" s="59" t="s"/>
+      <c r="E10" s="59" t="s"/>
+      <c r="F10" s="59" t="s"/>
+      <c r="G10" s="60" t="s"/>
       <c r="H10" s="4" t="n"/>
       <c r="I10" s="4" t="n"/>
       <c r="J10" s="4" t="n"/>

--- a/calc/files/ems_int.xlsx
+++ b/calc/files/ems_int.xlsx
@@ -1696,7 +1696,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left"/>
@@ -1785,9 +1785,6 @@
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="3" fontId="6" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="justify" vertical="center" wrapText="true"/>
@@ -3004,7 +3001,7 @@
       <c r="H37" s="27" t="n">
         <v>25.75</v>
       </c>
-      <c r="I37" s="31" t="n">
+      <c r="I37" s="3" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3033,7 +3030,7 @@
       <c r="H38" s="27" t="n">
         <v>39.75</v>
       </c>
-      <c r="I38" s="31" t="n">
+      <c r="I38" s="3" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3062,7 +3059,7 @@
       <c r="H39" s="27" t="n">
         <v>33.2</v>
       </c>
-      <c r="I39" s="31" t="n">
+      <c r="I39" s="3" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3091,7 +3088,7 @@
       <c r="H40" s="27" t="n">
         <v>41.65</v>
       </c>
-      <c r="I40" s="31" t="n">
+      <c r="I40" s="3" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3120,7 +3117,7 @@
       <c r="H41" s="27" t="n">
         <v>54.9</v>
       </c>
-      <c r="I41" s="31" t="n">
+      <c r="I41" s="3" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3149,7 +3146,7 @@
       <c r="H42" s="27" t="n">
         <v>10.1</v>
       </c>
-      <c r="I42" s="31" t="n">
+      <c r="I42" s="3" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3160,7 +3157,7 @@
       <c r="B43" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="31" t="s">
         <v>79</v>
       </c>
       <c r="D43" s="27" t="n">
@@ -3178,7 +3175,7 @@
       <c r="H43" s="27" t="n">
         <v>12.65</v>
       </c>
-      <c r="I43" s="31" t="n">
+      <c r="I43" s="3" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3207,7 +3204,7 @@
       <c r="H44" s="27" t="n">
         <v>111.55</v>
       </c>
-      <c r="I44" s="31" t="n">
+      <c r="I44" s="3" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3236,7 +3233,7 @@
       <c r="H45" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="I45" s="31" t="n">
+      <c r="I45" s="3" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3265,7 +3262,7 @@
       <c r="H46" s="27" t="n">
         <v>21.9</v>
       </c>
-      <c r="I46" s="31" t="n">
+      <c r="I46" s="3" t="n">
         <v>29</v>
       </c>
     </row>
@@ -3531,10 +3528,10 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="56">
-      <c r="A56" s="33" t="n">
+      <c r="A56" s="32" t="n">
         <v>46</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="33" t="s">
         <v>105</v>
       </c>
       <c r="C56" s="26" t="s">
@@ -3559,7 +3556,7 @@
         <v>29</v>
       </c>
     </row>
-    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="57" s="35">
+    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="57" s="34">
       <c r="A57" s="13" t="n">
         <v>47</v>
       </c>
@@ -3704,19 +3701,19 @@
       <c r="C60" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="36" t="n">
+      <c r="D60" s="35" t="n">
         <v>68.9</v>
       </c>
-      <c r="E60" s="37" t="n">
+      <c r="E60" s="36" t="n">
         <v>74.55</v>
       </c>
-      <c r="F60" s="37" t="n">
+      <c r="F60" s="36" t="n">
         <v>71.35</v>
       </c>
-      <c r="G60" s="37" t="n">
+      <c r="G60" s="36" t="n">
         <v>75.9</v>
       </c>
-      <c r="H60" s="37" t="n">
+      <c r="H60" s="36" t="n">
         <v>13.8</v>
       </c>
       <c r="I60" s="3" t="n">
@@ -3782,28 +3779,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="63">
-      <c r="A63" s="33" t="n">
+      <c r="A63" s="32" t="n">
         <v>53</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="33" t="s">
         <v>119</v>
       </c>
       <c r="C63" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="D63" s="38" t="s">
+      <c r="D63" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="E63" s="38" t="s">
+      <c r="E63" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="F63" s="38" t="s">
+      <c r="F63" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G63" s="38" t="s">
+      <c r="G63" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="H63" s="38" t="s">
+      <c r="H63" s="37" t="s">
         <v>84</v>
       </c>
       <c r="I63" s="3" t="n">
@@ -3904,7 +3901,7 @@
       <c r="B67" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="39" t="s">
+      <c r="C67" s="38" t="s">
         <v>128</v>
       </c>
       <c r="D67" s="27" t="n">
@@ -3933,7 +3930,7 @@
       <c r="B68" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="38" t="s">
         <v>130</v>
       </c>
       <c r="D68" s="27" t="n">
@@ -4255,19 +4252,19 @@
       <c r="C79" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="D79" s="36" t="n">
+      <c r="D79" s="35" t="n">
         <v>101.9</v>
       </c>
-      <c r="E79" s="37" t="n">
+      <c r="E79" s="36" t="n">
         <v>110.4</v>
       </c>
-      <c r="F79" s="37" t="n">
+      <c r="F79" s="36" t="n">
         <v>103.95</v>
       </c>
-      <c r="G79" s="37" t="n">
+      <c r="G79" s="36" t="n">
         <v>112.4</v>
       </c>
-      <c r="H79" s="37" t="n">
+      <c r="H79" s="36" t="n">
         <v>15.3</v>
       </c>
       <c r="I79" s="3" t="n">
@@ -4284,19 +4281,19 @@
       <c r="C80" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D80" s="40" t="n">
+      <c r="D80" s="39" t="n">
         <v>60.95</v>
       </c>
-      <c r="E80" s="41" t="n">
+      <c r="E80" s="40" t="n">
         <v>65.45</v>
       </c>
-      <c r="F80" s="41" t="n">
+      <c r="F80" s="40" t="n">
         <v>61.9</v>
       </c>
-      <c r="G80" s="41" t="n">
+      <c r="G80" s="40" t="n">
         <v>67.95</v>
       </c>
-      <c r="H80" s="41" t="n">
+      <c r="H80" s="40" t="n">
         <v>13.45</v>
       </c>
       <c r="I80" s="3" t="n">
@@ -4774,7 +4771,7 @@
       <c r="B97" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C97" s="42" t="s">
+      <c r="C97" s="41" t="s">
         <v>188</v>
       </c>
       <c r="D97" s="27" t="n">
@@ -5053,7 +5050,7 @@
       <c r="H106" s="27" t="n">
         <v>23.7</v>
       </c>
-      <c r="I106" s="31" t="n">
+      <c r="I106" s="3" t="n">
         <v>30</v>
       </c>
     </row>
@@ -5666,7 +5663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="128" s="43">
+    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="128" s="42">
       <c r="A128" s="13" t="n">
         <v>118</v>
       </c>
@@ -5691,11 +5688,11 @@
       <c r="H128" s="27" t="n">
         <v>33.95</v>
       </c>
-      <c r="I128" s="44" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="129" s="43">
+      <c r="I128" s="43" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="129" s="42">
       <c r="A129" s="13" t="n">
         <v>119</v>
       </c>
@@ -5720,7 +5717,7 @@
       <c r="H129" s="27" t="n">
         <v>29.3</v>
       </c>
-      <c r="I129" s="44" t="n">
+      <c r="I129" s="43" t="n">
         <v>30</v>
       </c>
     </row>
@@ -6102,28 +6099,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="143">
-      <c r="A143" s="33" t="n">
+      <c r="A143" s="32" t="n">
         <v>133</v>
       </c>
-      <c r="B143" s="34" t="s">
+      <c r="B143" s="33" t="s">
         <v>279</v>
       </c>
       <c r="C143" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="D143" s="38" t="n">
+      <c r="D143" s="37" t="n">
         <v>71.65</v>
       </c>
-      <c r="E143" s="38" t="n">
+      <c r="E143" s="37" t="n">
         <v>83.15</v>
       </c>
-      <c r="F143" s="38" t="n">
+      <c r="F143" s="37" t="n">
         <v>74.2</v>
       </c>
-      <c r="G143" s="38" t="n">
+      <c r="G143" s="37" t="n">
         <v>82.2</v>
       </c>
-      <c r="H143" s="38" t="n">
+      <c r="H143" s="37" t="n">
         <v>23.05</v>
       </c>
       <c r="I143" s="3" t="n">
@@ -6131,28 +6128,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="144">
-      <c r="A144" s="33" t="n">
+      <c r="A144" s="32" t="n">
         <v>134</v>
       </c>
-      <c r="B144" s="34" t="s">
+      <c r="B144" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="C144" s="39" t="s">
+      <c r="C144" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="D144" s="38" t="n">
+      <c r="D144" s="37" t="n">
         <v>70.4</v>
       </c>
-      <c r="E144" s="38" t="n">
+      <c r="E144" s="37" t="n">
         <v>78.7</v>
       </c>
-      <c r="F144" s="38" t="n">
+      <c r="F144" s="37" t="n">
         <v>71.85</v>
       </c>
-      <c r="G144" s="38" t="n">
+      <c r="G144" s="37" t="n">
         <v>80.2</v>
       </c>
-      <c r="H144" s="38" t="n">
+      <c r="H144" s="37" t="n">
         <v>16.7</v>
       </c>
       <c r="I144" s="3" t="n">
@@ -6160,28 +6157,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="145">
-      <c r="A145" s="33" t="n">
+      <c r="A145" s="32" t="n">
         <v>135</v>
       </c>
-      <c r="B145" s="34" t="s">
+      <c r="B145" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="C145" s="39" t="s">
+      <c r="C145" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="D145" s="38" t="n">
+      <c r="D145" s="37" t="n">
         <v>57</v>
       </c>
-      <c r="E145" s="38" t="n">
+      <c r="E145" s="37" t="n">
         <v>65.3</v>
       </c>
-      <c r="F145" s="38" t="n">
+      <c r="F145" s="37" t="n">
         <v>58.45</v>
       </c>
-      <c r="G145" s="38" t="n">
+      <c r="G145" s="37" t="n">
         <v>66.8</v>
       </c>
-      <c r="H145" s="38" t="n">
+      <c r="H145" s="37" t="n">
         <v>18.65</v>
       </c>
       <c r="I145" s="3" t="n">
@@ -6189,28 +6186,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="146">
-      <c r="A146" s="33" t="n">
+      <c r="A146" s="32" t="n">
         <v>136</v>
       </c>
-      <c r="B146" s="34" t="s">
+      <c r="B146" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="C146" s="39" t="s">
+      <c r="C146" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="D146" s="38" t="n">
+      <c r="D146" s="37" t="n">
         <v>80.85</v>
       </c>
-      <c r="E146" s="38" t="n">
+      <c r="E146" s="37" t="n">
         <v>95.5</v>
       </c>
-      <c r="F146" s="38" t="n">
+      <c r="F146" s="37" t="n">
         <v>83.55</v>
       </c>
-      <c r="G146" s="38" t="n">
+      <c r="G146" s="37" t="n">
         <v>97.05</v>
       </c>
-      <c r="H146" s="38" t="n">
+      <c r="H146" s="37" t="n">
         <v>36.3</v>
       </c>
       <c r="I146" s="3" t="n">
@@ -6218,28 +6215,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="147">
-      <c r="A147" s="33" t="n">
+      <c r="A147" s="32" t="n">
         <v>137</v>
       </c>
-      <c r="B147" s="34" t="s">
+      <c r="B147" s="33" t="s">
         <v>287</v>
       </c>
       <c r="C147" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="D147" s="38" t="s">
+      <c r="D147" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="E147" s="38" t="s">
+      <c r="E147" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="F147" s="38" t="s">
+      <c r="F147" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G147" s="38" t="s">
+      <c r="G147" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="H147" s="38" t="s">
+      <c r="H147" s="37" t="s">
         <v>84</v>
       </c>
       <c r="I147" s="3" t="n">
@@ -6247,28 +6244,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="148">
-      <c r="A148" s="33" t="n">
+      <c r="A148" s="32" t="n">
         <v>138</v>
       </c>
-      <c r="B148" s="34" t="s">
+      <c r="B148" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="C148" s="39" t="s">
+      <c r="C148" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="D148" s="38" t="n">
+      <c r="D148" s="37" t="n">
         <v>68.85</v>
       </c>
-      <c r="E148" s="38" t="n">
+      <c r="E148" s="37" t="n">
         <v>91.85</v>
       </c>
-      <c r="F148" s="38" t="n">
+      <c r="F148" s="37" t="n">
         <v>71.15</v>
       </c>
-      <c r="G148" s="38" t="n">
+      <c r="G148" s="37" t="n">
         <v>94.25</v>
       </c>
-      <c r="H148" s="38" t="n">
+      <c r="H148" s="37" t="n">
         <v>43.5</v>
       </c>
       <c r="I148" s="3" t="n">
@@ -6276,28 +6273,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="149">
-      <c r="A149" s="33" t="n">
+      <c r="A149" s="32" t="n">
         <v>139</v>
       </c>
-      <c r="B149" s="34" t="s">
+      <c r="B149" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="C149" s="39" t="s">
+      <c r="C149" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="D149" s="38" t="n">
+      <c r="D149" s="37" t="n">
         <v>78.05</v>
       </c>
-      <c r="E149" s="38" t="n">
+      <c r="E149" s="37" t="n">
         <v>97.25</v>
       </c>
-      <c r="F149" s="38" t="n">
+      <c r="F149" s="37" t="n">
         <v>80.65</v>
       </c>
-      <c r="G149" s="38" t="n">
+      <c r="G149" s="37" t="n">
         <v>98.55</v>
       </c>
-      <c r="H149" s="38" t="n">
+      <c r="H149" s="37" t="n">
         <v>41.6</v>
       </c>
       <c r="I149" s="3" t="n">
@@ -6305,28 +6302,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="150">
-      <c r="A150" s="33" t="n">
+      <c r="A150" s="32" t="n">
         <v>140</v>
       </c>
-      <c r="B150" s="34" t="s">
+      <c r="B150" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="C150" s="39" t="s">
+      <c r="C150" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="D150" s="38" t="n">
+      <c r="D150" s="37" t="n">
         <v>50.5</v>
       </c>
-      <c r="E150" s="38" t="n">
+      <c r="E150" s="37" t="n">
         <v>54.05</v>
       </c>
-      <c r="F150" s="38" t="n">
+      <c r="F150" s="37" t="n">
         <v>53.5</v>
       </c>
-      <c r="G150" s="38" t="n">
+      <c r="G150" s="37" t="n">
         <v>56.85</v>
       </c>
-      <c r="H150" s="38" t="n">
+      <c r="H150" s="37" t="n">
         <v>4.1</v>
       </c>
       <c r="I150" s="3" t="n">
@@ -6334,28 +6331,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="151">
-      <c r="A151" s="33" t="n">
+      <c r="A151" s="32" t="n">
         <v>141</v>
       </c>
-      <c r="B151" s="34" t="s">
+      <c r="B151" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="C151" s="39" t="s">
+      <c r="C151" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="D151" s="45" t="n">
+      <c r="D151" s="44" t="n">
         <v>50.7</v>
       </c>
-      <c r="E151" s="46" t="n">
+      <c r="E151" s="45" t="n">
         <v>55.6</v>
       </c>
-      <c r="F151" s="46" t="n">
+      <c r="F151" s="45" t="n">
         <v>52.95</v>
       </c>
-      <c r="G151" s="46" t="n">
+      <c r="G151" s="45" t="n">
         <v>61.9</v>
       </c>
-      <c r="H151" s="46" t="n">
+      <c r="H151" s="45" t="n">
         <v>12.9</v>
       </c>
       <c r="I151" s="3" t="n">
@@ -6363,28 +6360,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="152">
-      <c r="A152" s="33" t="n">
+      <c r="A152" s="32" t="n">
         <v>142</v>
       </c>
-      <c r="B152" s="34" t="s">
+      <c r="B152" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="C152" s="47" t="s">
+      <c r="C152" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="D152" s="38" t="n">
+      <c r="D152" s="37" t="n">
         <v>57.05</v>
       </c>
-      <c r="E152" s="38" t="n">
+      <c r="E152" s="37" t="n">
         <v>59.45</v>
       </c>
-      <c r="F152" s="38" t="n">
+      <c r="F152" s="37" t="n">
         <v>67.45</v>
       </c>
-      <c r="G152" s="38" t="n">
+      <c r="G152" s="37" t="n">
         <v>69.9</v>
       </c>
-      <c r="H152" s="38" t="n">
+      <c r="H152" s="37" t="n">
         <v>4.25</v>
       </c>
       <c r="I152" s="3" t="n">
@@ -6392,28 +6389,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="153">
-      <c r="A153" s="33" t="n">
+      <c r="A153" s="32" t="n">
         <v>143</v>
       </c>
-      <c r="B153" s="33" t="s">
+      <c r="B153" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="C153" s="48" t="s">
+      <c r="C153" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="D153" s="38" t="n">
+      <c r="D153" s="37" t="n">
         <v>38</v>
       </c>
-      <c r="E153" s="38" t="n">
+      <c r="E153" s="37" t="n">
         <v>39.35</v>
       </c>
-      <c r="F153" s="38" t="n">
+      <c r="F153" s="37" t="n">
         <v>39.6</v>
       </c>
-      <c r="G153" s="38" t="n">
+      <c r="G153" s="37" t="n">
         <v>40.95</v>
       </c>
-      <c r="H153" s="38" t="n">
+      <c r="H153" s="37" t="n">
         <v>2.85</v>
       </c>
       <c r="I153" s="3" t="n">
@@ -6421,28 +6418,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="154">
-      <c r="A154" s="33" t="n">
+      <c r="A154" s="32" t="n">
         <v>144</v>
       </c>
-      <c r="B154" s="33" t="s">
+      <c r="B154" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="C154" s="48" t="s">
+      <c r="C154" s="47" t="s">
         <v>302</v>
       </c>
-      <c r="D154" s="38" t="n">
+      <c r="D154" s="37" t="n">
         <v>49</v>
       </c>
-      <c r="E154" s="38" t="n">
+      <c r="E154" s="37" t="n">
         <v>50.4</v>
       </c>
-      <c r="F154" s="38" t="n">
+      <c r="F154" s="37" t="n">
         <v>50.65</v>
       </c>
-      <c r="G154" s="38" t="n">
+      <c r="G154" s="37" t="n">
         <v>52</v>
       </c>
-      <c r="H154" s="38" t="n">
+      <c r="H154" s="37" t="n">
         <v>2.85</v>
       </c>
       <c r="I154" s="3" t="n">
@@ -6450,28 +6447,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="155">
-      <c r="A155" s="33" t="n">
+      <c r="A155" s="32" t="n">
         <v>145</v>
       </c>
-      <c r="B155" s="33" t="s">
+      <c r="B155" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="C155" s="48" t="s">
+      <c r="C155" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="D155" s="38" t="n">
+      <c r="D155" s="37" t="n">
         <v>38.85</v>
       </c>
-      <c r="E155" s="38" t="n">
+      <c r="E155" s="37" t="n">
         <v>40.2</v>
       </c>
-      <c r="F155" s="38" t="n">
+      <c r="F155" s="37" t="n">
         <v>40.45</v>
       </c>
-      <c r="G155" s="38" t="n">
+      <c r="G155" s="37" t="n">
         <v>41.8</v>
       </c>
-      <c r="H155" s="38" t="n">
+      <c r="H155" s="37" t="n">
         <v>2.85</v>
       </c>
       <c r="I155" s="3" t="n">
@@ -6479,26 +6476,26 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="156">
-      <c r="A156" s="33" t="n">
+      <c r="A156" s="32" t="n">
         <v>146</v>
       </c>
-      <c r="B156" s="33" t="n"/>
-      <c r="C156" s="48" t="s">
+      <c r="B156" s="32" t="n"/>
+      <c r="C156" s="47" t="s">
         <v>305</v>
       </c>
-      <c r="D156" s="38" t="n">
+      <c r="D156" s="37" t="n">
         <v>56.65</v>
       </c>
-      <c r="E156" s="38" t="n">
+      <c r="E156" s="37" t="n">
         <v>58.25</v>
       </c>
-      <c r="F156" s="38" t="n">
+      <c r="F156" s="37" t="n">
         <v>59.8</v>
       </c>
-      <c r="G156" s="38" t="n">
+      <c r="G156" s="37" t="n">
         <v>61.55</v>
       </c>
-      <c r="H156" s="38" t="n">
+      <c r="H156" s="37" t="n">
         <v>2.85</v>
       </c>
       <c r="I156" s="3" t="n">
@@ -6506,28 +6503,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="157">
-      <c r="A157" s="33" t="n">
+      <c r="A157" s="32" t="n">
         <v>147</v>
       </c>
-      <c r="B157" s="34" t="s">
+      <c r="B157" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="C157" s="39" t="s">
+      <c r="C157" s="38" t="s">
         <v>307</v>
       </c>
-      <c r="D157" s="38" t="n">
+      <c r="D157" s="37" t="n">
         <v>68.15</v>
       </c>
-      <c r="E157" s="38" t="n">
+      <c r="E157" s="37" t="n">
         <v>84.25</v>
       </c>
-      <c r="F157" s="38" t="n">
+      <c r="F157" s="37" t="n">
         <v>71.15</v>
       </c>
-      <c r="G157" s="38" t="n">
+      <c r="G157" s="37" t="n">
         <v>87.3</v>
       </c>
-      <c r="H157" s="38" t="n">
+      <c r="H157" s="37" t="n">
         <v>27.3</v>
       </c>
       <c r="I157" s="3" t="n">
@@ -6535,28 +6532,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="158">
-      <c r="A158" s="33" t="n">
+      <c r="A158" s="32" t="n">
         <v>148</v>
       </c>
-      <c r="B158" s="34" t="s">
+      <c r="B158" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="C158" s="39" t="s">
+      <c r="C158" s="38" t="s">
         <v>309</v>
       </c>
-      <c r="D158" s="38" t="n">
+      <c r="D158" s="37" t="n">
         <v>70.75</v>
       </c>
-      <c r="E158" s="38" t="n">
+      <c r="E158" s="37" t="n">
         <v>75.8</v>
       </c>
-      <c r="F158" s="38" t="n">
+      <c r="F158" s="37" t="n">
         <v>73.1</v>
       </c>
-      <c r="G158" s="38" t="n">
+      <c r="G158" s="37" t="n">
         <v>78.1</v>
       </c>
-      <c r="H158" s="38" t="n">
+      <c r="H158" s="37" t="n">
         <v>10.1</v>
       </c>
       <c r="I158" s="3" t="n">
@@ -6564,28 +6561,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="159">
-      <c r="A159" s="33" t="n">
+      <c r="A159" s="32" t="n">
         <v>149</v>
       </c>
-      <c r="B159" s="34" t="s">
+      <c r="B159" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="C159" s="39" t="s">
+      <c r="C159" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="D159" s="38" t="n">
+      <c r="D159" s="37" t="n">
         <v>86.7</v>
       </c>
-      <c r="E159" s="38" t="n">
+      <c r="E159" s="37" t="n">
         <v>111.35</v>
       </c>
-      <c r="F159" s="38" t="n">
+      <c r="F159" s="37" t="n">
         <v>88.2</v>
       </c>
-      <c r="G159" s="38" t="n">
+      <c r="G159" s="37" t="n">
         <v>112.85</v>
       </c>
-      <c r="H159" s="38" t="n">
+      <c r="H159" s="37" t="n">
         <v>49.3</v>
       </c>
       <c r="I159" s="3" t="n">
@@ -6593,28 +6590,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="160">
-      <c r="A160" s="33" t="n">
+      <c r="A160" s="32" t="n">
         <v>150</v>
       </c>
-      <c r="B160" s="34" t="s">
+      <c r="B160" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="C160" s="39" t="s">
+      <c r="C160" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="D160" s="38" t="n">
+      <c r="D160" s="37" t="n">
         <v>70</v>
       </c>
-      <c r="E160" s="38" t="n">
+      <c r="E160" s="37" t="n">
         <v>98.8</v>
       </c>
-      <c r="F160" s="38" t="n">
+      <c r="F160" s="37" t="n">
         <v>80</v>
       </c>
-      <c r="G160" s="38" t="n">
+      <c r="G160" s="37" t="n">
         <v>108.05</v>
       </c>
-      <c r="H160" s="38" t="n">
+      <c r="H160" s="37" t="n">
         <v>61.8</v>
       </c>
       <c r="I160" s="3" t="n">
@@ -6622,28 +6619,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="161">
-      <c r="A161" s="33" t="n">
+      <c r="A161" s="32" t="n">
         <v>151</v>
       </c>
-      <c r="B161" s="34" t="s">
+      <c r="B161" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="C161" s="39" t="s">
+      <c r="C161" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="D161" s="38" t="s">
+      <c r="D161" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E161" s="38" t="s">
+      <c r="E161" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F161" s="38" t="s">
+      <c r="F161" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G161" s="38" t="s">
+      <c r="G161" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H161" s="38" t="s">
+      <c r="H161" s="37" t="s">
         <v>25</v>
       </c>
       <c r="I161" s="3" t="n">
@@ -6651,28 +6648,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="162">
-      <c r="A162" s="33" t="n">
+      <c r="A162" s="32" t="n">
         <v>152</v>
       </c>
-      <c r="B162" s="34" t="s">
+      <c r="B162" s="33" t="s">
         <v>316</v>
       </c>
       <c r="C162" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="D162" s="38" t="n">
+      <c r="D162" s="37" t="n">
         <v>68.35</v>
       </c>
-      <c r="E162" s="38" t="n">
+      <c r="E162" s="37" t="n">
         <v>93.3</v>
       </c>
-      <c r="F162" s="38" t="n">
+      <c r="F162" s="37" t="n">
         <v>71.3</v>
       </c>
-      <c r="G162" s="38" t="n">
+      <c r="G162" s="37" t="n">
         <v>93.3</v>
       </c>
-      <c r="H162" s="38" t="n">
+      <c r="H162" s="37" t="n">
         <v>45.45</v>
       </c>
       <c r="I162" s="3" t="n">
@@ -6680,28 +6677,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="163">
-      <c r="A163" s="33" t="n">
+      <c r="A163" s="32" t="n">
         <v>153</v>
       </c>
-      <c r="B163" s="34" t="s">
+      <c r="B163" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="C163" s="39" t="s">
+      <c r="C163" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="D163" s="38" t="n">
+      <c r="D163" s="37" t="n">
         <v>79.35</v>
       </c>
-      <c r="E163" s="38" t="n">
+      <c r="E163" s="37" t="n">
         <v>92.1</v>
       </c>
-      <c r="F163" s="38" t="n">
+      <c r="F163" s="37" t="n">
         <v>80.85</v>
       </c>
-      <c r="G163" s="38" t="n">
+      <c r="G163" s="37" t="n">
         <v>93.6</v>
       </c>
-      <c r="H163" s="38" t="n">
+      <c r="H163" s="37" t="n">
         <v>24.15</v>
       </c>
       <c r="I163" s="3" t="n">
@@ -6709,13 +6706,13 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="164">
-      <c r="A164" s="33" t="n">
+      <c r="A164" s="32" t="n">
         <v>154</v>
       </c>
       <c r="B164" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="C164" s="49" t="s">
+      <c r="C164" s="48" t="s">
         <v>321</v>
       </c>
       <c r="D164" s="27" t="n">
@@ -6738,7 +6735,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="165">
-      <c r="A165" s="33" t="n">
+      <c r="A165" s="32" t="n">
         <v>155</v>
       </c>
       <c r="B165" s="25" t="s">
@@ -6767,7 +6764,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="166">
-      <c r="A166" s="33" t="n">
+      <c r="A166" s="32" t="n">
         <v>156</v>
       </c>
       <c r="B166" s="25" t="s">
@@ -6796,7 +6793,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="167">
-      <c r="A167" s="33" t="n">
+      <c r="A167" s="32" t="n">
         <v>157</v>
       </c>
       <c r="B167" s="25" t="s">
@@ -6825,7 +6822,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="168">
-      <c r="A168" s="33" t="n">
+      <c r="A168" s="32" t="n">
         <v>158</v>
       </c>
       <c r="B168" s="25" t="s">
@@ -6834,19 +6831,19 @@
       <c r="C168" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="D168" s="38" t="n">
+      <c r="D168" s="37" t="n">
         <v>257.25</v>
       </c>
-      <c r="E168" s="38" t="n">
+      <c r="E168" s="37" t="n">
         <v>293.9</v>
       </c>
-      <c r="F168" s="38" t="n">
+      <c r="F168" s="37" t="n">
         <v>258.8</v>
       </c>
-      <c r="G168" s="38" t="n">
+      <c r="G168" s="37" t="n">
         <v>295.45</v>
       </c>
-      <c r="H168" s="38" t="n">
+      <c r="H168" s="37" t="n">
         <v>141.1</v>
       </c>
       <c r="I168" s="3" t="n">
@@ -6854,7 +6851,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="169">
-      <c r="A169" s="33" t="n">
+      <c r="A169" s="32" t="n">
         <v>159</v>
       </c>
       <c r="B169" s="25" t="s">
@@ -6883,7 +6880,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="170">
-      <c r="A170" s="33" t="n">
+      <c r="A170" s="32" t="n">
         <v>160</v>
       </c>
       <c r="B170" s="13" t="s">
@@ -6912,7 +6909,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="171">
-      <c r="A171" s="33" t="n">
+      <c r="A171" s="32" t="n">
         <v>161</v>
       </c>
       <c r="B171" s="25" t="s">
@@ -6941,7 +6938,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="172">
-      <c r="A172" s="33" t="n">
+      <c r="A172" s="32" t="n">
         <v>162</v>
       </c>
       <c r="B172" s="25" t="s">
@@ -6970,28 +6967,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="173">
-      <c r="A173" s="33" t="n">
+      <c r="A173" s="32" t="n">
         <v>163</v>
       </c>
-      <c r="B173" s="34" t="s">
+      <c r="B173" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="C173" s="39" t="s">
+      <c r="C173" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="D173" s="38" t="s">
+      <c r="D173" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E173" s="38" t="s">
+      <c r="E173" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F173" s="38" t="s">
+      <c r="F173" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G173" s="38" t="s">
+      <c r="G173" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H173" s="38" t="s">
+      <c r="H173" s="37" t="s">
         <v>25</v>
       </c>
       <c r="I173" s="3" t="n">
@@ -6999,7 +6996,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="174">
-      <c r="A174" s="33" t="n">
+      <c r="A174" s="32" t="n">
         <v>164</v>
       </c>
       <c r="B174" s="25" t="s">
@@ -7028,7 +7025,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="175">
-      <c r="A175" s="33" t="n">
+      <c r="A175" s="32" t="n">
         <v>165</v>
       </c>
       <c r="B175" s="25" t="s">
@@ -7057,7 +7054,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="176">
-      <c r="A176" s="33" t="n">
+      <c r="A176" s="32" t="n">
         <v>166</v>
       </c>
       <c r="B176" s="25" t="s">
@@ -7086,7 +7083,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="177">
-      <c r="A177" s="33" t="n">
+      <c r="A177" s="32" t="n">
         <v>167</v>
       </c>
       <c r="B177" s="25" t="s">
@@ -7115,7 +7112,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="178">
-      <c r="A178" s="33" t="n">
+      <c r="A178" s="32" t="n">
         <v>168</v>
       </c>
       <c r="B178" s="25" t="s">
@@ -7144,7 +7141,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="179">
-      <c r="A179" s="33" t="n">
+      <c r="A179" s="32" t="n">
         <v>169</v>
       </c>
       <c r="B179" s="25" t="s">
@@ -7173,13 +7170,13 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="180">
-      <c r="A180" s="33" t="n">
+      <c r="A180" s="32" t="n">
         <v>170</v>
       </c>
-      <c r="B180" s="50" t="s">
+      <c r="B180" s="49" t="s">
         <v>351</v>
       </c>
-      <c r="C180" s="51" t="s">
+      <c r="C180" s="50" t="s">
         <v>352</v>
       </c>
       <c r="D180" s="27" t="n">
@@ -7202,7 +7199,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="181">
-      <c r="A181" s="33" t="n">
+      <c r="A181" s="32" t="n">
         <v>171</v>
       </c>
       <c r="B181" s="25" t="s">
@@ -7231,7 +7228,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="182">
-      <c r="A182" s="33" t="n">
+      <c r="A182" s="32" t="n">
         <v>172</v>
       </c>
       <c r="B182" s="25" t="s">
@@ -7260,7 +7257,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="183">
-      <c r="A183" s="33" t="n">
+      <c r="A183" s="32" t="n">
         <v>173</v>
       </c>
       <c r="B183" s="25" t="s">
@@ -7289,7 +7286,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="184">
-      <c r="A184" s="33" t="n">
+      <c r="A184" s="32" t="n">
         <v>174</v>
       </c>
       <c r="B184" s="25" t="s">
@@ -7318,7 +7315,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="185">
-      <c r="A185" s="33" t="n">
+      <c r="A185" s="32" t="n">
         <v>175</v>
       </c>
       <c r="B185" s="25" t="s">
@@ -7347,13 +7344,13 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="186">
-      <c r="A186" s="33" t="n">
+      <c r="A186" s="32" t="n">
         <v>176</v>
       </c>
       <c r="B186" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="C186" s="52" t="s">
+      <c r="C186" s="51" t="s">
         <v>364</v>
       </c>
       <c r="D186" s="27" t="n">
@@ -7376,7 +7373,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="187">
-      <c r="A187" s="33" t="n">
+      <c r="A187" s="32" t="n">
         <v>177</v>
       </c>
       <c r="B187" s="13" t="s">
@@ -7405,7 +7402,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="188">
-      <c r="A188" s="33" t="n">
+      <c r="A188" s="32" t="n">
         <v>178</v>
       </c>
       <c r="B188" s="25" t="s">
@@ -7434,7 +7431,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="189">
-      <c r="A189" s="33" t="n">
+      <c r="A189" s="32" t="n">
         <v>179</v>
       </c>
       <c r="B189" s="25" t="s">
@@ -7463,7 +7460,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="190">
-      <c r="A190" s="33" t="n">
+      <c r="A190" s="32" t="n">
         <v>180</v>
       </c>
       <c r="B190" s="25" t="s">
@@ -7492,7 +7489,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="191">
-      <c r="A191" s="33" t="n">
+      <c r="A191" s="32" t="n">
         <v>181</v>
       </c>
       <c r="B191" s="25" t="s">
@@ -7521,7 +7518,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="192">
-      <c r="A192" s="33" t="n">
+      <c r="A192" s="32" t="n">
         <v>182</v>
       </c>
       <c r="B192" s="25" t="s">
@@ -7550,7 +7547,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="193">
-      <c r="A193" s="33" t="n">
+      <c r="A193" s="32" t="n">
         <v>183</v>
       </c>
       <c r="B193" s="25" t="s">
@@ -7579,7 +7576,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="194">
-      <c r="A194" s="33" t="n">
+      <c r="A194" s="32" t="n">
         <v>184</v>
       </c>
       <c r="B194" s="25" t="s">
@@ -7608,7 +7605,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="195">
-      <c r="A195" s="33" t="n">
+      <c r="A195" s="32" t="n">
         <v>185</v>
       </c>
       <c r="B195" s="25" t="s">
@@ -7637,7 +7634,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="196">
-      <c r="A196" s="33" t="n">
+      <c r="A196" s="32" t="n">
         <v>186</v>
       </c>
       <c r="B196" s="25" t="s">
@@ -7666,7 +7663,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="197">
-      <c r="A197" s="33" t="n">
+      <c r="A197" s="32" t="n">
         <v>187</v>
       </c>
       <c r="B197" s="25" t="s">
@@ -7695,7 +7692,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="198">
-      <c r="A198" s="33" t="n">
+      <c r="A198" s="32" t="n">
         <v>188</v>
       </c>
       <c r="B198" s="25" t="s">
@@ -7724,13 +7721,13 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="199">
-      <c r="A199" s="33" t="n">
+      <c r="A199" s="32" t="n">
         <v>189</v>
       </c>
       <c r="B199" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C199" s="53" t="s">
+      <c r="C199" s="52" t="s">
         <v>390</v>
       </c>
       <c r="D199" s="27" t="n">
@@ -7753,7 +7750,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="200">
-      <c r="A200" s="33" t="n">
+      <c r="A200" s="32" t="n">
         <v>190</v>
       </c>
       <c r="B200" s="25" t="s">
@@ -7782,7 +7779,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="201">
-      <c r="A201" s="33" t="n">
+      <c r="A201" s="32" t="n">
         <v>191</v>
       </c>
       <c r="B201" s="25" t="s">
@@ -7811,13 +7808,13 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="202">
-      <c r="A202" s="33" t="n">
+      <c r="A202" s="32" t="n">
         <v>192</v>
       </c>
       <c r="B202" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="C202" s="49" t="s">
+      <c r="C202" s="48" t="s">
         <v>396</v>
       </c>
       <c r="D202" s="27" t="n">
@@ -7840,7 +7837,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="203">
-      <c r="A203" s="33" t="n">
+      <c r="A203" s="32" t="n">
         <v>193</v>
       </c>
       <c r="B203" s="25" t="s">
@@ -7869,7 +7866,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="204">
-      <c r="A204" s="33" t="n">
+      <c r="A204" s="32" t="n">
         <v>194</v>
       </c>
       <c r="B204" s="25" t="s">
@@ -7898,7 +7895,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="205">
-      <c r="A205" s="33" t="n">
+      <c r="A205" s="32" t="n">
         <v>195</v>
       </c>
       <c r="B205" s="25" t="s">
@@ -7927,7 +7924,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="206">
-      <c r="A206" s="33" t="n">
+      <c r="A206" s="32" t="n">
         <v>196</v>
       </c>
       <c r="B206" s="25" t="s">
@@ -7956,13 +7953,13 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="207">
-      <c r="A207" s="33" t="n">
+      <c r="A207" s="32" t="n">
         <v>197</v>
       </c>
       <c r="B207" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="C207" s="53" t="s">
+      <c r="C207" s="52" t="s">
         <v>406</v>
       </c>
       <c r="D207" s="27" t="n">
@@ -7985,7 +7982,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="208">
-      <c r="A208" s="33" t="n">
+      <c r="A208" s="32" t="n">
         <v>198</v>
       </c>
       <c r="B208" s="25" t="s">
@@ -8014,7 +8011,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="209">
-      <c r="A209" s="33" t="n">
+      <c r="A209" s="32" t="n">
         <v>199</v>
       </c>
       <c r="B209" s="25" t="s">
@@ -8043,7 +8040,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="210">
-      <c r="A210" s="33" t="n">
+      <c r="A210" s="32" t="n">
         <v>200</v>
       </c>
       <c r="B210" s="25" t="s">
@@ -8072,7 +8069,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="211">
-      <c r="A211" s="33" t="n">
+      <c r="A211" s="32" t="n">
         <v>201</v>
       </c>
       <c r="B211" s="25" t="s">
@@ -8101,7 +8098,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="212">
-      <c r="A212" s="33" t="n">
+      <c r="A212" s="32" t="n">
         <v>202</v>
       </c>
       <c r="B212" s="25" t="s">
@@ -8130,7 +8127,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="213">
-      <c r="A213" s="33" t="n">
+      <c r="A213" s="32" t="n">
         <v>203</v>
       </c>
       <c r="B213" s="25" t="s">
@@ -8159,7 +8156,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="214">
-      <c r="A214" s="33" t="n">
+      <c r="A214" s="32" t="n">
         <v>204</v>
       </c>
       <c r="B214" s="25" t="s">
@@ -8188,7 +8185,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="215">
-      <c r="A215" s="33" t="n">
+      <c r="A215" s="32" t="n">
         <v>205</v>
       </c>
       <c r="B215" s="25" t="s">
@@ -8217,7 +8214,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="216">
-      <c r="A216" s="33" t="n">
+      <c r="A216" s="32" t="n">
         <v>206</v>
       </c>
       <c r="B216" s="25" t="s">
@@ -8246,7 +8243,7 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="217">
-      <c r="A217" s="33" t="n">
+      <c r="A217" s="32" t="n">
         <v>207</v>
       </c>
       <c r="B217" s="25" t="s">
@@ -8330,15 +8327,15 @@
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
-      <c r="A1" s="54" t="n"/>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="53" t="n"/>
+      <c r="B1" s="54" t="s">
         <v>427</v>
       </c>
-      <c r="C1" s="56" t="s"/>
-      <c r="D1" s="56" t="s"/>
-      <c r="E1" s="56" t="s"/>
-      <c r="F1" s="56" t="s"/>
-      <c r="G1" s="57" t="s"/>
+      <c r="C1" s="55" t="s"/>
+      <c r="D1" s="55" t="s"/>
+      <c r="E1" s="55" t="s"/>
+      <c r="F1" s="55" t="s"/>
+      <c r="G1" s="56" t="s"/>
       <c r="H1" s="4" t="n"/>
       <c r="I1" s="4" t="n"/>
       <c r="J1" s="4" t="n"/>
@@ -8396,17 +8393,17 @@
       <c r="BJ1" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="47.2499923706055" outlineLevel="0" r="2">
-      <c r="A2" s="33" t="n">
+      <c r="A2" s="32" t="n">
         <v>208</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="59" t="s"/>
-      <c r="D2" s="59" t="s"/>
-      <c r="E2" s="59" t="s"/>
-      <c r="F2" s="59" t="s"/>
-      <c r="G2" s="60" t="s"/>
+      <c r="C2" s="58" t="s"/>
+      <c r="D2" s="58" t="s"/>
+      <c r="E2" s="58" t="s"/>
+      <c r="F2" s="58" t="s"/>
+      <c r="G2" s="59" t="s"/>
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
@@ -8464,17 +8461,17 @@
       <c r="BJ2" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="33" t="n">
+      <c r="A3" s="32" t="n">
         <v>209</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="57" t="s">
         <v>429</v>
       </c>
-      <c r="C3" s="59" t="s"/>
-      <c r="D3" s="59" t="s"/>
-      <c r="E3" s="59" t="s"/>
-      <c r="F3" s="60" t="s"/>
-      <c r="G3" s="61" t="n">
+      <c r="C3" s="58" t="s"/>
+      <c r="D3" s="58" t="s"/>
+      <c r="E3" s="58" t="s"/>
+      <c r="F3" s="59" t="s"/>
+      <c r="G3" s="60" t="n">
         <v>7.45</v>
       </c>
       <c r="H3" s="4" t="n"/>
@@ -8534,17 +8531,17 @@
       <c r="BJ3" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="33" t="n">
+      <c r="A4" s="32" t="n">
         <v>210</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="57" t="s">
         <v>430</v>
       </c>
-      <c r="C4" s="59" t="s"/>
-      <c r="D4" s="59" t="s"/>
-      <c r="E4" s="59" t="s"/>
-      <c r="F4" s="60" t="s"/>
-      <c r="G4" s="61" t="n">
+      <c r="C4" s="58" t="s"/>
+      <c r="D4" s="58" t="s"/>
+      <c r="E4" s="58" t="s"/>
+      <c r="F4" s="59" t="s"/>
+      <c r="G4" s="60" t="n">
         <v>0.33</v>
       </c>
       <c r="H4" s="4" t="n"/>
@@ -8604,17 +8601,17 @@
       <c r="BJ4" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="47.0068206787109" outlineLevel="0" r="5">
-      <c r="A5" s="33" t="n">
+      <c r="A5" s="32" t="n">
         <v>211</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="57" t="s">
         <v>431</v>
       </c>
-      <c r="C5" s="59" t="s"/>
-      <c r="D5" s="59" t="s"/>
-      <c r="E5" s="59" t="s"/>
-      <c r="F5" s="59" t="s"/>
-      <c r="G5" s="60" t="s"/>
+      <c r="C5" s="58" t="s"/>
+      <c r="D5" s="58" t="s"/>
+      <c r="E5" s="58" t="s"/>
+      <c r="F5" s="58" t="s"/>
+      <c r="G5" s="59" t="s"/>
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
@@ -8672,17 +8669,17 @@
       <c r="BJ5" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="55.4999847412109" outlineLevel="0" r="6">
-      <c r="A6" s="33" t="n">
+      <c r="A6" s="32" t="n">
         <v>212</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="57" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="59" t="s"/>
-      <c r="D6" s="59" t="s"/>
-      <c r="E6" s="59" t="s"/>
-      <c r="F6" s="59" t="s"/>
-      <c r="G6" s="60" t="s"/>
+      <c r="C6" s="58" t="s"/>
+      <c r="D6" s="58" t="s"/>
+      <c r="E6" s="58" t="s"/>
+      <c r="F6" s="58" t="s"/>
+      <c r="G6" s="59" t="s"/>
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
@@ -8740,17 +8737,17 @@
       <c r="BJ6" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="33" t="n">
+      <c r="A7" s="32" t="n">
         <v>213</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="57" t="s">
         <v>433</v>
       </c>
-      <c r="C7" s="59" t="s"/>
-      <c r="D7" s="59" t="s"/>
-      <c r="E7" s="59" t="s"/>
-      <c r="F7" s="59" t="s"/>
-      <c r="G7" s="60" t="s"/>
+      <c r="C7" s="58" t="s"/>
+      <c r="D7" s="58" t="s"/>
+      <c r="E7" s="58" t="s"/>
+      <c r="F7" s="58" t="s"/>
+      <c r="G7" s="59" t="s"/>
       <c r="H7" s="4" t="n"/>
       <c r="I7" s="4" t="n"/>
       <c r="J7" s="4" t="n"/>
@@ -8808,17 +8805,17 @@
       <c r="BJ7" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="33" t="n">
+      <c r="A8" s="32" t="n">
         <v>214</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="61" t="s">
         <v>434</v>
       </c>
-      <c r="C8" s="63" t="s"/>
-      <c r="D8" s="63" t="s"/>
-      <c r="E8" s="63" t="s"/>
-      <c r="F8" s="64" t="s"/>
-      <c r="G8" s="65" t="n">
+      <c r="C8" s="62" t="s"/>
+      <c r="D8" s="62" t="s"/>
+      <c r="E8" s="62" t="s"/>
+      <c r="F8" s="63" t="s"/>
+      <c r="G8" s="64" t="n">
         <v>0.03</v>
       </c>
       <c r="H8" s="4" t="n"/>
@@ -8878,17 +8875,17 @@
       <c r="BJ8" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="9">
-      <c r="A9" s="33" t="n">
+      <c r="A9" s="32" t="n">
         <v>215</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="57" t="s">
         <v>435</v>
       </c>
-      <c r="C9" s="59" t="s"/>
-      <c r="D9" s="59" t="s"/>
-      <c r="E9" s="59" t="s"/>
-      <c r="F9" s="59" t="s"/>
-      <c r="G9" s="60" t="s"/>
+      <c r="C9" s="58" t="s"/>
+      <c r="D9" s="58" t="s"/>
+      <c r="E9" s="58" t="s"/>
+      <c r="F9" s="58" t="s"/>
+      <c r="G9" s="59" t="s"/>
       <c r="H9" s="4" t="n"/>
       <c r="I9" s="4" t="n"/>
       <c r="J9" s="4" t="n"/>
@@ -8946,17 +8943,17 @@
       <c r="BJ9" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="72.7587585449219" outlineLevel="0" r="10">
-      <c r="A10" s="33" t="n">
+      <c r="A10" s="32" t="n">
         <v>216</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="57" t="s">
         <v>436</v>
       </c>
-      <c r="C10" s="59" t="s"/>
-      <c r="D10" s="59" t="s"/>
-      <c r="E10" s="59" t="s"/>
-      <c r="F10" s="59" t="s"/>
-      <c r="G10" s="60" t="s"/>
+      <c r="C10" s="58" t="s"/>
+      <c r="D10" s="58" t="s"/>
+      <c r="E10" s="58" t="s"/>
+      <c r="F10" s="58" t="s"/>
+      <c r="G10" s="59" t="s"/>
       <c r="H10" s="4" t="n"/>
       <c r="I10" s="4" t="n"/>
       <c r="J10" s="4" t="n"/>

--- a/calc/files/ems_int.xlsx
+++ b/calc/files/ems_int.xlsx
@@ -1163,7 +1163,13 @@
     <t>VI</t>
   </si>
   <si>
-    <t>Виргинские острова (США)</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <sz val="10"/>
+      </rPr>
+      <t>Виргинские острова (США)</t>
+    </r>
   </si>
   <si>
     <t>SL</t>
@@ -1483,7 +1489,7 @@
     <numFmt co:extendedFormatCode="#,##0.00" formatCode="#,##0.00" numFmtId="1003"/>
     <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1004"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <sz val="11"/>
@@ -1509,6 +1515,10 @@
     <font>
       <name val="Arial Cyr"/>
       <i val="true"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <sz val="10"/>
     </font>
     <font>
@@ -1839,7 +1849,7 @@
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="3" fontId="6" numFmtId="1000" quotePrefix="false">

--- a/calc/files/ems_int.xlsx
+++ b/calc/files/ems_int.xlsx
@@ -28,7 +28,15 @@
     <t xml:space="preserve">  Раздел 4. Тарифы на пересылку отправлений международной ускоренной почты</t>
   </si>
   <si>
-    <t>в действии с 01.01.2025</t>
+    <r>
+      <rPr>
+        <rFont val="Arial Cyr"/>
+        <i val="true"/>
+        <color rgb="FB290D" tint="0"/>
+        <sz val="10"/>
+      </rPr>
+      <t>в действии с 01.01.2025</t>
+    </r>
   </si>
   <si>
     <t>№  п/п</t>
@@ -2711,7 +2719,7 @@
     <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1003"/>
     <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1004"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <sz val="11"/>
@@ -2736,7 +2744,13 @@
     </font>
     <font>
       <name val="Arial Cyr"/>
+      <color rgb="FB290D" tint="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial Cyr"/>
       <i val="true"/>
+      <color rgb="FB290D" tint="0"/>
       <sz val="10"/>
     </font>
     <font>
@@ -2872,7 +2886,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left"/>
@@ -2902,7 +2916,10 @@
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="5" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="5" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="6" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="right"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
@@ -2911,13 +2928,13 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
@@ -2947,22 +2964,22 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="right" indent="2" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="right" indent="2" shrinkToFit="true" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
@@ -2978,7 +2995,7 @@
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="2" fontId="4" numFmtId="1000" quotePrefix="false">
@@ -2993,11 +3010,20 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1003" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1003" quotePrefix="false">
+      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
@@ -3005,16 +3031,7 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1003" quotePrefix="false">
-      <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1004" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3292,7 +3309,7 @@
       <c r="G4" s="6" t="n"/>
       <c r="H4" s="6" t="n"/>
     </row>
-    <row customHeight="true" ht="31.5" outlineLevel="0" r="5">
+    <row customHeight="true" ht="17.2499923706055" outlineLevel="0" r="5">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -3303,81 +3320,82 @@
       <c r="C6" s="10" t="n"/>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="11" t="n"/>
+      <c r="G7" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row customHeight="true" ht="20.25" outlineLevel="0" r="8">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="n"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="15" t="s"/>
-      <c r="F8" s="15" t="s"/>
-      <c r="G8" s="15" t="s"/>
-      <c r="H8" s="16" t="s"/>
+      <c r="E8" s="16" t="s"/>
+      <c r="F8" s="16" t="s"/>
+      <c r="G8" s="16" t="s"/>
+      <c r="H8" s="17" t="s"/>
     </row>
     <row customHeight="true" ht="13.1499996185303" outlineLevel="0" r="9">
-      <c r="B9" s="17" t="s"/>
-      <c r="C9" s="18" t="s"/>
-      <c r="D9" s="19" t="s">
+      <c r="B9" s="18" t="s"/>
+      <c r="C9" s="19" t="s"/>
+      <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="20" t="s"/>
-      <c r="F9" s="19" t="s">
+      <c r="E9" s="21" t="s"/>
+      <c r="F9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="20" t="s"/>
-      <c r="H9" s="21" t="s">
+      <c r="G9" s="21" t="s"/>
+      <c r="H9" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row customHeight="true" ht="39.75" outlineLevel="0" r="10">
-      <c r="B10" s="22" t="s"/>
-      <c r="C10" s="23" t="s"/>
-      <c r="D10" s="21" t="s">
+      <c r="B10" s="23" t="s"/>
+      <c r="C10" s="24" t="s"/>
+      <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="24" t="s"/>
+      <c r="H10" s="25" t="s"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="13" t="n">
+      <c r="A11" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="27" t="n">
+      <c r="D11" s="28" t="n">
         <v>108.8</v>
       </c>
-      <c r="E11" s="27" t="n">
+      <c r="E11" s="28" t="n">
         <v>137.05</v>
       </c>
-      <c r="F11" s="27" t="n">
+      <c r="F11" s="28" t="n">
         <v>110.8</v>
       </c>
-      <c r="G11" s="28" t="n">
+      <c r="G11" s="29" t="n">
         <v>139</v>
       </c>
-      <c r="H11" s="27" t="n">
+      <c r="H11" s="28" t="n">
         <v>56.45</v>
       </c>
       <c r="I11" s="3" t="n">
@@ -3385,28 +3403,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="13" t="n">
+      <c r="A12" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="27" t="n">
+      <c r="D12" s="28" t="n">
         <v>64.1</v>
       </c>
-      <c r="E12" s="27" t="n">
+      <c r="E12" s="28" t="n">
         <v>68.9</v>
       </c>
-      <c r="F12" s="27" t="n">
+      <c r="F12" s="28" t="n">
         <v>65.7</v>
       </c>
-      <c r="G12" s="28" t="n">
+      <c r="G12" s="29" t="n">
         <v>70.45</v>
       </c>
-      <c r="H12" s="27" t="n">
+      <c r="H12" s="28" t="n">
         <v>9.6</v>
       </c>
       <c r="I12" s="3" t="n">
@@ -3414,28 +3432,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="13" t="n">
+      <c r="A13" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="27" t="n">
+      <c r="D13" s="28" t="n">
         <v>65.45</v>
       </c>
-      <c r="E13" s="27" t="n">
+      <c r="E13" s="28" t="n">
         <v>69.05</v>
       </c>
-      <c r="F13" s="27" t="n">
+      <c r="F13" s="28" t="n">
         <v>67.35</v>
       </c>
-      <c r="G13" s="28" t="n">
+      <c r="G13" s="29" t="n">
         <v>73.4</v>
       </c>
-      <c r="H13" s="27" t="n">
+      <c r="H13" s="28" t="n">
         <v>7.65</v>
       </c>
       <c r="I13" s="3" t="n">
@@ -3443,28 +3461,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="13" t="n">
+      <c r="A14" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="27" t="n">
+      <c r="D14" s="28" t="n">
         <v>65.3</v>
       </c>
-      <c r="E14" s="27" t="n">
+      <c r="E14" s="28" t="n">
         <v>80</v>
       </c>
-      <c r="F14" s="27" t="n">
+      <c r="F14" s="28" t="n">
         <v>67.9</v>
       </c>
-      <c r="G14" s="28" t="n">
+      <c r="G14" s="29" t="n">
         <v>83.1</v>
       </c>
-      <c r="H14" s="27" t="n">
+      <c r="H14" s="28" t="n">
         <v>25.5</v>
       </c>
       <c r="I14" s="3" t="n">
@@ -3472,28 +3490,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="13" t="n">
+      <c r="A15" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="27" t="n">
+      <c r="D15" s="28" t="n">
         <v>62.8</v>
       </c>
-      <c r="E15" s="27" t="n">
+      <c r="E15" s="28" t="n">
         <v>74.5</v>
       </c>
-      <c r="F15" s="27" t="n">
+      <c r="F15" s="28" t="n">
         <v>65.75</v>
       </c>
-      <c r="G15" s="28" t="n">
+      <c r="G15" s="29" t="n">
         <v>76.95</v>
       </c>
-      <c r="H15" s="27" t="n">
+      <c r="H15" s="28" t="n">
         <v>23.8</v>
       </c>
       <c r="I15" s="3" t="n">
@@ -3501,28 +3519,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="13" t="n">
+      <c r="A16" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="30" t="s">
         <v>25</v>
       </c>
       <c r="I16" s="3" t="n">
@@ -3530,28 +3548,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="13" t="n">
+      <c r="A17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="27" t="n">
+      <c r="D17" s="28" t="n">
         <v>57.75</v>
       </c>
-      <c r="E17" s="27" t="n">
+      <c r="E17" s="28" t="n">
         <v>78.05</v>
       </c>
-      <c r="F17" s="27" t="n">
+      <c r="F17" s="28" t="n">
         <v>59.25</v>
       </c>
-      <c r="G17" s="28" t="n">
+      <c r="G17" s="29" t="n">
         <v>81.25</v>
       </c>
-      <c r="H17" s="27" t="n">
+      <c r="H17" s="28" t="n">
         <v>39.1</v>
       </c>
       <c r="I17" s="3" t="n">
@@ -3559,28 +3577,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="13" t="n">
+      <c r="A18" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="27" t="n">
+      <c r="C18" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="28" t="n">
         <v>47.6</v>
       </c>
-      <c r="E18" s="27" t="n">
+      <c r="E18" s="28" t="n">
         <v>65.55</v>
       </c>
-      <c r="F18" s="27" t="n">
+      <c r="F18" s="28" t="n">
         <v>54.55</v>
       </c>
-      <c r="G18" s="28" t="n">
+      <c r="G18" s="29" t="n">
         <v>71.8</v>
       </c>
-      <c r="H18" s="27" t="n">
+      <c r="H18" s="28" t="n">
         <v>36.05</v>
       </c>
       <c r="I18" s="3" t="n">
@@ -3588,28 +3606,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="13" t="n">
+      <c r="A19" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="27" t="n">
+      <c r="D19" s="28" t="n">
         <v>86.25</v>
       </c>
-      <c r="E19" s="27" t="n">
+      <c r="E19" s="28" t="n">
         <v>107.25</v>
       </c>
-      <c r="F19" s="27" t="n">
+      <c r="F19" s="28" t="n">
         <v>104.2</v>
       </c>
-      <c r="G19" s="28" t="n">
+      <c r="G19" s="29" t="n">
         <v>125.2</v>
       </c>
-      <c r="H19" s="27" t="n">
+      <c r="H19" s="28" t="n">
         <v>46</v>
       </c>
       <c r="I19" s="3" t="n">
@@ -3617,28 +3635,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="13" t="n">
+      <c r="A20" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="27" t="n">
+      <c r="D20" s="28" t="n">
         <v>75.45</v>
       </c>
-      <c r="E20" s="27" t="n">
+      <c r="E20" s="28" t="n">
         <v>82.05</v>
       </c>
-      <c r="F20" s="27" t="n">
+      <c r="F20" s="28" t="n">
         <v>91.15</v>
       </c>
-      <c r="G20" s="28" t="n">
+      <c r="G20" s="29" t="n">
         <v>97.7</v>
       </c>
-      <c r="H20" s="27" t="n">
+      <c r="H20" s="28" t="n">
         <v>14</v>
       </c>
       <c r="I20" s="3" t="n">
@@ -3646,28 +3664,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="13" t="n">
+      <c r="A21" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="27" t="n">
+      <c r="D21" s="28" t="n">
         <v>85.05</v>
       </c>
-      <c r="E21" s="27" t="n">
+      <c r="E21" s="28" t="n">
         <v>108</v>
       </c>
-      <c r="F21" s="27" t="n">
+      <c r="F21" s="28" t="n">
         <v>88.2</v>
       </c>
-      <c r="G21" s="28" t="n">
+      <c r="G21" s="29" t="n">
         <v>108.4</v>
       </c>
-      <c r="H21" s="27" t="n">
+      <c r="H21" s="28" t="n">
         <v>39.65</v>
       </c>
       <c r="I21" s="3" t="n">
@@ -3675,28 +3693,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="22">
-      <c r="A22" s="13" t="n">
+      <c r="A22" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="27" t="n">
+      <c r="D22" s="28" t="n">
         <v>68.95</v>
       </c>
-      <c r="E22" s="27" t="n">
+      <c r="E22" s="28" t="n">
         <v>76.15</v>
       </c>
-      <c r="F22" s="27" t="n">
+      <c r="F22" s="28" t="n">
         <v>71.1</v>
       </c>
-      <c r="G22" s="28" t="n">
+      <c r="G22" s="29" t="n">
         <v>76.85</v>
       </c>
-      <c r="H22" s="27" t="n">
+      <c r="H22" s="28" t="n">
         <v>15.3</v>
       </c>
       <c r="I22" s="3" t="n">
@@ -3704,28 +3722,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="23">
-      <c r="A23" s="13" t="n">
+      <c r="A23" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="30" t="s">
         <v>25</v>
       </c>
       <c r="I23" s="3" t="n">
@@ -3733,28 +3751,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="24">
-      <c r="A24" s="13" t="n">
+      <c r="A24" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="27" t="n">
+      <c r="D24" s="28" t="n">
         <v>62.4</v>
       </c>
-      <c r="E24" s="27" t="n">
+      <c r="E24" s="28" t="n">
         <v>71.95</v>
       </c>
-      <c r="F24" s="27" t="n">
+      <c r="F24" s="28" t="n">
         <v>71.25</v>
       </c>
-      <c r="G24" s="28" t="n">
+      <c r="G24" s="29" t="n">
         <v>80.8</v>
       </c>
-      <c r="H24" s="27" t="n">
+      <c r="H24" s="28" t="n">
         <v>23.8</v>
       </c>
       <c r="I24" s="3" t="n">
@@ -3762,28 +3780,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="25">
-      <c r="A25" s="13" t="n">
+      <c r="A25" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="27" t="n">
+      <c r="D25" s="28" t="n">
         <v>72.1</v>
       </c>
-      <c r="E25" s="27" t="n">
+      <c r="E25" s="28" t="n">
         <v>88.1</v>
       </c>
-      <c r="F25" s="27" t="n">
+      <c r="F25" s="28" t="n">
         <v>74.7</v>
       </c>
-      <c r="G25" s="28" t="n">
+      <c r="G25" s="29" t="n">
         <v>91</v>
       </c>
-      <c r="H25" s="27" t="n">
+      <c r="H25" s="28" t="n">
         <v>31.2</v>
       </c>
       <c r="I25" s="3" t="n">
@@ -3791,28 +3809,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="26">
-      <c r="A26" s="13" t="n">
+      <c r="A26" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="27" t="n">
+      <c r="D26" s="28" t="n">
         <v>73.45</v>
       </c>
-      <c r="E26" s="27" t="n">
+      <c r="E26" s="28" t="n">
         <v>87.3</v>
       </c>
-      <c r="F26" s="27" t="n">
+      <c r="F26" s="28" t="n">
         <v>76.65</v>
       </c>
-      <c r="G26" s="28" t="n">
+      <c r="G26" s="29" t="n">
         <v>90.35</v>
       </c>
-      <c r="H26" s="27" t="n">
+      <c r="H26" s="28" t="n">
         <v>27.2</v>
       </c>
       <c r="I26" s="3" t="n">
@@ -3820,28 +3838,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="27">
-      <c r="A27" s="13" t="n">
+      <c r="A27" s="14" t="n">
         <v>17</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="27" t="n">
+      <c r="D27" s="28" t="n">
         <v>82.4</v>
       </c>
-      <c r="E27" s="27" t="n">
+      <c r="E27" s="28" t="n">
         <v>101.8</v>
       </c>
-      <c r="F27" s="27" t="n">
+      <c r="F27" s="28" t="n">
         <v>85.15</v>
       </c>
-      <c r="G27" s="28" t="n">
+      <c r="G27" s="29" t="n">
         <v>103.9</v>
       </c>
-      <c r="H27" s="27" t="n">
+      <c r="H27" s="28" t="n">
         <v>41.05</v>
       </c>
       <c r="I27" s="3" t="n">
@@ -3849,28 +3867,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="28">
-      <c r="A28" s="13" t="n">
+      <c r="A28" s="14" t="n">
         <v>18</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="27" t="n">
+      <c r="D28" s="28" t="n">
         <v>61.75</v>
       </c>
-      <c r="E28" s="27" t="n">
+      <c r="E28" s="28" t="n">
         <v>66.55</v>
       </c>
-      <c r="F28" s="27" t="n">
+      <c r="F28" s="28" t="n">
         <v>62.95</v>
       </c>
-      <c r="G28" s="28" t="n">
+      <c r="G28" s="29" t="n">
         <v>68.4</v>
       </c>
-      <c r="H28" s="27" t="n">
+      <c r="H28" s="28" t="n">
         <v>10.2</v>
       </c>
       <c r="I28" s="3" t="n">
@@ -3878,28 +3896,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="29">
-      <c r="A29" s="13" t="n">
+      <c r="A29" s="14" t="n">
         <v>19</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="27" t="n">
+      <c r="D29" s="28" t="n">
         <v>86.1</v>
       </c>
-      <c r="E29" s="27" t="n">
+      <c r="E29" s="28" t="n">
         <v>103.65</v>
       </c>
-      <c r="F29" s="27" t="n">
+      <c r="F29" s="28" t="n">
         <v>89.15</v>
       </c>
-      <c r="G29" s="28" t="n">
+      <c r="G29" s="29" t="n">
         <v>106.4</v>
       </c>
-      <c r="H29" s="27" t="n">
+      <c r="H29" s="28" t="n">
         <v>34.25</v>
       </c>
       <c r="I29" s="3" t="n">
@@ -3907,28 +3925,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="30">
-      <c r="A30" s="13" t="n">
+      <c r="A30" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="27" t="n">
+      <c r="D30" s="28" t="n">
         <v>49.9</v>
       </c>
-      <c r="E30" s="27" t="n">
+      <c r="E30" s="28" t="n">
         <v>64.3</v>
       </c>
-      <c r="F30" s="27" t="n">
+      <c r="F30" s="28" t="n">
         <v>51.9</v>
       </c>
-      <c r="G30" s="28" t="n">
+      <c r="G30" s="29" t="n">
         <v>66.25</v>
       </c>
-      <c r="H30" s="27" t="n">
+      <c r="H30" s="28" t="n">
         <v>28.75</v>
       </c>
       <c r="I30" s="3" t="n">
@@ -3936,28 +3954,28 @@
       </c>
     </row>
     <row customHeight="true" ht="18.75" outlineLevel="0" r="31">
-      <c r="A31" s="13" t="n">
+      <c r="A31" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="27" t="n">
+      <c r="D31" s="28" t="n">
         <v>75.7</v>
       </c>
-      <c r="E31" s="27" t="n">
+      <c r="E31" s="28" t="n">
         <v>99.15</v>
       </c>
-      <c r="F31" s="27" t="n">
+      <c r="F31" s="28" t="n">
         <v>79.35</v>
       </c>
-      <c r="G31" s="28" t="n">
+      <c r="G31" s="29" t="n">
         <v>100.8</v>
       </c>
-      <c r="H31" s="27" t="n">
+      <c r="H31" s="28" t="n">
         <v>47.45</v>
       </c>
       <c r="I31" s="3" t="n">
@@ -3965,28 +3983,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="32">
-      <c r="A32" s="13" t="n">
+      <c r="A32" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="27" t="n">
+      <c r="D32" s="28" t="n">
         <v>59.75</v>
       </c>
-      <c r="E32" s="27" t="n">
+      <c r="E32" s="28" t="n">
         <v>68.45</v>
       </c>
-      <c r="F32" s="27" t="n">
+      <c r="F32" s="28" t="n">
         <v>61.3</v>
       </c>
-      <c r="G32" s="28" t="n">
+      <c r="G32" s="29" t="n">
         <v>69.95</v>
       </c>
-      <c r="H32" s="27" t="n">
+      <c r="H32" s="28" t="n">
         <v>14.05</v>
       </c>
       <c r="I32" s="3" t="n">
@@ -3994,28 +4012,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="33">
-      <c r="A33" s="13" t="n">
+      <c r="A33" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="27" t="n">
+      <c r="D33" s="28" t="n">
         <v>73.95</v>
       </c>
-      <c r="E33" s="27" t="n">
+      <c r="E33" s="28" t="n">
         <v>96.8</v>
       </c>
-      <c r="F33" s="27" t="n">
+      <c r="F33" s="28" t="n">
         <v>76</v>
       </c>
-      <c r="G33" s="28" t="n">
+      <c r="G33" s="29" t="n">
         <v>96.85</v>
       </c>
-      <c r="H33" s="27" t="n">
+      <c r="H33" s="28" t="n">
         <v>47.95</v>
       </c>
       <c r="I33" s="3" t="n">
@@ -4023,28 +4041,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="34">
-      <c r="A34" s="13" t="n">
+      <c r="A34" s="14" t="n">
         <v>24</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="27" t="n">
+      <c r="D34" s="28" t="n">
         <v>59.6</v>
       </c>
-      <c r="E34" s="27" t="n">
+      <c r="E34" s="28" t="n">
         <v>68.55</v>
       </c>
-      <c r="F34" s="27" t="n">
+      <c r="F34" s="28" t="n">
         <v>61.65</v>
       </c>
-      <c r="G34" s="28" t="n">
+      <c r="G34" s="29" t="n">
         <v>70.55</v>
       </c>
-      <c r="H34" s="27" t="n">
+      <c r="H34" s="28" t="n">
         <v>18.85</v>
       </c>
       <c r="I34" s="3" t="n">
@@ -4052,28 +4070,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="35">
-      <c r="A35" s="13" t="n">
+      <c r="A35" s="14" t="n">
         <v>25</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="27" t="n">
+      <c r="D35" s="28" t="n">
         <v>86.35</v>
       </c>
-      <c r="E35" s="27" t="n">
+      <c r="E35" s="28" t="n">
         <v>97.5</v>
       </c>
-      <c r="F35" s="27" t="n">
+      <c r="F35" s="28" t="n">
         <v>88.75</v>
       </c>
-      <c r="G35" s="28" t="n">
+      <c r="G35" s="29" t="n">
         <v>100.4</v>
       </c>
-      <c r="H35" s="27" t="n">
+      <c r="H35" s="28" t="n">
         <v>36.75</v>
       </c>
       <c r="I35" s="3" t="n">
@@ -4081,28 +4099,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="36">
-      <c r="A36" s="13" t="n">
+      <c r="A36" s="14" t="n">
         <v>26</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="27" t="n">
+      <c r="D36" s="28" t="n">
         <v>97.5</v>
       </c>
-      <c r="E36" s="27" t="n">
+      <c r="E36" s="28" t="n">
         <v>126.1</v>
       </c>
-      <c r="F36" s="27" t="n">
+      <c r="F36" s="28" t="n">
         <v>97.5</v>
       </c>
-      <c r="G36" s="28" t="n">
+      <c r="G36" s="29" t="n">
         <v>127.6</v>
       </c>
-      <c r="H36" s="27" t="n">
+      <c r="H36" s="28" t="n">
         <v>53.7</v>
       </c>
       <c r="I36" s="3" t="n">
@@ -4110,28 +4128,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="37">
-      <c r="A37" s="13" t="n">
+      <c r="A37" s="14" t="n">
         <v>27</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="27" t="n">
+      <c r="D37" s="28" t="n">
         <v>47</v>
       </c>
-      <c r="E37" s="27" t="n">
+      <c r="E37" s="28" t="n">
         <v>63.95</v>
       </c>
-      <c r="F37" s="27" t="n">
+      <c r="F37" s="28" t="n">
         <v>54.55</v>
       </c>
-      <c r="G37" s="28" t="n">
+      <c r="G37" s="29" t="n">
         <v>71.8</v>
       </c>
-      <c r="H37" s="27" t="n">
+      <c r="H37" s="28" t="n">
         <v>33.95</v>
       </c>
       <c r="I37" s="3" t="n">
@@ -4139,28 +4157,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="38">
-      <c r="A38" s="13" t="n">
+      <c r="A38" s="14" t="n">
         <v>28</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="27" t="n">
+      <c r="D38" s="28" t="n">
         <v>68.05</v>
       </c>
-      <c r="E38" s="27" t="n">
+      <c r="E38" s="28" t="n">
         <v>90.35</v>
       </c>
-      <c r="F38" s="27" t="n">
+      <c r="F38" s="28" t="n">
         <v>70.2</v>
       </c>
-      <c r="G38" s="28" t="n">
+      <c r="G38" s="29" t="n">
         <v>91.4</v>
       </c>
-      <c r="H38" s="27" t="n">
+      <c r="H38" s="28" t="n">
         <v>39.75</v>
       </c>
       <c r="I38" s="3" t="n">
@@ -4168,28 +4186,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="39">
-      <c r="A39" s="13" t="n">
-        <v>29</v>
-      </c>
-      <c r="B39" s="25" t="s">
+      <c r="A39" s="14" t="n">
+        <v>29</v>
+      </c>
+      <c r="B39" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="27" t="n">
+      <c r="D39" s="28" t="n">
         <v>85.6</v>
       </c>
-      <c r="E39" s="27" t="n">
+      <c r="E39" s="28" t="n">
         <v>101.35</v>
       </c>
-      <c r="F39" s="27" t="n">
+      <c r="F39" s="28" t="n">
         <v>87.15</v>
       </c>
-      <c r="G39" s="28" t="n">
+      <c r="G39" s="29" t="n">
         <v>102.85</v>
       </c>
-      <c r="H39" s="27" t="n">
+      <c r="H39" s="28" t="n">
         <v>34.85</v>
       </c>
       <c r="I39" s="3" t="n">
@@ -4197,28 +4215,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="40">
-      <c r="A40" s="13" t="n">
+      <c r="A40" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="27" t="n">
+      <c r="D40" s="28" t="n">
         <v>79.15</v>
       </c>
-      <c r="E40" s="27" t="n">
+      <c r="E40" s="28" t="n">
         <v>97.95</v>
       </c>
-      <c r="F40" s="27" t="n">
+      <c r="F40" s="28" t="n">
         <v>80.75</v>
       </c>
-      <c r="G40" s="28" t="n">
+      <c r="G40" s="29" t="n">
         <v>99.5</v>
       </c>
-      <c r="H40" s="27" t="n">
+      <c r="H40" s="28" t="n">
         <v>43.75</v>
       </c>
       <c r="I40" s="3" t="n">
@@ -4226,28 +4244,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="41">
-      <c r="A41" s="13" t="n">
+      <c r="A41" s="14" t="n">
         <v>31</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="27" t="n">
+      <c r="D41" s="28" t="n">
         <v>71.55</v>
       </c>
-      <c r="E41" s="27" t="n">
+      <c r="E41" s="28" t="n">
         <v>99.05</v>
       </c>
-      <c r="F41" s="27" t="n">
+      <c r="F41" s="28" t="n">
         <v>81</v>
       </c>
-      <c r="G41" s="28" t="n">
+      <c r="G41" s="29" t="n">
         <v>110.65</v>
       </c>
-      <c r="H41" s="27" t="n">
+      <c r="H41" s="28" t="n">
         <v>54.9</v>
       </c>
       <c r="I41" s="3" t="n">
@@ -4255,28 +4273,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="42">
-      <c r="A42" s="13" t="n">
+      <c r="A42" s="14" t="n">
         <v>32</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="27" t="n">
+      <c r="D42" s="28" t="n">
         <v>67</v>
       </c>
-      <c r="E42" s="27" t="n">
+      <c r="E42" s="28" t="n">
         <v>77.55</v>
       </c>
-      <c r="F42" s="27" t="n">
+      <c r="F42" s="28" t="n">
         <v>69.6</v>
       </c>
-      <c r="G42" s="28" t="n">
+      <c r="G42" s="29" t="n">
         <v>80.7</v>
       </c>
-      <c r="H42" s="27" t="n">
+      <c r="H42" s="28" t="n">
         <v>10.6</v>
       </c>
       <c r="I42" s="3" t="n">
@@ -4284,28 +4302,28 @@
       </c>
     </row>
     <row customHeight="true" ht="42.75" outlineLevel="0" r="43">
-      <c r="A43" s="13" t="n">
+      <c r="A43" s="14" t="n">
         <v>33</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="30" t="n">
+      <c r="D43" s="31" t="n">
         <v>88.3</v>
       </c>
-      <c r="E43" s="30" t="n">
+      <c r="E43" s="31" t="n">
         <v>97.15</v>
       </c>
-      <c r="F43" s="30" t="n">
+      <c r="F43" s="31" t="n">
         <v>99.85</v>
       </c>
-      <c r="G43" s="31" t="n">
+      <c r="G43" s="32" t="n">
         <v>108.75</v>
       </c>
-      <c r="H43" s="30" t="n">
+      <c r="H43" s="31" t="n">
         <v>17.8</v>
       </c>
       <c r="I43" s="3" t="n">
@@ -4313,28 +4331,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="44">
-      <c r="A44" s="13" t="n">
+      <c r="A44" s="14" t="n">
         <v>34</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="29" t="s">
+      <c r="F44" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H44" s="29" t="s">
+      <c r="H44" s="30" t="s">
         <v>82</v>
       </c>
       <c r="I44" s="3" t="n">
@@ -4342,28 +4360,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="45">
-      <c r="A45" s="13" t="n">
+      <c r="A45" s="14" t="n">
         <v>35</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="F45" s="29" t="s">
+      <c r="F45" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="G45" s="29" t="s">
+      <c r="G45" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H45" s="29" t="s">
+      <c r="H45" s="30" t="s">
         <v>82</v>
       </c>
       <c r="I45" s="3" t="n">
@@ -4371,28 +4389,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="46">
-      <c r="A46" s="13" t="n">
+      <c r="A46" s="14" t="n">
         <v>36</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="27" t="n">
+      <c r="D46" s="28" t="n">
         <v>105.7</v>
       </c>
-      <c r="E46" s="27" t="n">
+      <c r="E46" s="28" t="n">
         <v>111.75</v>
       </c>
-      <c r="F46" s="27" t="n">
+      <c r="F46" s="28" t="n">
         <v>107.45</v>
       </c>
-      <c r="G46" s="28" t="n">
+      <c r="G46" s="29" t="n">
         <v>114.6</v>
       </c>
-      <c r="H46" s="27" t="n">
+      <c r="H46" s="28" t="n">
         <v>31.25</v>
       </c>
       <c r="I46" s="3" t="n">
@@ -4400,28 +4418,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="47">
-      <c r="A47" s="13" t="n">
+      <c r="A47" s="14" t="n">
         <v>37</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="27" t="n">
+      <c r="D47" s="28" t="n">
         <v>149.55</v>
       </c>
-      <c r="E47" s="27" t="n">
+      <c r="E47" s="28" t="n">
         <v>169.7</v>
       </c>
-      <c r="F47" s="27" t="n">
+      <c r="F47" s="28" t="n">
         <v>149.55</v>
       </c>
-      <c r="G47" s="28" t="n">
+      <c r="G47" s="29" t="n">
         <v>170.05</v>
       </c>
-      <c r="H47" s="27" t="n">
+      <c r="H47" s="28" t="n">
         <v>56.5</v>
       </c>
       <c r="I47" s="3" t="n">
@@ -4429,28 +4447,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="48">
-      <c r="A48" s="13" t="n">
+      <c r="A48" s="14" t="n">
         <v>38</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D48" s="27" t="n">
+      <c r="D48" s="28" t="n">
         <v>68.95</v>
       </c>
-      <c r="E48" s="27" t="n">
+      <c r="E48" s="28" t="n">
         <v>76.45</v>
       </c>
-      <c r="F48" s="27" t="n">
+      <c r="F48" s="28" t="n">
         <v>71.5</v>
       </c>
-      <c r="G48" s="28" t="n">
+      <c r="G48" s="29" t="n">
         <v>78</v>
       </c>
-      <c r="H48" s="27" t="n">
+      <c r="H48" s="28" t="n">
         <v>9.2</v>
       </c>
       <c r="I48" s="3" t="n">
@@ -4458,28 +4476,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="49">
-      <c r="A49" s="13" t="n">
+      <c r="A49" s="14" t="n">
         <v>39</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="27" t="n">
+      <c r="D49" s="28" t="n">
         <v>85.6</v>
       </c>
-      <c r="E49" s="27" t="n">
+      <c r="E49" s="28" t="n">
         <v>102.15</v>
       </c>
-      <c r="F49" s="27" t="n">
+      <c r="F49" s="28" t="n">
         <v>87.55</v>
       </c>
-      <c r="G49" s="28" t="n">
+      <c r="G49" s="29" t="n">
         <v>105.3</v>
       </c>
-      <c r="H49" s="27" t="n">
+      <c r="H49" s="28" t="n">
         <v>34.85</v>
       </c>
       <c r="I49" s="3" t="n">
@@ -4487,28 +4505,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="50">
-      <c r="A50" s="13" t="n">
+      <c r="A50" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="27" t="n">
+      <c r="D50" s="28" t="n">
         <v>67.85</v>
       </c>
-      <c r="E50" s="27" t="n">
+      <c r="E50" s="28" t="n">
         <v>75.6</v>
       </c>
-      <c r="F50" s="27" t="n">
+      <c r="F50" s="28" t="n">
         <v>68.55</v>
       </c>
-      <c r="G50" s="28" t="n">
+      <c r="G50" s="29" t="n">
         <v>79.1</v>
       </c>
-      <c r="H50" s="27" t="n">
+      <c r="H50" s="28" t="n">
         <v>18.65</v>
       </c>
       <c r="I50" s="3" t="n">
@@ -4516,28 +4534,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="51">
-      <c r="A51" s="13" t="n">
+      <c r="A51" s="14" t="n">
         <v>41</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="27" t="n">
+      <c r="D51" s="28" t="n">
         <v>71.45</v>
       </c>
-      <c r="E51" s="27" t="n">
+      <c r="E51" s="28" t="n">
         <v>93.45</v>
       </c>
-      <c r="F51" s="27" t="n">
+      <c r="F51" s="28" t="n">
         <v>74.6</v>
       </c>
-      <c r="G51" s="28" t="n">
+      <c r="G51" s="29" t="n">
         <v>96.55</v>
       </c>
-      <c r="H51" s="27" t="n">
+      <c r="H51" s="28" t="n">
         <v>43</v>
       </c>
       <c r="I51" s="3" t="n">
@@ -4545,28 +4563,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="52">
-      <c r="A52" s="13" t="n">
+      <c r="A52" s="14" t="n">
         <v>42</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="27" t="n">
+      <c r="D52" s="28" t="n">
         <v>56.45</v>
       </c>
-      <c r="E52" s="27" t="n">
+      <c r="E52" s="28" t="n">
         <v>75.85</v>
       </c>
-      <c r="F52" s="27" t="n">
+      <c r="F52" s="28" t="n">
         <v>58</v>
       </c>
-      <c r="G52" s="28" t="n">
+      <c r="G52" s="29" t="n">
         <v>77.4</v>
       </c>
-      <c r="H52" s="27" t="n">
+      <c r="H52" s="28" t="n">
         <v>38.85</v>
       </c>
       <c r="I52" s="3" t="n">
@@ -4574,28 +4592,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="53">
-      <c r="A53" s="13" t="n">
+      <c r="A53" s="14" t="n">
         <v>43</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="27" t="n">
+      <c r="D53" s="28" t="n">
         <v>90.15</v>
       </c>
-      <c r="E53" s="27" t="n">
+      <c r="E53" s="28" t="n">
         <v>111.55</v>
       </c>
-      <c r="F53" s="27" t="n">
+      <c r="F53" s="28" t="n">
         <v>91.7</v>
       </c>
-      <c r="G53" s="28" t="n">
+      <c r="G53" s="29" t="n">
         <v>113.15</v>
       </c>
-      <c r="H53" s="27" t="n">
+      <c r="H53" s="28" t="n">
         <v>44.3</v>
       </c>
       <c r="I53" s="3" t="n">
@@ -4603,28 +4621,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="54">
-      <c r="A54" s="13" t="n">
+      <c r="A54" s="14" t="n">
         <v>44</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D54" s="27" t="n">
+      <c r="D54" s="28" t="n">
         <v>68.7</v>
       </c>
-      <c r="E54" s="27" t="n">
+      <c r="E54" s="28" t="n">
         <v>83.35</v>
       </c>
-      <c r="F54" s="27" t="n">
+      <c r="F54" s="28" t="n">
         <v>79.8</v>
       </c>
-      <c r="G54" s="28" t="n">
+      <c r="G54" s="29" t="n">
         <v>96.75</v>
       </c>
-      <c r="H54" s="27" t="n">
+      <c r="H54" s="28" t="n">
         <v>32.95</v>
       </c>
       <c r="I54" s="3" t="n">
@@ -4632,28 +4650,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="55">
-      <c r="A55" s="13" t="n">
+      <c r="A55" s="14" t="n">
         <v>45</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D55" s="27" t="n">
+      <c r="D55" s="28" t="n">
         <v>84.45</v>
       </c>
-      <c r="E55" s="27" t="n">
+      <c r="E55" s="28" t="n">
         <v>100.05</v>
       </c>
-      <c r="F55" s="27" t="n">
+      <c r="F55" s="28" t="n">
         <v>88.75</v>
       </c>
-      <c r="G55" s="28" t="n">
+      <c r="G55" s="29" t="n">
         <v>104.35</v>
       </c>
-      <c r="H55" s="27" t="n">
+      <c r="H55" s="28" t="n">
         <v>31.2</v>
       </c>
       <c r="I55" s="3" t="n">
@@ -4661,57 +4679,57 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="56">
-      <c r="A56" s="32" t="n">
+      <c r="A56" s="33" t="n">
         <v>46</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="27" t="n">
+      <c r="D56" s="28" t="n">
         <v>59.15</v>
       </c>
-      <c r="E56" s="27" t="n">
+      <c r="E56" s="28" t="n">
         <v>80.9</v>
       </c>
-      <c r="F56" s="27" t="n">
+      <c r="F56" s="28" t="n">
         <v>60.65</v>
       </c>
-      <c r="G56" s="28" t="n">
+      <c r="G56" s="29" t="n">
         <v>83.7</v>
       </c>
-      <c r="H56" s="27" t="n">
+      <c r="H56" s="28" t="n">
         <v>38.95</v>
       </c>
       <c r="I56" s="3" t="n">
         <v>29</v>
       </c>
     </row>
-    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="57" s="34">
-      <c r="A57" s="13" t="n">
+    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="57" s="35">
+      <c r="A57" s="14" t="n">
         <v>47</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="D57" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E57" s="29" t="s">
+      <c r="E57" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="29" t="s">
+      <c r="F57" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="G57" s="29" t="s">
+      <c r="G57" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H57" s="29" t="s">
+      <c r="H57" s="30" t="s">
         <v>82</v>
       </c>
       <c r="I57" s="3" t="n">
@@ -4767,28 +4785,28 @@
       <c r="BE57" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="58">
-      <c r="A58" s="13" t="n">
+      <c r="A58" s="14" t="n">
         <v>48</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D58" s="27" t="n">
+      <c r="D58" s="28" t="n">
         <v>102.95</v>
       </c>
-      <c r="E58" s="27" t="n">
+      <c r="E58" s="28" t="n">
         <v>107.85</v>
       </c>
-      <c r="F58" s="27" t="n">
+      <c r="F58" s="28" t="n">
         <v>104.55</v>
       </c>
-      <c r="G58" s="28" t="n">
+      <c r="G58" s="29" t="n">
         <v>109.4</v>
       </c>
-      <c r="H58" s="27" t="n">
+      <c r="H58" s="28" t="n">
         <v>9.4</v>
       </c>
       <c r="I58" s="3" t="n">
@@ -4796,28 +4814,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="59">
-      <c r="A59" s="13" t="n">
+      <c r="A59" s="14" t="n">
         <v>49</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D59" s="27" t="n">
+      <c r="D59" s="28" t="n">
         <v>53.45</v>
       </c>
-      <c r="E59" s="27" t="n">
+      <c r="E59" s="28" t="n">
         <v>71.25</v>
       </c>
-      <c r="F59" s="27" t="n">
+      <c r="F59" s="28" t="n">
         <v>55.3</v>
       </c>
-      <c r="G59" s="28" t="n">
+      <c r="G59" s="29" t="n">
         <v>73.4</v>
       </c>
-      <c r="H59" s="27" t="n">
+      <c r="H59" s="28" t="n">
         <v>34.45</v>
       </c>
       <c r="I59" s="3" t="n">
@@ -4825,28 +4843,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="60">
-      <c r="A60" s="13" t="n">
+      <c r="A60" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="27" t="n">
+      <c r="D60" s="28" t="n">
         <v>72.35</v>
       </c>
-      <c r="E60" s="27" t="n">
+      <c r="E60" s="28" t="n">
         <v>78.3</v>
       </c>
-      <c r="F60" s="27" t="n">
+      <c r="F60" s="28" t="n">
         <v>74.9</v>
       </c>
-      <c r="G60" s="28" t="n">
+      <c r="G60" s="29" t="n">
         <v>79.7</v>
       </c>
-      <c r="H60" s="27" t="n">
+      <c r="H60" s="28" t="n">
         <v>14.5</v>
       </c>
       <c r="I60" s="3" t="n">
@@ -4854,28 +4872,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="61">
-      <c r="A61" s="13" t="n">
+      <c r="A61" s="14" t="n">
         <v>51</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D61" s="27" t="n">
+      <c r="D61" s="28" t="n">
         <v>65.2</v>
       </c>
-      <c r="E61" s="27" t="n">
+      <c r="E61" s="28" t="n">
         <v>67.3</v>
       </c>
-      <c r="F61" s="27" t="n">
+      <c r="F61" s="28" t="n">
         <v>68.1</v>
       </c>
-      <c r="G61" s="28" t="n">
+      <c r="G61" s="29" t="n">
         <v>71.45</v>
       </c>
-      <c r="H61" s="27" t="n">
+      <c r="H61" s="28" t="n">
         <v>5.95</v>
       </c>
       <c r="I61" s="3" t="n">
@@ -4883,28 +4901,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="62">
-      <c r="A62" s="13" t="n">
+      <c r="A62" s="14" t="n">
         <v>52</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D62" s="27" t="n">
+      <c r="D62" s="28" t="n">
         <v>86.6</v>
       </c>
-      <c r="E62" s="27" t="n">
+      <c r="E62" s="28" t="n">
         <v>90.65</v>
       </c>
-      <c r="F62" s="27" t="n">
+      <c r="F62" s="28" t="n">
         <v>88.6</v>
       </c>
-      <c r="G62" s="28" t="n">
+      <c r="G62" s="29" t="n">
         <v>92.65</v>
       </c>
-      <c r="H62" s="27" t="n">
+      <c r="H62" s="28" t="n">
         <v>10.3</v>
       </c>
       <c r="I62" s="3" t="n">
@@ -4912,28 +4930,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="63">
-      <c r="A63" s="32" t="n">
+      <c r="A63" s="33" t="n">
         <v>53</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D63" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E63" s="29" t="s">
+      <c r="E63" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="F63" s="29" t="s">
+      <c r="F63" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="G63" s="29" t="s">
+      <c r="G63" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H63" s="29" t="s">
+      <c r="H63" s="30" t="s">
         <v>82</v>
       </c>
       <c r="I63" s="3" t="n">
@@ -4941,28 +4959,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="64">
-      <c r="A64" s="13" t="n">
+      <c r="A64" s="14" t="n">
         <v>54</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E64" s="29" t="s">
+      <c r="E64" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="F64" s="29" t="s">
+      <c r="F64" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="G64" s="29" t="s">
+      <c r="G64" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H64" s="29" t="s">
+      <c r="H64" s="30" t="s">
         <v>82</v>
       </c>
       <c r="I64" s="3" t="n">
@@ -4970,28 +4988,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="65">
-      <c r="A65" s="13" t="n">
+      <c r="A65" s="14" t="n">
         <v>55</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D65" s="27" t="n">
+      <c r="D65" s="28" t="n">
         <v>84.1</v>
       </c>
-      <c r="E65" s="27" t="n">
+      <c r="E65" s="28" t="n">
         <v>106.4</v>
       </c>
-      <c r="F65" s="27" t="n">
+      <c r="F65" s="28" t="n">
         <v>86.2</v>
       </c>
-      <c r="G65" s="28" t="n">
+      <c r="G65" s="29" t="n">
         <v>107.65</v>
       </c>
-      <c r="H65" s="27" t="n">
+      <c r="H65" s="28" t="n">
         <v>43.65</v>
       </c>
       <c r="I65" s="3" t="n">
@@ -4999,28 +5017,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="66">
-      <c r="A66" s="13" t="n">
+      <c r="A66" s="14" t="n">
         <v>56</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D66" s="27" t="n">
+      <c r="D66" s="28" t="n">
         <v>84.1</v>
       </c>
-      <c r="E66" s="27" t="n">
+      <c r="E66" s="28" t="n">
         <v>104.6</v>
       </c>
-      <c r="F66" s="27" t="n">
+      <c r="F66" s="28" t="n">
         <v>84.8</v>
       </c>
-      <c r="G66" s="28" t="n">
+      <c r="G66" s="29" t="n">
         <v>104.6</v>
       </c>
-      <c r="H66" s="27" t="n">
+      <c r="H66" s="28" t="n">
         <v>43.65</v>
       </c>
       <c r="I66" s="3" t="n">
@@ -5028,28 +5046,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="67">
-      <c r="A67" s="13" t="n">
+      <c r="A67" s="14" t="n">
         <v>57</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D67" s="27" t="n">
+      <c r="D67" s="28" t="n">
         <v>101.45</v>
       </c>
-      <c r="E67" s="27" t="n">
+      <c r="E67" s="28" t="n">
         <v>152.35</v>
       </c>
-      <c r="F67" s="27" t="n">
+      <c r="F67" s="28" t="n">
         <v>103.45</v>
       </c>
-      <c r="G67" s="28" t="n">
+      <c r="G67" s="29" t="n">
         <v>154.3</v>
       </c>
-      <c r="H67" s="27" t="n">
+      <c r="H67" s="28" t="n">
         <v>101.75</v>
       </c>
       <c r="I67" s="3" t="n">
@@ -5057,28 +5075,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="68">
-      <c r="A68" s="13" t="n">
+      <c r="A68" s="14" t="n">
         <v>58</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D68" s="27" t="n">
+      <c r="D68" s="28" t="n">
         <v>73.35</v>
       </c>
-      <c r="E68" s="27" t="n">
+      <c r="E68" s="28" t="n">
         <v>89.3</v>
       </c>
-      <c r="F68" s="27" t="n">
+      <c r="F68" s="28" t="n">
         <v>75.45</v>
       </c>
-      <c r="G68" s="28" t="n">
+      <c r="G68" s="29" t="n">
         <v>92.25</v>
       </c>
-      <c r="H68" s="27" t="n">
+      <c r="H68" s="28" t="n">
         <v>40.25</v>
       </c>
       <c r="I68" s="3" t="n">
@@ -5086,28 +5104,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="69">
-      <c r="A69" s="13" t="n">
+      <c r="A69" s="14" t="n">
         <v>59</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D69" s="27" t="n">
+      <c r="D69" s="28" t="n">
         <v>60.45</v>
       </c>
-      <c r="E69" s="27" t="n">
+      <c r="E69" s="28" t="n">
         <v>71.25</v>
       </c>
-      <c r="F69" s="27" t="n">
+      <c r="F69" s="28" t="n">
         <v>63.45</v>
       </c>
-      <c r="G69" s="28" t="n">
+      <c r="G69" s="29" t="n">
         <v>74.45</v>
       </c>
-      <c r="H69" s="27" t="n">
+      <c r="H69" s="28" t="n">
         <v>18</v>
       </c>
       <c r="I69" s="3" t="n">
@@ -5115,28 +5133,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="70">
-      <c r="A70" s="13" t="n">
+      <c r="A70" s="14" t="n">
         <v>60</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D70" s="27" t="n">
+      <c r="D70" s="28" t="n">
         <v>68.4</v>
       </c>
-      <c r="E70" s="27" t="n">
+      <c r="E70" s="28" t="n">
         <v>86.15</v>
       </c>
-      <c r="F70" s="27" t="n">
+      <c r="F70" s="28" t="n">
         <v>70.35</v>
       </c>
-      <c r="G70" s="28" t="n">
+      <c r="G70" s="29" t="n">
         <v>88.1</v>
       </c>
-      <c r="H70" s="27" t="n">
+      <c r="H70" s="28" t="n">
         <v>35.55</v>
       </c>
       <c r="I70" s="3" t="n">
@@ -5144,28 +5162,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="71">
-      <c r="A71" s="13" t="n">
+      <c r="A71" s="14" t="n">
         <v>61</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D71" s="27" t="n">
+      <c r="D71" s="28" t="n">
         <v>68.1</v>
       </c>
-      <c r="E71" s="27" t="n">
+      <c r="E71" s="28" t="n">
         <v>85.2</v>
       </c>
-      <c r="F71" s="27" t="n">
+      <c r="F71" s="28" t="n">
         <v>70.25</v>
       </c>
-      <c r="G71" s="28" t="n">
+      <c r="G71" s="29" t="n">
         <v>87.3</v>
       </c>
-      <c r="H71" s="27" t="n">
+      <c r="H71" s="28" t="n">
         <v>34.65</v>
       </c>
       <c r="I71" s="3" t="n">
@@ -5173,28 +5191,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="72">
-      <c r="A72" s="13" t="n">
+      <c r="A72" s="14" t="n">
         <v>62</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D72" s="27" t="n">
+      <c r="D72" s="28" t="n">
         <v>72</v>
       </c>
-      <c r="E72" s="27" t="n">
+      <c r="E72" s="28" t="n">
         <v>82</v>
       </c>
-      <c r="F72" s="27" t="n">
+      <c r="F72" s="28" t="n">
         <v>74.05</v>
       </c>
-      <c r="G72" s="28" t="n">
+      <c r="G72" s="29" t="n">
         <v>84.1</v>
       </c>
-      <c r="H72" s="27" t="n">
+      <c r="H72" s="28" t="n">
         <v>15.75</v>
       </c>
       <c r="I72" s="3" t="n">
@@ -5202,28 +5220,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="73">
-      <c r="A73" s="13" t="n">
+      <c r="A73" s="14" t="n">
         <v>63</v>
       </c>
-      <c r="B73" s="25" t="s">
+      <c r="B73" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C73" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D73" s="27" t="n">
+      <c r="D73" s="28" t="n">
         <v>63.65</v>
       </c>
-      <c r="E73" s="27" t="n">
+      <c r="E73" s="28" t="n">
         <v>72.1</v>
       </c>
-      <c r="F73" s="27" t="n">
+      <c r="F73" s="28" t="n">
         <v>68.95</v>
       </c>
-      <c r="G73" s="28" t="n">
+      <c r="G73" s="29" t="n">
         <v>76.5</v>
       </c>
-      <c r="H73" s="27" t="n">
+      <c r="H73" s="28" t="n">
         <v>24.15</v>
       </c>
       <c r="I73" s="3" t="n">
@@ -5231,28 +5249,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="74">
-      <c r="A74" s="13" t="n">
+      <c r="A74" s="14" t="n">
         <v>64</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D74" s="27" t="n">
+      <c r="D74" s="28" t="n">
         <v>62.45</v>
       </c>
-      <c r="E74" s="27" t="n">
+      <c r="E74" s="28" t="n">
         <v>69.7</v>
       </c>
-      <c r="F74" s="27" t="n">
+      <c r="F74" s="28" t="n">
         <v>69</v>
       </c>
-      <c r="G74" s="28" t="n">
+      <c r="G74" s="29" t="n">
         <v>76.25</v>
       </c>
-      <c r="H74" s="27" t="n">
+      <c r="H74" s="28" t="n">
         <v>18.15</v>
       </c>
       <c r="I74" s="3" t="n">
@@ -5260,28 +5278,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="75">
-      <c r="A75" s="13" t="n">
+      <c r="A75" s="14" t="n">
         <v>65</v>
       </c>
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D75" s="27" t="n">
+      <c r="D75" s="28" t="n">
         <v>73.45</v>
       </c>
-      <c r="E75" s="27" t="n">
+      <c r="E75" s="28" t="n">
         <v>87.3</v>
       </c>
-      <c r="F75" s="27" t="n">
+      <c r="F75" s="28" t="n">
         <v>76.65</v>
       </c>
-      <c r="G75" s="28" t="n">
+      <c r="G75" s="29" t="n">
         <v>89.55</v>
       </c>
-      <c r="H75" s="27" t="n">
+      <c r="H75" s="28" t="n">
         <v>17.75</v>
       </c>
       <c r="I75" s="3" t="n">
@@ -5289,28 +5307,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="76">
-      <c r="A76" s="13" t="n">
+      <c r="A76" s="14" t="n">
         <v>66</v>
       </c>
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="26" t="s">
+      <c r="C76" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="D76" s="29" t="s">
+      <c r="D76" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E76" s="29" t="s">
+      <c r="E76" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F76" s="29" t="s">
+      <c r="F76" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G76" s="29" t="s">
+      <c r="G76" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H76" s="29" t="s">
+      <c r="H76" s="30" t="s">
         <v>25</v>
       </c>
       <c r="I76" s="3" t="n">
@@ -5318,28 +5336,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="77">
-      <c r="A77" s="13" t="n">
+      <c r="A77" s="14" t="n">
         <v>67</v>
       </c>
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D77" s="27" t="n">
+      <c r="D77" s="28" t="n">
         <v>73.2</v>
       </c>
-      <c r="E77" s="27" t="n">
+      <c r="E77" s="28" t="n">
         <v>84.55</v>
       </c>
-      <c r="F77" s="27" t="n">
+      <c r="F77" s="28" t="n">
         <v>75.25</v>
       </c>
-      <c r="G77" s="28" t="n">
+      <c r="G77" s="29" t="n">
         <v>86.95</v>
       </c>
-      <c r="H77" s="27" t="n">
+      <c r="H77" s="28" t="n">
         <v>24.15</v>
       </c>
       <c r="I77" s="3" t="n">
@@ -5347,28 +5365,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="78">
-      <c r="A78" s="13" t="n">
+      <c r="A78" s="14" t="n">
         <v>68</v>
       </c>
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="27" t="n">
+      <c r="D78" s="28" t="n">
         <v>75.8</v>
       </c>
-      <c r="E78" s="27" t="n">
+      <c r="E78" s="28" t="n">
         <v>84.35</v>
       </c>
-      <c r="F78" s="27" t="n">
+      <c r="F78" s="28" t="n">
         <v>77.85</v>
       </c>
-      <c r="G78" s="28" t="n">
+      <c r="G78" s="29" t="n">
         <v>86.4</v>
       </c>
-      <c r="H78" s="27" t="n">
+      <c r="H78" s="28" t="n">
         <v>13.15</v>
       </c>
       <c r="I78" s="3" t="n">
@@ -5376,28 +5394,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="79">
-      <c r="A79" s="13" t="n">
+      <c r="A79" s="14" t="n">
         <v>69</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="C79" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D79" s="27" t="n">
+      <c r="D79" s="28" t="n">
         <v>107</v>
       </c>
-      <c r="E79" s="27" t="n">
+      <c r="E79" s="28" t="n">
         <v>115.9</v>
       </c>
-      <c r="F79" s="27" t="n">
+      <c r="F79" s="28" t="n">
         <v>109.15</v>
       </c>
-      <c r="G79" s="28" t="n">
+      <c r="G79" s="29" t="n">
         <v>118</v>
       </c>
-      <c r="H79" s="27" t="n">
+      <c r="H79" s="28" t="n">
         <v>18.65</v>
       </c>
       <c r="I79" s="3" t="n">
@@ -5405,28 +5423,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="80">
-      <c r="A80" s="13" t="n">
+      <c r="A80" s="14" t="n">
         <v>70</v>
       </c>
-      <c r="B80" s="25" t="s">
+      <c r="B80" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="D80" s="27" t="n">
+      <c r="D80" s="28" t="n">
         <v>94.5</v>
       </c>
-      <c r="E80" s="27" t="n">
+      <c r="E80" s="28" t="n">
         <v>95.2</v>
       </c>
-      <c r="F80" s="27" t="n">
+      <c r="F80" s="28" t="n">
         <v>95</v>
       </c>
-      <c r="G80" s="28" t="n">
+      <c r="G80" s="29" t="n">
         <v>97.15</v>
       </c>
-      <c r="H80" s="27" t="n">
+      <c r="H80" s="28" t="n">
         <v>13.45</v>
       </c>
       <c r="I80" s="3" t="n">
@@ -5434,28 +5452,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="81">
-      <c r="A81" s="13" t="n">
+      <c r="A81" s="14" t="n">
         <v>71</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C81" s="26" t="s">
+      <c r="C81" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="D81" s="27" t="n">
+      <c r="D81" s="28" t="n">
         <v>91.1</v>
       </c>
-      <c r="E81" s="27" t="n">
+      <c r="E81" s="28" t="n">
         <v>95.2</v>
       </c>
-      <c r="F81" s="27" t="n">
+      <c r="F81" s="28" t="n">
         <v>94.3</v>
       </c>
-      <c r="G81" s="28" t="n">
+      <c r="G81" s="29" t="n">
         <v>97.5</v>
       </c>
-      <c r="H81" s="27" t="n">
+      <c r="H81" s="28" t="n">
         <v>13.45</v>
       </c>
       <c r="I81" s="3" t="n">
@@ -5463,28 +5481,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="82">
-      <c r="A82" s="13" t="n">
+      <c r="A82" s="14" t="n">
         <v>72</v>
       </c>
-      <c r="B82" s="25" t="s">
+      <c r="B82" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="D82" s="27" t="n">
+      <c r="D82" s="28" t="n">
         <v>68.4</v>
       </c>
-      <c r="E82" s="27" t="n">
+      <c r="E82" s="28" t="n">
         <v>73.1</v>
       </c>
-      <c r="F82" s="27" t="n">
+      <c r="F82" s="28" t="n">
         <v>70.75</v>
       </c>
-      <c r="G82" s="28" t="n">
+      <c r="G82" s="29" t="n">
         <v>74.05</v>
       </c>
-      <c r="H82" s="27" t="n">
+      <c r="H82" s="28" t="n">
         <v>10</v>
       </c>
       <c r="I82" s="3" t="n">
@@ -5492,28 +5510,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="83">
-      <c r="A83" s="13" t="n">
+      <c r="A83" s="14" t="n">
         <v>73</v>
       </c>
-      <c r="B83" s="25" t="s">
+      <c r="B83" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="D83" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E83" s="29" t="s">
+      <c r="E83" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F83" s="29" t="s">
+      <c r="F83" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G83" s="29" t="s">
+      <c r="G83" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H83" s="29" t="s">
+      <c r="H83" s="30" t="s">
         <v>25</v>
       </c>
       <c r="I83" s="3" t="n">
@@ -5521,28 +5539,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="84">
-      <c r="A84" s="13" t="n">
+      <c r="A84" s="14" t="n">
         <v>74</v>
       </c>
-      <c r="B84" s="25" t="s">
+      <c r="B84" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="D84" s="27" t="n">
+      <c r="D84" s="28" t="n">
         <v>72.9</v>
       </c>
-      <c r="E84" s="27" t="n">
+      <c r="E84" s="28" t="n">
         <v>95.15</v>
       </c>
-      <c r="F84" s="27" t="n">
+      <c r="F84" s="28" t="n">
         <v>74.85</v>
       </c>
-      <c r="G84" s="28" t="n">
+      <c r="G84" s="29" t="n">
         <v>97.1</v>
       </c>
-      <c r="H84" s="27" t="n">
+      <c r="H84" s="28" t="n">
         <v>44.55</v>
       </c>
       <c r="I84" s="3" t="n">
@@ -5550,28 +5568,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="85">
-      <c r="A85" s="13" t="n">
+      <c r="A85" s="14" t="n">
         <v>75</v>
       </c>
-      <c r="B85" s="25" t="s">
+      <c r="B85" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C85" s="26" t="s">
+      <c r="C85" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="D85" s="27" t="n">
+      <c r="D85" s="28" t="n">
         <v>73.45</v>
       </c>
-      <c r="E85" s="27" t="n">
+      <c r="E85" s="28" t="n">
         <v>76.95</v>
       </c>
-      <c r="F85" s="27" t="n">
+      <c r="F85" s="28" t="n">
         <v>75</v>
       </c>
-      <c r="G85" s="28" t="n">
+      <c r="G85" s="29" t="n">
         <v>78.5</v>
       </c>
-      <c r="H85" s="27" t="n">
+      <c r="H85" s="28" t="n">
         <v>8.65</v>
       </c>
       <c r="I85" s="3" t="n">
@@ -5579,28 +5597,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="86">
-      <c r="A86" s="13" t="n">
+      <c r="A86" s="14" t="n">
         <v>76</v>
       </c>
-      <c r="B86" s="25" t="s">
+      <c r="B86" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="C86" s="26" t="s">
+      <c r="C86" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="D86" s="27" t="n">
+      <c r="D86" s="28" t="n">
         <v>66.15</v>
       </c>
-      <c r="E86" s="27" t="n">
+      <c r="E86" s="28" t="n">
         <v>85.75</v>
       </c>
-      <c r="F86" s="27" t="n">
+      <c r="F86" s="28" t="n">
         <v>73.3</v>
       </c>
-      <c r="G86" s="28" t="n">
+      <c r="G86" s="29" t="n">
         <v>85.95</v>
       </c>
-      <c r="H86" s="27" t="n">
+      <c r="H86" s="28" t="n">
         <v>31.1</v>
       </c>
       <c r="I86" s="3" t="n">
@@ -5608,28 +5626,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="87">
-      <c r="A87" s="13" t="n">
+      <c r="A87" s="14" t="n">
         <v>77</v>
       </c>
-      <c r="B87" s="25" t="s">
+      <c r="B87" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C87" s="26" t="s">
+      <c r="C87" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="D87" s="27" t="n">
+      <c r="D87" s="28" t="n">
         <v>50.3</v>
       </c>
-      <c r="E87" s="27" t="n">
+      <c r="E87" s="28" t="n">
         <v>65.85</v>
       </c>
-      <c r="F87" s="27" t="n">
+      <c r="F87" s="28" t="n">
         <v>58.85</v>
       </c>
-      <c r="G87" s="28" t="n">
+      <c r="G87" s="29" t="n">
         <v>74.45</v>
       </c>
-      <c r="H87" s="27" t="n">
+      <c r="H87" s="28" t="n">
         <v>34.6</v>
       </c>
       <c r="I87" s="3" t="n">
@@ -5637,28 +5655,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="88">
-      <c r="A88" s="13" t="n">
+      <c r="A88" s="14" t="n">
         <v>78</v>
       </c>
-      <c r="B88" s="25" t="s">
+      <c r="B88" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="C88" s="26" t="s">
+      <c r="C88" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="D88" s="27" t="n">
+      <c r="D88" s="28" t="n">
         <v>68.25</v>
       </c>
-      <c r="E88" s="27" t="n">
+      <c r="E88" s="28" t="n">
         <v>81.25</v>
       </c>
-      <c r="F88" s="27" t="n">
+      <c r="F88" s="28" t="n">
         <v>70.2</v>
       </c>
-      <c r="G88" s="28" t="n">
+      <c r="G88" s="29" t="n">
         <v>83.25</v>
       </c>
-      <c r="H88" s="27" t="n">
+      <c r="H88" s="28" t="n">
         <v>29.15</v>
       </c>
       <c r="I88" s="3" t="n">
@@ -5666,28 +5684,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="89">
-      <c r="A89" s="13" t="n">
+      <c r="A89" s="14" t="n">
         <v>79</v>
       </c>
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="C89" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="D89" s="27" t="n">
+      <c r="D89" s="28" t="n">
         <v>68.55</v>
       </c>
-      <c r="E89" s="27" t="n">
+      <c r="E89" s="28" t="n">
         <v>87.1</v>
       </c>
-      <c r="F89" s="27" t="n">
+      <c r="F89" s="28" t="n">
         <v>70.35</v>
       </c>
-      <c r="G89" s="28" t="n">
+      <c r="G89" s="29" t="n">
         <v>89.25</v>
       </c>
-      <c r="H89" s="27" t="n">
+      <c r="H89" s="28" t="n">
         <v>42.05</v>
       </c>
       <c r="I89" s="3" t="n">
@@ -5695,28 +5713,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="90">
-      <c r="A90" s="13" t="n">
+      <c r="A90" s="14" t="n">
         <v>80</v>
       </c>
-      <c r="B90" s="25" t="s">
+      <c r="B90" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="C90" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="D90" s="27" t="n">
+      <c r="D90" s="28" t="n">
         <v>75.2</v>
       </c>
-      <c r="E90" s="27" t="n">
+      <c r="E90" s="28" t="n">
         <v>89.85</v>
       </c>
-      <c r="F90" s="27" t="n">
+      <c r="F90" s="28" t="n">
         <v>76.75</v>
       </c>
-      <c r="G90" s="28" t="n">
+      <c r="G90" s="29" t="n">
         <v>91.4</v>
       </c>
-      <c r="H90" s="27" t="n">
+      <c r="H90" s="28" t="n">
         <v>30.9</v>
       </c>
       <c r="I90" s="3" t="n">
@@ -5724,28 +5742,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="91">
-      <c r="A91" s="13" t="n">
+      <c r="A91" s="14" t="n">
         <v>81</v>
       </c>
-      <c r="B91" s="25" t="s">
+      <c r="B91" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C91" s="26" t="s">
+      <c r="C91" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="D91" s="27" t="n">
+      <c r="D91" s="28" t="n">
         <v>76.55</v>
       </c>
-      <c r="E91" s="27" t="n">
+      <c r="E91" s="28" t="n">
         <v>88.45</v>
       </c>
-      <c r="F91" s="27" t="n">
+      <c r="F91" s="28" t="n">
         <v>79.1</v>
       </c>
-      <c r="G91" s="28" t="n">
+      <c r="G91" s="29" t="n">
         <v>91.25</v>
       </c>
-      <c r="H91" s="27" t="n">
+      <c r="H91" s="28" t="n">
         <v>15.5</v>
       </c>
       <c r="I91" s="3" t="n">
@@ -5753,28 +5771,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="92">
-      <c r="A92" s="13" t="n">
+      <c r="A92" s="14" t="n">
         <v>82</v>
       </c>
-      <c r="B92" s="25" t="s">
+      <c r="B92" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C92" s="26" t="s">
+      <c r="C92" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="D92" s="27" t="n">
+      <c r="D92" s="28" t="n">
         <v>66.55</v>
       </c>
-      <c r="E92" s="27" t="n">
+      <c r="E92" s="28" t="n">
         <v>75.15</v>
       </c>
-      <c r="F92" s="27" t="n">
+      <c r="F92" s="28" t="n">
         <v>68.6</v>
       </c>
-      <c r="G92" s="28" t="n">
+      <c r="G92" s="29" t="n">
         <v>77.2</v>
       </c>
-      <c r="H92" s="27" t="n">
+      <c r="H92" s="28" t="n">
         <v>16.4</v>
       </c>
       <c r="I92" s="3" t="n">
@@ -5782,28 +5800,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="93">
-      <c r="A93" s="13" t="n">
+      <c r="A93" s="14" t="n">
         <v>83</v>
       </c>
-      <c r="B93" s="25" t="s">
+      <c r="B93" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D93" s="27" t="n">
+      <c r="D93" s="28" t="n">
         <v>69.3</v>
       </c>
-      <c r="E93" s="27" t="n">
+      <c r="E93" s="28" t="n">
         <v>76.15</v>
       </c>
-      <c r="F93" s="27" t="n">
+      <c r="F93" s="28" t="n">
         <v>72.1</v>
       </c>
-      <c r="G93" s="28" t="n">
+      <c r="G93" s="29" t="n">
         <v>78.7</v>
       </c>
-      <c r="H93" s="27" t="n">
+      <c r="H93" s="28" t="n">
         <v>10.15</v>
       </c>
       <c r="I93" s="3" t="n">
@@ -5811,28 +5829,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="94">
-      <c r="A94" s="13" t="n">
+      <c r="A94" s="14" t="n">
         <v>84</v>
       </c>
-      <c r="B94" s="25" t="s">
+      <c r="B94" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C94" s="26" t="s">
+      <c r="C94" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D94" s="29" t="s">
+      <c r="D94" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E94" s="29" t="s">
+      <c r="E94" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="F94" s="29" t="s">
+      <c r="F94" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="G94" s="29" t="s">
+      <c r="G94" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H94" s="29" t="s">
+      <c r="H94" s="30" t="s">
         <v>82</v>
       </c>
       <c r="I94" s="3" t="n">
@@ -5840,28 +5858,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="95">
-      <c r="A95" s="13" t="n">
+      <c r="A95" s="14" t="n">
         <v>85</v>
       </c>
-      <c r="B95" s="25" t="s">
+      <c r="B95" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C95" s="26" t="s">
+      <c r="C95" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D95" s="27" t="n">
+      <c r="D95" s="28" t="n">
         <v>41.6</v>
       </c>
-      <c r="E95" s="27" t="n">
+      <c r="E95" s="28" t="n">
         <v>58.35</v>
       </c>
-      <c r="F95" s="27" t="n">
+      <c r="F95" s="28" t="n">
         <v>44.65</v>
       </c>
-      <c r="G95" s="28" t="n">
+      <c r="G95" s="29" t="n">
         <v>58.95</v>
       </c>
-      <c r="H95" s="27" t="n">
+      <c r="H95" s="28" t="n">
         <v>26.2</v>
       </c>
       <c r="I95" s="3" t="n">
@@ -5869,28 +5887,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="96">
-      <c r="A96" s="13" t="n">
+      <c r="A96" s="14" t="n">
         <v>86</v>
       </c>
-      <c r="B96" s="25" t="s">
+      <c r="B96" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C96" s="26" t="s">
+      <c r="C96" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="D96" s="27" t="n">
+      <c r="D96" s="28" t="n">
         <v>76.8</v>
       </c>
-      <c r="E96" s="27" t="n">
+      <c r="E96" s="28" t="n">
         <v>93.75</v>
       </c>
-      <c r="F96" s="27" t="n">
+      <c r="F96" s="28" t="n">
         <v>93.85</v>
       </c>
-      <c r="G96" s="28" t="n">
+      <c r="G96" s="29" t="n">
         <v>106.35</v>
       </c>
-      <c r="H96" s="27" t="n">
+      <c r="H96" s="28" t="n">
         <v>25.05</v>
       </c>
       <c r="I96" s="3" t="n">
@@ -5898,28 +5916,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="97">
-      <c r="A97" s="13" t="n">
+      <c r="A97" s="14" t="n">
         <v>87</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C97" s="26" t="s">
+      <c r="C97" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="D97" s="27" t="n">
+      <c r="D97" s="28" t="n">
         <v>49</v>
       </c>
-      <c r="E97" s="27" t="n">
+      <c r="E97" s="28" t="n">
         <v>61.3</v>
       </c>
-      <c r="F97" s="27" t="n">
+      <c r="F97" s="28" t="n">
         <v>50.35</v>
       </c>
-      <c r="G97" s="28" t="n">
+      <c r="G97" s="29" t="n">
         <v>63.05</v>
       </c>
-      <c r="H97" s="27" t="n">
+      <c r="H97" s="28" t="n">
         <v>25.15</v>
       </c>
       <c r="I97" s="3" t="n">
@@ -5927,28 +5945,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="98">
-      <c r="A98" s="13" t="n">
+      <c r="A98" s="14" t="n">
         <v>88</v>
       </c>
-      <c r="B98" s="25" t="s">
+      <c r="B98" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="C98" s="26" t="s">
+      <c r="C98" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="D98" s="27" t="n">
+      <c r="D98" s="28" t="n">
         <v>67.2</v>
       </c>
-      <c r="E98" s="27" t="n">
+      <c r="E98" s="28" t="n">
         <v>84.8</v>
       </c>
-      <c r="F98" s="27" t="n">
+      <c r="F98" s="28" t="n">
         <v>70.2</v>
       </c>
-      <c r="G98" s="28" t="n">
+      <c r="G98" s="29" t="n">
         <v>87.95</v>
       </c>
-      <c r="H98" s="27" t="n">
+      <c r="H98" s="28" t="n">
         <v>39.6</v>
       </c>
       <c r="I98" s="3" t="n">
@@ -5956,28 +5974,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="99">
-      <c r="A99" s="13" t="n">
+      <c r="A99" s="14" t="n">
         <v>89</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C99" s="26" t="s">
+      <c r="C99" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="D99" s="27" t="n">
+      <c r="D99" s="28" t="n">
         <v>62.75</v>
       </c>
-      <c r="E99" s="27" t="n">
+      <c r="E99" s="28" t="n">
         <v>78.95</v>
       </c>
-      <c r="F99" s="27" t="n">
+      <c r="F99" s="28" t="n">
         <v>65.25</v>
       </c>
-      <c r="G99" s="28" t="n">
+      <c r="G99" s="29" t="n">
         <v>81.5</v>
       </c>
-      <c r="H99" s="27" t="n">
+      <c r="H99" s="28" t="n">
         <v>31.9</v>
       </c>
       <c r="I99" s="3" t="n">
@@ -5985,28 +6003,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="100">
-      <c r="A100" s="13" t="n">
+      <c r="A100" s="14" t="n">
         <v>90</v>
       </c>
-      <c r="B100" s="25" t="s">
+      <c r="B100" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="C100" s="26" t="s">
+      <c r="C100" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="D100" s="27" t="n">
+      <c r="D100" s="28" t="n">
         <v>57.05</v>
       </c>
-      <c r="E100" s="27" t="n">
+      <c r="E100" s="28" t="n">
         <v>77.95</v>
       </c>
-      <c r="F100" s="27" t="n">
+      <c r="F100" s="28" t="n">
         <v>60</v>
       </c>
-      <c r="G100" s="28" t="n">
+      <c r="G100" s="29" t="n">
         <v>78.55</v>
       </c>
-      <c r="H100" s="27" t="n">
+      <c r="H100" s="28" t="n">
         <v>33.45</v>
       </c>
       <c r="I100" s="3" t="n">
@@ -6014,28 +6032,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="101">
-      <c r="A101" s="13" t="n">
+      <c r="A101" s="14" t="n">
         <v>91</v>
       </c>
-      <c r="B101" s="25" t="s">
+      <c r="B101" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="C101" s="26" t="s">
+      <c r="C101" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="D101" s="27" t="n">
+      <c r="D101" s="28" t="n">
         <v>64.25</v>
       </c>
-      <c r="E101" s="27" t="n">
+      <c r="E101" s="28" t="n">
         <v>77.4</v>
       </c>
-      <c r="F101" s="27" t="n">
+      <c r="F101" s="28" t="n">
         <v>65.85</v>
       </c>
-      <c r="G101" s="28" t="n">
+      <c r="G101" s="29" t="n">
         <v>78.95</v>
       </c>
-      <c r="H101" s="27" t="n">
+      <c r="H101" s="28" t="n">
         <v>24.85</v>
       </c>
       <c r="I101" s="3" t="n">
@@ -6043,28 +6061,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="102">
-      <c r="A102" s="13" t="n">
+      <c r="A102" s="14" t="n">
         <v>92</v>
       </c>
-      <c r="B102" s="25" t="s">
+      <c r="B102" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="C102" s="26" t="s">
+      <c r="C102" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="D102" s="27" t="n">
+      <c r="D102" s="28" t="n">
         <v>61.3</v>
       </c>
-      <c r="E102" s="27" t="n">
+      <c r="E102" s="28" t="n">
         <v>74.4</v>
       </c>
-      <c r="F102" s="27" t="n">
+      <c r="F102" s="28" t="n">
         <v>61.9</v>
       </c>
-      <c r="G102" s="28" t="n">
+      <c r="G102" s="29" t="n">
         <v>76.05</v>
       </c>
-      <c r="H102" s="27" t="n">
+      <c r="H102" s="28" t="n">
         <v>24.9</v>
       </c>
       <c r="I102" s="3" t="n">
@@ -6072,28 +6090,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="103">
-      <c r="A103" s="13" t="n">
+      <c r="A103" s="14" t="n">
         <v>93</v>
       </c>
-      <c r="B103" s="25" t="s">
+      <c r="B103" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C103" s="26" t="s">
+      <c r="C103" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="D103" s="27" t="n">
+      <c r="D103" s="28" t="n">
         <v>70</v>
       </c>
-      <c r="E103" s="27" t="n">
+      <c r="E103" s="28" t="n">
         <v>88.15</v>
       </c>
-      <c r="F103" s="27" t="n">
+      <c r="F103" s="28" t="n">
         <v>72.4</v>
       </c>
-      <c r="G103" s="28" t="n">
+      <c r="G103" s="29" t="n">
         <v>90.6</v>
       </c>
-      <c r="H103" s="27" t="n">
+      <c r="H103" s="28" t="n">
         <v>33.65</v>
       </c>
       <c r="I103" s="3" t="n">
@@ -6101,28 +6119,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="104">
-      <c r="A104" s="13" t="n">
+      <c r="A104" s="14" t="n">
         <v>94</v>
       </c>
-      <c r="B104" s="25" t="s">
+      <c r="B104" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="C104" s="26" t="s">
+      <c r="C104" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="D104" s="27" t="n">
+      <c r="D104" s="28" t="n">
         <v>66.8</v>
       </c>
-      <c r="E104" s="27" t="n">
+      <c r="E104" s="28" t="n">
         <v>88.2</v>
       </c>
-      <c r="F104" s="27" t="n">
+      <c r="F104" s="28" t="n">
         <v>69.4</v>
       </c>
-      <c r="G104" s="28" t="n">
+      <c r="G104" s="29" t="n">
         <v>89.65</v>
       </c>
-      <c r="H104" s="27" t="n">
+      <c r="H104" s="28" t="n">
         <v>42.95</v>
       </c>
       <c r="I104" s="3" t="n">
@@ -6130,28 +6148,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="105">
-      <c r="A105" s="13" t="n">
+      <c r="A105" s="14" t="n">
         <v>95</v>
       </c>
-      <c r="B105" s="25" t="s">
+      <c r="B105" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="C105" s="26" t="s">
+      <c r="C105" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="D105" s="27" t="n">
+      <c r="D105" s="28" t="n">
         <v>76</v>
       </c>
-      <c r="E105" s="27" t="n">
+      <c r="E105" s="28" t="n">
         <v>92.25</v>
       </c>
-      <c r="F105" s="27" t="n">
+      <c r="F105" s="28" t="n">
         <v>78</v>
       </c>
-      <c r="G105" s="28" t="n">
+      <c r="G105" s="29" t="n">
         <v>94.25</v>
       </c>
-      <c r="H105" s="27" t="n">
+      <c r="H105" s="28" t="n">
         <v>42.85</v>
       </c>
       <c r="I105" s="3" t="n">
@@ -6159,28 +6177,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="106">
-      <c r="A106" s="13" t="n">
+      <c r="A106" s="14" t="n">
         <v>96</v>
       </c>
-      <c r="B106" s="25" t="s">
+      <c r="B106" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="C106" s="26" t="s">
+      <c r="C106" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D106" s="27" t="n">
+      <c r="D106" s="28" t="n">
         <v>59.7</v>
       </c>
-      <c r="E106" s="27" t="n">
+      <c r="E106" s="28" t="n">
         <v>74.8</v>
       </c>
-      <c r="F106" s="27" t="n">
+      <c r="F106" s="28" t="n">
         <v>61.9</v>
       </c>
-      <c r="G106" s="28" t="n">
+      <c r="G106" s="29" t="n">
         <v>76.65</v>
       </c>
-      <c r="H106" s="27" t="n">
+      <c r="H106" s="28" t="n">
         <v>23.7</v>
       </c>
       <c r="I106" s="3" t="n">
@@ -6188,28 +6206,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="107">
-      <c r="A107" s="13" t="n">
+      <c r="A107" s="14" t="n">
         <v>97</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C107" s="26" t="s">
+      <c r="C107" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="D107" s="27" t="n">
+      <c r="D107" s="28" t="n">
         <v>85.15</v>
       </c>
-      <c r="E107" s="27" t="n">
+      <c r="E107" s="28" t="n">
         <v>109.4</v>
       </c>
-      <c r="F107" s="27" t="n">
+      <c r="F107" s="28" t="n">
         <v>86.7</v>
       </c>
-      <c r="G107" s="28" t="n">
+      <c r="G107" s="29" t="n">
         <v>109.4</v>
       </c>
-      <c r="H107" s="27" t="n">
+      <c r="H107" s="28" t="n">
         <v>53.25</v>
       </c>
       <c r="I107" s="3" t="n">
@@ -6217,28 +6235,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="108">
-      <c r="A108" s="13" t="n">
+      <c r="A108" s="14" t="n">
         <v>98</v>
       </c>
-      <c r="B108" s="25" t="s">
+      <c r="B108" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C108" s="26" t="s">
+      <c r="C108" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="D108" s="27" t="n">
+      <c r="D108" s="28" t="n">
         <v>68.1</v>
       </c>
-      <c r="E108" s="27" t="n">
+      <c r="E108" s="28" t="n">
         <v>83.1</v>
       </c>
-      <c r="F108" s="27" t="n">
+      <c r="F108" s="28" t="n">
         <v>70.2</v>
       </c>
-      <c r="G108" s="28" t="n">
+      <c r="G108" s="29" t="n">
         <v>85.15</v>
       </c>
-      <c r="H108" s="27" t="n">
+      <c r="H108" s="28" t="n">
         <v>28.55</v>
       </c>
       <c r="I108" s="3" t="n">
@@ -6246,28 +6264,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="109">
-      <c r="A109" s="13" t="n">
+      <c r="A109" s="14" t="n">
         <v>99</v>
       </c>
-      <c r="B109" s="25" t="s">
+      <c r="B109" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="C109" s="26" t="s">
+      <c r="C109" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="D109" s="27" t="n">
+      <c r="D109" s="28" t="n">
         <v>60.05</v>
       </c>
-      <c r="E109" s="27" t="n">
+      <c r="E109" s="28" t="n">
         <v>64.25</v>
       </c>
-      <c r="F109" s="27" t="n">
+      <c r="F109" s="28" t="n">
         <v>61.6</v>
       </c>
-      <c r="G109" s="28" t="n">
+      <c r="G109" s="29" t="n">
         <v>65.8</v>
       </c>
-      <c r="H109" s="27" t="n">
+      <c r="H109" s="28" t="n">
         <v>9.3</v>
       </c>
       <c r="I109" s="3" t="n">
@@ -6275,28 +6293,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="110">
-      <c r="A110" s="13" t="n">
+      <c r="A110" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="B110" s="25" t="s">
+      <c r="B110" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="C110" s="26" t="s">
+      <c r="C110" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="D110" s="27" t="n">
+      <c r="D110" s="28" t="n">
         <v>68.55</v>
       </c>
-      <c r="E110" s="27" t="n">
+      <c r="E110" s="28" t="n">
         <v>83.8</v>
       </c>
-      <c r="F110" s="27" t="n">
+      <c r="F110" s="28" t="n">
         <v>70.25</v>
       </c>
-      <c r="G110" s="28" t="n">
+      <c r="G110" s="29" t="n">
         <v>85.3</v>
       </c>
-      <c r="H110" s="27" t="n">
+      <c r="H110" s="28" t="n">
         <v>32.7</v>
       </c>
       <c r="I110" s="3" t="n">
@@ -6304,28 +6322,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="111">
-      <c r="A111" s="13" t="n">
+      <c r="A111" s="14" t="n">
         <v>101</v>
       </c>
-      <c r="B111" s="25" t="s">
+      <c r="B111" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="C111" s="26" t="s">
+      <c r="C111" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="D111" s="27" t="n">
+      <c r="D111" s="28" t="n">
         <v>55.45</v>
       </c>
-      <c r="E111" s="27" t="n">
+      <c r="E111" s="28" t="n">
         <v>69.4</v>
       </c>
-      <c r="F111" s="27" t="n">
+      <c r="F111" s="28" t="n">
         <v>57.4</v>
       </c>
-      <c r="G111" s="28" t="n">
+      <c r="G111" s="29" t="n">
         <v>71.35</v>
       </c>
-      <c r="H111" s="27" t="n">
+      <c r="H111" s="28" t="n">
         <v>27.95</v>
       </c>
       <c r="I111" s="3" t="n">
@@ -6333,28 +6351,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="112">
-      <c r="A112" s="13" t="n">
+      <c r="A112" s="14" t="n">
         <v>102</v>
       </c>
-      <c r="B112" s="25" t="s">
+      <c r="B112" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="C112" s="26" t="s">
+      <c r="C112" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="D112" s="27" t="n">
+      <c r="D112" s="28" t="n">
         <v>65.3</v>
       </c>
-      <c r="E112" s="27" t="n">
+      <c r="E112" s="28" t="n">
         <v>73.7</v>
       </c>
-      <c r="F112" s="27" t="n">
+      <c r="F112" s="28" t="n">
         <v>66</v>
       </c>
-      <c r="G112" s="28" t="n">
+      <c r="G112" s="29" t="n">
         <v>73.7</v>
       </c>
-      <c r="H112" s="27" t="n">
+      <c r="H112" s="28" t="n">
         <v>28.25</v>
       </c>
       <c r="I112" s="3" t="n">
@@ -6362,28 +6380,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="113">
-      <c r="A113" s="13" t="n">
+      <c r="A113" s="14" t="n">
         <v>103</v>
       </c>
-      <c r="B113" s="25" t="s">
+      <c r="B113" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C113" s="26" t="s">
+      <c r="C113" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D113" s="29" t="s">
+      <c r="D113" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E113" s="29" t="s">
+      <c r="E113" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F113" s="29" t="s">
+      <c r="F113" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G113" s="29" t="s">
+      <c r="G113" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H113" s="29" t="s">
+      <c r="H113" s="30" t="s">
         <v>25</v>
       </c>
       <c r="I113" s="3" t="n">
@@ -6391,28 +6409,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="114">
-      <c r="A114" s="13" t="n">
+      <c r="A114" s="14" t="n">
         <v>104</v>
       </c>
-      <c r="B114" s="25" t="s">
+      <c r="B114" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="C114" s="26" t="s">
+      <c r="C114" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="D114" s="27" t="n">
+      <c r="D114" s="28" t="n">
         <v>58.4</v>
       </c>
-      <c r="E114" s="27" t="n">
+      <c r="E114" s="28" t="n">
         <v>59.2</v>
       </c>
-      <c r="F114" s="27" t="n">
+      <c r="F114" s="28" t="n">
         <v>59.2</v>
       </c>
-      <c r="G114" s="28" t="n">
+      <c r="G114" s="29" t="n">
         <v>60.45</v>
       </c>
-      <c r="H114" s="27" t="n">
+      <c r="H114" s="28" t="n">
         <v>4.25</v>
       </c>
       <c r="I114" s="3" t="n">
@@ -6420,28 +6438,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="115">
-      <c r="A115" s="13" t="n">
+      <c r="A115" s="14" t="n">
         <v>105</v>
       </c>
-      <c r="B115" s="25" t="s">
+      <c r="B115" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="C115" s="26" t="s">
+      <c r="C115" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="D115" s="29" t="s">
+      <c r="D115" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E115" s="29" t="s">
+      <c r="E115" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F115" s="29" t="s">
+      <c r="F115" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G115" s="29" t="s">
+      <c r="G115" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H115" s="29" t="s">
+      <c r="H115" s="30" t="s">
         <v>25</v>
       </c>
       <c r="I115" s="3" t="n">
@@ -6449,28 +6467,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="116">
-      <c r="A116" s="13" t="n">
+      <c r="A116" s="14" t="n">
         <v>106</v>
       </c>
-      <c r="B116" s="25" t="s">
+      <c r="B116" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="C116" s="26" t="s">
+      <c r="C116" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="D116" s="27" t="n">
+      <c r="D116" s="28" t="n">
         <v>57.45</v>
       </c>
-      <c r="E116" s="27" t="n">
+      <c r="E116" s="28" t="n">
         <v>60.8</v>
       </c>
-      <c r="F116" s="27" t="n">
+      <c r="F116" s="28" t="n">
         <v>59.5</v>
       </c>
-      <c r="G116" s="28" t="n">
+      <c r="G116" s="29" t="n">
         <v>63</v>
       </c>
-      <c r="H116" s="27" t="n">
+      <c r="H116" s="28" t="n">
         <v>10.3</v>
       </c>
       <c r="I116" s="3" t="n">
@@ -6478,28 +6496,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="117">
-      <c r="A117" s="13" t="n">
+      <c r="A117" s="14" t="n">
         <v>107</v>
       </c>
-      <c r="B117" s="25" t="s">
+      <c r="B117" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="C117" s="26" t="s">
+      <c r="C117" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="D117" s="27" t="n">
+      <c r="D117" s="28" t="n">
         <v>73.4</v>
       </c>
-      <c r="E117" s="27" t="n">
+      <c r="E117" s="28" t="n">
         <v>90.25</v>
       </c>
-      <c r="F117" s="27" t="n">
+      <c r="F117" s="28" t="n">
         <v>74.5</v>
       </c>
-      <c r="G117" s="28" t="n">
+      <c r="G117" s="29" t="n">
         <v>91.3</v>
       </c>
-      <c r="H117" s="27" t="n">
+      <c r="H117" s="28" t="n">
         <v>36.4</v>
       </c>
       <c r="I117" s="3" t="n">
@@ -6507,28 +6525,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="118">
-      <c r="A118" s="13" t="n">
+      <c r="A118" s="14" t="n">
         <v>108</v>
       </c>
-      <c r="B118" s="25" t="s">
+      <c r="B118" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="C118" s="26" t="s">
+      <c r="C118" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="D118" s="27" t="n">
+      <c r="D118" s="28" t="n">
         <v>82.15</v>
       </c>
-      <c r="E118" s="27" t="n">
+      <c r="E118" s="28" t="n">
         <v>103.95</v>
       </c>
-      <c r="F118" s="27" t="n">
+      <c r="F118" s="28" t="n">
         <v>84.8</v>
       </c>
-      <c r="G118" s="28" t="n">
+      <c r="G118" s="29" t="n">
         <v>106.75</v>
       </c>
-      <c r="H118" s="27" t="n">
+      <c r="H118" s="28" t="n">
         <v>47.85</v>
       </c>
       <c r="I118" s="3" t="n">
@@ -6536,28 +6554,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="119">
-      <c r="A119" s="13" t="n">
+      <c r="A119" s="14" t="n">
         <v>109</v>
       </c>
-      <c r="B119" s="25" t="s">
+      <c r="B119" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="C119" s="26" t="s">
+      <c r="C119" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="D119" s="27" t="n">
+      <c r="D119" s="28" t="n">
         <v>90.5</v>
       </c>
-      <c r="E119" s="27" t="n">
+      <c r="E119" s="28" t="n">
         <v>108.25</v>
       </c>
-      <c r="F119" s="27" t="n">
+      <c r="F119" s="28" t="n">
         <v>92.15</v>
       </c>
-      <c r="G119" s="28" t="n">
+      <c r="G119" s="29" t="n">
         <v>108.25</v>
       </c>
-      <c r="H119" s="27" t="n">
+      <c r="H119" s="28" t="n">
         <v>33.95</v>
       </c>
       <c r="I119" s="3" t="n">
@@ -6565,28 +6583,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="120">
-      <c r="A120" s="13" t="n">
+      <c r="A120" s="14" t="n">
         <v>110</v>
       </c>
-      <c r="B120" s="13" t="s">
+      <c r="B120" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C120" s="26" t="s">
+      <c r="C120" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="D120" s="27" t="n">
+      <c r="D120" s="28" t="n">
         <v>75.85</v>
       </c>
-      <c r="E120" s="27" t="n">
+      <c r="E120" s="28" t="n">
         <v>85</v>
       </c>
-      <c r="F120" s="27" t="n">
+      <c r="F120" s="28" t="n">
         <v>81.8</v>
       </c>
-      <c r="G120" s="28" t="n">
+      <c r="G120" s="29" t="n">
         <v>95.45</v>
       </c>
-      <c r="H120" s="27" t="n">
+      <c r="H120" s="28" t="n">
         <v>33</v>
       </c>
       <c r="I120" s="3" t="n">
@@ -6594,28 +6612,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="121">
-      <c r="A121" s="13" t="n">
+      <c r="A121" s="14" t="n">
         <v>111</v>
       </c>
-      <c r="B121" s="25" t="s">
+      <c r="B121" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="C121" s="26" t="s">
+      <c r="C121" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="D121" s="27" t="n">
+      <c r="D121" s="28" t="n">
         <v>64.1</v>
       </c>
-      <c r="E121" s="27" t="n">
+      <c r="E121" s="28" t="n">
         <v>77.05</v>
       </c>
-      <c r="F121" s="27" t="n">
+      <c r="F121" s="28" t="n">
         <v>65.7</v>
       </c>
-      <c r="G121" s="28" t="n">
+      <c r="G121" s="29" t="n">
         <v>78.65</v>
       </c>
-      <c r="H121" s="27" t="n">
+      <c r="H121" s="28" t="n">
         <v>25.95</v>
       </c>
       <c r="I121" s="3" t="n">
@@ -6623,28 +6641,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="122">
-      <c r="A122" s="13" t="n">
+      <c r="A122" s="14" t="n">
         <v>112</v>
       </c>
-      <c r="B122" s="25" t="s">
+      <c r="B122" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="C122" s="26" t="s">
+      <c r="C122" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="D122" s="27" t="n">
+      <c r="D122" s="28" t="n">
         <v>71.4</v>
       </c>
-      <c r="E122" s="27" t="n">
+      <c r="E122" s="28" t="n">
         <v>89.1</v>
       </c>
-      <c r="F122" s="27" t="n">
+      <c r="F122" s="28" t="n">
         <v>77.05</v>
       </c>
-      <c r="G122" s="28" t="n">
+      <c r="G122" s="29" t="n">
         <v>91.15</v>
       </c>
-      <c r="H122" s="27" t="n">
+      <c r="H122" s="28" t="n">
         <v>36.95</v>
       </c>
       <c r="I122" s="3" t="n">
@@ -6652,28 +6670,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="123">
-      <c r="A123" s="13" t="n">
+      <c r="A123" s="14" t="n">
         <v>113</v>
       </c>
-      <c r="B123" s="25" t="s">
+      <c r="B123" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="C123" s="26" t="s">
+      <c r="C123" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="D123" s="27" t="n">
+      <c r="D123" s="28" t="n">
         <v>83.5</v>
       </c>
-      <c r="E123" s="27" t="n">
+      <c r="E123" s="28" t="n">
         <v>94</v>
       </c>
-      <c r="F123" s="27" t="n">
+      <c r="F123" s="28" t="n">
         <v>85.6</v>
       </c>
-      <c r="G123" s="28" t="n">
+      <c r="G123" s="29" t="n">
         <v>95.65</v>
       </c>
-      <c r="H123" s="27" t="n">
+      <c r="H123" s="28" t="n">
         <v>14.6</v>
       </c>
       <c r="I123" s="3" t="n">
@@ -6681,28 +6699,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="124">
-      <c r="A124" s="13" t="n">
+      <c r="A124" s="14" t="n">
         <v>114</v>
       </c>
-      <c r="B124" s="25" t="s">
+      <c r="B124" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C124" s="26" t="s">
+      <c r="C124" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="D124" s="27" t="n">
+      <c r="D124" s="28" t="n">
         <v>58.8</v>
       </c>
-      <c r="E124" s="27" t="n">
+      <c r="E124" s="28" t="n">
         <v>77.95</v>
       </c>
-      <c r="F124" s="27" t="n">
+      <c r="F124" s="28" t="n">
         <v>61</v>
       </c>
-      <c r="G124" s="28" t="n">
+      <c r="G124" s="29" t="n">
         <v>79.9</v>
       </c>
-      <c r="H124" s="27" t="n">
+      <c r="H124" s="28" t="n">
         <v>42.75</v>
       </c>
       <c r="I124" s="3" t="n">
@@ -6710,28 +6728,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="125">
-      <c r="A125" s="13" t="n">
+      <c r="A125" s="14" t="n">
         <v>115</v>
       </c>
-      <c r="B125" s="25" t="s">
+      <c r="B125" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="C125" s="26" t="s">
+      <c r="C125" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="D125" s="27" t="n">
+      <c r="D125" s="28" t="n">
         <v>59.9</v>
       </c>
-      <c r="E125" s="27" t="n">
+      <c r="E125" s="28" t="n">
         <v>68.6</v>
       </c>
-      <c r="F125" s="27" t="n">
+      <c r="F125" s="28" t="n">
         <v>61.45</v>
       </c>
-      <c r="G125" s="28" t="n">
+      <c r="G125" s="29" t="n">
         <v>70.2</v>
       </c>
-      <c r="H125" s="27" t="n">
+      <c r="H125" s="28" t="n">
         <v>14.55</v>
       </c>
       <c r="I125" s="3" t="n">
@@ -6739,28 +6757,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="126">
-      <c r="A126" s="13" t="n">
+      <c r="A126" s="14" t="n">
         <v>116</v>
       </c>
-      <c r="B126" s="25" t="s">
+      <c r="B126" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C126" s="26" t="s">
+      <c r="C126" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="D126" s="27" t="n">
+      <c r="D126" s="28" t="n">
         <v>67.05</v>
       </c>
-      <c r="E126" s="27" t="n">
+      <c r="E126" s="28" t="n">
         <v>78.55</v>
       </c>
-      <c r="F126" s="27" t="n">
+      <c r="F126" s="28" t="n">
         <v>69.55</v>
       </c>
-      <c r="G126" s="28" t="n">
+      <c r="G126" s="29" t="n">
         <v>79.65</v>
       </c>
-      <c r="H126" s="27" t="n">
+      <c r="H126" s="28" t="n">
         <v>21.4</v>
       </c>
       <c r="I126" s="3" t="n">
@@ -6768,115 +6786,115 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="127">
-      <c r="A127" s="13" t="n">
+      <c r="A127" s="14" t="n">
         <v>117</v>
       </c>
-      <c r="B127" s="25" t="s">
+      <c r="B127" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="C127" s="26" t="s">
+      <c r="C127" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="D127" s="27" t="n">
+      <c r="D127" s="28" t="n">
         <v>74.85</v>
       </c>
-      <c r="E127" s="27" t="n">
+      <c r="E127" s="28" t="n">
         <v>88.8</v>
       </c>
-      <c r="F127" s="27" t="n">
+      <c r="F127" s="28" t="n">
         <v>77.9</v>
       </c>
-      <c r="G127" s="28" t="n">
+      <c r="G127" s="29" t="n">
         <v>91.8</v>
       </c>
-      <c r="H127" s="27" t="n">
+      <c r="H127" s="28" t="n">
         <v>29.3</v>
       </c>
       <c r="I127" s="3" t="n">
         <v>30</v>
       </c>
     </row>
-    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="128" s="35">
-      <c r="A128" s="13" t="n">
+    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="128" s="36">
+      <c r="A128" s="14" t="n">
         <v>118</v>
       </c>
-      <c r="B128" s="25" t="s">
+      <c r="B128" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="C128" s="26" t="s">
+      <c r="C128" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="D128" s="27" t="n">
+      <c r="D128" s="28" t="n">
         <v>93</v>
       </c>
-      <c r="E128" s="27" t="n">
+      <c r="E128" s="28" t="n">
         <v>112.1</v>
       </c>
-      <c r="F128" s="27" t="n">
+      <c r="F128" s="28" t="n">
         <v>95</v>
       </c>
-      <c r="G128" s="28" t="n">
+      <c r="G128" s="29" t="n">
         <v>114.1</v>
       </c>
-      <c r="H128" s="27" t="n">
+      <c r="H128" s="28" t="n">
         <v>38.2</v>
       </c>
-      <c r="I128" s="36" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="129" s="35">
-      <c r="A129" s="13" t="n">
+      <c r="I128" s="37" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="129" s="36">
+      <c r="A129" s="14" t="n">
         <v>119</v>
       </c>
-      <c r="B129" s="25" t="s">
+      <c r="B129" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="C129" s="26" t="s">
+      <c r="C129" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="D129" s="27" t="n">
+      <c r="D129" s="28" t="n">
         <v>71.2</v>
       </c>
-      <c r="E129" s="27" t="n">
+      <c r="E129" s="28" t="n">
         <v>86.5</v>
       </c>
-      <c r="F129" s="27" t="n">
+      <c r="F129" s="28" t="n">
         <v>72.7</v>
       </c>
-      <c r="G129" s="28" t="n">
+      <c r="G129" s="29" t="n">
         <v>88.1</v>
       </c>
-      <c r="H129" s="27" t="n">
+      <c r="H129" s="28" t="n">
         <v>30.75</v>
       </c>
-      <c r="I129" s="36" t="n">
+      <c r="I129" s="37" t="n">
         <v>30</v>
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="130">
-      <c r="A130" s="13" t="n">
+      <c r="A130" s="14" t="n">
         <v>120</v>
       </c>
-      <c r="B130" s="25" t="s">
+      <c r="B130" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="C130" s="26" t="s">
+      <c r="C130" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="D130" s="27" t="n">
+      <c r="D130" s="28" t="n">
         <v>75.25</v>
       </c>
-      <c r="E130" s="27" t="n">
+      <c r="E130" s="28" t="n">
         <v>88</v>
       </c>
-      <c r="F130" s="27" t="n">
+      <c r="F130" s="28" t="n">
         <v>76.75</v>
       </c>
-      <c r="G130" s="28" t="n">
+      <c r="G130" s="29" t="n">
         <v>88</v>
       </c>
-      <c r="H130" s="27" t="n">
+      <c r="H130" s="28" t="n">
         <v>15.45</v>
       </c>
       <c r="I130" s="3" t="n">
@@ -6884,28 +6902,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="131">
-      <c r="A131" s="13" t="n">
+      <c r="A131" s="14" t="n">
         <v>121</v>
       </c>
-      <c r="B131" s="25" t="s">
+      <c r="B131" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="C131" s="26" t="s">
+      <c r="C131" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="D131" s="27" t="n">
+      <c r="D131" s="28" t="n">
         <v>63.4</v>
       </c>
-      <c r="E131" s="27" t="n">
+      <c r="E131" s="28" t="n">
         <v>65.1</v>
       </c>
-      <c r="F131" s="27" t="n">
+      <c r="F131" s="28" t="n">
         <v>65.15</v>
       </c>
-      <c r="G131" s="28" t="n">
+      <c r="G131" s="29" t="n">
         <v>67.2</v>
       </c>
-      <c r="H131" s="27" t="n">
+      <c r="H131" s="28" t="n">
         <v>10.4</v>
       </c>
       <c r="I131" s="3" t="n">
@@ -6913,28 +6931,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="132">
-      <c r="A132" s="13" t="n">
+      <c r="A132" s="14" t="n">
         <v>122</v>
       </c>
-      <c r="B132" s="25" t="s">
+      <c r="B132" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="C132" s="26" t="s">
+      <c r="C132" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="D132" s="27" t="n">
+      <c r="D132" s="28" t="n">
         <v>83.45</v>
       </c>
-      <c r="E132" s="27" t="n">
+      <c r="E132" s="28" t="n">
         <v>98.05</v>
       </c>
-      <c r="F132" s="27" t="n">
+      <c r="F132" s="28" t="n">
         <v>89.7</v>
       </c>
-      <c r="G132" s="28" t="n">
+      <c r="G132" s="29" t="n">
         <v>105.05</v>
       </c>
-      <c r="H132" s="27" t="n">
+      <c r="H132" s="28" t="n">
         <v>33.75</v>
       </c>
       <c r="I132" s="3" t="n">
@@ -6942,28 +6960,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="133">
-      <c r="A133" s="13" t="n">
+      <c r="A133" s="14" t="n">
         <v>123</v>
       </c>
-      <c r="B133" s="25" t="s">
+      <c r="B133" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="C133" s="26" t="s">
+      <c r="C133" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="D133" s="27" t="n">
+      <c r="D133" s="28" t="n">
         <v>50.75</v>
       </c>
-      <c r="E133" s="27" t="n">
+      <c r="E133" s="28" t="n">
         <v>66.65</v>
       </c>
-      <c r="F133" s="27" t="n">
+      <c r="F133" s="28" t="n">
         <v>71.95</v>
       </c>
-      <c r="G133" s="28" t="n">
+      <c r="G133" s="29" t="n">
         <v>86.35</v>
       </c>
-      <c r="H133" s="27" t="n">
+      <c r="H133" s="28" t="n">
         <v>30.3</v>
       </c>
       <c r="I133" s="3" t="n">
@@ -6971,28 +6989,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="134">
-      <c r="A134" s="13" t="n">
+      <c r="A134" s="14" t="n">
         <v>124</v>
       </c>
-      <c r="B134" s="25" t="s">
+      <c r="B134" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="C134" s="26" t="s">
+      <c r="C134" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="D134" s="27" t="n">
+      <c r="D134" s="28" t="n">
         <v>57.45</v>
       </c>
-      <c r="E134" s="27" t="n">
+      <c r="E134" s="28" t="n">
         <v>73.2</v>
       </c>
-      <c r="F134" s="27" t="n">
+      <c r="F134" s="28" t="n">
         <v>59.35</v>
       </c>
-      <c r="G134" s="28" t="n">
+      <c r="G134" s="29" t="n">
         <v>76.3</v>
       </c>
-      <c r="H134" s="27" t="n">
+      <c r="H134" s="28" t="n">
         <v>35.45</v>
       </c>
       <c r="I134" s="3" t="n">
@@ -7000,28 +7018,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="135">
-      <c r="A135" s="13" t="n">
+      <c r="A135" s="14" t="n">
         <v>125</v>
       </c>
-      <c r="B135" s="25" t="s">
+      <c r="B135" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="C135" s="26" t="s">
+      <c r="C135" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="D135" s="27" t="n">
+      <c r="D135" s="28" t="n">
         <v>62.25</v>
       </c>
-      <c r="E135" s="27" t="n">
+      <c r="E135" s="28" t="n">
         <v>66.75</v>
       </c>
-      <c r="F135" s="27" t="n">
+      <c r="F135" s="28" t="n">
         <v>63.85</v>
       </c>
-      <c r="G135" s="28" t="n">
+      <c r="G135" s="29" t="n">
         <v>68.3</v>
       </c>
-      <c r="H135" s="27" t="n">
+      <c r="H135" s="28" t="n">
         <v>8.1</v>
       </c>
       <c r="I135" s="3" t="n">
@@ -7029,28 +7047,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="136">
-      <c r="A136" s="13" t="n">
+      <c r="A136" s="14" t="n">
         <v>126</v>
       </c>
-      <c r="B136" s="25" t="s">
+      <c r="B136" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="C136" s="26" t="s">
+      <c r="C136" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="D136" s="27" t="n">
+      <c r="D136" s="28" t="n">
         <v>52.15</v>
       </c>
-      <c r="E136" s="27" t="n">
+      <c r="E136" s="28" t="n">
         <v>62.85</v>
       </c>
-      <c r="F136" s="27" t="n">
+      <c r="F136" s="28" t="n">
         <v>54.15</v>
       </c>
-      <c r="G136" s="28" t="n">
+      <c r="G136" s="29" t="n">
         <v>64.85</v>
       </c>
-      <c r="H136" s="27" t="n">
+      <c r="H136" s="28" t="n">
         <v>22.55</v>
       </c>
       <c r="I136" s="3" t="n">
@@ -7058,28 +7076,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="137">
-      <c r="A137" s="13" t="n">
+      <c r="A137" s="14" t="n">
         <v>127</v>
       </c>
-      <c r="B137" s="25" t="s">
+      <c r="B137" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="C137" s="26" t="s">
+      <c r="C137" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="D137" s="27" t="n">
+      <c r="D137" s="28" t="n">
         <v>71.45</v>
       </c>
-      <c r="E137" s="27" t="n">
+      <c r="E137" s="28" t="n">
         <v>99.75</v>
       </c>
-      <c r="F137" s="27" t="n">
+      <c r="F137" s="28" t="n">
         <v>74.55</v>
       </c>
-      <c r="G137" s="28" t="n">
+      <c r="G137" s="29" t="n">
         <v>99.75</v>
       </c>
-      <c r="H137" s="27" t="n">
+      <c r="H137" s="28" t="n">
         <v>54.2</v>
       </c>
       <c r="I137" s="3" t="n">
@@ -7087,28 +7105,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="138">
-      <c r="A138" s="13" t="n">
+      <c r="A138" s="14" t="n">
         <v>128</v>
       </c>
-      <c r="B138" s="25" t="s">
+      <c r="B138" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="C138" s="26" t="s">
+      <c r="C138" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="D138" s="27" t="n">
+      <c r="D138" s="28" t="n">
         <v>66.55</v>
       </c>
-      <c r="E138" s="27" t="n">
+      <c r="E138" s="28" t="n">
         <v>80.15</v>
       </c>
-      <c r="F138" s="27" t="n">
+      <c r="F138" s="28" t="n">
         <v>68.5</v>
       </c>
-      <c r="G138" s="28" t="n">
+      <c r="G138" s="29" t="n">
         <v>82.15</v>
       </c>
-      <c r="H138" s="27" t="n">
+      <c r="H138" s="28" t="n">
         <v>31.3</v>
       </c>
       <c r="I138" s="3" t="n">
@@ -7116,28 +7134,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="139">
-      <c r="A139" s="13" t="n">
+      <c r="A139" s="14" t="n">
         <v>129</v>
       </c>
-      <c r="B139" s="25" t="s">
+      <c r="B139" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="C139" s="26" t="s">
+      <c r="C139" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="D139" s="27" t="n">
+      <c r="D139" s="28" t="n">
         <v>62.75</v>
       </c>
-      <c r="E139" s="27" t="n">
+      <c r="E139" s="28" t="n">
         <v>83.75</v>
       </c>
-      <c r="F139" s="27" t="n">
+      <c r="F139" s="28" t="n">
         <v>64.25</v>
       </c>
-      <c r="G139" s="28" t="n">
+      <c r="G139" s="29" t="n">
         <v>85.25</v>
       </c>
-      <c r="H139" s="27" t="n">
+      <c r="H139" s="28" t="n">
         <v>39.75</v>
       </c>
       <c r="I139" s="3" t="n">
@@ -7145,28 +7163,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="140">
-      <c r="A140" s="13" t="n">
+      <c r="A140" s="14" t="n">
         <v>130</v>
       </c>
-      <c r="B140" s="25" t="s">
+      <c r="B140" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="C140" s="26" t="s">
+      <c r="C140" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="D140" s="27" t="n">
+      <c r="D140" s="28" t="n">
         <v>68.75</v>
       </c>
-      <c r="E140" s="27" t="n">
+      <c r="E140" s="28" t="n">
         <v>96</v>
       </c>
-      <c r="F140" s="27" t="n">
+      <c r="F140" s="28" t="n">
         <v>70.75</v>
       </c>
-      <c r="G140" s="28" t="n">
+      <c r="G140" s="29" t="n">
         <v>98</v>
       </c>
-      <c r="H140" s="27" t="n">
+      <c r="H140" s="28" t="n">
         <v>54.5</v>
       </c>
       <c r="I140" s="3" t="n">
@@ -7174,28 +7192,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="141">
-      <c r="A141" s="13" t="n">
+      <c r="A141" s="14" t="n">
         <v>131</v>
       </c>
-      <c r="B141" s="25" t="s">
+      <c r="B141" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="C141" s="26" t="s">
+      <c r="C141" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="D141" s="29" t="s">
+      <c r="D141" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E141" s="29" t="s">
+      <c r="E141" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="F141" s="29" t="s">
+      <c r="F141" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="G141" s="29" t="s">
+      <c r="G141" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H141" s="29" t="s">
+      <c r="H141" s="30" t="s">
         <v>82</v>
       </c>
       <c r="I141" s="3" t="n">
@@ -7203,28 +7221,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="142">
-      <c r="A142" s="13" t="n">
+      <c r="A142" s="14" t="n">
         <v>132</v>
       </c>
-      <c r="B142" s="25" t="s">
+      <c r="B142" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="C142" s="26" t="s">
+      <c r="C142" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="D142" s="27" t="n">
+      <c r="D142" s="28" t="n">
         <v>103.65</v>
       </c>
-      <c r="E142" s="27" t="n">
+      <c r="E142" s="28" t="n">
         <v>107.75</v>
       </c>
-      <c r="F142" s="27" t="n">
+      <c r="F142" s="28" t="n">
         <v>108.85</v>
       </c>
-      <c r="G142" s="28" t="n">
+      <c r="G142" s="29" t="n">
         <v>110.65</v>
       </c>
-      <c r="H142" s="27" t="n">
+      <c r="H142" s="28" t="n">
         <v>11.85</v>
       </c>
       <c r="I142" s="3" t="n">
@@ -7232,28 +7250,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="143">
-      <c r="A143" s="32" t="n">
+      <c r="A143" s="33" t="n">
         <v>133</v>
       </c>
-      <c r="B143" s="33" t="s">
+      <c r="B143" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="C143" s="26" t="s">
+      <c r="C143" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="D143" s="27" t="n">
+      <c r="D143" s="28" t="n">
         <v>75.25</v>
       </c>
-      <c r="E143" s="27" t="n">
+      <c r="E143" s="28" t="n">
         <v>87.3</v>
       </c>
-      <c r="F143" s="27" t="n">
+      <c r="F143" s="28" t="n">
         <v>77.9</v>
       </c>
-      <c r="G143" s="28" t="n">
+      <c r="G143" s="29" t="n">
         <v>90.4</v>
       </c>
-      <c r="H143" s="27" t="n">
+      <c r="H143" s="28" t="n">
         <v>23.05</v>
       </c>
       <c r="I143" s="3" t="n">
@@ -7261,28 +7279,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="144">
-      <c r="A144" s="32" t="n">
+      <c r="A144" s="33" t="n">
         <v>134</v>
       </c>
-      <c r="B144" s="33" t="s">
+      <c r="B144" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="C144" s="26" t="s">
+      <c r="C144" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D144" s="27" t="n">
+      <c r="D144" s="28" t="n">
         <v>73.9</v>
       </c>
-      <c r="E144" s="27" t="n">
+      <c r="E144" s="28" t="n">
         <v>82.65</v>
       </c>
-      <c r="F144" s="27" t="n">
+      <c r="F144" s="28" t="n">
         <v>75.45</v>
       </c>
-      <c r="G144" s="28" t="n">
+      <c r="G144" s="29" t="n">
         <v>84.2</v>
       </c>
-      <c r="H144" s="27" t="n">
+      <c r="H144" s="28" t="n">
         <v>16.7</v>
       </c>
       <c r="I144" s="3" t="n">
@@ -7290,28 +7308,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="145">
-      <c r="A145" s="32" t="n">
+      <c r="A145" s="33" t="n">
         <v>135</v>
       </c>
-      <c r="B145" s="33" t="s">
+      <c r="B145" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="C145" s="26" t="s">
+      <c r="C145" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="D145" s="27" t="n">
+      <c r="D145" s="28" t="n">
         <v>59.85</v>
       </c>
-      <c r="E145" s="27" t="n">
+      <c r="E145" s="28" t="n">
         <v>68.55</v>
       </c>
-      <c r="F145" s="27" t="n">
+      <c r="F145" s="28" t="n">
         <v>61.9</v>
       </c>
-      <c r="G145" s="28" t="n">
+      <c r="G145" s="29" t="n">
         <v>71.2</v>
       </c>
-      <c r="H145" s="27" t="n">
+      <c r="H145" s="28" t="n">
         <v>19.6</v>
       </c>
       <c r="I145" s="3" t="n">
@@ -7319,28 +7337,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="146">
-      <c r="A146" s="32" t="n">
+      <c r="A146" s="33" t="n">
         <v>136</v>
       </c>
-      <c r="B146" s="33" t="s">
+      <c r="B146" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="C146" s="26" t="s">
+      <c r="C146" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="D146" s="27" t="n">
+      <c r="D146" s="28" t="n">
         <v>84.9</v>
       </c>
-      <c r="E146" s="27" t="n">
+      <c r="E146" s="28" t="n">
         <v>100.3</v>
       </c>
-      <c r="F146" s="27" t="n">
+      <c r="F146" s="28" t="n">
         <v>87.75</v>
       </c>
-      <c r="G146" s="28" t="n">
+      <c r="G146" s="29" t="n">
         <v>101.9</v>
       </c>
-      <c r="H146" s="27" t="n">
+      <c r="H146" s="28" t="n">
         <v>36.3</v>
       </c>
       <c r="I146" s="3" t="n">
@@ -7348,28 +7366,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="147">
-      <c r="A147" s="32" t="n">
+      <c r="A147" s="33" t="n">
         <v>137</v>
       </c>
-      <c r="B147" s="33" t="s">
+      <c r="B147" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="C147" s="26" t="s">
+      <c r="C147" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="D147" s="29" t="s">
+      <c r="D147" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E147" s="29" t="s">
+      <c r="E147" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="F147" s="29" t="s">
+      <c r="F147" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="G147" s="29" t="s">
+      <c r="G147" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H147" s="29" t="s">
+      <c r="H147" s="30" t="s">
         <v>82</v>
       </c>
       <c r="I147" s="3" t="n">
@@ -7377,28 +7395,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="148">
-      <c r="A148" s="32" t="n">
+      <c r="A148" s="33" t="n">
         <v>138</v>
       </c>
-      <c r="B148" s="33" t="s">
+      <c r="B148" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="C148" s="26" t="s">
+      <c r="C148" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="D148" s="27" t="n">
+      <c r="D148" s="28" t="n">
         <v>72.3</v>
       </c>
-      <c r="E148" s="27" t="n">
+      <c r="E148" s="28" t="n">
         <v>96.45</v>
       </c>
-      <c r="F148" s="27" t="n">
+      <c r="F148" s="28" t="n">
         <v>74.7</v>
       </c>
-      <c r="G148" s="28" t="n">
+      <c r="G148" s="29" t="n">
         <v>98.95</v>
       </c>
-      <c r="H148" s="27" t="n">
+      <c r="H148" s="28" t="n">
         <v>45.7</v>
       </c>
       <c r="I148" s="3" t="n">
@@ -7406,28 +7424,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="149">
-      <c r="A149" s="32" t="n">
+      <c r="A149" s="33" t="n">
         <v>139</v>
       </c>
-      <c r="B149" s="33" t="s">
+      <c r="B149" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="C149" s="26" t="s">
+      <c r="C149" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="D149" s="27" t="n">
+      <c r="D149" s="28" t="n">
         <v>81.95</v>
       </c>
-      <c r="E149" s="27" t="n">
+      <c r="E149" s="28" t="n">
         <v>102.1</v>
       </c>
-      <c r="F149" s="27" t="n">
+      <c r="F149" s="28" t="n">
         <v>84.7</v>
       </c>
-      <c r="G149" s="28" t="n">
+      <c r="G149" s="29" t="n">
         <v>103.5</v>
       </c>
-      <c r="H149" s="27" t="n">
+      <c r="H149" s="28" t="n">
         <v>41.6</v>
       </c>
       <c r="I149" s="3" t="n">
@@ -7435,28 +7453,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="150">
-      <c r="A150" s="32" t="n">
+      <c r="A150" s="33" t="n">
         <v>140</v>
       </c>
-      <c r="B150" s="33" t="s">
+      <c r="B150" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="C150" s="26" t="s">
+      <c r="C150" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="D150" s="27" t="n">
+      <c r="D150" s="28" t="n">
         <v>53.05</v>
       </c>
-      <c r="E150" s="27" t="n">
+      <c r="E150" s="28" t="n">
         <v>56.75</v>
       </c>
-      <c r="F150" s="27" t="n">
+      <c r="F150" s="28" t="n">
         <v>56.2</v>
       </c>
-      <c r="G150" s="28" t="n">
+      <c r="G150" s="29" t="n">
         <v>59.7</v>
       </c>
-      <c r="H150" s="27" t="n">
+      <c r="H150" s="28" t="n">
         <v>4.3</v>
       </c>
       <c r="I150" s="3" t="n">
@@ -7464,28 +7482,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="151">
-      <c r="A151" s="32" t="n">
+      <c r="A151" s="33" t="n">
         <v>141</v>
       </c>
-      <c r="B151" s="33" t="s">
+      <c r="B151" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="C151" s="26" t="s">
+      <c r="C151" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="D151" s="27" t="n">
+      <c r="D151" s="28" t="n">
         <v>53.25</v>
       </c>
-      <c r="E151" s="27" t="n">
+      <c r="E151" s="28" t="n">
         <v>59.7</v>
       </c>
-      <c r="F151" s="27" t="n">
+      <c r="F151" s="28" t="n">
         <v>55.6</v>
       </c>
-      <c r="G151" s="28" t="n">
+      <c r="G151" s="29" t="n">
         <v>65</v>
       </c>
-      <c r="H151" s="27" t="n">
+      <c r="H151" s="28" t="n">
         <v>13.65</v>
       </c>
       <c r="I151" s="3" t="n">
@@ -7493,28 +7511,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="152">
-      <c r="A152" s="32" t="n">
+      <c r="A152" s="33" t="n">
         <v>142</v>
       </c>
-      <c r="B152" s="33" t="s">
+      <c r="B152" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="C152" s="26" t="s">
+      <c r="C152" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="D152" s="27" t="n">
+      <c r="D152" s="28" t="n">
         <v>62.25</v>
       </c>
-      <c r="E152" s="27" t="n">
+      <c r="E152" s="28" t="n">
         <v>63.7</v>
       </c>
-      <c r="F152" s="27" t="n">
+      <c r="F152" s="28" t="n">
         <v>72.75</v>
       </c>
-      <c r="G152" s="28" t="n">
+      <c r="G152" s="29" t="n">
         <v>74.2</v>
       </c>
-      <c r="H152" s="27" t="n">
+      <c r="H152" s="28" t="n">
         <v>4.25</v>
       </c>
       <c r="I152" s="3" t="n">
@@ -7522,28 +7540,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="153">
-      <c r="A153" s="32" t="n">
+      <c r="A153" s="33" t="n">
         <v>143</v>
       </c>
-      <c r="B153" s="32" t="s">
+      <c r="B153" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="C153" s="26" t="s">
+      <c r="C153" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="D153" s="27" t="n">
+      <c r="D153" s="28" t="n">
         <v>41.8</v>
       </c>
-      <c r="E153" s="27" t="n">
+      <c r="E153" s="28" t="n">
         <v>43</v>
       </c>
-      <c r="F153" s="27" t="n">
+      <c r="F153" s="28" t="n">
         <v>43.8</v>
       </c>
-      <c r="G153" s="28" t="n">
+      <c r="G153" s="29" t="n">
         <v>45.05</v>
       </c>
-      <c r="H153" s="27" t="n">
+      <c r="H153" s="28" t="n">
         <v>3</v>
       </c>
       <c r="I153" s="3" t="n">
@@ -7551,28 +7569,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="154">
-      <c r="A154" s="32" t="n">
+      <c r="A154" s="33" t="n">
         <v>144</v>
       </c>
-      <c r="B154" s="32" t="s">
+      <c r="B154" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="C154" s="26" t="s">
+      <c r="C154" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="D154" s="27" t="n">
+      <c r="D154" s="28" t="n">
         <v>53.7</v>
       </c>
-      <c r="E154" s="27" t="n">
+      <c r="E154" s="28" t="n">
         <v>54.9</v>
       </c>
-      <c r="F154" s="27" t="n">
+      <c r="F154" s="28" t="n">
         <v>55.65</v>
       </c>
-      <c r="G154" s="28" t="n">
+      <c r="G154" s="29" t="n">
         <v>56.85</v>
       </c>
-      <c r="H154" s="27" t="n">
+      <c r="H154" s="28" t="n">
         <v>3</v>
       </c>
       <c r="I154" s="3" t="n">
@@ -7580,28 +7598,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="155">
-      <c r="A155" s="32" t="n">
+      <c r="A155" s="33" t="n">
         <v>145</v>
       </c>
-      <c r="B155" s="32" t="s">
+      <c r="B155" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="C155" s="26" t="s">
+      <c r="C155" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="D155" s="27" t="n">
+      <c r="D155" s="28" t="n">
         <v>42.7</v>
       </c>
-      <c r="E155" s="27" t="n">
+      <c r="E155" s="28" t="n">
         <v>43.95</v>
       </c>
-      <c r="F155" s="27" t="n">
+      <c r="F155" s="28" t="n">
         <v>44.7</v>
       </c>
-      <c r="G155" s="28" t="n">
+      <c r="G155" s="29" t="n">
         <v>45.9</v>
       </c>
-      <c r="H155" s="27" t="n">
+      <c r="H155" s="28" t="n">
         <v>3</v>
       </c>
       <c r="I155" s="3" t="n">
@@ -7609,26 +7627,26 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="156">
-      <c r="A156" s="32" t="n">
+      <c r="A156" s="33" t="n">
         <v>146</v>
       </c>
-      <c r="B156" s="32" t="n"/>
-      <c r="C156" s="26" t="s">
+      <c r="B156" s="33" t="n"/>
+      <c r="C156" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="D156" s="27" t="n">
+      <c r="D156" s="28" t="n">
         <v>60.95</v>
       </c>
-      <c r="E156" s="27" t="n">
+      <c r="E156" s="28" t="n">
         <v>62.15</v>
       </c>
-      <c r="F156" s="27" t="n">
+      <c r="F156" s="28" t="n">
         <v>62.95</v>
       </c>
-      <c r="G156" s="28" t="n">
+      <c r="G156" s="29" t="n">
         <v>64.65</v>
       </c>
-      <c r="H156" s="27" t="n">
+      <c r="H156" s="28" t="n">
         <v>3</v>
       </c>
       <c r="I156" s="3" t="n">
@@ -7636,28 +7654,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="157">
-      <c r="A157" s="32" t="n">
+      <c r="A157" s="33" t="n">
         <v>147</v>
       </c>
-      <c r="B157" s="33" t="s">
+      <c r="B157" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="C157" s="26" t="s">
+      <c r="C157" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="D157" s="27" t="n">
+      <c r="D157" s="28" t="n">
         <v>71.55</v>
       </c>
-      <c r="E157" s="27" t="n">
+      <c r="E157" s="28" t="n">
         <v>88.45</v>
       </c>
-      <c r="F157" s="27" t="n">
+      <c r="F157" s="28" t="n">
         <v>74.7</v>
       </c>
-      <c r="G157" s="28" t="n">
+      <c r="G157" s="29" t="n">
         <v>91.65</v>
       </c>
-      <c r="H157" s="27" t="n">
+      <c r="H157" s="28" t="n">
         <v>28.8</v>
       </c>
       <c r="I157" s="3" t="n">
@@ -7665,28 +7683,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="158">
-      <c r="A158" s="32" t="n">
+      <c r="A158" s="33" t="n">
         <v>148</v>
       </c>
-      <c r="B158" s="33" t="s">
+      <c r="B158" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="C158" s="26" t="s">
+      <c r="C158" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="D158" s="27" t="n">
+      <c r="D158" s="28" t="n">
         <v>74.3</v>
       </c>
-      <c r="E158" s="27" t="n">
+      <c r="E158" s="28" t="n">
         <v>79.6</v>
       </c>
-      <c r="F158" s="27" t="n">
+      <c r="F158" s="28" t="n">
         <v>76.75</v>
       </c>
-      <c r="G158" s="28" t="n">
+      <c r="G158" s="29" t="n">
         <v>82</v>
       </c>
-      <c r="H158" s="27" t="n">
+      <c r="H158" s="28" t="n">
         <v>14.95</v>
       </c>
       <c r="I158" s="3" t="n">
@@ -7694,28 +7712,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="159">
-      <c r="A159" s="32" t="n">
+      <c r="A159" s="33" t="n">
         <v>149</v>
       </c>
-      <c r="B159" s="33" t="s">
+      <c r="B159" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="C159" s="26" t="s">
+      <c r="C159" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="D159" s="27" t="n">
+      <c r="D159" s="28" t="n">
         <v>109.2</v>
       </c>
-      <c r="E159" s="27" t="n">
+      <c r="E159" s="28" t="n">
         <v>126.7</v>
       </c>
-      <c r="F159" s="27" t="n">
+      <c r="F159" s="28" t="n">
         <v>111.15</v>
       </c>
-      <c r="G159" s="28" t="n">
+      <c r="G159" s="29" t="n">
         <v>128.65</v>
       </c>
-      <c r="H159" s="27" t="n">
+      <c r="H159" s="28" t="n">
         <v>49.3</v>
       </c>
       <c r="I159" s="3" t="n">
@@ -7723,28 +7741,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="160">
-      <c r="A160" s="32" t="n">
+      <c r="A160" s="33" t="n">
         <v>150</v>
       </c>
-      <c r="B160" s="33" t="s">
+      <c r="B160" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="C160" s="26" t="s">
+      <c r="C160" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D160" s="27" t="n">
+      <c r="D160" s="28" t="n">
         <v>73.5</v>
       </c>
-      <c r="E160" s="27" t="n">
+      <c r="E160" s="28" t="n">
         <v>103.75</v>
       </c>
-      <c r="F160" s="27" t="n">
+      <c r="F160" s="28" t="n">
         <v>80.25</v>
       </c>
-      <c r="G160" s="28" t="n">
+      <c r="G160" s="29" t="n">
         <v>108.05</v>
       </c>
-      <c r="H160" s="27" t="n">
+      <c r="H160" s="28" t="n">
         <v>61.8</v>
       </c>
       <c r="I160" s="3" t="n">
@@ -7752,28 +7770,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="161">
-      <c r="A161" s="32" t="n">
+      <c r="A161" s="33" t="n">
         <v>151</v>
       </c>
-      <c r="B161" s="33" t="s">
+      <c r="B161" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="C161" s="26" t="s">
+      <c r="C161" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="D161" s="29" t="s">
+      <c r="D161" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E161" s="29" t="s">
+      <c r="E161" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F161" s="29" t="s">
+      <c r="F161" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G161" s="29" t="s">
+      <c r="G161" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H161" s="29" t="s">
+      <c r="H161" s="30" t="s">
         <v>25</v>
       </c>
       <c r="I161" s="3" t="n">
@@ -7781,28 +7799,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="162">
-      <c r="A162" s="32" t="n">
+      <c r="A162" s="33" t="n">
         <v>152</v>
       </c>
-      <c r="B162" s="33" t="s">
+      <c r="B162" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="C162" s="26" t="s">
+      <c r="C162" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="D162" s="27" t="n">
+      <c r="D162" s="28" t="n">
         <v>71.75</v>
       </c>
-      <c r="E162" s="27" t="n">
+      <c r="E162" s="28" t="n">
         <v>97.95</v>
       </c>
-      <c r="F162" s="27" t="n">
+      <c r="F162" s="28" t="n">
         <v>74.85</v>
       </c>
-      <c r="G162" s="28" t="n">
+      <c r="G162" s="29" t="n">
         <v>97.95</v>
       </c>
-      <c r="H162" s="27" t="n">
+      <c r="H162" s="28" t="n">
         <v>45.45</v>
       </c>
       <c r="I162" s="3" t="n">
@@ -7810,28 +7828,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="163">
-      <c r="A163" s="32" t="n">
+      <c r="A163" s="33" t="n">
         <v>153</v>
       </c>
-      <c r="B163" s="33" t="s">
+      <c r="B163" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="C163" s="26" t="s">
+      <c r="C163" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="D163" s="27" t="n">
+      <c r="D163" s="28" t="n">
         <v>83.3</v>
       </c>
-      <c r="E163" s="27" t="n">
+      <c r="E163" s="28" t="n">
         <v>96.7</v>
       </c>
-      <c r="F163" s="27" t="n">
+      <c r="F163" s="28" t="n">
         <v>84.9</v>
       </c>
-      <c r="G163" s="28" t="n">
+      <c r="G163" s="29" t="n">
         <v>98.3</v>
       </c>
-      <c r="H163" s="27" t="n">
+      <c r="H163" s="28" t="n">
         <v>24.15</v>
       </c>
       <c r="I163" s="3" t="n">
@@ -7839,28 +7857,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="164">
-      <c r="A164" s="32" t="n">
+      <c r="A164" s="33" t="n">
         <v>154</v>
       </c>
-      <c r="B164" s="25" t="s">
+      <c r="B164" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="C164" s="26" t="s">
+      <c r="C164" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="D164" s="27" t="n">
+      <c r="D164" s="28" t="n">
         <v>56.9</v>
       </c>
-      <c r="E164" s="27" t="n">
+      <c r="E164" s="28" t="n">
         <v>74.15</v>
       </c>
-      <c r="F164" s="27" t="n">
+      <c r="F164" s="28" t="n">
         <v>58.35</v>
       </c>
-      <c r="G164" s="28" t="n">
+      <c r="G164" s="29" t="n">
         <v>76.25</v>
       </c>
-      <c r="H164" s="27" t="n">
+      <c r="H164" s="28" t="n">
         <v>35.55</v>
       </c>
       <c r="I164" s="3" t="n">
@@ -7868,28 +7886,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="165">
-      <c r="A165" s="32" t="n">
+      <c r="A165" s="33" t="n">
         <v>155</v>
       </c>
-      <c r="B165" s="25" t="s">
+      <c r="B165" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="C165" s="26" t="s">
+      <c r="C165" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="D165" s="27" t="n">
+      <c r="D165" s="28" t="n">
         <v>61.75</v>
       </c>
-      <c r="E165" s="27" t="n">
+      <c r="E165" s="28" t="n">
         <v>72.9</v>
       </c>
-      <c r="F165" s="27" t="n">
+      <c r="F165" s="28" t="n">
         <v>68.3</v>
       </c>
-      <c r="G165" s="28" t="n">
+      <c r="G165" s="29" t="n">
         <v>83.45</v>
       </c>
-      <c r="H165" s="27" t="n">
+      <c r="H165" s="28" t="n">
         <v>22.35</v>
       </c>
       <c r="I165" s="3" t="n">
@@ -7897,28 +7915,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="166">
-      <c r="A166" s="32" t="n">
+      <c r="A166" s="33" t="n">
         <v>156</v>
       </c>
-      <c r="B166" s="25" t="s">
+      <c r="B166" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="C166" s="26" t="s">
+      <c r="C166" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="D166" s="27" t="n">
+      <c r="D166" s="28" t="n">
         <v>71.9</v>
       </c>
-      <c r="E166" s="27" t="n">
+      <c r="E166" s="28" t="n">
         <v>93.2</v>
       </c>
-      <c r="F166" s="27" t="n">
+      <c r="F166" s="28" t="n">
         <v>73.9</v>
       </c>
-      <c r="G166" s="28" t="n">
+      <c r="G166" s="29" t="n">
         <v>95.2</v>
       </c>
-      <c r="H166" s="27" t="n">
+      <c r="H166" s="28" t="n">
         <v>42.65</v>
       </c>
       <c r="I166" s="3" t="n">
@@ -7926,28 +7944,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="167">
-      <c r="A167" s="32" t="n">
+      <c r="A167" s="33" t="n">
         <v>157</v>
       </c>
-      <c r="B167" s="25" t="s">
+      <c r="B167" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="C167" s="26" t="s">
+      <c r="C167" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="D167" s="27" t="n">
+      <c r="D167" s="28" t="n">
         <v>100.05</v>
       </c>
-      <c r="E167" s="27" t="n">
+      <c r="E167" s="28" t="n">
         <v>149.5</v>
       </c>
-      <c r="F167" s="27" t="n">
+      <c r="F167" s="28" t="n">
         <v>107.15</v>
       </c>
-      <c r="G167" s="28" t="n">
+      <c r="G167" s="29" t="n">
         <v>159.05</v>
       </c>
-      <c r="H167" s="27" t="n">
+      <c r="H167" s="28" t="n">
         <v>98.9</v>
       </c>
       <c r="I167" s="3" t="n">
@@ -7955,28 +7973,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="168">
-      <c r="A168" s="32" t="n">
+      <c r="A168" s="33" t="n">
         <v>158</v>
       </c>
-      <c r="B168" s="25" t="s">
+      <c r="B168" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="C168" s="26" t="s">
+      <c r="C168" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="D168" s="27" t="n">
+      <c r="D168" s="28" t="n">
         <v>257.25</v>
       </c>
-      <c r="E168" s="27" t="n">
+      <c r="E168" s="28" t="n">
         <v>293.9</v>
       </c>
-      <c r="F168" s="27" t="n">
+      <c r="F168" s="28" t="n">
         <v>258.8</v>
       </c>
-      <c r="G168" s="28" t="n">
+      <c r="G168" s="29" t="n">
         <v>295.45</v>
       </c>
-      <c r="H168" s="27" t="n">
+      <c r="H168" s="28" t="n">
         <v>149</v>
       </c>
       <c r="I168" s="3" t="n">
@@ -7984,28 +8002,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="169">
-      <c r="A169" s="32" t="n">
+      <c r="A169" s="33" t="n">
         <v>159</v>
       </c>
-      <c r="B169" s="25" t="s">
+      <c r="B169" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="C169" s="26" t="s">
+      <c r="C169" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="D169" s="27" t="n">
+      <c r="D169" s="28" t="n">
         <v>70.3</v>
       </c>
-      <c r="E169" s="27" t="n">
+      <c r="E169" s="28" t="n">
         <v>87.5</v>
       </c>
-      <c r="F169" s="27" t="n">
+      <c r="F169" s="28" t="n">
         <v>72.65</v>
       </c>
-      <c r="G169" s="28" t="n">
+      <c r="G169" s="29" t="n">
         <v>89.7</v>
       </c>
-      <c r="H169" s="27" t="n">
+      <c r="H169" s="28" t="n">
         <v>35.3</v>
       </c>
       <c r="I169" s="3" t="n">
@@ -8013,28 +8031,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="170">
-      <c r="A170" s="32" t="n">
+      <c r="A170" s="33" t="n">
         <v>160</v>
       </c>
-      <c r="B170" s="13" t="s">
+      <c r="B170" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="C170" s="26" t="s">
+      <c r="C170" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="D170" s="27" t="n">
+      <c r="D170" s="28" t="n">
         <v>66.1</v>
       </c>
-      <c r="E170" s="27" t="n">
+      <c r="E170" s="28" t="n">
         <v>94.4</v>
       </c>
-      <c r="F170" s="27" t="n">
+      <c r="F170" s="28" t="n">
         <v>71.5</v>
       </c>
-      <c r="G170" s="28" t="n">
+      <c r="G170" s="29" t="n">
         <v>96.35</v>
       </c>
-      <c r="H170" s="27" t="n">
+      <c r="H170" s="28" t="n">
         <v>63.25</v>
       </c>
       <c r="I170" s="3" t="n">
@@ -8042,28 +8060,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="171">
-      <c r="A171" s="32" t="n">
+      <c r="A171" s="33" t="n">
         <v>161</v>
       </c>
-      <c r="B171" s="25" t="s">
+      <c r="B171" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="C171" s="26" t="s">
+      <c r="C171" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="D171" s="27" t="n">
+      <c r="D171" s="28" t="n">
         <v>60.4</v>
       </c>
-      <c r="E171" s="27" t="n">
+      <c r="E171" s="28" t="n">
         <v>68.7</v>
       </c>
-      <c r="F171" s="27" t="n">
+      <c r="F171" s="28" t="n">
         <v>62.3</v>
       </c>
-      <c r="G171" s="28" t="n">
+      <c r="G171" s="29" t="n">
         <v>72.55</v>
       </c>
-      <c r="H171" s="27" t="n">
+      <c r="H171" s="28" t="n">
         <v>18</v>
       </c>
       <c r="I171" s="3" t="n">
@@ -8071,28 +8089,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="172">
-      <c r="A172" s="32" t="n">
+      <c r="A172" s="33" t="n">
         <v>162</v>
       </c>
-      <c r="B172" s="25" t="s">
+      <c r="B172" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="C172" s="26" t="s">
+      <c r="C172" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="D172" s="27" t="n">
+      <c r="D172" s="28" t="n">
         <v>65.5</v>
       </c>
-      <c r="E172" s="27" t="n">
+      <c r="E172" s="28" t="n">
         <v>75</v>
       </c>
-      <c r="F172" s="27" t="n">
+      <c r="F172" s="28" t="n">
         <v>69.45</v>
       </c>
-      <c r="G172" s="28" t="n">
+      <c r="G172" s="29" t="n">
         <v>78.9</v>
       </c>
-      <c r="H172" s="27" t="n">
+      <c r="H172" s="28" t="n">
         <v>20.8</v>
       </c>
       <c r="I172" s="3" t="n">
@@ -8100,28 +8118,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="173">
-      <c r="A173" s="32" t="n">
+      <c r="A173" s="33" t="n">
         <v>163</v>
       </c>
-      <c r="B173" s="33" t="s">
+      <c r="B173" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="C173" s="26" t="s">
+      <c r="C173" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="D173" s="29" t="s">
+      <c r="D173" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E173" s="29" t="s">
+      <c r="E173" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F173" s="29" t="s">
+      <c r="F173" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G173" s="29" t="s">
+      <c r="G173" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H173" s="29" t="s">
+      <c r="H173" s="30" t="s">
         <v>25</v>
       </c>
       <c r="I173" s="3" t="n">
@@ -8129,28 +8147,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="174">
-      <c r="A174" s="32" t="n">
+      <c r="A174" s="33" t="n">
         <v>164</v>
       </c>
-      <c r="B174" s="25" t="s">
+      <c r="B174" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="C174" s="26" t="s">
+      <c r="C174" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="D174" s="27" t="n">
+      <c r="D174" s="28" t="n">
         <v>51.4</v>
       </c>
-      <c r="E174" s="27" t="n">
+      <c r="E174" s="28" t="n">
         <v>58.55</v>
       </c>
-      <c r="F174" s="27" t="n">
+      <c r="F174" s="28" t="n">
         <v>52.7</v>
       </c>
-      <c r="G174" s="28" t="n">
+      <c r="G174" s="29" t="n">
         <v>60.6</v>
       </c>
-      <c r="H174" s="27" t="n">
+      <c r="H174" s="28" t="n">
         <v>10.6</v>
       </c>
       <c r="I174" s="3" t="n">
@@ -8158,28 +8176,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="175">
-      <c r="A175" s="32" t="n">
+      <c r="A175" s="33" t="n">
         <v>165</v>
       </c>
-      <c r="B175" s="25" t="s">
+      <c r="B175" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="C175" s="26" t="s">
+      <c r="C175" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="D175" s="27" t="n">
+      <c r="D175" s="28" t="n">
         <v>47.7</v>
       </c>
-      <c r="E175" s="27" t="n">
+      <c r="E175" s="28" t="n">
         <v>51.4</v>
       </c>
-      <c r="F175" s="27" t="n">
+      <c r="F175" s="28" t="n">
         <v>50.1</v>
       </c>
-      <c r="G175" s="28" t="n">
+      <c r="G175" s="29" t="n">
         <v>53.75</v>
       </c>
-      <c r="H175" s="27" t="n">
+      <c r="H175" s="28" t="n">
         <v>10.3</v>
       </c>
       <c r="I175" s="3" t="n">
@@ -8187,28 +8205,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="176">
-      <c r="A176" s="32" t="n">
+      <c r="A176" s="33" t="n">
         <v>166</v>
       </c>
-      <c r="B176" s="25" t="s">
+      <c r="B176" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="C176" s="26" t="s">
+      <c r="C176" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="D176" s="27" t="n">
+      <c r="D176" s="28" t="n">
         <v>50.3</v>
       </c>
-      <c r="E176" s="27" t="n">
+      <c r="E176" s="28" t="n">
         <v>69.4</v>
       </c>
-      <c r="F176" s="27" t="n">
+      <c r="F176" s="28" t="n">
         <v>56.5</v>
       </c>
-      <c r="G176" s="28" t="n">
+      <c r="G176" s="29" t="n">
         <v>79.85</v>
       </c>
-      <c r="H176" s="27" t="n">
+      <c r="H176" s="28" t="n">
         <v>41.4</v>
       </c>
       <c r="I176" s="3" t="n">
@@ -8216,28 +8234,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="177">
-      <c r="A177" s="32" t="n">
+      <c r="A177" s="33" t="n">
         <v>167</v>
       </c>
-      <c r="B177" s="25" t="s">
+      <c r="B177" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="C177" s="26" t="s">
+      <c r="C177" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="D177" s="27" t="n">
+      <c r="D177" s="28" t="n">
         <v>78.35</v>
       </c>
-      <c r="E177" s="27" t="n">
+      <c r="E177" s="28" t="n">
         <v>92.1</v>
       </c>
-      <c r="F177" s="27" t="n">
+      <c r="F177" s="28" t="n">
         <v>80.2</v>
       </c>
-      <c r="G177" s="28" t="n">
+      <c r="G177" s="29" t="n">
         <v>94.1</v>
       </c>
-      <c r="H177" s="27" t="n">
+      <c r="H177" s="28" t="n">
         <v>27.8</v>
       </c>
       <c r="I177" s="3" t="n">
@@ -8245,28 +8263,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="178">
-      <c r="A178" s="32" t="n">
+      <c r="A178" s="33" t="n">
         <v>168</v>
       </c>
-      <c r="B178" s="25" t="s">
+      <c r="B178" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="C178" s="26" t="s">
+      <c r="C178" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="D178" s="27" t="n">
+      <c r="D178" s="28" t="n">
         <v>73.3</v>
       </c>
-      <c r="E178" s="27" t="n">
+      <c r="E178" s="28" t="n">
         <v>89.95</v>
       </c>
-      <c r="F178" s="27" t="n">
+      <c r="F178" s="28" t="n">
         <v>76</v>
       </c>
-      <c r="G178" s="28" t="n">
+      <c r="G178" s="29" t="n">
         <v>93</v>
       </c>
-      <c r="H178" s="27" t="n">
+      <c r="H178" s="28" t="n">
         <v>31.85</v>
       </c>
       <c r="I178" s="3" t="n">
@@ -8274,28 +8292,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="179">
-      <c r="A179" s="32" t="n">
+      <c r="A179" s="33" t="n">
         <v>169</v>
       </c>
-      <c r="B179" s="25" t="s">
+      <c r="B179" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="C179" s="26" t="s">
+      <c r="C179" s="27" t="s">
         <v>350</v>
       </c>
-      <c r="D179" s="27" t="n">
+      <c r="D179" s="28" t="n">
         <v>164.75</v>
       </c>
-      <c r="E179" s="27" t="n">
+      <c r="E179" s="28" t="n">
         <v>178.85</v>
       </c>
-      <c r="F179" s="27" t="n">
+      <c r="F179" s="28" t="n">
         <v>166.75</v>
       </c>
-      <c r="G179" s="28" t="n">
+      <c r="G179" s="29" t="n">
         <v>180.85</v>
       </c>
-      <c r="H179" s="27" t="n">
+      <c r="H179" s="28" t="n">
         <v>28.25</v>
       </c>
       <c r="I179" s="3" t="n">
@@ -8303,28 +8321,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="180">
-      <c r="A180" s="32" t="n">
+      <c r="A180" s="33" t="n">
         <v>170</v>
       </c>
-      <c r="B180" s="37" t="s">
+      <c r="B180" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="C180" s="26" t="s">
+      <c r="C180" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="D180" s="27" t="n">
+      <c r="D180" s="28" t="n">
         <v>164.75</v>
       </c>
-      <c r="E180" s="27" t="n">
+      <c r="E180" s="28" t="n">
         <v>178.85</v>
       </c>
-      <c r="F180" s="27" t="n">
+      <c r="F180" s="28" t="n">
         <v>166.75</v>
       </c>
-      <c r="G180" s="28" t="n">
+      <c r="G180" s="29" t="n">
         <v>180.8</v>
       </c>
-      <c r="H180" s="27" t="n">
+      <c r="H180" s="28" t="n">
         <v>28.25</v>
       </c>
       <c r="I180" s="3" t="n">
@@ -8332,28 +8350,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="181">
-      <c r="A181" s="32" t="n">
+      <c r="A181" s="33" t="n">
         <v>171</v>
       </c>
-      <c r="B181" s="25" t="s">
+      <c r="B181" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="C181" s="26" t="s">
+      <c r="C181" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="D181" s="27" t="n">
+      <c r="D181" s="28" t="n">
         <v>56.25</v>
       </c>
-      <c r="E181" s="27" t="n">
+      <c r="E181" s="28" t="n">
         <v>70.6</v>
       </c>
-      <c r="F181" s="27" t="n">
+      <c r="F181" s="28" t="n">
         <v>71.75</v>
       </c>
-      <c r="G181" s="28" t="n">
+      <c r="G181" s="29" t="n">
         <v>86.25</v>
       </c>
-      <c r="H181" s="27" t="n">
+      <c r="H181" s="28" t="n">
         <v>28.95</v>
       </c>
       <c r="I181" s="3" t="n">
@@ -8361,28 +8379,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="182">
-      <c r="A182" s="32" t="n">
+      <c r="A182" s="33" t="n">
         <v>172</v>
       </c>
-      <c r="B182" s="25" t="s">
+      <c r="B182" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="C182" s="26" t="s">
+      <c r="C182" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="D182" s="27" t="n">
+      <c r="D182" s="28" t="n">
         <v>60.05</v>
       </c>
-      <c r="E182" s="27" t="n">
+      <c r="E182" s="28" t="n">
         <v>69.05</v>
       </c>
-      <c r="F182" s="27" t="n">
+      <c r="F182" s="28" t="n">
         <v>61.95</v>
       </c>
-      <c r="G182" s="28" t="n">
+      <c r="G182" s="29" t="n">
         <v>70.55</v>
       </c>
-      <c r="H182" s="27" t="n">
+      <c r="H182" s="28" t="n">
         <v>17.95</v>
       </c>
       <c r="I182" s="3" t="n">
@@ -8390,28 +8408,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="183">
-      <c r="A183" s="32" t="n">
+      <c r="A183" s="33" t="n">
         <v>173</v>
       </c>
-      <c r="B183" s="25" t="s">
+      <c r="B183" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="C183" s="26" t="s">
+      <c r="C183" s="27" t="s">
         <v>358</v>
       </c>
-      <c r="D183" s="27" t="n">
+      <c r="D183" s="28" t="n">
         <v>57.5</v>
       </c>
-      <c r="E183" s="27" t="n">
+      <c r="E183" s="28" t="n">
         <v>66.2</v>
       </c>
-      <c r="F183" s="27" t="n">
+      <c r="F183" s="28" t="n">
         <v>59.4</v>
       </c>
-      <c r="G183" s="28" t="n">
+      <c r="G183" s="29" t="n">
         <v>67.85</v>
       </c>
-      <c r="H183" s="27" t="n">
+      <c r="H183" s="28" t="n">
         <v>19.25</v>
       </c>
       <c r="I183" s="3" t="n">
@@ -8419,28 +8437,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="184">
-      <c r="A184" s="32" t="n">
+      <c r="A184" s="33" t="n">
         <v>174</v>
       </c>
-      <c r="B184" s="25" t="s">
+      <c r="B184" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="C184" s="26" t="s">
+      <c r="C184" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="D184" s="27" t="n">
+      <c r="D184" s="28" t="n">
         <v>80.15</v>
       </c>
-      <c r="E184" s="27" t="n">
+      <c r="E184" s="28" t="n">
         <v>93.15</v>
       </c>
-      <c r="F184" s="27" t="n">
+      <c r="F184" s="28" t="n">
         <v>82.25</v>
       </c>
-      <c r="G184" s="28" t="n">
+      <c r="G184" s="29" t="n">
         <v>95.35</v>
       </c>
-      <c r="H184" s="27" t="n">
+      <c r="H184" s="28" t="n">
         <v>26.1</v>
       </c>
       <c r="I184" s="3" t="n">
@@ -8448,28 +8466,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="185">
-      <c r="A185" s="32" t="n">
+      <c r="A185" s="33" t="n">
         <v>175</v>
       </c>
-      <c r="B185" s="25" t="s">
+      <c r="B185" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="C185" s="26" t="s">
+      <c r="C185" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="D185" s="27" t="n">
+      <c r="D185" s="28" t="n">
         <v>203.4</v>
       </c>
-      <c r="E185" s="27" t="n">
+      <c r="E185" s="28" t="n">
         <v>247.65</v>
       </c>
-      <c r="F185" s="27" t="n">
+      <c r="F185" s="28" t="n">
         <v>205.25</v>
       </c>
-      <c r="G185" s="28" t="n">
+      <c r="G185" s="29" t="n">
         <v>249.1</v>
       </c>
-      <c r="H185" s="27" t="n">
+      <c r="H185" s="28" t="n">
         <v>124.75</v>
       </c>
       <c r="I185" s="3" t="n">
@@ -8477,28 +8495,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="186">
-      <c r="A186" s="32" t="n">
+      <c r="A186" s="33" t="n">
         <v>176</v>
       </c>
-      <c r="B186" s="25" t="s">
+      <c r="B186" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="C186" s="26" t="s">
+      <c r="C186" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="D186" s="27" t="n">
+      <c r="D186" s="28" t="n">
         <v>75</v>
       </c>
-      <c r="E186" s="27" t="n">
+      <c r="E186" s="28" t="n">
         <v>89.4</v>
       </c>
-      <c r="F186" s="27" t="n">
+      <c r="F186" s="28" t="n">
         <v>77.35</v>
       </c>
-      <c r="G186" s="28" t="n">
+      <c r="G186" s="29" t="n">
         <v>90.95</v>
       </c>
-      <c r="H186" s="27" t="n">
+      <c r="H186" s="28" t="n">
         <v>28.95</v>
       </c>
       <c r="I186" s="3" t="n">
@@ -8506,28 +8524,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="187">
-      <c r="A187" s="32" t="n">
+      <c r="A187" s="33" t="n">
         <v>177</v>
       </c>
-      <c r="B187" s="13" t="s">
+      <c r="B187" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="C187" s="26" t="s">
+      <c r="C187" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="D187" s="27" t="n">
+      <c r="D187" s="28" t="n">
         <v>62.7</v>
       </c>
-      <c r="E187" s="27" t="n">
+      <c r="E187" s="28" t="n">
         <v>89.9</v>
       </c>
-      <c r="F187" s="27" t="n">
+      <c r="F187" s="28" t="n">
         <v>73.5</v>
       </c>
-      <c r="G187" s="28" t="n">
+      <c r="G187" s="29" t="n">
         <v>100.15</v>
       </c>
-      <c r="H187" s="27" t="n">
+      <c r="H187" s="28" t="n">
         <v>57.4</v>
       </c>
       <c r="I187" s="3" t="n">
@@ -8535,28 +8553,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="188">
-      <c r="A188" s="32" t="n">
+      <c r="A188" s="33" t="n">
         <v>178</v>
       </c>
-      <c r="B188" s="25" t="s">
+      <c r="B188" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="C188" s="26" t="s">
+      <c r="C188" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="D188" s="27" t="n">
+      <c r="D188" s="28" t="n">
         <v>61.1</v>
       </c>
-      <c r="E188" s="27" t="n">
+      <c r="E188" s="28" t="n">
         <v>80.5</v>
       </c>
-      <c r="F188" s="27" t="n">
+      <c r="F188" s="28" t="n">
         <v>62.7</v>
       </c>
-      <c r="G188" s="28" t="n">
+      <c r="G188" s="29" t="n">
         <v>81.95</v>
       </c>
-      <c r="H188" s="27" t="n">
+      <c r="H188" s="28" t="n">
         <v>38.65</v>
       </c>
       <c r="I188" s="3" t="n">
@@ -8564,28 +8582,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="189">
-      <c r="A189" s="32" t="n">
+      <c r="A189" s="33" t="n">
         <v>179</v>
       </c>
-      <c r="B189" s="25" t="s">
+      <c r="B189" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="C189" s="26" t="s">
+      <c r="C189" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="D189" s="27" t="n">
+      <c r="D189" s="28" t="n">
         <v>70.15</v>
       </c>
-      <c r="E189" s="27" t="n">
+      <c r="E189" s="28" t="n">
         <v>82.8</v>
       </c>
-      <c r="F189" s="27" t="n">
+      <c r="F189" s="28" t="n">
         <v>76.7</v>
       </c>
-      <c r="G189" s="28" t="n">
+      <c r="G189" s="29" t="n">
         <v>89.35</v>
       </c>
-      <c r="H189" s="27" t="n">
+      <c r="H189" s="28" t="n">
         <v>25.4</v>
       </c>
       <c r="I189" s="3" t="n">
@@ -8593,28 +8611,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="190">
-      <c r="A190" s="32" t="n">
+      <c r="A190" s="33" t="n">
         <v>180</v>
       </c>
-      <c r="B190" s="25" t="s">
+      <c r="B190" s="26" t="s">
         <v>371</v>
       </c>
-      <c r="C190" s="26" t="s">
+      <c r="C190" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="D190" s="27" t="n">
+      <c r="D190" s="28" t="n">
         <v>66.8</v>
       </c>
-      <c r="E190" s="27" t="n">
+      <c r="E190" s="28" t="n">
         <v>73.55</v>
       </c>
-      <c r="F190" s="27" t="n">
+      <c r="F190" s="28" t="n">
         <v>69.85</v>
       </c>
-      <c r="G190" s="28" t="n">
+      <c r="G190" s="29" t="n">
         <v>76.75</v>
       </c>
-      <c r="H190" s="27" t="n">
+      <c r="H190" s="28" t="n">
         <v>10.3</v>
       </c>
       <c r="I190" s="3" t="n">
@@ -8622,28 +8640,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="191">
-      <c r="A191" s="32" t="n">
+      <c r="A191" s="33" t="n">
         <v>181</v>
       </c>
-      <c r="B191" s="25" t="s">
+      <c r="B191" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="C191" s="26" t="s">
+      <c r="C191" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="D191" s="27" t="n">
+      <c r="D191" s="28" t="n">
         <v>70.9</v>
       </c>
-      <c r="E191" s="27" t="n">
+      <c r="E191" s="28" t="n">
         <v>73.75</v>
       </c>
-      <c r="F191" s="27" t="n">
+      <c r="F191" s="28" t="n">
         <v>75.3</v>
       </c>
-      <c r="G191" s="28" t="n">
+      <c r="G191" s="29" t="n">
         <v>79.15</v>
       </c>
-      <c r="H191" s="27" t="n">
+      <c r="H191" s="28" t="n">
         <v>7.4</v>
       </c>
       <c r="I191" s="3" t="n">
@@ -8651,28 +8669,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="192">
-      <c r="A192" s="32" t="n">
+      <c r="A192" s="33" t="n">
         <v>182</v>
       </c>
-      <c r="B192" s="25" t="s">
+      <c r="B192" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="C192" s="26" t="s">
+      <c r="C192" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="D192" s="27" t="n">
+      <c r="D192" s="28" t="n">
         <v>77.35</v>
       </c>
-      <c r="E192" s="27" t="n">
+      <c r="E192" s="28" t="n">
         <v>90.35</v>
       </c>
-      <c r="F192" s="27" t="n">
+      <c r="F192" s="28" t="n">
         <v>79.7</v>
       </c>
-      <c r="G192" s="28" t="n">
+      <c r="G192" s="29" t="n">
         <v>92.75</v>
       </c>
-      <c r="H192" s="27" t="n">
+      <c r="H192" s="28" t="n">
         <v>28.55</v>
       </c>
       <c r="I192" s="3" t="n">
@@ -8680,28 +8698,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="193">
-      <c r="A193" s="32" t="n">
+      <c r="A193" s="33" t="n">
         <v>183</v>
       </c>
-      <c r="B193" s="25" t="s">
+      <c r="B193" s="26" t="s">
         <v>377</v>
       </c>
-      <c r="C193" s="26" t="s">
+      <c r="C193" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="D193" s="27" t="n">
+      <c r="D193" s="28" t="n">
         <v>70.45</v>
       </c>
-      <c r="E193" s="27" t="n">
+      <c r="E193" s="28" t="n">
         <v>74.5</v>
       </c>
-      <c r="F193" s="27" t="n">
+      <c r="F193" s="28" t="n">
         <v>70.45</v>
       </c>
-      <c r="G193" s="28" t="n">
+      <c r="G193" s="29" t="n">
         <v>76.95</v>
       </c>
-      <c r="H193" s="27" t="n">
+      <c r="H193" s="28" t="n">
         <v>9.4</v>
       </c>
       <c r="I193" s="3" t="n">
@@ -8709,28 +8727,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="194">
-      <c r="A194" s="32" t="n">
+      <c r="A194" s="33" t="n">
         <v>184</v>
       </c>
-      <c r="B194" s="25" t="s">
+      <c r="B194" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="C194" s="26" t="s">
+      <c r="C194" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="D194" s="29" t="s">
+      <c r="D194" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E194" s="29" t="s">
+      <c r="E194" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="F194" s="29" t="s">
+      <c r="F194" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="G194" s="29" t="s">
+      <c r="G194" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H194" s="29" t="s">
+      <c r="H194" s="30" t="s">
         <v>82</v>
       </c>
       <c r="I194" s="3" t="n">
@@ -8738,28 +8756,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="195">
-      <c r="A195" s="32" t="n">
+      <c r="A195" s="33" t="n">
         <v>185</v>
       </c>
-      <c r="B195" s="25" t="s">
+      <c r="B195" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="C195" s="26" t="s">
+      <c r="C195" s="27" t="s">
         <v>382</v>
       </c>
-      <c r="D195" s="27" t="n">
+      <c r="D195" s="28" t="n">
         <v>53.5</v>
       </c>
-      <c r="E195" s="27" t="n">
+      <c r="E195" s="28" t="n">
         <v>75.85</v>
       </c>
-      <c r="F195" s="27" t="n">
+      <c r="F195" s="28" t="n">
         <v>75.4</v>
       </c>
-      <c r="G195" s="28" t="n">
+      <c r="G195" s="29" t="n">
         <v>97.75</v>
       </c>
-      <c r="H195" s="27" t="n">
+      <c r="H195" s="28" t="n">
         <v>47</v>
       </c>
       <c r="I195" s="3" t="n">
@@ -8767,28 +8785,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="196">
-      <c r="A196" s="32" t="n">
+      <c r="A196" s="33" t="n">
         <v>186</v>
       </c>
-      <c r="B196" s="25" t="s">
+      <c r="B196" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="C196" s="26" t="s">
+      <c r="C196" s="27" t="s">
         <v>384</v>
       </c>
-      <c r="D196" s="27" t="n">
+      <c r="D196" s="28" t="n">
         <v>71.35</v>
       </c>
-      <c r="E196" s="27" t="n">
+      <c r="E196" s="28" t="n">
         <v>103.15</v>
       </c>
-      <c r="F196" s="27" t="n">
+      <c r="F196" s="28" t="n">
         <v>82.6</v>
       </c>
-      <c r="G196" s="28" t="n">
+      <c r="G196" s="29" t="n">
         <v>109.35</v>
       </c>
-      <c r="H196" s="27" t="n">
+      <c r="H196" s="28" t="n">
         <v>56.55</v>
       </c>
       <c r="I196" s="3" t="n">
@@ -8796,28 +8814,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="197">
-      <c r="A197" s="32" t="n">
+      <c r="A197" s="33" t="n">
         <v>187</v>
       </c>
-      <c r="B197" s="25" t="s">
+      <c r="B197" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="C197" s="26" t="s">
+      <c r="C197" s="27" t="s">
         <v>386</v>
       </c>
-      <c r="D197" s="27" t="n">
+      <c r="D197" s="28" t="n">
         <v>62.5</v>
       </c>
-      <c r="E197" s="27" t="n">
+      <c r="E197" s="28" t="n">
         <v>73.8</v>
       </c>
-      <c r="F197" s="27" t="n">
+      <c r="F197" s="28" t="n">
         <v>63.9</v>
       </c>
-      <c r="G197" s="28" t="n">
+      <c r="G197" s="29" t="n">
         <v>75.5</v>
       </c>
-      <c r="H197" s="27" t="n">
+      <c r="H197" s="28" t="n">
         <v>22.45</v>
       </c>
       <c r="I197" s="3" t="n">
@@ -8825,28 +8843,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="198">
-      <c r="A198" s="32" t="n">
+      <c r="A198" s="33" t="n">
         <v>188</v>
       </c>
-      <c r="B198" s="25" t="s">
+      <c r="B198" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="C198" s="26" t="s">
+      <c r="C198" s="27" t="s">
         <v>388</v>
       </c>
-      <c r="D198" s="29" t="s">
+      <c r="D198" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E198" s="29" t="s">
+      <c r="E198" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="F198" s="29" t="s">
+      <c r="F198" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="G198" s="29" t="s">
+      <c r="G198" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H198" s="29" t="s">
+      <c r="H198" s="30" t="s">
         <v>82</v>
       </c>
       <c r="I198" s="3" t="n">
@@ -8854,28 +8872,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="199">
-      <c r="A199" s="32" t="n">
+      <c r="A199" s="33" t="n">
         <v>189</v>
       </c>
-      <c r="B199" s="25" t="s">
+      <c r="B199" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="C199" s="26" t="s">
+      <c r="C199" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="D199" s="27" t="n">
+      <c r="D199" s="28" t="n">
         <v>54.7</v>
       </c>
-      <c r="E199" s="27" t="n">
+      <c r="E199" s="28" t="n">
         <v>61.25</v>
       </c>
-      <c r="F199" s="27" t="n">
+      <c r="F199" s="28" t="n">
         <v>64.05</v>
       </c>
-      <c r="G199" s="28" t="n">
+      <c r="G199" s="29" t="n">
         <v>68.95</v>
       </c>
-      <c r="H199" s="27" t="n">
+      <c r="H199" s="28" t="n">
         <v>13.2</v>
       </c>
       <c r="I199" s="3" t="n">
@@ -8883,28 +8901,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="200">
-      <c r="A200" s="32" t="n">
+      <c r="A200" s="33" t="n">
         <v>190</v>
       </c>
-      <c r="B200" s="25" t="s">
+      <c r="B200" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="C200" s="26" t="s">
+      <c r="C200" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="D200" s="27" t="n">
+      <c r="D200" s="28" t="n">
         <v>176.55</v>
       </c>
-      <c r="E200" s="27" t="n">
+      <c r="E200" s="28" t="n">
         <v>200.95</v>
       </c>
-      <c r="F200" s="27" t="n">
+      <c r="F200" s="28" t="n">
         <v>178.85</v>
       </c>
-      <c r="G200" s="28" t="n">
+      <c r="G200" s="29" t="n">
         <v>200.95</v>
       </c>
-      <c r="H200" s="27" t="n">
+      <c r="H200" s="28" t="n">
         <v>38.95</v>
       </c>
       <c r="I200" s="3" t="n">
@@ -8912,28 +8930,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="201">
-      <c r="A201" s="32" t="n">
+      <c r="A201" s="33" t="n">
         <v>191</v>
       </c>
-      <c r="B201" s="25" t="s">
+      <c r="B201" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="C201" s="26" t="s">
+      <c r="C201" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="D201" s="27" t="n">
+      <c r="D201" s="28" t="n">
         <v>42.6</v>
       </c>
-      <c r="E201" s="27" t="n">
+      <c r="E201" s="28" t="n">
         <v>50.05</v>
       </c>
-      <c r="F201" s="27" t="n">
+      <c r="F201" s="28" t="n">
         <v>53</v>
       </c>
-      <c r="G201" s="28" t="n">
+      <c r="G201" s="29" t="n">
         <v>57.9</v>
       </c>
-      <c r="H201" s="27" t="n">
+      <c r="H201" s="28" t="n">
         <v>11.65</v>
       </c>
       <c r="I201" s="3" t="n">
@@ -8941,28 +8959,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="202">
-      <c r="A202" s="32" t="n">
+      <c r="A202" s="33" t="n">
         <v>192</v>
       </c>
-      <c r="B202" s="25" t="s">
+      <c r="B202" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="C202" s="26" t="s">
+      <c r="C202" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="D202" s="27" t="n">
+      <c r="D202" s="28" t="n">
         <v>68</v>
       </c>
-      <c r="E202" s="27" t="n">
+      <c r="E202" s="28" t="n">
         <v>84.9</v>
       </c>
-      <c r="F202" s="27" t="n">
+      <c r="F202" s="28" t="n">
         <v>69.5</v>
       </c>
-      <c r="G202" s="28" t="n">
+      <c r="G202" s="29" t="n">
         <v>86.4</v>
       </c>
-      <c r="H202" s="27" t="n">
+      <c r="H202" s="28" t="n">
         <v>33.75</v>
       </c>
       <c r="I202" s="3" t="n">
@@ -8970,28 +8988,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="203">
-      <c r="A203" s="32" t="n">
+      <c r="A203" s="33" t="n">
         <v>193</v>
       </c>
-      <c r="B203" s="25" t="s">
+      <c r="B203" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="C203" s="26" t="s">
+      <c r="C203" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="D203" s="27" t="n">
+      <c r="D203" s="28" t="n">
         <v>84.1</v>
       </c>
-      <c r="E203" s="27" t="n">
+      <c r="E203" s="28" t="n">
         <v>106.4</v>
       </c>
-      <c r="F203" s="27" t="n">
+      <c r="F203" s="28" t="n">
         <v>86.2</v>
       </c>
-      <c r="G203" s="28" t="n">
+      <c r="G203" s="29" t="n">
         <v>108.45</v>
       </c>
-      <c r="H203" s="27" t="n">
+      <c r="H203" s="28" t="n">
         <v>43.65</v>
       </c>
       <c r="I203" s="3" t="n">
@@ -8999,28 +9017,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="204">
-      <c r="A204" s="32" t="n">
+      <c r="A204" s="33" t="n">
         <v>194</v>
       </c>
-      <c r="B204" s="25" t="s">
+      <c r="B204" s="26" t="s">
         <v>399</v>
       </c>
-      <c r="C204" s="26" t="s">
+      <c r="C204" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="D204" s="27" t="n">
+      <c r="D204" s="28" t="n">
         <v>63.6</v>
       </c>
-      <c r="E204" s="27" t="n">
+      <c r="E204" s="28" t="n">
         <v>76</v>
       </c>
-      <c r="F204" s="27" t="n">
+      <c r="F204" s="28" t="n">
         <v>65.1</v>
       </c>
-      <c r="G204" s="28" t="n">
+      <c r="G204" s="29" t="n">
         <v>77.6</v>
       </c>
-      <c r="H204" s="27" t="n">
+      <c r="H204" s="28" t="n">
         <v>24.95</v>
       </c>
       <c r="I204" s="3" t="n">
@@ -9028,28 +9046,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="205">
-      <c r="A205" s="32" t="n">
+      <c r="A205" s="33" t="n">
         <v>195</v>
       </c>
-      <c r="B205" s="25" t="s">
+      <c r="B205" s="26" t="s">
         <v>401</v>
       </c>
-      <c r="C205" s="26" t="s">
+      <c r="C205" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="D205" s="27" t="n">
+      <c r="D205" s="28" t="n">
         <v>51.3</v>
       </c>
-      <c r="E205" s="27" t="n">
+      <c r="E205" s="28" t="n">
         <v>56.25</v>
       </c>
-      <c r="F205" s="27" t="n">
+      <c r="F205" s="28" t="n">
         <v>53.25</v>
       </c>
-      <c r="G205" s="28" t="n">
+      <c r="G205" s="29" t="n">
         <v>57.75</v>
       </c>
-      <c r="H205" s="27" t="n">
+      <c r="H205" s="28" t="n">
         <v>9.25</v>
       </c>
       <c r="I205" s="3" t="n">
@@ -9057,28 +9075,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="206">
-      <c r="A206" s="32" t="n">
+      <c r="A206" s="33" t="n">
         <v>196</v>
       </c>
-      <c r="B206" s="25" t="s">
+      <c r="B206" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="C206" s="26" t="s">
+      <c r="C206" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="D206" s="27" t="n">
+      <c r="D206" s="28" t="n">
         <v>84.1</v>
       </c>
-      <c r="E206" s="27" t="n">
+      <c r="E206" s="28" t="n">
         <v>107.7</v>
       </c>
-      <c r="F206" s="27" t="n">
+      <c r="F206" s="28" t="n">
         <v>85.65</v>
       </c>
-      <c r="G206" s="28" t="n">
+      <c r="G206" s="29" t="n">
         <v>110.4</v>
       </c>
-      <c r="H206" s="27" t="n">
+      <c r="H206" s="28" t="n">
         <v>48.95</v>
       </c>
       <c r="I206" s="3" t="n">
@@ -9086,28 +9104,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="207">
-      <c r="A207" s="32" t="n">
+      <c r="A207" s="33" t="n">
         <v>197</v>
       </c>
-      <c r="B207" s="25" t="s">
+      <c r="B207" s="26" t="s">
         <v>405</v>
       </c>
-      <c r="C207" s="26" t="s">
+      <c r="C207" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="D207" s="27" t="n">
+      <c r="D207" s="28" t="n">
         <v>83.85</v>
       </c>
-      <c r="E207" s="27" t="n">
+      <c r="E207" s="28" t="n">
         <v>88.2</v>
       </c>
-      <c r="F207" s="27" t="n">
+      <c r="F207" s="28" t="n">
         <v>86.25</v>
       </c>
-      <c r="G207" s="28" t="n">
+      <c r="G207" s="29" t="n">
         <v>90.65</v>
       </c>
-      <c r="H207" s="27" t="n">
+      <c r="H207" s="28" t="n">
         <v>10.2</v>
       </c>
       <c r="I207" s="3" t="n">
@@ -9115,28 +9133,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="208">
-      <c r="A208" s="32" t="n">
+      <c r="A208" s="33" t="n">
         <v>198</v>
       </c>
-      <c r="B208" s="25" t="s">
+      <c r="B208" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="C208" s="26" t="s">
+      <c r="C208" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="D208" s="27" t="n">
+      <c r="D208" s="28" t="n">
         <v>92.1</v>
       </c>
-      <c r="E208" s="27" t="n">
+      <c r="E208" s="28" t="n">
         <v>97.3</v>
       </c>
-      <c r="F208" s="27" t="n">
+      <c r="F208" s="28" t="n">
         <v>94.1</v>
       </c>
-      <c r="G208" s="28" t="n">
+      <c r="G208" s="29" t="n">
         <v>99.25</v>
       </c>
-      <c r="H208" s="27" t="n">
+      <c r="H208" s="28" t="n">
         <v>10.25</v>
       </c>
       <c r="I208" s="3" t="n">
@@ -9144,28 +9162,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="209">
-      <c r="A209" s="32" t="n">
+      <c r="A209" s="33" t="n">
         <v>199</v>
       </c>
-      <c r="B209" s="25" t="s">
+      <c r="B209" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="C209" s="26" t="s">
+      <c r="C209" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="D209" s="27" t="n">
+      <c r="D209" s="28" t="n">
         <v>55.6</v>
       </c>
-      <c r="E209" s="27" t="n">
+      <c r="E209" s="28" t="n">
         <v>64.8</v>
       </c>
-      <c r="F209" s="27" t="n">
+      <c r="F209" s="28" t="n">
         <v>57.15</v>
       </c>
-      <c r="G209" s="28" t="n">
+      <c r="G209" s="29" t="n">
         <v>66.5</v>
       </c>
-      <c r="H209" s="27" t="n">
+      <c r="H209" s="28" t="n">
         <v>19.65</v>
       </c>
       <c r="I209" s="3" t="n">
@@ -9173,28 +9191,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="210">
-      <c r="A210" s="32" t="n">
+      <c r="A210" s="33" t="n">
         <v>200</v>
       </c>
-      <c r="B210" s="25" t="s">
+      <c r="B210" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="C210" s="26" t="s">
+      <c r="C210" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="D210" s="27" t="n">
+      <c r="D210" s="28" t="n">
         <v>70.3</v>
       </c>
-      <c r="E210" s="27" t="n">
+      <c r="E210" s="28" t="n">
         <v>89.95</v>
       </c>
-      <c r="F210" s="27" t="n">
+      <c r="F210" s="28" t="n">
         <v>72.85</v>
       </c>
-      <c r="G210" s="28" t="n">
+      <c r="G210" s="29" t="n">
         <v>93.05</v>
       </c>
-      <c r="H210" s="27" t="n">
+      <c r="H210" s="28" t="n">
         <v>41.6</v>
       </c>
       <c r="I210" s="3" t="n">
@@ -9202,28 +9220,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="211">
-      <c r="A211" s="32" t="n">
+      <c r="A211" s="33" t="n">
         <v>201</v>
       </c>
-      <c r="B211" s="25" t="s">
+      <c r="B211" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="C211" s="26" t="s">
+      <c r="C211" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="D211" s="27" t="n">
+      <c r="D211" s="28" t="n">
         <v>145.05</v>
       </c>
-      <c r="E211" s="27" t="n">
+      <c r="E211" s="28" t="n">
         <v>177.45</v>
       </c>
-      <c r="F211" s="27" t="n">
+      <c r="F211" s="28" t="n">
         <v>145.05</v>
       </c>
-      <c r="G211" s="28" t="n">
+      <c r="G211" s="29" t="n">
         <v>177.45</v>
       </c>
-      <c r="H211" s="27" t="n">
+      <c r="H211" s="28" t="n">
         <v>64.8</v>
       </c>
       <c r="I211" s="3" t="n">
@@ -9231,28 +9249,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="212">
-      <c r="A212" s="32" t="n">
+      <c r="A212" s="33" t="n">
         <v>202</v>
       </c>
-      <c r="B212" s="25" t="s">
+      <c r="B212" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="C212" s="26" t="s">
+      <c r="C212" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="D212" s="27" t="n">
+      <c r="D212" s="28" t="n">
         <v>75.95</v>
       </c>
-      <c r="E212" s="27" t="n">
+      <c r="E212" s="28" t="n">
         <v>91.5</v>
       </c>
-      <c r="F212" s="27" t="n">
+      <c r="F212" s="28" t="n">
         <v>77.55</v>
       </c>
-      <c r="G212" s="28" t="n">
+      <c r="G212" s="29" t="n">
         <v>93</v>
       </c>
-      <c r="H212" s="27" t="n">
+      <c r="H212" s="28" t="n">
         <v>31.55</v>
       </c>
       <c r="I212" s="3" t="n">
@@ -9260,28 +9278,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="213">
-      <c r="A213" s="32" t="n">
+      <c r="A213" s="33" t="n">
         <v>203</v>
       </c>
-      <c r="B213" s="25" t="s">
+      <c r="B213" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="C213" s="26" t="s">
+      <c r="C213" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="D213" s="27" t="n">
+      <c r="D213" s="28" t="n">
         <v>62.4</v>
       </c>
-      <c r="E213" s="27" t="n">
+      <c r="E213" s="28" t="n">
         <v>66.65</v>
       </c>
-      <c r="F213" s="27" t="n">
+      <c r="F213" s="28" t="n">
         <v>64</v>
       </c>
-      <c r="G213" s="28" t="n">
+      <c r="G213" s="29" t="n">
         <v>68.15</v>
       </c>
-      <c r="H213" s="27" t="n">
+      <c r="H213" s="28" t="n">
         <v>7.9</v>
       </c>
       <c r="I213" s="3" t="n">
@@ -9289,28 +9307,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="214">
-      <c r="A214" s="32" t="n">
+      <c r="A214" s="33" t="n">
         <v>204</v>
       </c>
-      <c r="B214" s="25" t="s">
+      <c r="B214" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="C214" s="26" t="s">
+      <c r="C214" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="D214" s="27" t="n">
+      <c r="D214" s="28" t="n">
         <v>81.6</v>
       </c>
-      <c r="E214" s="27" t="n">
+      <c r="E214" s="28" t="n">
         <v>91.7</v>
       </c>
-      <c r="F214" s="27" t="n">
+      <c r="F214" s="28" t="n">
         <v>84</v>
       </c>
-      <c r="G214" s="28" t="n">
+      <c r="G214" s="29" t="n">
         <v>94.1</v>
       </c>
-      <c r="H214" s="27" t="n">
+      <c r="H214" s="28" t="n">
         <v>26.35</v>
       </c>
       <c r="I214" s="3" t="n">
@@ -9318,28 +9336,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="215">
-      <c r="A215" s="32" t="n">
+      <c r="A215" s="33" t="n">
         <v>205</v>
       </c>
-      <c r="B215" s="25" t="s">
+      <c r="B215" s="26" t="s">
         <v>421</v>
       </c>
-      <c r="C215" s="26" t="s">
+      <c r="C215" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="D215" s="27" t="n">
+      <c r="D215" s="28" t="n">
         <v>69.4</v>
       </c>
-      <c r="E215" s="27" t="n">
+      <c r="E215" s="28" t="n">
         <v>89.35</v>
       </c>
-      <c r="F215" s="27" t="n">
+      <c r="F215" s="28" t="n">
         <v>72.6</v>
       </c>
-      <c r="G215" s="28" t="n">
+      <c r="G215" s="29" t="n">
         <v>92.5</v>
       </c>
-      <c r="H215" s="27" t="n">
+      <c r="H215" s="28" t="n">
         <v>39.45</v>
       </c>
       <c r="I215" s="3" t="n">
@@ -9347,28 +9365,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="216">
-      <c r="A216" s="32" t="n">
+      <c r="A216" s="33" t="n">
         <v>206</v>
       </c>
-      <c r="B216" s="25" t="s">
+      <c r="B216" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="C216" s="26" t="s">
+      <c r="C216" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="D216" s="27" t="n">
+      <c r="D216" s="28" t="n">
         <v>75.4</v>
       </c>
-      <c r="E216" s="27" t="n">
+      <c r="E216" s="28" t="n">
         <v>94.1</v>
       </c>
-      <c r="F216" s="27" t="n">
+      <c r="F216" s="28" t="n">
         <v>76.55</v>
       </c>
-      <c r="G216" s="28" t="n">
+      <c r="G216" s="29" t="n">
         <v>95.65</v>
       </c>
-      <c r="H216" s="27" t="n">
+      <c r="H216" s="28" t="n">
         <v>38.65</v>
       </c>
       <c r="I216" s="3" t="n">
@@ -9376,28 +9394,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="217">
-      <c r="A217" s="32" t="n">
+      <c r="A217" s="33" t="n">
         <v>207</v>
       </c>
-      <c r="B217" s="25" t="s">
+      <c r="B217" s="26" t="s">
         <v>425</v>
       </c>
-      <c r="C217" s="26" t="s">
+      <c r="C217" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="D217" s="27" t="n">
+      <c r="D217" s="28" t="n">
         <v>98.15</v>
       </c>
-      <c r="E217" s="27" t="n">
+      <c r="E217" s="28" t="n">
         <v>113.95</v>
       </c>
-      <c r="F217" s="27" t="n">
+      <c r="F217" s="28" t="n">
         <v>99.75</v>
       </c>
-      <c r="G217" s="28" t="n">
+      <c r="G217" s="29" t="n">
         <v>115.5</v>
       </c>
-      <c r="H217" s="27" t="n">
+      <c r="H217" s="28" t="n">
         <v>28.4</v>
       </c>
       <c r="I217" s="3" t="n">
@@ -9459,15 +9477,15 @@
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
-      <c r="A1" s="38" t="n"/>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="39" t="n"/>
+      <c r="B1" s="40" t="s">
         <v>427</v>
       </c>
-      <c r="C1" s="40" t="s"/>
-      <c r="D1" s="40" t="s"/>
-      <c r="E1" s="40" t="s"/>
-      <c r="F1" s="40" t="s"/>
-      <c r="G1" s="41" t="s"/>
+      <c r="C1" s="41" t="s"/>
+      <c r="D1" s="41" t="s"/>
+      <c r="E1" s="41" t="s"/>
+      <c r="F1" s="41" t="s"/>
+      <c r="G1" s="42" t="s"/>
       <c r="H1" s="4" t="n"/>
       <c r="I1" s="4" t="n"/>
       <c r="J1" s="4" t="n"/>
@@ -9525,17 +9543,17 @@
       <c r="BJ1" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="47.2499923706055" outlineLevel="0" r="2">
-      <c r="A2" s="42" t="n">
+      <c r="A2" s="43" t="n">
         <v>208</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="44" t="s"/>
-      <c r="D2" s="44" t="s"/>
-      <c r="E2" s="44" t="s"/>
-      <c r="F2" s="44" t="s"/>
-      <c r="G2" s="45" t="s"/>
+      <c r="C2" s="45" t="s"/>
+      <c r="D2" s="45" t="s"/>
+      <c r="E2" s="45" t="s"/>
+      <c r="F2" s="45" t="s"/>
+      <c r="G2" s="46" t="s"/>
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
@@ -9593,17 +9611,17 @@
       <c r="BJ2" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="42" t="n">
+      <c r="A3" s="43" t="n">
         <v>209</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="C3" s="44" t="s"/>
-      <c r="D3" s="44" t="s"/>
-      <c r="E3" s="44" t="s"/>
-      <c r="F3" s="45" t="s"/>
-      <c r="G3" s="30" t="n">
+      <c r="C3" s="45" t="s"/>
+      <c r="D3" s="45" t="s"/>
+      <c r="E3" s="45" t="s"/>
+      <c r="F3" s="46" t="s"/>
+      <c r="G3" s="31" t="n">
         <v>8.2</v>
       </c>
       <c r="H3" s="4" t="n"/>
@@ -9663,17 +9681,17 @@
       <c r="BJ3" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="42" t="n">
+      <c r="A4" s="43" t="n">
         <v>210</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="C4" s="44" t="s"/>
-      <c r="D4" s="44" t="s"/>
-      <c r="E4" s="44" t="s"/>
-      <c r="F4" s="45" t="s"/>
-      <c r="G4" s="30" t="n">
+      <c r="C4" s="45" t="s"/>
+      <c r="D4" s="45" t="s"/>
+      <c r="E4" s="45" t="s"/>
+      <c r="F4" s="46" t="s"/>
+      <c r="G4" s="31" t="n">
         <v>0.35</v>
       </c>
       <c r="H4" s="4" t="n"/>
@@ -9733,17 +9751,17 @@
       <c r="BJ4" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="47.0068206787109" outlineLevel="0" r="5">
-      <c r="A5" s="46" t="n">
+      <c r="A5" s="47" t="n">
         <v>211</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="C5" s="47" t="s"/>
-      <c r="D5" s="47" t="s"/>
-      <c r="E5" s="47" t="s"/>
-      <c r="F5" s="47" t="s"/>
-      <c r="G5" s="48" t="s"/>
+      <c r="C5" s="48" t="s"/>
+      <c r="D5" s="48" t="s"/>
+      <c r="E5" s="48" t="s"/>
+      <c r="F5" s="48" t="s"/>
+      <c r="G5" s="49" t="s"/>
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
@@ -9801,17 +9819,17 @@
       <c r="BJ5" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="55.4999847412109" outlineLevel="0" r="6">
-      <c r="A6" s="46" t="n">
+      <c r="A6" s="47" t="n">
         <v>212</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="47" t="s"/>
-      <c r="D6" s="47" t="s"/>
-      <c r="E6" s="47" t="s"/>
-      <c r="F6" s="47" t="s"/>
-      <c r="G6" s="48" t="s"/>
+      <c r="C6" s="48" t="s"/>
+      <c r="D6" s="48" t="s"/>
+      <c r="E6" s="48" t="s"/>
+      <c r="F6" s="48" t="s"/>
+      <c r="G6" s="49" t="s"/>
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
@@ -9869,17 +9887,17 @@
       <c r="BJ6" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="46" t="n">
+      <c r="A7" s="47" t="n">
         <v>213</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="C7" s="47" t="s"/>
-      <c r="D7" s="47" t="s"/>
-      <c r="E7" s="47" t="s"/>
-      <c r="F7" s="47" t="s"/>
-      <c r="G7" s="48" t="s"/>
+      <c r="C7" s="48" t="s"/>
+      <c r="D7" s="48" t="s"/>
+      <c r="E7" s="48" t="s"/>
+      <c r="F7" s="48" t="s"/>
+      <c r="G7" s="49" t="s"/>
       <c r="H7" s="4" t="n"/>
       <c r="I7" s="4" t="n"/>
       <c r="J7" s="4" t="n"/>
@@ -9937,17 +9955,17 @@
       <c r="BJ7" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="46" t="n">
+      <c r="A8" s="47" t="n">
         <v>214</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="C8" s="47" t="s"/>
-      <c r="D8" s="47" t="s"/>
-      <c r="E8" s="47" t="s"/>
-      <c r="F8" s="48" t="s"/>
-      <c r="G8" s="49" t="n">
+      <c r="C8" s="48" t="s"/>
+      <c r="D8" s="48" t="s"/>
+      <c r="E8" s="48" t="s"/>
+      <c r="F8" s="49" t="s"/>
+      <c r="G8" s="50" t="n">
         <v>0.03</v>
       </c>
       <c r="H8" s="4" t="n"/>
@@ -10007,17 +10025,17 @@
       <c r="BJ8" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="9">
-      <c r="A9" s="46" t="n">
+      <c r="A9" s="47" t="n">
         <v>215</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="44" t="s">
         <v>435</v>
       </c>
-      <c r="C9" s="44" t="s"/>
-      <c r="D9" s="44" t="s"/>
-      <c r="E9" s="44" t="s"/>
-      <c r="F9" s="44" t="s"/>
-      <c r="G9" s="45" t="s"/>
+      <c r="C9" s="45" t="s"/>
+      <c r="D9" s="45" t="s"/>
+      <c r="E9" s="45" t="s"/>
+      <c r="F9" s="45" t="s"/>
+      <c r="G9" s="46" t="s"/>
       <c r="H9" s="4" t="n"/>
       <c r="I9" s="4" t="n"/>
       <c r="J9" s="4" t="n"/>
@@ -10075,17 +10093,17 @@
       <c r="BJ9" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="54.4443054199219" outlineLevel="0" r="10">
-      <c r="A10" s="42" t="n">
+      <c r="A10" s="43" t="n">
         <v>216</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="C10" s="44" t="s"/>
-      <c r="D10" s="44" t="s"/>
-      <c r="E10" s="44" t="s"/>
-      <c r="F10" s="44" t="s"/>
-      <c r="G10" s="45" t="s"/>
+      <c r="C10" s="45" t="s"/>
+      <c r="D10" s="45" t="s"/>
+      <c r="E10" s="45" t="s"/>
+      <c r="F10" s="45" t="s"/>
+      <c r="G10" s="46" t="s"/>
       <c r="H10" s="4" t="n"/>
       <c r="I10" s="4" t="n"/>
       <c r="J10" s="4" t="n"/>

--- a/calc/files/ems_int.xlsx
+++ b/calc/files/ems_int.xlsx
@@ -2886,7 +2886,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left"/>
@@ -2989,6 +2989,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
     <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment vertical="center"/>
     </xf>
@@ -4714,7 +4717,7 @@
       <c r="B57" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="36" t="s">
         <v>108</v>
       </c>
       <c r="D57" s="30" t="s">
@@ -6814,7 +6817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="128" s="36">
+    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="128" s="37">
       <c r="A128" s="14" t="n">
         <v>118</v>
       </c>
@@ -6839,11 +6842,11 @@
       <c r="H128" s="28" t="n">
         <v>38.2</v>
       </c>
-      <c r="I128" s="37" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="129" s="36">
+      <c r="I128" s="38" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="129" s="37">
       <c r="A129" s="14" t="n">
         <v>119</v>
       </c>
@@ -6868,7 +6871,7 @@
       <c r="H129" s="28" t="n">
         <v>30.75</v>
       </c>
-      <c r="I129" s="37" t="n">
+      <c r="I129" s="38" t="n">
         <v>30</v>
       </c>
     </row>
@@ -8324,7 +8327,7 @@
       <c r="A180" s="33" t="n">
         <v>170</v>
       </c>
-      <c r="B180" s="38" t="s">
+      <c r="B180" s="39" t="s">
         <v>351</v>
       </c>
       <c r="C180" s="27" t="s">
@@ -9477,15 +9480,15 @@
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
-      <c r="A1" s="39" t="n"/>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="40" t="n"/>
+      <c r="B1" s="41" t="s">
         <v>427</v>
       </c>
-      <c r="C1" s="41" t="s"/>
-      <c r="D1" s="41" t="s"/>
-      <c r="E1" s="41" t="s"/>
-      <c r="F1" s="41" t="s"/>
-      <c r="G1" s="42" t="s"/>
+      <c r="C1" s="42" t="s"/>
+      <c r="D1" s="42" t="s"/>
+      <c r="E1" s="42" t="s"/>
+      <c r="F1" s="42" t="s"/>
+      <c r="G1" s="43" t="s"/>
       <c r="H1" s="4" t="n"/>
       <c r="I1" s="4" t="n"/>
       <c r="J1" s="4" t="n"/>
@@ -9543,17 +9546,17 @@
       <c r="BJ1" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="47.2499923706055" outlineLevel="0" r="2">
-      <c r="A2" s="43" t="n">
+      <c r="A2" s="44" t="n">
         <v>208</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="45" t="s"/>
-      <c r="D2" s="45" t="s"/>
-      <c r="E2" s="45" t="s"/>
-      <c r="F2" s="45" t="s"/>
-      <c r="G2" s="46" t="s"/>
+      <c r="C2" s="46" t="s"/>
+      <c r="D2" s="46" t="s"/>
+      <c r="E2" s="46" t="s"/>
+      <c r="F2" s="46" t="s"/>
+      <c r="G2" s="47" t="s"/>
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
@@ -9611,16 +9614,16 @@
       <c r="BJ2" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="43" t="n">
+      <c r="A3" s="44" t="n">
         <v>209</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>429</v>
       </c>
-      <c r="C3" s="45" t="s"/>
-      <c r="D3" s="45" t="s"/>
-      <c r="E3" s="45" t="s"/>
-      <c r="F3" s="46" t="s"/>
+      <c r="C3" s="46" t="s"/>
+      <c r="D3" s="46" t="s"/>
+      <c r="E3" s="46" t="s"/>
+      <c r="F3" s="47" t="s"/>
       <c r="G3" s="31" t="n">
         <v>8.2</v>
       </c>
@@ -9681,16 +9684,16 @@
       <c r="BJ3" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="43" t="n">
+      <c r="A4" s="44" t="n">
         <v>210</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>430</v>
       </c>
-      <c r="C4" s="45" t="s"/>
-      <c r="D4" s="45" t="s"/>
-      <c r="E4" s="45" t="s"/>
-      <c r="F4" s="46" t="s"/>
+      <c r="C4" s="46" t="s"/>
+      <c r="D4" s="46" t="s"/>
+      <c r="E4" s="46" t="s"/>
+      <c r="F4" s="47" t="s"/>
       <c r="G4" s="31" t="n">
         <v>0.35</v>
       </c>
@@ -9751,17 +9754,17 @@
       <c r="BJ4" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="47.0068206787109" outlineLevel="0" r="5">
-      <c r="A5" s="47" t="n">
+      <c r="A5" s="48" t="n">
         <v>211</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="C5" s="48" t="s"/>
-      <c r="D5" s="48" t="s"/>
-      <c r="E5" s="48" t="s"/>
-      <c r="F5" s="48" t="s"/>
-      <c r="G5" s="49" t="s"/>
+      <c r="C5" s="49" t="s"/>
+      <c r="D5" s="49" t="s"/>
+      <c r="E5" s="49" t="s"/>
+      <c r="F5" s="49" t="s"/>
+      <c r="G5" s="50" t="s"/>
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
@@ -9819,17 +9822,17 @@
       <c r="BJ5" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="55.4999847412109" outlineLevel="0" r="6">
-      <c r="A6" s="47" t="n">
+      <c r="A6" s="48" t="n">
         <v>212</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="48" t="s"/>
-      <c r="D6" s="48" t="s"/>
-      <c r="E6" s="48" t="s"/>
-      <c r="F6" s="48" t="s"/>
-      <c r="G6" s="49" t="s"/>
+      <c r="C6" s="49" t="s"/>
+      <c r="D6" s="49" t="s"/>
+      <c r="E6" s="49" t="s"/>
+      <c r="F6" s="49" t="s"/>
+      <c r="G6" s="50" t="s"/>
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
@@ -9887,17 +9890,17 @@
       <c r="BJ6" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="47" t="n">
+      <c r="A7" s="48" t="n">
         <v>213</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="C7" s="48" t="s"/>
-      <c r="D7" s="48" t="s"/>
-      <c r="E7" s="48" t="s"/>
-      <c r="F7" s="48" t="s"/>
-      <c r="G7" s="49" t="s"/>
+      <c r="C7" s="49" t="s"/>
+      <c r="D7" s="49" t="s"/>
+      <c r="E7" s="49" t="s"/>
+      <c r="F7" s="49" t="s"/>
+      <c r="G7" s="50" t="s"/>
       <c r="H7" s="4" t="n"/>
       <c r="I7" s="4" t="n"/>
       <c r="J7" s="4" t="n"/>
@@ -9955,17 +9958,17 @@
       <c r="BJ7" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="47" t="n">
+      <c r="A8" s="48" t="n">
         <v>214</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="C8" s="48" t="s"/>
-      <c r="D8" s="48" t="s"/>
-      <c r="E8" s="48" t="s"/>
-      <c r="F8" s="49" t="s"/>
-      <c r="G8" s="50" t="n">
+      <c r="C8" s="49" t="s"/>
+      <c r="D8" s="49" t="s"/>
+      <c r="E8" s="49" t="s"/>
+      <c r="F8" s="50" t="s"/>
+      <c r="G8" s="51" t="n">
         <v>0.03</v>
       </c>
       <c r="H8" s="4" t="n"/>
@@ -10025,17 +10028,17 @@
       <c r="BJ8" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="9">
-      <c r="A9" s="47" t="n">
+      <c r="A9" s="48" t="n">
         <v>215</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="45" t="s">
         <v>435</v>
       </c>
-      <c r="C9" s="45" t="s"/>
-      <c r="D9" s="45" t="s"/>
-      <c r="E9" s="45" t="s"/>
-      <c r="F9" s="45" t="s"/>
-      <c r="G9" s="46" t="s"/>
+      <c r="C9" s="46" t="s"/>
+      <c r="D9" s="46" t="s"/>
+      <c r="E9" s="46" t="s"/>
+      <c r="F9" s="46" t="s"/>
+      <c r="G9" s="47" t="s"/>
       <c r="H9" s="4" t="n"/>
       <c r="I9" s="4" t="n"/>
       <c r="J9" s="4" t="n"/>
@@ -10093,17 +10096,17 @@
       <c r="BJ9" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="54.4443054199219" outlineLevel="0" r="10">
-      <c r="A10" s="43" t="n">
+      <c r="A10" s="44" t="n">
         <v>216</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="45" t="s">
         <v>436</v>
       </c>
-      <c r="C10" s="45" t="s"/>
-      <c r="D10" s="45" t="s"/>
-      <c r="E10" s="45" t="s"/>
-      <c r="F10" s="45" t="s"/>
-      <c r="G10" s="46" t="s"/>
+      <c r="C10" s="46" t="s"/>
+      <c r="D10" s="46" t="s"/>
+      <c r="E10" s="46" t="s"/>
+      <c r="F10" s="46" t="s"/>
+      <c r="G10" s="47" t="s"/>
       <c r="H10" s="4" t="n"/>
       <c r="I10" s="4" t="n"/>
       <c r="J10" s="4" t="n"/>

--- a/calc/files/ems_int.xlsx
+++ b/calc/files/ems_int.xlsx
@@ -2713,10 +2713,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <numFmts>
+    <numFmt co:extendedFormatCode="### ### ###" formatCode="### ### ###" numFmtId="1001"/>
+    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1003"/>
+    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1002"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
-    <numFmt co:extendedFormatCode="### ### ###" formatCode="### ### ###" numFmtId="1001"/>
-    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1002"/>
-    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1003"/>
     <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1004"/>
   </numFmts>
   <fonts count="10">
@@ -2780,7 +2780,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="63">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -2825,6 +2825,22 @@
       </bottom>
     </border>
     <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="000000" tint="0"/>
       </right>
@@ -2850,6 +2866,58 @@
       <right style="thin">
         <color rgb="000000" tint="0"/>
       </right>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
       <bottom style="thin">
         <color rgb="000000" tint="0"/>
       </bottom>
@@ -2882,104 +2950,519 @@
         <color rgb="000000" tint="0"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
+    <xf applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="52">
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
+  <cellXfs count="95">
+    <xf applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="3" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" shrinkToFit="false" vertical="justify" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="4" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="4" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="5" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="5" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="6" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="1" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="1" numFmtId="1001" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="1" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="1" numFmtId="1001" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="1" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="1" numFmtId="1001" quotePrefix="false">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="1" numFmtId="1001" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="1" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="1" numFmtId="1001" quotePrefix="false">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="right" indent="2" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1002" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="right" indent="2" shrinkToFit="true" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
@@ -2988,54 +3471,174 @@
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="2" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="2" fontId="4" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="2" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="2" fontId="4" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="2" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="4" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="2" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1003" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="2" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="2" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="2" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1003" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1003" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1004" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="8" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="1004" quotePrefix="false">
       <alignment horizontal="center" shrinkToFit="true" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="9" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3340,65 +3943,65 @@
         <v>7</v>
       </c>
       <c r="E8" s="16" t="s"/>
-      <c r="F8" s="16" t="s"/>
-      <c r="G8" s="16" t="s"/>
-      <c r="H8" s="17" t="s"/>
+      <c r="F8" s="17" t="s"/>
+      <c r="G8" s="18" t="s"/>
+      <c r="H8" s="19" t="s"/>
     </row>
     <row customHeight="true" ht="13.1499996185303" outlineLevel="0" r="9">
-      <c r="B9" s="18" t="s"/>
-      <c r="C9" s="19" t="s"/>
-      <c r="D9" s="20" t="s">
+      <c r="B9" s="20" t="s"/>
+      <c r="C9" s="21" t="s"/>
+      <c r="D9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="21" t="s"/>
-      <c r="F9" s="20" t="s">
+      <c r="E9" s="23" t="s"/>
+      <c r="F9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="21" t="s"/>
-      <c r="H9" s="22" t="s">
+      <c r="G9" s="24" t="s"/>
+      <c r="H9" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row customHeight="true" ht="39.75" outlineLevel="0" r="10">
-      <c r="B10" s="23" t="s"/>
-      <c r="C10" s="24" t="s"/>
-      <c r="D10" s="22" t="s">
+      <c r="B10" s="26" t="s"/>
+      <c r="C10" s="27" t="s"/>
+      <c r="D10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="25" t="s"/>
+      <c r="H10" s="28" t="s"/>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="28" t="n">
+      <c r="D11" s="31" t="n">
         <v>108.8</v>
       </c>
-      <c r="E11" s="28" t="n">
+      <c r="E11" s="31" t="n">
         <v>137.05</v>
       </c>
-      <c r="F11" s="28" t="n">
+      <c r="F11" s="31" t="n">
         <v>110.8</v>
       </c>
-      <c r="G11" s="29" t="n">
+      <c r="G11" s="32" t="n">
         <v>139</v>
       </c>
-      <c r="H11" s="28" t="n">
+      <c r="H11" s="31" t="n">
         <v>56.45</v>
       </c>
       <c r="I11" s="3" t="n">
@@ -3409,25 +4012,25 @@
       <c r="A12" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="28" t="n">
+      <c r="D12" s="31" t="n">
         <v>64.1</v>
       </c>
-      <c r="E12" s="28" t="n">
+      <c r="E12" s="31" t="n">
         <v>68.9</v>
       </c>
-      <c r="F12" s="28" t="n">
+      <c r="F12" s="31" t="n">
         <v>65.7</v>
       </c>
-      <c r="G12" s="29" t="n">
+      <c r="G12" s="32" t="n">
         <v>70.45</v>
       </c>
-      <c r="H12" s="28" t="n">
+      <c r="H12" s="31" t="n">
         <v>9.6</v>
       </c>
       <c r="I12" s="3" t="n">
@@ -3438,25 +4041,25 @@
       <c r="A13" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="28" t="n">
+      <c r="D13" s="31" t="n">
         <v>65.45</v>
       </c>
-      <c r="E13" s="28" t="n">
+      <c r="E13" s="31" t="n">
         <v>69.05</v>
       </c>
-      <c r="F13" s="28" t="n">
+      <c r="F13" s="31" t="n">
         <v>67.35</v>
       </c>
-      <c r="G13" s="29" t="n">
+      <c r="G13" s="32" t="n">
         <v>73.4</v>
       </c>
-      <c r="H13" s="28" t="n">
+      <c r="H13" s="31" t="n">
         <v>7.65</v>
       </c>
       <c r="I13" s="3" t="n">
@@ -3467,25 +4070,25 @@
       <c r="A14" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="28" t="n">
+      <c r="D14" s="31" t="n">
         <v>65.3</v>
       </c>
-      <c r="E14" s="28" t="n">
+      <c r="E14" s="31" t="n">
         <v>80</v>
       </c>
-      <c r="F14" s="28" t="n">
+      <c r="F14" s="31" t="n">
         <v>67.9</v>
       </c>
-      <c r="G14" s="29" t="n">
+      <c r="G14" s="32" t="n">
         <v>83.1</v>
       </c>
-      <c r="H14" s="28" t="n">
+      <c r="H14" s="31" t="n">
         <v>25.5</v>
       </c>
       <c r="I14" s="3" t="n">
@@ -3496,25 +4099,25 @@
       <c r="A15" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="28" t="n">
+      <c r="D15" s="31" t="n">
         <v>62.8</v>
       </c>
-      <c r="E15" s="28" t="n">
+      <c r="E15" s="31" t="n">
         <v>74.5</v>
       </c>
-      <c r="F15" s="28" t="n">
+      <c r="F15" s="31" t="n">
         <v>65.75</v>
       </c>
-      <c r="G15" s="29" t="n">
+      <c r="G15" s="32" t="n">
         <v>76.95</v>
       </c>
-      <c r="H15" s="28" t="n">
+      <c r="H15" s="31" t="n">
         <v>23.8</v>
       </c>
       <c r="I15" s="3" t="n">
@@ -3525,25 +4128,25 @@
       <c r="A16" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="33" t="s">
         <v>25</v>
       </c>
       <c r="I16" s="3" t="n">
@@ -3554,25 +4157,25 @@
       <c r="A17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="28" t="n">
+      <c r="D17" s="31" t="n">
         <v>57.75</v>
       </c>
-      <c r="E17" s="28" t="n">
+      <c r="E17" s="31" t="n">
         <v>78.05</v>
       </c>
-      <c r="F17" s="28" t="n">
+      <c r="F17" s="31" t="n">
         <v>59.25</v>
       </c>
-      <c r="G17" s="29" t="n">
+      <c r="G17" s="32" t="n">
         <v>81.25</v>
       </c>
-      <c r="H17" s="28" t="n">
+      <c r="H17" s="31" t="n">
         <v>39.1</v>
       </c>
       <c r="I17" s="3" t="n">
@@ -3583,25 +4186,25 @@
       <c r="A18" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="28" t="n">
+      <c r="C18" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="31" t="n">
         <v>47.6</v>
       </c>
-      <c r="E18" s="28" t="n">
+      <c r="E18" s="31" t="n">
         <v>65.55</v>
       </c>
-      <c r="F18" s="28" t="n">
+      <c r="F18" s="31" t="n">
         <v>54.55</v>
       </c>
-      <c r="G18" s="29" t="n">
+      <c r="G18" s="32" t="n">
         <v>71.8</v>
       </c>
-      <c r="H18" s="28" t="n">
+      <c r="H18" s="31" t="n">
         <v>36.05</v>
       </c>
       <c r="I18" s="3" t="n">
@@ -3612,25 +4215,25 @@
       <c r="A19" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="28" t="n">
+      <c r="D19" s="31" t="n">
         <v>86.25</v>
       </c>
-      <c r="E19" s="28" t="n">
+      <c r="E19" s="31" t="n">
         <v>107.25</v>
       </c>
-      <c r="F19" s="28" t="n">
+      <c r="F19" s="31" t="n">
         <v>104.2</v>
       </c>
-      <c r="G19" s="29" t="n">
+      <c r="G19" s="32" t="n">
         <v>125.2</v>
       </c>
-      <c r="H19" s="28" t="n">
+      <c r="H19" s="31" t="n">
         <v>46</v>
       </c>
       <c r="I19" s="3" t="n">
@@ -3641,25 +4244,25 @@
       <c r="A20" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="28" t="n">
+      <c r="D20" s="31" t="n">
         <v>75.45</v>
       </c>
-      <c r="E20" s="28" t="n">
+      <c r="E20" s="31" t="n">
         <v>82.05</v>
       </c>
-      <c r="F20" s="28" t="n">
+      <c r="F20" s="31" t="n">
         <v>91.15</v>
       </c>
-      <c r="G20" s="29" t="n">
+      <c r="G20" s="32" t="n">
         <v>97.7</v>
       </c>
-      <c r="H20" s="28" t="n">
+      <c r="H20" s="31" t="n">
         <v>14</v>
       </c>
       <c r="I20" s="3" t="n">
@@ -3670,25 +4273,25 @@
       <c r="A21" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="28" t="n">
+      <c r="D21" s="31" t="n">
         <v>85.05</v>
       </c>
-      <c r="E21" s="28" t="n">
+      <c r="E21" s="31" t="n">
         <v>108</v>
       </c>
-      <c r="F21" s="28" t="n">
+      <c r="F21" s="31" t="n">
         <v>88.2</v>
       </c>
-      <c r="G21" s="29" t="n">
+      <c r="G21" s="32" t="n">
         <v>108.4</v>
       </c>
-      <c r="H21" s="28" t="n">
+      <c r="H21" s="31" t="n">
         <v>39.65</v>
       </c>
       <c r="I21" s="3" t="n">
@@ -3699,25 +4302,25 @@
       <c r="A22" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="28" t="n">
+      <c r="D22" s="31" t="n">
         <v>68.95</v>
       </c>
-      <c r="E22" s="28" t="n">
+      <c r="E22" s="31" t="n">
         <v>76.15</v>
       </c>
-      <c r="F22" s="28" t="n">
+      <c r="F22" s="31" t="n">
         <v>71.1</v>
       </c>
-      <c r="G22" s="29" t="n">
+      <c r="G22" s="32" t="n">
         <v>76.85</v>
       </c>
-      <c r="H22" s="28" t="n">
+      <c r="H22" s="31" t="n">
         <v>15.3</v>
       </c>
       <c r="I22" s="3" t="n">
@@ -3728,25 +4331,25 @@
       <c r="A23" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="33" t="s">
         <v>25</v>
       </c>
       <c r="I23" s="3" t="n">
@@ -3757,25 +4360,25 @@
       <c r="A24" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="28" t="n">
+      <c r="D24" s="31" t="n">
         <v>62.4</v>
       </c>
-      <c r="E24" s="28" t="n">
+      <c r="E24" s="31" t="n">
         <v>71.95</v>
       </c>
-      <c r="F24" s="28" t="n">
+      <c r="F24" s="31" t="n">
         <v>71.25</v>
       </c>
-      <c r="G24" s="29" t="n">
+      <c r="G24" s="32" t="n">
         <v>80.8</v>
       </c>
-      <c r="H24" s="28" t="n">
+      <c r="H24" s="31" t="n">
         <v>23.8</v>
       </c>
       <c r="I24" s="3" t="n">
@@ -3786,25 +4389,25 @@
       <c r="A25" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="28" t="n">
+      <c r="D25" s="31" t="n">
         <v>72.1</v>
       </c>
-      <c r="E25" s="28" t="n">
+      <c r="E25" s="31" t="n">
         <v>88.1</v>
       </c>
-      <c r="F25" s="28" t="n">
+      <c r="F25" s="31" t="n">
         <v>74.7</v>
       </c>
-      <c r="G25" s="29" t="n">
+      <c r="G25" s="32" t="n">
         <v>91</v>
       </c>
-      <c r="H25" s="28" t="n">
+      <c r="H25" s="31" t="n">
         <v>31.2</v>
       </c>
       <c r="I25" s="3" t="n">
@@ -3815,25 +4418,25 @@
       <c r="A26" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="28" t="n">
+      <c r="D26" s="31" t="n">
         <v>73.45</v>
       </c>
-      <c r="E26" s="28" t="n">
+      <c r="E26" s="31" t="n">
         <v>87.3</v>
       </c>
-      <c r="F26" s="28" t="n">
+      <c r="F26" s="31" t="n">
         <v>76.65</v>
       </c>
-      <c r="G26" s="29" t="n">
+      <c r="G26" s="32" t="n">
         <v>90.35</v>
       </c>
-      <c r="H26" s="28" t="n">
+      <c r="H26" s="31" t="n">
         <v>27.2</v>
       </c>
       <c r="I26" s="3" t="n">
@@ -3844,25 +4447,25 @@
       <c r="A27" s="14" t="n">
         <v>17</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="28" t="n">
+      <c r="D27" s="31" t="n">
         <v>82.4</v>
       </c>
-      <c r="E27" s="28" t="n">
+      <c r="E27" s="31" t="n">
         <v>101.8</v>
       </c>
-      <c r="F27" s="28" t="n">
+      <c r="F27" s="31" t="n">
         <v>85.15</v>
       </c>
-      <c r="G27" s="29" t="n">
+      <c r="G27" s="32" t="n">
         <v>103.9</v>
       </c>
-      <c r="H27" s="28" t="n">
+      <c r="H27" s="31" t="n">
         <v>41.05</v>
       </c>
       <c r="I27" s="3" t="n">
@@ -3873,25 +4476,25 @@
       <c r="A28" s="14" t="n">
         <v>18</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="28" t="n">
+      <c r="D28" s="31" t="n">
         <v>61.75</v>
       </c>
-      <c r="E28" s="28" t="n">
+      <c r="E28" s="31" t="n">
         <v>66.55</v>
       </c>
-      <c r="F28" s="28" t="n">
+      <c r="F28" s="31" t="n">
         <v>62.95</v>
       </c>
-      <c r="G28" s="29" t="n">
+      <c r="G28" s="32" t="n">
         <v>68.4</v>
       </c>
-      <c r="H28" s="28" t="n">
+      <c r="H28" s="31" t="n">
         <v>10.2</v>
       </c>
       <c r="I28" s="3" t="n">
@@ -3902,25 +4505,25 @@
       <c r="A29" s="14" t="n">
         <v>19</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="28" t="n">
+      <c r="D29" s="31" t="n">
         <v>86.1</v>
       </c>
-      <c r="E29" s="28" t="n">
+      <c r="E29" s="31" t="n">
         <v>103.65</v>
       </c>
-      <c r="F29" s="28" t="n">
+      <c r="F29" s="31" t="n">
         <v>89.15</v>
       </c>
-      <c r="G29" s="29" t="n">
+      <c r="G29" s="32" t="n">
         <v>106.4</v>
       </c>
-      <c r="H29" s="28" t="n">
+      <c r="H29" s="31" t="n">
         <v>34.25</v>
       </c>
       <c r="I29" s="3" t="n">
@@ -3931,25 +4534,25 @@
       <c r="A30" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="28" t="n">
+      <c r="D30" s="31" t="n">
         <v>49.9</v>
       </c>
-      <c r="E30" s="28" t="n">
+      <c r="E30" s="31" t="n">
         <v>64.3</v>
       </c>
-      <c r="F30" s="28" t="n">
+      <c r="F30" s="31" t="n">
         <v>51.9</v>
       </c>
-      <c r="G30" s="29" t="n">
+      <c r="G30" s="32" t="n">
         <v>66.25</v>
       </c>
-      <c r="H30" s="28" t="n">
+      <c r="H30" s="31" t="n">
         <v>28.75</v>
       </c>
       <c r="I30" s="3" t="n">
@@ -3963,22 +4566,22 @@
       <c r="B31" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="28" t="n">
+      <c r="D31" s="31" t="n">
         <v>75.7</v>
       </c>
-      <c r="E31" s="28" t="n">
+      <c r="E31" s="31" t="n">
         <v>99.15</v>
       </c>
-      <c r="F31" s="28" t="n">
+      <c r="F31" s="31" t="n">
         <v>79.35</v>
       </c>
-      <c r="G31" s="29" t="n">
+      <c r="G31" s="32" t="n">
         <v>100.8</v>
       </c>
-      <c r="H31" s="28" t="n">
+      <c r="H31" s="31" t="n">
         <v>47.45</v>
       </c>
       <c r="I31" s="3" t="n">
@@ -3989,25 +4592,25 @@
       <c r="A32" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="28" t="n">
+      <c r="D32" s="31" t="n">
         <v>59.75</v>
       </c>
-      <c r="E32" s="28" t="n">
+      <c r="E32" s="31" t="n">
         <v>68.45</v>
       </c>
-      <c r="F32" s="28" t="n">
+      <c r="F32" s="31" t="n">
         <v>61.3</v>
       </c>
-      <c r="G32" s="29" t="n">
+      <c r="G32" s="32" t="n">
         <v>69.95</v>
       </c>
-      <c r="H32" s="28" t="n">
+      <c r="H32" s="31" t="n">
         <v>14.05</v>
       </c>
       <c r="I32" s="3" t="n">
@@ -4021,22 +4624,22 @@
       <c r="B33" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="28" t="n">
+      <c r="D33" s="31" t="n">
         <v>73.95</v>
       </c>
-      <c r="E33" s="28" t="n">
+      <c r="E33" s="31" t="n">
         <v>96.8</v>
       </c>
-      <c r="F33" s="28" t="n">
+      <c r="F33" s="31" t="n">
         <v>76</v>
       </c>
-      <c r="G33" s="29" t="n">
+      <c r="G33" s="32" t="n">
         <v>96.85</v>
       </c>
-      <c r="H33" s="28" t="n">
+      <c r="H33" s="31" t="n">
         <v>47.95</v>
       </c>
       <c r="I33" s="3" t="n">
@@ -4047,25 +4650,25 @@
       <c r="A34" s="14" t="n">
         <v>24</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="28" t="n">
+      <c r="D34" s="31" t="n">
         <v>59.6</v>
       </c>
-      <c r="E34" s="28" t="n">
+      <c r="E34" s="31" t="n">
         <v>68.55</v>
       </c>
-      <c r="F34" s="28" t="n">
+      <c r="F34" s="31" t="n">
         <v>61.65</v>
       </c>
-      <c r="G34" s="29" t="n">
+      <c r="G34" s="32" t="n">
         <v>70.55</v>
       </c>
-      <c r="H34" s="28" t="n">
+      <c r="H34" s="31" t="n">
         <v>18.85</v>
       </c>
       <c r="I34" s="3" t="n">
@@ -4076,25 +4679,25 @@
       <c r="A35" s="14" t="n">
         <v>25</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="28" t="n">
+      <c r="D35" s="31" t="n">
         <v>86.35</v>
       </c>
-      <c r="E35" s="28" t="n">
+      <c r="E35" s="31" t="n">
         <v>97.5</v>
       </c>
-      <c r="F35" s="28" t="n">
+      <c r="F35" s="31" t="n">
         <v>88.75</v>
       </c>
-      <c r="G35" s="29" t="n">
+      <c r="G35" s="32" t="n">
         <v>100.4</v>
       </c>
-      <c r="H35" s="28" t="n">
+      <c r="H35" s="31" t="n">
         <v>36.75</v>
       </c>
       <c r="I35" s="3" t="n">
@@ -4105,25 +4708,25 @@
       <c r="A36" s="14" t="n">
         <v>26</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="28" t="n">
+      <c r="D36" s="31" t="n">
         <v>97.5</v>
       </c>
-      <c r="E36" s="28" t="n">
+      <c r="E36" s="31" t="n">
         <v>126.1</v>
       </c>
-      <c r="F36" s="28" t="n">
+      <c r="F36" s="31" t="n">
         <v>97.5</v>
       </c>
-      <c r="G36" s="29" t="n">
+      <c r="G36" s="32" t="n">
         <v>127.6</v>
       </c>
-      <c r="H36" s="28" t="n">
+      <c r="H36" s="31" t="n">
         <v>53.7</v>
       </c>
       <c r="I36" s="3" t="n">
@@ -4134,25 +4737,25 @@
       <c r="A37" s="14" t="n">
         <v>27</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="28" t="n">
+      <c r="D37" s="31" t="n">
         <v>47</v>
       </c>
-      <c r="E37" s="28" t="n">
+      <c r="E37" s="31" t="n">
         <v>63.95</v>
       </c>
-      <c r="F37" s="28" t="n">
+      <c r="F37" s="31" t="n">
         <v>54.55</v>
       </c>
-      <c r="G37" s="29" t="n">
+      <c r="G37" s="32" t="n">
         <v>71.8</v>
       </c>
-      <c r="H37" s="28" t="n">
+      <c r="H37" s="31" t="n">
         <v>33.95</v>
       </c>
       <c r="I37" s="3" t="n">
@@ -4163,25 +4766,25 @@
       <c r="A38" s="14" t="n">
         <v>28</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="28" t="n">
+      <c r="D38" s="31" t="n">
         <v>68.05</v>
       </c>
-      <c r="E38" s="28" t="n">
+      <c r="E38" s="31" t="n">
         <v>90.35</v>
       </c>
-      <c r="F38" s="28" t="n">
+      <c r="F38" s="31" t="n">
         <v>70.2</v>
       </c>
-      <c r="G38" s="29" t="n">
+      <c r="G38" s="32" t="n">
         <v>91.4</v>
       </c>
-      <c r="H38" s="28" t="n">
+      <c r="H38" s="31" t="n">
         <v>39.75</v>
       </c>
       <c r="I38" s="3" t="n">
@@ -4192,25 +4795,25 @@
       <c r="A39" s="14" t="n">
         <v>29</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="28" t="n">
+      <c r="D39" s="31" t="n">
         <v>85.6</v>
       </c>
-      <c r="E39" s="28" t="n">
+      <c r="E39" s="31" t="n">
         <v>101.35</v>
       </c>
-      <c r="F39" s="28" t="n">
+      <c r="F39" s="31" t="n">
         <v>87.15</v>
       </c>
-      <c r="G39" s="29" t="n">
+      <c r="G39" s="32" t="n">
         <v>102.85</v>
       </c>
-      <c r="H39" s="28" t="n">
+      <c r="H39" s="31" t="n">
         <v>34.85</v>
       </c>
       <c r="I39" s="3" t="n">
@@ -4221,25 +4824,25 @@
       <c r="A40" s="14" t="n">
         <v>30</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="28" t="n">
+      <c r="D40" s="31" t="n">
         <v>79.15</v>
       </c>
-      <c r="E40" s="28" t="n">
+      <c r="E40" s="31" t="n">
         <v>97.95</v>
       </c>
-      <c r="F40" s="28" t="n">
+      <c r="F40" s="31" t="n">
         <v>80.75</v>
       </c>
-      <c r="G40" s="29" t="n">
+      <c r="G40" s="32" t="n">
         <v>99.5</v>
       </c>
-      <c r="H40" s="28" t="n">
+      <c r="H40" s="31" t="n">
         <v>43.75</v>
       </c>
       <c r="I40" s="3" t="n">
@@ -4250,25 +4853,25 @@
       <c r="A41" s="14" t="n">
         <v>31</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="28" t="n">
+      <c r="D41" s="31" t="n">
         <v>71.55</v>
       </c>
-      <c r="E41" s="28" t="n">
+      <c r="E41" s="31" t="n">
         <v>99.05</v>
       </c>
-      <c r="F41" s="28" t="n">
+      <c r="F41" s="31" t="n">
         <v>81</v>
       </c>
-      <c r="G41" s="29" t="n">
+      <c r="G41" s="32" t="n">
         <v>110.65</v>
       </c>
-      <c r="H41" s="28" t="n">
+      <c r="H41" s="31" t="n">
         <v>54.9</v>
       </c>
       <c r="I41" s="3" t="n">
@@ -4279,25 +4882,25 @@
       <c r="A42" s="14" t="n">
         <v>32</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="28" t="n">
+      <c r="D42" s="31" t="n">
         <v>67</v>
       </c>
-      <c r="E42" s="28" t="n">
+      <c r="E42" s="31" t="n">
         <v>77.55</v>
       </c>
-      <c r="F42" s="28" t="n">
+      <c r="F42" s="31" t="n">
         <v>69.6</v>
       </c>
-      <c r="G42" s="29" t="n">
+      <c r="G42" s="32" t="n">
         <v>80.7</v>
       </c>
-      <c r="H42" s="28" t="n">
+      <c r="H42" s="31" t="n">
         <v>10.6</v>
       </c>
       <c r="I42" s="3" t="n">
@@ -4308,25 +4911,25 @@
       <c r="A43" s="14" t="n">
         <v>33</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="31" t="n">
+      <c r="D43" s="34" t="n">
         <v>88.3</v>
       </c>
-      <c r="E43" s="31" t="n">
+      <c r="E43" s="34" t="n">
         <v>97.15</v>
       </c>
-      <c r="F43" s="31" t="n">
+      <c r="F43" s="34" t="n">
         <v>99.85</v>
       </c>
-      <c r="G43" s="32" t="n">
+      <c r="G43" s="35" t="n">
         <v>108.75</v>
       </c>
-      <c r="H43" s="31" t="n">
+      <c r="H43" s="34" t="n">
         <v>17.8</v>
       </c>
       <c r="I43" s="3" t="n">
@@ -4340,22 +4943,22 @@
       <c r="B44" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E44" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="G44" s="30" t="s">
+      <c r="G44" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="H44" s="30" t="s">
+      <c r="H44" s="33" t="s">
         <v>82</v>
       </c>
       <c r="I44" s="3" t="n">
@@ -4369,22 +4972,22 @@
       <c r="B45" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F45" s="30" t="s">
+      <c r="F45" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="G45" s="30" t="s">
+      <c r="G45" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="H45" s="30" t="s">
+      <c r="H45" s="33" t="s">
         <v>82</v>
       </c>
       <c r="I45" s="3" t="n">
@@ -4398,22 +5001,22 @@
       <c r="B46" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="28" t="n">
+      <c r="D46" s="31" t="n">
         <v>105.7</v>
       </c>
-      <c r="E46" s="28" t="n">
+      <c r="E46" s="31" t="n">
         <v>111.75</v>
       </c>
-      <c r="F46" s="28" t="n">
+      <c r="F46" s="31" t="n">
         <v>107.45</v>
       </c>
-      <c r="G46" s="29" t="n">
+      <c r="G46" s="32" t="n">
         <v>114.6</v>
       </c>
-      <c r="H46" s="28" t="n">
+      <c r="H46" s="31" t="n">
         <v>31.25</v>
       </c>
       <c r="I46" s="3" t="n">
@@ -4427,22 +5030,22 @@
       <c r="B47" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="28" t="n">
+      <c r="D47" s="31" t="n">
         <v>149.55</v>
       </c>
-      <c r="E47" s="28" t="n">
+      <c r="E47" s="31" t="n">
         <v>169.7</v>
       </c>
-      <c r="F47" s="28" t="n">
+      <c r="F47" s="31" t="n">
         <v>149.55</v>
       </c>
-      <c r="G47" s="29" t="n">
+      <c r="G47" s="32" t="n">
         <v>170.05</v>
       </c>
-      <c r="H47" s="28" t="n">
+      <c r="H47" s="31" t="n">
         <v>56.5</v>
       </c>
       <c r="I47" s="3" t="n">
@@ -4453,25 +5056,25 @@
       <c r="A48" s="14" t="n">
         <v>38</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D48" s="28" t="n">
+      <c r="D48" s="31" t="n">
         <v>68.95</v>
       </c>
-      <c r="E48" s="28" t="n">
+      <c r="E48" s="31" t="n">
         <v>76.45</v>
       </c>
-      <c r="F48" s="28" t="n">
+      <c r="F48" s="31" t="n">
         <v>71.5</v>
       </c>
-      <c r="G48" s="29" t="n">
+      <c r="G48" s="32" t="n">
         <v>78</v>
       </c>
-      <c r="H48" s="28" t="n">
+      <c r="H48" s="31" t="n">
         <v>9.2</v>
       </c>
       <c r="I48" s="3" t="n">
@@ -4482,25 +5085,25 @@
       <c r="A49" s="14" t="n">
         <v>39</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="28" t="n">
+      <c r="D49" s="31" t="n">
         <v>85.6</v>
       </c>
-      <c r="E49" s="28" t="n">
+      <c r="E49" s="31" t="n">
         <v>102.15</v>
       </c>
-      <c r="F49" s="28" t="n">
+      <c r="F49" s="31" t="n">
         <v>87.55</v>
       </c>
-      <c r="G49" s="29" t="n">
+      <c r="G49" s="32" t="n">
         <v>105.3</v>
       </c>
-      <c r="H49" s="28" t="n">
+      <c r="H49" s="31" t="n">
         <v>34.85</v>
       </c>
       <c r="I49" s="3" t="n">
@@ -4511,25 +5114,25 @@
       <c r="A50" s="14" t="n">
         <v>40</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="28" t="n">
+      <c r="D50" s="31" t="n">
         <v>67.85</v>
       </c>
-      <c r="E50" s="28" t="n">
+      <c r="E50" s="31" t="n">
         <v>75.6</v>
       </c>
-      <c r="F50" s="28" t="n">
+      <c r="F50" s="31" t="n">
         <v>68.55</v>
       </c>
-      <c r="G50" s="29" t="n">
+      <c r="G50" s="32" t="n">
         <v>79.1</v>
       </c>
-      <c r="H50" s="28" t="n">
+      <c r="H50" s="31" t="n">
         <v>18.65</v>
       </c>
       <c r="I50" s="3" t="n">
@@ -4540,25 +5143,25 @@
       <c r="A51" s="14" t="n">
         <v>41</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="28" t="n">
+      <c r="D51" s="31" t="n">
         <v>71.45</v>
       </c>
-      <c r="E51" s="28" t="n">
+      <c r="E51" s="31" t="n">
         <v>93.45</v>
       </c>
-      <c r="F51" s="28" t="n">
+      <c r="F51" s="31" t="n">
         <v>74.6</v>
       </c>
-      <c r="G51" s="29" t="n">
+      <c r="G51" s="32" t="n">
         <v>96.55</v>
       </c>
-      <c r="H51" s="28" t="n">
+      <c r="H51" s="31" t="n">
         <v>43</v>
       </c>
       <c r="I51" s="3" t="n">
@@ -4569,25 +5172,25 @@
       <c r="A52" s="14" t="n">
         <v>42</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="28" t="n">
+      <c r="D52" s="31" t="n">
         <v>56.45</v>
       </c>
-      <c r="E52" s="28" t="n">
+      <c r="E52" s="31" t="n">
         <v>75.85</v>
       </c>
-      <c r="F52" s="28" t="n">
+      <c r="F52" s="31" t="n">
         <v>58</v>
       </c>
-      <c r="G52" s="29" t="n">
+      <c r="G52" s="32" t="n">
         <v>77.4</v>
       </c>
-      <c r="H52" s="28" t="n">
+      <c r="H52" s="31" t="n">
         <v>38.85</v>
       </c>
       <c r="I52" s="3" t="n">
@@ -4598,25 +5201,25 @@
       <c r="A53" s="14" t="n">
         <v>43</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="28" t="n">
+      <c r="D53" s="31" t="n">
         <v>90.15</v>
       </c>
-      <c r="E53" s="28" t="n">
+      <c r="E53" s="31" t="n">
         <v>111.55</v>
       </c>
-      <c r="F53" s="28" t="n">
+      <c r="F53" s="31" t="n">
         <v>91.7</v>
       </c>
-      <c r="G53" s="29" t="n">
+      <c r="G53" s="32" t="n">
         <v>113.15</v>
       </c>
-      <c r="H53" s="28" t="n">
+      <c r="H53" s="31" t="n">
         <v>44.3</v>
       </c>
       <c r="I53" s="3" t="n">
@@ -4627,25 +5230,25 @@
       <c r="A54" s="14" t="n">
         <v>44</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D54" s="28" t="n">
+      <c r="D54" s="31" t="n">
         <v>68.7</v>
       </c>
-      <c r="E54" s="28" t="n">
+      <c r="E54" s="31" t="n">
         <v>83.35</v>
       </c>
-      <c r="F54" s="28" t="n">
+      <c r="F54" s="31" t="n">
         <v>79.8</v>
       </c>
-      <c r="G54" s="29" t="n">
+      <c r="G54" s="32" t="n">
         <v>96.75</v>
       </c>
-      <c r="H54" s="28" t="n">
+      <c r="H54" s="31" t="n">
         <v>32.95</v>
       </c>
       <c r="I54" s="3" t="n">
@@ -4656,25 +5259,25 @@
       <c r="A55" s="14" t="n">
         <v>45</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="D55" s="28" t="n">
+      <c r="D55" s="31" t="n">
         <v>84.45</v>
       </c>
-      <c r="E55" s="28" t="n">
+      <c r="E55" s="31" t="n">
         <v>100.05</v>
       </c>
-      <c r="F55" s="28" t="n">
+      <c r="F55" s="31" t="n">
         <v>88.75</v>
       </c>
-      <c r="G55" s="29" t="n">
+      <c r="G55" s="32" t="n">
         <v>104.35</v>
       </c>
-      <c r="H55" s="28" t="n">
+      <c r="H55" s="31" t="n">
         <v>31.2</v>
       </c>
       <c r="I55" s="3" t="n">
@@ -4682,57 +5285,57 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="56">
-      <c r="A56" s="33" t="n">
+      <c r="A56" s="36" t="n">
         <v>46</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="28" t="n">
+      <c r="D56" s="31" t="n">
         <v>59.15</v>
       </c>
-      <c r="E56" s="28" t="n">
+      <c r="E56" s="31" t="n">
         <v>80.9</v>
       </c>
-      <c r="F56" s="28" t="n">
+      <c r="F56" s="31" t="n">
         <v>60.65</v>
       </c>
-      <c r="G56" s="29" t="n">
+      <c r="G56" s="32" t="n">
         <v>83.7</v>
       </c>
-      <c r="H56" s="28" t="n">
+      <c r="H56" s="31" t="n">
         <v>38.95</v>
       </c>
       <c r="I56" s="3" t="n">
         <v>29</v>
       </c>
     </row>
-    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="57" s="35">
+    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="57" s="38">
       <c r="A57" s="14" t="n">
         <v>47</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D57" s="30" t="s">
+      <c r="D57" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E57" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="30" t="s">
+      <c r="F57" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="G57" s="30" t="s">
+      <c r="G57" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="H57" s="30" t="s">
+      <c r="H57" s="33" t="s">
         <v>82</v>
       </c>
       <c r="I57" s="3" t="n">
@@ -4791,25 +5394,25 @@
       <c r="A58" s="14" t="n">
         <v>48</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="D58" s="28" t="n">
+      <c r="D58" s="31" t="n">
         <v>102.95</v>
       </c>
-      <c r="E58" s="28" t="n">
+      <c r="E58" s="31" t="n">
         <v>107.85</v>
       </c>
-      <c r="F58" s="28" t="n">
+      <c r="F58" s="31" t="n">
         <v>104.55</v>
       </c>
-      <c r="G58" s="29" t="n">
+      <c r="G58" s="32" t="n">
         <v>109.4</v>
       </c>
-      <c r="H58" s="28" t="n">
+      <c r="H58" s="31" t="n">
         <v>9.4</v>
       </c>
       <c r="I58" s="3" t="n">
@@ -4820,25 +5423,25 @@
       <c r="A59" s="14" t="n">
         <v>49</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D59" s="28" t="n">
+      <c r="D59" s="31" t="n">
         <v>53.45</v>
       </c>
-      <c r="E59" s="28" t="n">
+      <c r="E59" s="31" t="n">
         <v>71.25</v>
       </c>
-      <c r="F59" s="28" t="n">
+      <c r="F59" s="31" t="n">
         <v>55.3</v>
       </c>
-      <c r="G59" s="29" t="n">
+      <c r="G59" s="32" t="n">
         <v>73.4</v>
       </c>
-      <c r="H59" s="28" t="n">
+      <c r="H59" s="31" t="n">
         <v>34.45</v>
       </c>
       <c r="I59" s="3" t="n">
@@ -4849,25 +5452,25 @@
       <c r="A60" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="28" t="n">
+      <c r="D60" s="31" t="n">
         <v>72.35</v>
       </c>
-      <c r="E60" s="28" t="n">
+      <c r="E60" s="31" t="n">
         <v>78.3</v>
       </c>
-      <c r="F60" s="28" t="n">
+      <c r="F60" s="31" t="n">
         <v>74.9</v>
       </c>
-      <c r="G60" s="29" t="n">
+      <c r="G60" s="32" t="n">
         <v>79.7</v>
       </c>
-      <c r="H60" s="28" t="n">
+      <c r="H60" s="31" t="n">
         <v>14.5</v>
       </c>
       <c r="I60" s="3" t="n">
@@ -4878,25 +5481,25 @@
       <c r="A61" s="14" t="n">
         <v>51</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D61" s="28" t="n">
+      <c r="D61" s="31" t="n">
         <v>65.2</v>
       </c>
-      <c r="E61" s="28" t="n">
+      <c r="E61" s="31" t="n">
         <v>67.3</v>
       </c>
-      <c r="F61" s="28" t="n">
+      <c r="F61" s="31" t="n">
         <v>68.1</v>
       </c>
-      <c r="G61" s="29" t="n">
+      <c r="G61" s="32" t="n">
         <v>71.45</v>
       </c>
-      <c r="H61" s="28" t="n">
+      <c r="H61" s="31" t="n">
         <v>5.95</v>
       </c>
       <c r="I61" s="3" t="n">
@@ -4907,25 +5510,25 @@
       <c r="A62" s="14" t="n">
         <v>52</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="D62" s="28" t="n">
+      <c r="D62" s="31" t="n">
         <v>86.6</v>
       </c>
-      <c r="E62" s="28" t="n">
+      <c r="E62" s="31" t="n">
         <v>90.65</v>
       </c>
-      <c r="F62" s="28" t="n">
+      <c r="F62" s="31" t="n">
         <v>88.6</v>
       </c>
-      <c r="G62" s="29" t="n">
+      <c r="G62" s="32" t="n">
         <v>92.65</v>
       </c>
-      <c r="H62" s="28" t="n">
+      <c r="H62" s="31" t="n">
         <v>10.3</v>
       </c>
       <c r="I62" s="3" t="n">
@@ -4933,28 +5536,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="63">
-      <c r="A63" s="33" t="n">
+      <c r="A63" s="36" t="n">
         <v>53</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="D63" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="E63" s="30" t="s">
+      <c r="E63" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F63" s="30" t="s">
+      <c r="F63" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="G63" s="30" t="s">
+      <c r="G63" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="H63" s="30" t="s">
+      <c r="H63" s="33" t="s">
         <v>82</v>
       </c>
       <c r="I63" s="3" t="n">
@@ -4965,25 +5568,25 @@
       <c r="A64" s="14" t="n">
         <v>54</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="E64" s="30" t="s">
+      <c r="E64" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F64" s="30" t="s">
+      <c r="F64" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="G64" s="30" t="s">
+      <c r="G64" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="H64" s="30" t="s">
+      <c r="H64" s="33" t="s">
         <v>82</v>
       </c>
       <c r="I64" s="3" t="n">
@@ -4994,25 +5597,25 @@
       <c r="A65" s="14" t="n">
         <v>55</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D65" s="28" t="n">
+      <c r="D65" s="31" t="n">
         <v>84.1</v>
       </c>
-      <c r="E65" s="28" t="n">
+      <c r="E65" s="31" t="n">
         <v>106.4</v>
       </c>
-      <c r="F65" s="28" t="n">
+      <c r="F65" s="31" t="n">
         <v>86.2</v>
       </c>
-      <c r="G65" s="29" t="n">
+      <c r="G65" s="32" t="n">
         <v>107.65</v>
       </c>
-      <c r="H65" s="28" t="n">
+      <c r="H65" s="31" t="n">
         <v>43.65</v>
       </c>
       <c r="I65" s="3" t="n">
@@ -5023,25 +5626,25 @@
       <c r="A66" s="14" t="n">
         <v>56</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="27" t="s">
+      <c r="C66" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="D66" s="28" t="n">
+      <c r="D66" s="31" t="n">
         <v>84.1</v>
       </c>
-      <c r="E66" s="28" t="n">
+      <c r="E66" s="31" t="n">
         <v>104.6</v>
       </c>
-      <c r="F66" s="28" t="n">
+      <c r="F66" s="31" t="n">
         <v>84.8</v>
       </c>
-      <c r="G66" s="29" t="n">
+      <c r="G66" s="32" t="n">
         <v>104.6</v>
       </c>
-      <c r="H66" s="28" t="n">
+      <c r="H66" s="31" t="n">
         <v>43.65</v>
       </c>
       <c r="I66" s="3" t="n">
@@ -5052,25 +5655,25 @@
       <c r="A67" s="14" t="n">
         <v>57</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="D67" s="28" t="n">
+      <c r="D67" s="31" t="n">
         <v>101.45</v>
       </c>
-      <c r="E67" s="28" t="n">
+      <c r="E67" s="31" t="n">
         <v>152.35</v>
       </c>
-      <c r="F67" s="28" t="n">
+      <c r="F67" s="31" t="n">
         <v>103.45</v>
       </c>
-      <c r="G67" s="29" t="n">
+      <c r="G67" s="32" t="n">
         <v>154.3</v>
       </c>
-      <c r="H67" s="28" t="n">
+      <c r="H67" s="31" t="n">
         <v>101.75</v>
       </c>
       <c r="I67" s="3" t="n">
@@ -5081,25 +5684,25 @@
       <c r="A68" s="14" t="n">
         <v>58</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D68" s="28" t="n">
+      <c r="D68" s="31" t="n">
         <v>73.35</v>
       </c>
-      <c r="E68" s="28" t="n">
+      <c r="E68" s="31" t="n">
         <v>89.3</v>
       </c>
-      <c r="F68" s="28" t="n">
+      <c r="F68" s="31" t="n">
         <v>75.45</v>
       </c>
-      <c r="G68" s="29" t="n">
+      <c r="G68" s="32" t="n">
         <v>92.25</v>
       </c>
-      <c r="H68" s="28" t="n">
+      <c r="H68" s="31" t="n">
         <v>40.25</v>
       </c>
       <c r="I68" s="3" t="n">
@@ -5110,25 +5713,25 @@
       <c r="A69" s="14" t="n">
         <v>59</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="27" t="s">
+      <c r="C69" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="D69" s="28" t="n">
+      <c r="D69" s="31" t="n">
         <v>60.45</v>
       </c>
-      <c r="E69" s="28" t="n">
+      <c r="E69" s="31" t="n">
         <v>71.25</v>
       </c>
-      <c r="F69" s="28" t="n">
+      <c r="F69" s="31" t="n">
         <v>63.45</v>
       </c>
-      <c r="G69" s="29" t="n">
+      <c r="G69" s="32" t="n">
         <v>74.45</v>
       </c>
-      <c r="H69" s="28" t="n">
+      <c r="H69" s="31" t="n">
         <v>18</v>
       </c>
       <c r="I69" s="3" t="n">
@@ -5139,25 +5742,25 @@
       <c r="A70" s="14" t="n">
         <v>60</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="27" t="s">
+      <c r="C70" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D70" s="28" t="n">
+      <c r="D70" s="31" t="n">
         <v>68.4</v>
       </c>
-      <c r="E70" s="28" t="n">
+      <c r="E70" s="31" t="n">
         <v>86.15</v>
       </c>
-      <c r="F70" s="28" t="n">
+      <c r="F70" s="31" t="n">
         <v>70.35</v>
       </c>
-      <c r="G70" s="29" t="n">
+      <c r="G70" s="32" t="n">
         <v>88.1</v>
       </c>
-      <c r="H70" s="28" t="n">
+      <c r="H70" s="31" t="n">
         <v>35.55</v>
       </c>
       <c r="I70" s="3" t="n">
@@ -5168,25 +5771,25 @@
       <c r="A71" s="14" t="n">
         <v>61</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D71" s="28" t="n">
+      <c r="D71" s="31" t="n">
         <v>68.1</v>
       </c>
-      <c r="E71" s="28" t="n">
+      <c r="E71" s="31" t="n">
         <v>85.2</v>
       </c>
-      <c r="F71" s="28" t="n">
+      <c r="F71" s="31" t="n">
         <v>70.25</v>
       </c>
-      <c r="G71" s="29" t="n">
+      <c r="G71" s="32" t="n">
         <v>87.3</v>
       </c>
-      <c r="H71" s="28" t="n">
+      <c r="H71" s="31" t="n">
         <v>34.65</v>
       </c>
       <c r="I71" s="3" t="n">
@@ -5197,25 +5800,25 @@
       <c r="A72" s="14" t="n">
         <v>62</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="C72" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D72" s="28" t="n">
+      <c r="D72" s="31" t="n">
         <v>72</v>
       </c>
-      <c r="E72" s="28" t="n">
+      <c r="E72" s="31" t="n">
         <v>82</v>
       </c>
-      <c r="F72" s="28" t="n">
+      <c r="F72" s="31" t="n">
         <v>74.05</v>
       </c>
-      <c r="G72" s="29" t="n">
+      <c r="G72" s="32" t="n">
         <v>84.1</v>
       </c>
-      <c r="H72" s="28" t="n">
+      <c r="H72" s="31" t="n">
         <v>15.75</v>
       </c>
       <c r="I72" s="3" t="n">
@@ -5226,25 +5829,25 @@
       <c r="A73" s="14" t="n">
         <v>63</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="C73" s="27" t="s">
+      <c r="C73" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D73" s="28" t="n">
+      <c r="D73" s="31" t="n">
         <v>63.65</v>
       </c>
-      <c r="E73" s="28" t="n">
+      <c r="E73" s="31" t="n">
         <v>72.1</v>
       </c>
-      <c r="F73" s="28" t="n">
+      <c r="F73" s="31" t="n">
         <v>68.95</v>
       </c>
-      <c r="G73" s="29" t="n">
+      <c r="G73" s="32" t="n">
         <v>76.5</v>
       </c>
-      <c r="H73" s="28" t="n">
+      <c r="H73" s="31" t="n">
         <v>24.15</v>
       </c>
       <c r="I73" s="3" t="n">
@@ -5255,25 +5858,25 @@
       <c r="A74" s="14" t="n">
         <v>64</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="C74" s="27" t="s">
+      <c r="C74" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D74" s="28" t="n">
+      <c r="D74" s="31" t="n">
         <v>62.45</v>
       </c>
-      <c r="E74" s="28" t="n">
+      <c r="E74" s="31" t="n">
         <v>69.7</v>
       </c>
-      <c r="F74" s="28" t="n">
+      <c r="F74" s="31" t="n">
         <v>69</v>
       </c>
-      <c r="G74" s="29" t="n">
+      <c r="G74" s="32" t="n">
         <v>76.25</v>
       </c>
-      <c r="H74" s="28" t="n">
+      <c r="H74" s="31" t="n">
         <v>18.15</v>
       </c>
       <c r="I74" s="3" t="n">
@@ -5284,25 +5887,25 @@
       <c r="A75" s="14" t="n">
         <v>65</v>
       </c>
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D75" s="28" t="n">
+      <c r="D75" s="31" t="n">
         <v>73.45</v>
       </c>
-      <c r="E75" s="28" t="n">
+      <c r="E75" s="31" t="n">
         <v>87.3</v>
       </c>
-      <c r="F75" s="28" t="n">
+      <c r="F75" s="31" t="n">
         <v>76.65</v>
       </c>
-      <c r="G75" s="29" t="n">
+      <c r="G75" s="32" t="n">
         <v>89.55</v>
       </c>
-      <c r="H75" s="28" t="n">
+      <c r="H75" s="31" t="n">
         <v>17.75</v>
       </c>
       <c r="I75" s="3" t="n">
@@ -5313,25 +5916,25 @@
       <c r="A76" s="14" t="n">
         <v>66</v>
       </c>
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="27" t="s">
+      <c r="C76" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="D76" s="30" t="s">
+      <c r="D76" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E76" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="F76" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G76" s="30" t="s">
+      <c r="G76" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H76" s="30" t="s">
+      <c r="H76" s="33" t="s">
         <v>25</v>
       </c>
       <c r="I76" s="3" t="n">
@@ -5342,25 +5945,25 @@
       <c r="A77" s="14" t="n">
         <v>67</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="D77" s="28" t="n">
+      <c r="D77" s="31" t="n">
         <v>73.2</v>
       </c>
-      <c r="E77" s="28" t="n">
+      <c r="E77" s="31" t="n">
         <v>84.55</v>
       </c>
-      <c r="F77" s="28" t="n">
+      <c r="F77" s="31" t="n">
         <v>75.25</v>
       </c>
-      <c r="G77" s="29" t="n">
+      <c r="G77" s="32" t="n">
         <v>86.95</v>
       </c>
-      <c r="H77" s="28" t="n">
+      <c r="H77" s="31" t="n">
         <v>24.15</v>
       </c>
       <c r="I77" s="3" t="n">
@@ -5371,25 +5974,25 @@
       <c r="A78" s="14" t="n">
         <v>68</v>
       </c>
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="C78" s="27" t="s">
+      <c r="C78" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="28" t="n">
+      <c r="D78" s="31" t="n">
         <v>75.8</v>
       </c>
-      <c r="E78" s="28" t="n">
+      <c r="E78" s="31" t="n">
         <v>84.35</v>
       </c>
-      <c r="F78" s="28" t="n">
+      <c r="F78" s="31" t="n">
         <v>77.85</v>
       </c>
-      <c r="G78" s="29" t="n">
+      <c r="G78" s="32" t="n">
         <v>86.4</v>
       </c>
-      <c r="H78" s="28" t="n">
+      <c r="H78" s="31" t="n">
         <v>13.15</v>
       </c>
       <c r="I78" s="3" t="n">
@@ -5400,25 +6003,25 @@
       <c r="A79" s="14" t="n">
         <v>69</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="C79" s="27" t="s">
+      <c r="C79" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="D79" s="28" t="n">
+      <c r="D79" s="31" t="n">
         <v>107</v>
       </c>
-      <c r="E79" s="28" t="n">
+      <c r="E79" s="31" t="n">
         <v>115.9</v>
       </c>
-      <c r="F79" s="28" t="n">
+      <c r="F79" s="31" t="n">
         <v>109.15</v>
       </c>
-      <c r="G79" s="29" t="n">
+      <c r="G79" s="32" t="n">
         <v>118</v>
       </c>
-      <c r="H79" s="28" t="n">
+      <c r="H79" s="31" t="n">
         <v>18.65</v>
       </c>
       <c r="I79" s="3" t="n">
@@ -5429,25 +6032,25 @@
       <c r="A80" s="14" t="n">
         <v>70</v>
       </c>
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="C80" s="27" t="s">
+      <c r="C80" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="D80" s="28" t="n">
+      <c r="D80" s="31" t="n">
         <v>94.5</v>
       </c>
-      <c r="E80" s="28" t="n">
+      <c r="E80" s="31" t="n">
         <v>95.2</v>
       </c>
-      <c r="F80" s="28" t="n">
+      <c r="F80" s="31" t="n">
         <v>95</v>
       </c>
-      <c r="G80" s="29" t="n">
+      <c r="G80" s="32" t="n">
         <v>97.15</v>
       </c>
-      <c r="H80" s="28" t="n">
+      <c r="H80" s="31" t="n">
         <v>13.45</v>
       </c>
       <c r="I80" s="3" t="n">
@@ -5461,22 +6064,22 @@
       <c r="B81" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C81" s="27" t="s">
+      <c r="C81" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="D81" s="28" t="n">
+      <c r="D81" s="31" t="n">
         <v>91.1</v>
       </c>
-      <c r="E81" s="28" t="n">
+      <c r="E81" s="31" t="n">
         <v>95.2</v>
       </c>
-      <c r="F81" s="28" t="n">
+      <c r="F81" s="31" t="n">
         <v>94.3</v>
       </c>
-      <c r="G81" s="29" t="n">
+      <c r="G81" s="32" t="n">
         <v>97.5</v>
       </c>
-      <c r="H81" s="28" t="n">
+      <c r="H81" s="31" t="n">
         <v>13.45</v>
       </c>
       <c r="I81" s="3" t="n">
@@ -5487,25 +6090,25 @@
       <c r="A82" s="14" t="n">
         <v>72</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="27" t="s">
+      <c r="C82" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="D82" s="28" t="n">
+      <c r="D82" s="31" t="n">
         <v>68.4</v>
       </c>
-      <c r="E82" s="28" t="n">
+      <c r="E82" s="31" t="n">
         <v>73.1</v>
       </c>
-      <c r="F82" s="28" t="n">
+      <c r="F82" s="31" t="n">
         <v>70.75</v>
       </c>
-      <c r="G82" s="29" t="n">
+      <c r="G82" s="32" t="n">
         <v>74.05</v>
       </c>
-      <c r="H82" s="28" t="n">
+      <c r="H82" s="31" t="n">
         <v>10</v>
       </c>
       <c r="I82" s="3" t="n">
@@ -5516,25 +6119,25 @@
       <c r="A83" s="14" t="n">
         <v>73</v>
       </c>
-      <c r="B83" s="26" t="s">
+      <c r="B83" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="D83" s="30" t="s">
+      <c r="D83" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E83" s="30" t="s">
+      <c r="E83" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F83" s="30" t="s">
+      <c r="F83" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G83" s="30" t="s">
+      <c r="G83" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H83" s="30" t="s">
+      <c r="H83" s="33" t="s">
         <v>25</v>
       </c>
       <c r="I83" s="3" t="n">
@@ -5545,25 +6148,25 @@
       <c r="A84" s="14" t="n">
         <v>74</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="D84" s="28" t="n">
+      <c r="D84" s="31" t="n">
         <v>72.9</v>
       </c>
-      <c r="E84" s="28" t="n">
+      <c r="E84" s="31" t="n">
         <v>95.15</v>
       </c>
-      <c r="F84" s="28" t="n">
+      <c r="F84" s="31" t="n">
         <v>74.85</v>
       </c>
-      <c r="G84" s="29" t="n">
+      <c r="G84" s="32" t="n">
         <v>97.1</v>
       </c>
-      <c r="H84" s="28" t="n">
+      <c r="H84" s="31" t="n">
         <v>44.55</v>
       </c>
       <c r="I84" s="3" t="n">
@@ -5574,25 +6177,25 @@
       <c r="A85" s="14" t="n">
         <v>75</v>
       </c>
-      <c r="B85" s="26" t="s">
+      <c r="B85" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="D85" s="28" t="n">
+      <c r="D85" s="31" t="n">
         <v>73.45</v>
       </c>
-      <c r="E85" s="28" t="n">
+      <c r="E85" s="31" t="n">
         <v>76.95</v>
       </c>
-      <c r="F85" s="28" t="n">
+      <c r="F85" s="31" t="n">
         <v>75</v>
       </c>
-      <c r="G85" s="29" t="n">
+      <c r="G85" s="32" t="n">
         <v>78.5</v>
       </c>
-      <c r="H85" s="28" t="n">
+      <c r="H85" s="31" t="n">
         <v>8.65</v>
       </c>
       <c r="I85" s="3" t="n">
@@ -5603,25 +6206,25 @@
       <c r="A86" s="14" t="n">
         <v>76</v>
       </c>
-      <c r="B86" s="26" t="s">
+      <c r="B86" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D86" s="28" t="n">
+      <c r="D86" s="31" t="n">
         <v>66.15</v>
       </c>
-      <c r="E86" s="28" t="n">
+      <c r="E86" s="31" t="n">
         <v>85.75</v>
       </c>
-      <c r="F86" s="28" t="n">
+      <c r="F86" s="31" t="n">
         <v>73.3</v>
       </c>
-      <c r="G86" s="29" t="n">
+      <c r="G86" s="32" t="n">
         <v>85.95</v>
       </c>
-      <c r="H86" s="28" t="n">
+      <c r="H86" s="31" t="n">
         <v>31.1</v>
       </c>
       <c r="I86" s="3" t="n">
@@ -5632,25 +6235,25 @@
       <c r="A87" s="14" t="n">
         <v>77</v>
       </c>
-      <c r="B87" s="26" t="s">
+      <c r="B87" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="D87" s="28" t="n">
+      <c r="D87" s="31" t="n">
         <v>50.3</v>
       </c>
-      <c r="E87" s="28" t="n">
+      <c r="E87" s="31" t="n">
         <v>65.85</v>
       </c>
-      <c r="F87" s="28" t="n">
+      <c r="F87" s="31" t="n">
         <v>58.85</v>
       </c>
-      <c r="G87" s="29" t="n">
+      <c r="G87" s="32" t="n">
         <v>74.45</v>
       </c>
-      <c r="H87" s="28" t="n">
+      <c r="H87" s="31" t="n">
         <v>34.6</v>
       </c>
       <c r="I87" s="3" t="n">
@@ -5661,25 +6264,25 @@
       <c r="A88" s="14" t="n">
         <v>78</v>
       </c>
-      <c r="B88" s="26" t="s">
+      <c r="B88" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="C88" s="27" t="s">
+      <c r="C88" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="D88" s="28" t="n">
+      <c r="D88" s="31" t="n">
         <v>68.25</v>
       </c>
-      <c r="E88" s="28" t="n">
+      <c r="E88" s="31" t="n">
         <v>81.25</v>
       </c>
-      <c r="F88" s="28" t="n">
+      <c r="F88" s="31" t="n">
         <v>70.2</v>
       </c>
-      <c r="G88" s="29" t="n">
+      <c r="G88" s="32" t="n">
         <v>83.25</v>
       </c>
-      <c r="H88" s="28" t="n">
+      <c r="H88" s="31" t="n">
         <v>29.15</v>
       </c>
       <c r="I88" s="3" t="n">
@@ -5690,25 +6293,25 @@
       <c r="A89" s="14" t="n">
         <v>79</v>
       </c>
-      <c r="B89" s="26" t="s">
+      <c r="B89" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="D89" s="28" t="n">
+      <c r="D89" s="31" t="n">
         <v>68.55</v>
       </c>
-      <c r="E89" s="28" t="n">
+      <c r="E89" s="31" t="n">
         <v>87.1</v>
       </c>
-      <c r="F89" s="28" t="n">
+      <c r="F89" s="31" t="n">
         <v>70.35</v>
       </c>
-      <c r="G89" s="29" t="n">
+      <c r="G89" s="32" t="n">
         <v>89.25</v>
       </c>
-      <c r="H89" s="28" t="n">
+      <c r="H89" s="31" t="n">
         <v>42.05</v>
       </c>
       <c r="I89" s="3" t="n">
@@ -5719,25 +6322,25 @@
       <c r="A90" s="14" t="n">
         <v>80</v>
       </c>
-      <c r="B90" s="26" t="s">
+      <c r="B90" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="C90" s="27" t="s">
+      <c r="C90" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="D90" s="28" t="n">
+      <c r="D90" s="31" t="n">
         <v>75.2</v>
       </c>
-      <c r="E90" s="28" t="n">
+      <c r="E90" s="31" t="n">
         <v>89.85</v>
       </c>
-      <c r="F90" s="28" t="n">
+      <c r="F90" s="31" t="n">
         <v>76.75</v>
       </c>
-      <c r="G90" s="29" t="n">
+      <c r="G90" s="32" t="n">
         <v>91.4</v>
       </c>
-      <c r="H90" s="28" t="n">
+      <c r="H90" s="31" t="n">
         <v>30.9</v>
       </c>
       <c r="I90" s="3" t="n">
@@ -5748,25 +6351,25 @@
       <c r="A91" s="14" t="n">
         <v>81</v>
       </c>
-      <c r="B91" s="26" t="s">
+      <c r="B91" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="C91" s="27" t="s">
+      <c r="C91" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="D91" s="28" t="n">
+      <c r="D91" s="31" t="n">
         <v>76.55</v>
       </c>
-      <c r="E91" s="28" t="n">
+      <c r="E91" s="31" t="n">
         <v>88.45</v>
       </c>
-      <c r="F91" s="28" t="n">
+      <c r="F91" s="31" t="n">
         <v>79.1</v>
       </c>
-      <c r="G91" s="29" t="n">
+      <c r="G91" s="32" t="n">
         <v>91.25</v>
       </c>
-      <c r="H91" s="28" t="n">
+      <c r="H91" s="31" t="n">
         <v>15.5</v>
       </c>
       <c r="I91" s="3" t="n">
@@ -5777,25 +6380,25 @@
       <c r="A92" s="14" t="n">
         <v>82</v>
       </c>
-      <c r="B92" s="26" t="s">
+      <c r="B92" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C92" s="27" t="s">
+      <c r="C92" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="D92" s="28" t="n">
+      <c r="D92" s="31" t="n">
         <v>66.55</v>
       </c>
-      <c r="E92" s="28" t="n">
+      <c r="E92" s="31" t="n">
         <v>75.15</v>
       </c>
-      <c r="F92" s="28" t="n">
+      <c r="F92" s="31" t="n">
         <v>68.6</v>
       </c>
-      <c r="G92" s="29" t="n">
+      <c r="G92" s="32" t="n">
         <v>77.2</v>
       </c>
-      <c r="H92" s="28" t="n">
+      <c r="H92" s="31" t="n">
         <v>16.4</v>
       </c>
       <c r="I92" s="3" t="n">
@@ -5806,25 +6409,25 @@
       <c r="A93" s="14" t="n">
         <v>83</v>
       </c>
-      <c r="B93" s="26" t="s">
+      <c r="B93" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="C93" s="27" t="s">
+      <c r="C93" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="D93" s="28" t="n">
+      <c r="D93" s="31" t="n">
         <v>69.3</v>
       </c>
-      <c r="E93" s="28" t="n">
+      <c r="E93" s="31" t="n">
         <v>76.15</v>
       </c>
-      <c r="F93" s="28" t="n">
+      <c r="F93" s="31" t="n">
         <v>72.1</v>
       </c>
-      <c r="G93" s="29" t="n">
+      <c r="G93" s="32" t="n">
         <v>78.7</v>
       </c>
-      <c r="H93" s="28" t="n">
+      <c r="H93" s="31" t="n">
         <v>10.15</v>
       </c>
       <c r="I93" s="3" t="n">
@@ -5835,25 +6438,25 @@
       <c r="A94" s="14" t="n">
         <v>84</v>
       </c>
-      <c r="B94" s="26" t="s">
+      <c r="B94" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="C94" s="27" t="s">
+      <c r="C94" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="D94" s="30" t="s">
+      <c r="D94" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="E94" s="30" t="s">
+      <c r="E94" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F94" s="30" t="s">
+      <c r="F94" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="G94" s="30" t="s">
+      <c r="G94" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="H94" s="30" t="s">
+      <c r="H94" s="33" t="s">
         <v>82</v>
       </c>
       <c r="I94" s="3" t="n">
@@ -5864,25 +6467,25 @@
       <c r="A95" s="14" t="n">
         <v>85</v>
       </c>
-      <c r="B95" s="26" t="s">
+      <c r="B95" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="D95" s="28" t="n">
+      <c r="D95" s="31" t="n">
         <v>41.6</v>
       </c>
-      <c r="E95" s="28" t="n">
+      <c r="E95" s="31" t="n">
         <v>58.35</v>
       </c>
-      <c r="F95" s="28" t="n">
+      <c r="F95" s="31" t="n">
         <v>44.65</v>
       </c>
-      <c r="G95" s="29" t="n">
+      <c r="G95" s="32" t="n">
         <v>58.95</v>
       </c>
-      <c r="H95" s="28" t="n">
+      <c r="H95" s="31" t="n">
         <v>26.2</v>
       </c>
       <c r="I95" s="3" t="n">
@@ -5893,25 +6496,25 @@
       <c r="A96" s="14" t="n">
         <v>86</v>
       </c>
-      <c r="B96" s="26" t="s">
+      <c r="B96" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="D96" s="28" t="n">
+      <c r="D96" s="31" t="n">
         <v>76.8</v>
       </c>
-      <c r="E96" s="28" t="n">
+      <c r="E96" s="31" t="n">
         <v>93.75</v>
       </c>
-      <c r="F96" s="28" t="n">
+      <c r="F96" s="31" t="n">
         <v>93.85</v>
       </c>
-      <c r="G96" s="29" t="n">
+      <c r="G96" s="32" t="n">
         <v>106.35</v>
       </c>
-      <c r="H96" s="28" t="n">
+      <c r="H96" s="31" t="n">
         <v>25.05</v>
       </c>
       <c r="I96" s="3" t="n">
@@ -5925,22 +6528,22 @@
       <c r="B97" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C97" s="27" t="s">
+      <c r="C97" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="D97" s="28" t="n">
+      <c r="D97" s="31" t="n">
         <v>49</v>
       </c>
-      <c r="E97" s="28" t="n">
+      <c r="E97" s="31" t="n">
         <v>61.3</v>
       </c>
-      <c r="F97" s="28" t="n">
+      <c r="F97" s="31" t="n">
         <v>50.35</v>
       </c>
-      <c r="G97" s="29" t="n">
+      <c r="G97" s="32" t="n">
         <v>63.05</v>
       </c>
-      <c r="H97" s="28" t="n">
+      <c r="H97" s="31" t="n">
         <v>25.15</v>
       </c>
       <c r="I97" s="3" t="n">
@@ -5951,25 +6554,25 @@
       <c r="A98" s="14" t="n">
         <v>88</v>
       </c>
-      <c r="B98" s="26" t="s">
+      <c r="B98" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="D98" s="28" t="n">
+      <c r="D98" s="31" t="n">
         <v>67.2</v>
       </c>
-      <c r="E98" s="28" t="n">
+      <c r="E98" s="31" t="n">
         <v>84.8</v>
       </c>
-      <c r="F98" s="28" t="n">
+      <c r="F98" s="31" t="n">
         <v>70.2</v>
       </c>
-      <c r="G98" s="29" t="n">
+      <c r="G98" s="32" t="n">
         <v>87.95</v>
       </c>
-      <c r="H98" s="28" t="n">
+      <c r="H98" s="31" t="n">
         <v>39.6</v>
       </c>
       <c r="I98" s="3" t="n">
@@ -5983,22 +6586,22 @@
       <c r="B99" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C99" s="27" t="s">
+      <c r="C99" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="D99" s="28" t="n">
+      <c r="D99" s="31" t="n">
         <v>62.75</v>
       </c>
-      <c r="E99" s="28" t="n">
+      <c r="E99" s="31" t="n">
         <v>78.95</v>
       </c>
-      <c r="F99" s="28" t="n">
+      <c r="F99" s="31" t="n">
         <v>65.25</v>
       </c>
-      <c r="G99" s="29" t="n">
+      <c r="G99" s="32" t="n">
         <v>81.5</v>
       </c>
-      <c r="H99" s="28" t="n">
+      <c r="H99" s="31" t="n">
         <v>31.9</v>
       </c>
       <c r="I99" s="3" t="n">
@@ -6009,25 +6612,25 @@
       <c r="A100" s="14" t="n">
         <v>90</v>
       </c>
-      <c r="B100" s="26" t="s">
+      <c r="B100" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C100" s="27" t="s">
+      <c r="C100" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="D100" s="28" t="n">
+      <c r="D100" s="31" t="n">
         <v>57.05</v>
       </c>
-      <c r="E100" s="28" t="n">
+      <c r="E100" s="31" t="n">
         <v>77.95</v>
       </c>
-      <c r="F100" s="28" t="n">
+      <c r="F100" s="31" t="n">
         <v>60</v>
       </c>
-      <c r="G100" s="29" t="n">
+      <c r="G100" s="32" t="n">
         <v>78.55</v>
       </c>
-      <c r="H100" s="28" t="n">
+      <c r="H100" s="31" t="n">
         <v>33.45</v>
       </c>
       <c r="I100" s="3" t="n">
@@ -6038,25 +6641,25 @@
       <c r="A101" s="14" t="n">
         <v>91</v>
       </c>
-      <c r="B101" s="26" t="s">
+      <c r="B101" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="C101" s="27" t="s">
+      <c r="C101" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="D101" s="28" t="n">
+      <c r="D101" s="31" t="n">
         <v>64.25</v>
       </c>
-      <c r="E101" s="28" t="n">
+      <c r="E101" s="31" t="n">
         <v>77.4</v>
       </c>
-      <c r="F101" s="28" t="n">
+      <c r="F101" s="31" t="n">
         <v>65.85</v>
       </c>
-      <c r="G101" s="29" t="n">
+      <c r="G101" s="32" t="n">
         <v>78.95</v>
       </c>
-      <c r="H101" s="28" t="n">
+      <c r="H101" s="31" t="n">
         <v>24.85</v>
       </c>
       <c r="I101" s="3" t="n">
@@ -6067,25 +6670,25 @@
       <c r="A102" s="14" t="n">
         <v>92</v>
       </c>
-      <c r="B102" s="26" t="s">
+      <c r="B102" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="C102" s="27" t="s">
+      <c r="C102" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="D102" s="28" t="n">
+      <c r="D102" s="31" t="n">
         <v>61.3</v>
       </c>
-      <c r="E102" s="28" t="n">
+      <c r="E102" s="31" t="n">
         <v>74.4</v>
       </c>
-      <c r="F102" s="28" t="n">
+      <c r="F102" s="31" t="n">
         <v>61.9</v>
       </c>
-      <c r="G102" s="29" t="n">
+      <c r="G102" s="32" t="n">
         <v>76.05</v>
       </c>
-      <c r="H102" s="28" t="n">
+      <c r="H102" s="31" t="n">
         <v>24.9</v>
       </c>
       <c r="I102" s="3" t="n">
@@ -6096,25 +6699,25 @@
       <c r="A103" s="14" t="n">
         <v>93</v>
       </c>
-      <c r="B103" s="26" t="s">
+      <c r="B103" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="C103" s="27" t="s">
+      <c r="C103" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="D103" s="28" t="n">
+      <c r="D103" s="31" t="n">
         <v>70</v>
       </c>
-      <c r="E103" s="28" t="n">
+      <c r="E103" s="31" t="n">
         <v>88.15</v>
       </c>
-      <c r="F103" s="28" t="n">
+      <c r="F103" s="31" t="n">
         <v>72.4</v>
       </c>
-      <c r="G103" s="29" t="n">
+      <c r="G103" s="32" t="n">
         <v>90.6</v>
       </c>
-      <c r="H103" s="28" t="n">
+      <c r="H103" s="31" t="n">
         <v>33.65</v>
       </c>
       <c r="I103" s="3" t="n">
@@ -6125,25 +6728,25 @@
       <c r="A104" s="14" t="n">
         <v>94</v>
       </c>
-      <c r="B104" s="26" t="s">
+      <c r="B104" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="C104" s="27" t="s">
+      <c r="C104" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="D104" s="28" t="n">
+      <c r="D104" s="31" t="n">
         <v>66.8</v>
       </c>
-      <c r="E104" s="28" t="n">
+      <c r="E104" s="31" t="n">
         <v>88.2</v>
       </c>
-      <c r="F104" s="28" t="n">
+      <c r="F104" s="31" t="n">
         <v>69.4</v>
       </c>
-      <c r="G104" s="29" t="n">
+      <c r="G104" s="32" t="n">
         <v>89.65</v>
       </c>
-      <c r="H104" s="28" t="n">
+      <c r="H104" s="31" t="n">
         <v>42.95</v>
       </c>
       <c r="I104" s="3" t="n">
@@ -6154,25 +6757,25 @@
       <c r="A105" s="14" t="n">
         <v>95</v>
       </c>
-      <c r="B105" s="26" t="s">
+      <c r="B105" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="C105" s="27" t="s">
+      <c r="C105" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="D105" s="28" t="n">
+      <c r="D105" s="31" t="n">
         <v>76</v>
       </c>
-      <c r="E105" s="28" t="n">
+      <c r="E105" s="31" t="n">
         <v>92.25</v>
       </c>
-      <c r="F105" s="28" t="n">
+      <c r="F105" s="31" t="n">
         <v>78</v>
       </c>
-      <c r="G105" s="29" t="n">
+      <c r="G105" s="32" t="n">
         <v>94.25</v>
       </c>
-      <c r="H105" s="28" t="n">
+      <c r="H105" s="31" t="n">
         <v>42.85</v>
       </c>
       <c r="I105" s="3" t="n">
@@ -6183,25 +6786,25 @@
       <c r="A106" s="14" t="n">
         <v>96</v>
       </c>
-      <c r="B106" s="26" t="s">
+      <c r="B106" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="C106" s="27" t="s">
+      <c r="C106" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="D106" s="28" t="n">
+      <c r="D106" s="31" t="n">
         <v>59.7</v>
       </c>
-      <c r="E106" s="28" t="n">
+      <c r="E106" s="31" t="n">
         <v>74.8</v>
       </c>
-      <c r="F106" s="28" t="n">
+      <c r="F106" s="31" t="n">
         <v>61.9</v>
       </c>
-      <c r="G106" s="29" t="n">
+      <c r="G106" s="32" t="n">
         <v>76.65</v>
       </c>
-      <c r="H106" s="28" t="n">
+      <c r="H106" s="31" t="n">
         <v>23.7</v>
       </c>
       <c r="I106" s="3" t="n">
@@ -6215,22 +6818,22 @@
       <c r="B107" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C107" s="27" t="s">
+      <c r="C107" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="D107" s="28" t="n">
+      <c r="D107" s="31" t="n">
         <v>85.15</v>
       </c>
-      <c r="E107" s="28" t="n">
+      <c r="E107" s="31" t="n">
         <v>109.4</v>
       </c>
-      <c r="F107" s="28" t="n">
+      <c r="F107" s="31" t="n">
         <v>86.7</v>
       </c>
-      <c r="G107" s="29" t="n">
+      <c r="G107" s="32" t="n">
         <v>109.4</v>
       </c>
-      <c r="H107" s="28" t="n">
+      <c r="H107" s="31" t="n">
         <v>53.25</v>
       </c>
       <c r="I107" s="3" t="n">
@@ -6241,25 +6844,25 @@
       <c r="A108" s="14" t="n">
         <v>98</v>
       </c>
-      <c r="B108" s="26" t="s">
+      <c r="B108" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="C108" s="27" t="s">
+      <c r="C108" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="D108" s="28" t="n">
+      <c r="D108" s="31" t="n">
         <v>68.1</v>
       </c>
-      <c r="E108" s="28" t="n">
+      <c r="E108" s="31" t="n">
         <v>83.1</v>
       </c>
-      <c r="F108" s="28" t="n">
+      <c r="F108" s="31" t="n">
         <v>70.2</v>
       </c>
-      <c r="G108" s="29" t="n">
+      <c r="G108" s="32" t="n">
         <v>85.15</v>
       </c>
-      <c r="H108" s="28" t="n">
+      <c r="H108" s="31" t="n">
         <v>28.55</v>
       </c>
       <c r="I108" s="3" t="n">
@@ -6270,25 +6873,25 @@
       <c r="A109" s="14" t="n">
         <v>99</v>
       </c>
-      <c r="B109" s="26" t="s">
+      <c r="B109" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="C109" s="27" t="s">
+      <c r="C109" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="D109" s="28" t="n">
+      <c r="D109" s="31" t="n">
         <v>60.05</v>
       </c>
-      <c r="E109" s="28" t="n">
+      <c r="E109" s="31" t="n">
         <v>64.25</v>
       </c>
-      <c r="F109" s="28" t="n">
+      <c r="F109" s="31" t="n">
         <v>61.6</v>
       </c>
-      <c r="G109" s="29" t="n">
+      <c r="G109" s="32" t="n">
         <v>65.8</v>
       </c>
-      <c r="H109" s="28" t="n">
+      <c r="H109" s="31" t="n">
         <v>9.3</v>
       </c>
       <c r="I109" s="3" t="n">
@@ -6299,25 +6902,25 @@
       <c r="A110" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="B110" s="26" t="s">
+      <c r="B110" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="C110" s="27" t="s">
+      <c r="C110" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="D110" s="28" t="n">
+      <c r="D110" s="31" t="n">
         <v>68.55</v>
       </c>
-      <c r="E110" s="28" t="n">
+      <c r="E110" s="31" t="n">
         <v>83.8</v>
       </c>
-      <c r="F110" s="28" t="n">
+      <c r="F110" s="31" t="n">
         <v>70.25</v>
       </c>
-      <c r="G110" s="29" t="n">
+      <c r="G110" s="32" t="n">
         <v>85.3</v>
       </c>
-      <c r="H110" s="28" t="n">
+      <c r="H110" s="31" t="n">
         <v>32.7</v>
       </c>
       <c r="I110" s="3" t="n">
@@ -6328,25 +6931,25 @@
       <c r="A111" s="14" t="n">
         <v>101</v>
       </c>
-      <c r="B111" s="26" t="s">
+      <c r="B111" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="C111" s="27" t="s">
+      <c r="C111" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="D111" s="28" t="n">
+      <c r="D111" s="31" t="n">
         <v>55.45</v>
       </c>
-      <c r="E111" s="28" t="n">
+      <c r="E111" s="31" t="n">
         <v>69.4</v>
       </c>
-      <c r="F111" s="28" t="n">
+      <c r="F111" s="31" t="n">
         <v>57.4</v>
       </c>
-      <c r="G111" s="29" t="n">
+      <c r="G111" s="32" t="n">
         <v>71.35</v>
       </c>
-      <c r="H111" s="28" t="n">
+      <c r="H111" s="31" t="n">
         <v>27.95</v>
       </c>
       <c r="I111" s="3" t="n">
@@ -6357,25 +6960,25 @@
       <c r="A112" s="14" t="n">
         <v>102</v>
       </c>
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="C112" s="27" t="s">
+      <c r="C112" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="D112" s="28" t="n">
+      <c r="D112" s="31" t="n">
         <v>65.3</v>
       </c>
-      <c r="E112" s="28" t="n">
+      <c r="E112" s="31" t="n">
         <v>73.7</v>
       </c>
-      <c r="F112" s="28" t="n">
+      <c r="F112" s="31" t="n">
         <v>66</v>
       </c>
-      <c r="G112" s="29" t="n">
+      <c r="G112" s="32" t="n">
         <v>73.7</v>
       </c>
-      <c r="H112" s="28" t="n">
+      <c r="H112" s="31" t="n">
         <v>28.25</v>
       </c>
       <c r="I112" s="3" t="n">
@@ -6386,26 +6989,26 @@
       <c r="A113" s="14" t="n">
         <v>103</v>
       </c>
-      <c r="B113" s="26" t="s">
+      <c r="B113" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="C113" s="27" t="s">
+      <c r="C113" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="D113" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E113" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="F113" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G113" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H113" s="30" t="s">
-        <v>25</v>
+      <c r="D113" s="31" t="n">
+        <v>73.9</v>
+      </c>
+      <c r="E113" s="31" t="n">
+        <v>84.75</v>
+      </c>
+      <c r="F113" s="31" t="n">
+        <v>76.35</v>
+      </c>
+      <c r="G113" s="32" t="n">
+        <v>87.25</v>
+      </c>
+      <c r="H113" s="31" t="n">
+        <v>21.75</v>
       </c>
       <c r="I113" s="3" t="n">
         <v>29</v>
@@ -6415,25 +7018,25 @@
       <c r="A114" s="14" t="n">
         <v>104</v>
       </c>
-      <c r="B114" s="26" t="s">
+      <c r="B114" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="C114" s="27" t="s">
+      <c r="C114" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="D114" s="28" t="n">
+      <c r="D114" s="31" t="n">
         <v>58.4</v>
       </c>
-      <c r="E114" s="28" t="n">
+      <c r="E114" s="31" t="n">
         <v>59.2</v>
       </c>
-      <c r="F114" s="28" t="n">
+      <c r="F114" s="31" t="n">
         <v>59.2</v>
       </c>
-      <c r="G114" s="29" t="n">
+      <c r="G114" s="32" t="n">
         <v>60.45</v>
       </c>
-      <c r="H114" s="28" t="n">
+      <c r="H114" s="31" t="n">
         <v>4.25</v>
       </c>
       <c r="I114" s="3" t="n">
@@ -6444,25 +7047,25 @@
       <c r="A115" s="14" t="n">
         <v>105</v>
       </c>
-      <c r="B115" s="26" t="s">
+      <c r="B115" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="C115" s="27" t="s">
+      <c r="C115" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="D115" s="30" t="s">
+      <c r="D115" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E115" s="30" t="s">
+      <c r="E115" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F115" s="30" t="s">
+      <c r="F115" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G115" s="30" t="s">
+      <c r="G115" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H115" s="30" t="s">
+      <c r="H115" s="33" t="s">
         <v>25</v>
       </c>
       <c r="I115" s="3" t="n">
@@ -6473,25 +7076,25 @@
       <c r="A116" s="14" t="n">
         <v>106</v>
       </c>
-      <c r="B116" s="26" t="s">
+      <c r="B116" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="C116" s="27" t="s">
+      <c r="C116" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="D116" s="28" t="n">
+      <c r="D116" s="31" t="n">
         <v>57.45</v>
       </c>
-      <c r="E116" s="28" t="n">
+      <c r="E116" s="31" t="n">
         <v>60.8</v>
       </c>
-      <c r="F116" s="28" t="n">
+      <c r="F116" s="31" t="n">
         <v>59.5</v>
       </c>
-      <c r="G116" s="29" t="n">
+      <c r="G116" s="32" t="n">
         <v>63</v>
       </c>
-      <c r="H116" s="28" t="n">
+      <c r="H116" s="31" t="n">
         <v>10.3</v>
       </c>
       <c r="I116" s="3" t="n">
@@ -6502,25 +7105,25 @@
       <c r="A117" s="14" t="n">
         <v>107</v>
       </c>
-      <c r="B117" s="26" t="s">
+      <c r="B117" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="C117" s="27" t="s">
+      <c r="C117" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="D117" s="28" t="n">
+      <c r="D117" s="31" t="n">
         <v>73.4</v>
       </c>
-      <c r="E117" s="28" t="n">
+      <c r="E117" s="31" t="n">
         <v>90.25</v>
       </c>
-      <c r="F117" s="28" t="n">
+      <c r="F117" s="31" t="n">
         <v>74.5</v>
       </c>
-      <c r="G117" s="29" t="n">
+      <c r="G117" s="32" t="n">
         <v>91.3</v>
       </c>
-      <c r="H117" s="28" t="n">
+      <c r="H117" s="31" t="n">
         <v>36.4</v>
       </c>
       <c r="I117" s="3" t="n">
@@ -6531,25 +7134,25 @@
       <c r="A118" s="14" t="n">
         <v>108</v>
       </c>
-      <c r="B118" s="26" t="s">
+      <c r="B118" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="C118" s="27" t="s">
+      <c r="C118" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="D118" s="28" t="n">
+      <c r="D118" s="31" t="n">
         <v>82.15</v>
       </c>
-      <c r="E118" s="28" t="n">
+      <c r="E118" s="31" t="n">
         <v>103.95</v>
       </c>
-      <c r="F118" s="28" t="n">
+      <c r="F118" s="31" t="n">
         <v>84.8</v>
       </c>
-      <c r="G118" s="29" t="n">
+      <c r="G118" s="32" t="n">
         <v>106.75</v>
       </c>
-      <c r="H118" s="28" t="n">
+      <c r="H118" s="31" t="n">
         <v>47.85</v>
       </c>
       <c r="I118" s="3" t="n">
@@ -6560,25 +7163,25 @@
       <c r="A119" s="14" t="n">
         <v>109</v>
       </c>
-      <c r="B119" s="26" t="s">
+      <c r="B119" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="C119" s="27" t="s">
+      <c r="C119" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="D119" s="28" t="n">
+      <c r="D119" s="31" t="n">
         <v>90.5</v>
       </c>
-      <c r="E119" s="28" t="n">
+      <c r="E119" s="31" t="n">
         <v>108.25</v>
       </c>
-      <c r="F119" s="28" t="n">
+      <c r="F119" s="31" t="n">
         <v>92.15</v>
       </c>
-      <c r="G119" s="29" t="n">
+      <c r="G119" s="32" t="n">
         <v>108.25</v>
       </c>
-      <c r="H119" s="28" t="n">
+      <c r="H119" s="31" t="n">
         <v>33.95</v>
       </c>
       <c r="I119" s="3" t="n">
@@ -6592,22 +7195,22 @@
       <c r="B120" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C120" s="27" t="s">
+      <c r="C120" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="D120" s="28" t="n">
+      <c r="D120" s="31" t="n">
         <v>75.85</v>
       </c>
-      <c r="E120" s="28" t="n">
+      <c r="E120" s="31" t="n">
         <v>85</v>
       </c>
-      <c r="F120" s="28" t="n">
+      <c r="F120" s="31" t="n">
         <v>81.8</v>
       </c>
-      <c r="G120" s="29" t="n">
+      <c r="G120" s="32" t="n">
         <v>95.45</v>
       </c>
-      <c r="H120" s="28" t="n">
+      <c r="H120" s="31" t="n">
         <v>33</v>
       </c>
       <c r="I120" s="3" t="n">
@@ -6618,25 +7221,25 @@
       <c r="A121" s="14" t="n">
         <v>111</v>
       </c>
-      <c r="B121" s="26" t="s">
+      <c r="B121" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="C121" s="27" t="s">
+      <c r="C121" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="D121" s="28" t="n">
+      <c r="D121" s="31" t="n">
         <v>64.1</v>
       </c>
-      <c r="E121" s="28" t="n">
+      <c r="E121" s="31" t="n">
         <v>77.05</v>
       </c>
-      <c r="F121" s="28" t="n">
+      <c r="F121" s="31" t="n">
         <v>65.7</v>
       </c>
-      <c r="G121" s="29" t="n">
+      <c r="G121" s="32" t="n">
         <v>78.65</v>
       </c>
-      <c r="H121" s="28" t="n">
+      <c r="H121" s="31" t="n">
         <v>25.95</v>
       </c>
       <c r="I121" s="3" t="n">
@@ -6647,25 +7250,25 @@
       <c r="A122" s="14" t="n">
         <v>112</v>
       </c>
-      <c r="B122" s="26" t="s">
+      <c r="B122" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="C122" s="27" t="s">
+      <c r="C122" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="D122" s="28" t="n">
+      <c r="D122" s="31" t="n">
         <v>71.4</v>
       </c>
-      <c r="E122" s="28" t="n">
+      <c r="E122" s="31" t="n">
         <v>89.1</v>
       </c>
-      <c r="F122" s="28" t="n">
+      <c r="F122" s="31" t="n">
         <v>77.05</v>
       </c>
-      <c r="G122" s="29" t="n">
+      <c r="G122" s="32" t="n">
         <v>91.15</v>
       </c>
-      <c r="H122" s="28" t="n">
+      <c r="H122" s="31" t="n">
         <v>36.95</v>
       </c>
       <c r="I122" s="3" t="n">
@@ -6676,25 +7279,25 @@
       <c r="A123" s="14" t="n">
         <v>113</v>
       </c>
-      <c r="B123" s="26" t="s">
+      <c r="B123" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="C123" s="27" t="s">
+      <c r="C123" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="D123" s="28" t="n">
+      <c r="D123" s="31" t="n">
         <v>83.5</v>
       </c>
-      <c r="E123" s="28" t="n">
+      <c r="E123" s="31" t="n">
         <v>94</v>
       </c>
-      <c r="F123" s="28" t="n">
+      <c r="F123" s="31" t="n">
         <v>85.6</v>
       </c>
-      <c r="G123" s="29" t="n">
+      <c r="G123" s="32" t="n">
         <v>95.65</v>
       </c>
-      <c r="H123" s="28" t="n">
+      <c r="H123" s="31" t="n">
         <v>14.6</v>
       </c>
       <c r="I123" s="3" t="n">
@@ -6705,25 +7308,25 @@
       <c r="A124" s="14" t="n">
         <v>114</v>
       </c>
-      <c r="B124" s="26" t="s">
+      <c r="B124" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="C124" s="27" t="s">
+      <c r="C124" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="D124" s="28" t="n">
+      <c r="D124" s="31" t="n">
         <v>58.8</v>
       </c>
-      <c r="E124" s="28" t="n">
+      <c r="E124" s="31" t="n">
         <v>77.95</v>
       </c>
-      <c r="F124" s="28" t="n">
+      <c r="F124" s="31" t="n">
         <v>61</v>
       </c>
-      <c r="G124" s="29" t="n">
+      <c r="G124" s="32" t="n">
         <v>79.9</v>
       </c>
-      <c r="H124" s="28" t="n">
+      <c r="H124" s="31" t="n">
         <v>42.75</v>
       </c>
       <c r="I124" s="3" t="n">
@@ -6734,25 +7337,25 @@
       <c r="A125" s="14" t="n">
         <v>115</v>
       </c>
-      <c r="B125" s="26" t="s">
+      <c r="B125" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="C125" s="27" t="s">
+      <c r="C125" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="D125" s="28" t="n">
+      <c r="D125" s="31" t="n">
         <v>59.9</v>
       </c>
-      <c r="E125" s="28" t="n">
+      <c r="E125" s="31" t="n">
         <v>68.6</v>
       </c>
-      <c r="F125" s="28" t="n">
+      <c r="F125" s="31" t="n">
         <v>61.45</v>
       </c>
-      <c r="G125" s="29" t="n">
+      <c r="G125" s="32" t="n">
         <v>70.2</v>
       </c>
-      <c r="H125" s="28" t="n">
+      <c r="H125" s="31" t="n">
         <v>14.55</v>
       </c>
       <c r="I125" s="3" t="n">
@@ -6763,25 +7366,25 @@
       <c r="A126" s="14" t="n">
         <v>116</v>
       </c>
-      <c r="B126" s="26" t="s">
+      <c r="B126" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C126" s="27" t="s">
+      <c r="C126" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="D126" s="28" t="n">
+      <c r="D126" s="31" t="n">
         <v>67.05</v>
       </c>
-      <c r="E126" s="28" t="n">
+      <c r="E126" s="31" t="n">
         <v>78.55</v>
       </c>
-      <c r="F126" s="28" t="n">
+      <c r="F126" s="31" t="n">
         <v>69.55</v>
       </c>
-      <c r="G126" s="29" t="n">
+      <c r="G126" s="32" t="n">
         <v>79.65</v>
       </c>
-      <c r="H126" s="28" t="n">
+      <c r="H126" s="31" t="n">
         <v>21.4</v>
       </c>
       <c r="I126" s="3" t="n">
@@ -6792,86 +7395,86 @@
       <c r="A127" s="14" t="n">
         <v>117</v>
       </c>
-      <c r="B127" s="26" t="s">
+      <c r="B127" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="C127" s="27" t="s">
+      <c r="C127" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="D127" s="28" t="n">
+      <c r="D127" s="31" t="n">
         <v>74.85</v>
       </c>
-      <c r="E127" s="28" t="n">
+      <c r="E127" s="31" t="n">
         <v>88.8</v>
       </c>
-      <c r="F127" s="28" t="n">
+      <c r="F127" s="31" t="n">
         <v>77.9</v>
       </c>
-      <c r="G127" s="29" t="n">
+      <c r="G127" s="32" t="n">
         <v>91.8</v>
       </c>
-      <c r="H127" s="28" t="n">
+      <c r="H127" s="31" t="n">
         <v>29.3</v>
       </c>
       <c r="I127" s="3" t="n">
         <v>30</v>
       </c>
     </row>
-    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="128" s="37">
+    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="128" s="39">
       <c r="A128" s="14" t="n">
         <v>118</v>
       </c>
-      <c r="B128" s="26" t="s">
+      <c r="B128" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="C128" s="27" t="s">
+      <c r="C128" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="D128" s="28" t="n">
+      <c r="D128" s="31" t="n">
         <v>93</v>
       </c>
-      <c r="E128" s="28" t="n">
+      <c r="E128" s="31" t="n">
         <v>112.1</v>
       </c>
-      <c r="F128" s="28" t="n">
+      <c r="F128" s="31" t="n">
         <v>95</v>
       </c>
-      <c r="G128" s="29" t="n">
+      <c r="G128" s="32" t="n">
         <v>114.1</v>
       </c>
-      <c r="H128" s="28" t="n">
+      <c r="H128" s="31" t="n">
         <v>38.2</v>
       </c>
-      <c r="I128" s="38" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="129" s="37">
+      <c r="I128" s="40" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row customFormat="true" customHeight="true" ht="15" outlineLevel="0" r="129" s="39">
       <c r="A129" s="14" t="n">
         <v>119</v>
       </c>
-      <c r="B129" s="26" t="s">
+      <c r="B129" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C129" s="27" t="s">
+      <c r="C129" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="D129" s="28" t="n">
+      <c r="D129" s="31" t="n">
         <v>71.2</v>
       </c>
-      <c r="E129" s="28" t="n">
+      <c r="E129" s="31" t="n">
         <v>86.5</v>
       </c>
-      <c r="F129" s="28" t="n">
+      <c r="F129" s="31" t="n">
         <v>72.7</v>
       </c>
-      <c r="G129" s="29" t="n">
+      <c r="G129" s="32" t="n">
         <v>88.1</v>
       </c>
-      <c r="H129" s="28" t="n">
+      <c r="H129" s="31" t="n">
         <v>30.75</v>
       </c>
-      <c r="I129" s="38" t="n">
+      <c r="I129" s="40" t="n">
         <v>30</v>
       </c>
     </row>
@@ -6879,25 +7482,25 @@
       <c r="A130" s="14" t="n">
         <v>120</v>
       </c>
-      <c r="B130" s="26" t="s">
+      <c r="B130" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="C130" s="27" t="s">
+      <c r="C130" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="D130" s="28" t="n">
+      <c r="D130" s="31" t="n">
         <v>75.25</v>
       </c>
-      <c r="E130" s="28" t="n">
+      <c r="E130" s="31" t="n">
         <v>88</v>
       </c>
-      <c r="F130" s="28" t="n">
+      <c r="F130" s="31" t="n">
         <v>76.75</v>
       </c>
-      <c r="G130" s="29" t="n">
+      <c r="G130" s="32" t="n">
         <v>88</v>
       </c>
-      <c r="H130" s="28" t="n">
+      <c r="H130" s="31" t="n">
         <v>15.45</v>
       </c>
       <c r="I130" s="3" t="n">
@@ -6908,25 +7511,25 @@
       <c r="A131" s="14" t="n">
         <v>121</v>
       </c>
-      <c r="B131" s="26" t="s">
+      <c r="B131" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="C131" s="27" t="s">
+      <c r="C131" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="D131" s="28" t="n">
+      <c r="D131" s="31" t="n">
         <v>63.4</v>
       </c>
-      <c r="E131" s="28" t="n">
+      <c r="E131" s="31" t="n">
         <v>65.1</v>
       </c>
-      <c r="F131" s="28" t="n">
+      <c r="F131" s="31" t="n">
         <v>65.15</v>
       </c>
-      <c r="G131" s="29" t="n">
+      <c r="G131" s="32" t="n">
         <v>67.2</v>
       </c>
-      <c r="H131" s="28" t="n">
+      <c r="H131" s="31" t="n">
         <v>10.4</v>
       </c>
       <c r="I131" s="3" t="n">
@@ -6937,25 +7540,25 @@
       <c r="A132" s="14" t="n">
         <v>122</v>
       </c>
-      <c r="B132" s="26" t="s">
+      <c r="B132" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="C132" s="27" t="s">
+      <c r="C132" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="D132" s="28" t="n">
+      <c r="D132" s="31" t="n">
         <v>83.45</v>
       </c>
-      <c r="E132" s="28" t="n">
+      <c r="E132" s="31" t="n">
         <v>98.05</v>
       </c>
-      <c r="F132" s="28" t="n">
+      <c r="F132" s="31" t="n">
         <v>89.7</v>
       </c>
-      <c r="G132" s="29" t="n">
+      <c r="G132" s="32" t="n">
         <v>105.05</v>
       </c>
-      <c r="H132" s="28" t="n">
+      <c r="H132" s="31" t="n">
         <v>33.75</v>
       </c>
       <c r="I132" s="3" t="n">
@@ -6966,25 +7569,25 @@
       <c r="A133" s="14" t="n">
         <v>123</v>
       </c>
-      <c r="B133" s="26" t="s">
+      <c r="B133" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="C133" s="27" t="s">
+      <c r="C133" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="D133" s="28" t="n">
+      <c r="D133" s="31" t="n">
         <v>50.75</v>
       </c>
-      <c r="E133" s="28" t="n">
+      <c r="E133" s="31" t="n">
         <v>66.65</v>
       </c>
-      <c r="F133" s="28" t="n">
+      <c r="F133" s="31" t="n">
         <v>71.95</v>
       </c>
-      <c r="G133" s="29" t="n">
+      <c r="G133" s="32" t="n">
         <v>86.35</v>
       </c>
-      <c r="H133" s="28" t="n">
+      <c r="H133" s="31" t="n">
         <v>30.3</v>
       </c>
       <c r="I133" s="3" t="n">
@@ -6995,25 +7598,25 @@
       <c r="A134" s="14" t="n">
         <v>124</v>
       </c>
-      <c r="B134" s="26" t="s">
+      <c r="B134" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="C134" s="27" t="s">
+      <c r="C134" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="D134" s="28" t="n">
+      <c r="D134" s="31" t="n">
         <v>57.45</v>
       </c>
-      <c r="E134" s="28" t="n">
+      <c r="E134" s="31" t="n">
         <v>73.2</v>
       </c>
-      <c r="F134" s="28" t="n">
+      <c r="F134" s="31" t="n">
         <v>59.35</v>
       </c>
-      <c r="G134" s="29" t="n">
+      <c r="G134" s="32" t="n">
         <v>76.3</v>
       </c>
-      <c r="H134" s="28" t="n">
+      <c r="H134" s="31" t="n">
         <v>35.45</v>
       </c>
       <c r="I134" s="3" t="n">
@@ -7024,25 +7627,25 @@
       <c r="A135" s="14" t="n">
         <v>125</v>
       </c>
-      <c r="B135" s="26" t="s">
+      <c r="B135" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="C135" s="27" t="s">
+      <c r="C135" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="D135" s="28" t="n">
+      <c r="D135" s="31" t="n">
         <v>62.25</v>
       </c>
-      <c r="E135" s="28" t="n">
+      <c r="E135" s="31" t="n">
         <v>66.75</v>
       </c>
-      <c r="F135" s="28" t="n">
+      <c r="F135" s="31" t="n">
         <v>63.85</v>
       </c>
-      <c r="G135" s="29" t="n">
+      <c r="G135" s="32" t="n">
         <v>68.3</v>
       </c>
-      <c r="H135" s="28" t="n">
+      <c r="H135" s="31" t="n">
         <v>8.1</v>
       </c>
       <c r="I135" s="3" t="n">
@@ -7053,25 +7656,25 @@
       <c r="A136" s="14" t="n">
         <v>126</v>
       </c>
-      <c r="B136" s="26" t="s">
+      <c r="B136" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="C136" s="27" t="s">
+      <c r="C136" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="D136" s="28" t="n">
+      <c r="D136" s="31" t="n">
         <v>52.15</v>
       </c>
-      <c r="E136" s="28" t="n">
+      <c r="E136" s="31" t="n">
         <v>62.85</v>
       </c>
-      <c r="F136" s="28" t="n">
+      <c r="F136" s="31" t="n">
         <v>54.15</v>
       </c>
-      <c r="G136" s="29" t="n">
+      <c r="G136" s="32" t="n">
         <v>64.85</v>
       </c>
-      <c r="H136" s="28" t="n">
+      <c r="H136" s="31" t="n">
         <v>22.55</v>
       </c>
       <c r="I136" s="3" t="n">
@@ -7082,25 +7685,25 @@
       <c r="A137" s="14" t="n">
         <v>127</v>
       </c>
-      <c r="B137" s="26" t="s">
+      <c r="B137" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="C137" s="27" t="s">
+      <c r="C137" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="D137" s="28" t="n">
+      <c r="D137" s="31" t="n">
         <v>71.45</v>
       </c>
-      <c r="E137" s="28" t="n">
+      <c r="E137" s="31" t="n">
         <v>99.75</v>
       </c>
-      <c r="F137" s="28" t="n">
+      <c r="F137" s="31" t="n">
         <v>74.55</v>
       </c>
-      <c r="G137" s="29" t="n">
+      <c r="G137" s="32" t="n">
         <v>99.75</v>
       </c>
-      <c r="H137" s="28" t="n">
+      <c r="H137" s="31" t="n">
         <v>54.2</v>
       </c>
       <c r="I137" s="3" t="n">
@@ -7111,25 +7714,25 @@
       <c r="A138" s="14" t="n">
         <v>128</v>
       </c>
-      <c r="B138" s="26" t="s">
+      <c r="B138" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="C138" s="27" t="s">
+      <c r="C138" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="D138" s="28" t="n">
+      <c r="D138" s="31" t="n">
         <v>66.55</v>
       </c>
-      <c r="E138" s="28" t="n">
+      <c r="E138" s="31" t="n">
         <v>80.15</v>
       </c>
-      <c r="F138" s="28" t="n">
+      <c r="F138" s="31" t="n">
         <v>68.5</v>
       </c>
-      <c r="G138" s="29" t="n">
+      <c r="G138" s="32" t="n">
         <v>82.15</v>
       </c>
-      <c r="H138" s="28" t="n">
+      <c r="H138" s="31" t="n">
         <v>31.3</v>
       </c>
       <c r="I138" s="3" t="n">
@@ -7140,25 +7743,25 @@
       <c r="A139" s="14" t="n">
         <v>129</v>
       </c>
-      <c r="B139" s="26" t="s">
+      <c r="B139" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="C139" s="27" t="s">
+      <c r="C139" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="D139" s="28" t="n">
+      <c r="D139" s="31" t="n">
         <v>62.75</v>
       </c>
-      <c r="E139" s="28" t="n">
+      <c r="E139" s="31" t="n">
         <v>83.75</v>
       </c>
-      <c r="F139" s="28" t="n">
+      <c r="F139" s="31" t="n">
         <v>64.25</v>
       </c>
-      <c r="G139" s="29" t="n">
+      <c r="G139" s="32" t="n">
         <v>85.25</v>
       </c>
-      <c r="H139" s="28" t="n">
+      <c r="H139" s="31" t="n">
         <v>39.75</v>
       </c>
       <c r="I139" s="3" t="n">
@@ -7169,25 +7772,25 @@
       <c r="A140" s="14" t="n">
         <v>130</v>
       </c>
-      <c r="B140" s="26" t="s">
+      <c r="B140" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="C140" s="27" t="s">
+      <c r="C140" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="D140" s="28" t="n">
+      <c r="D140" s="31" t="n">
         <v>68.75</v>
       </c>
-      <c r="E140" s="28" t="n">
+      <c r="E140" s="31" t="n">
         <v>96</v>
       </c>
-      <c r="F140" s="28" t="n">
+      <c r="F140" s="31" t="n">
         <v>70.75</v>
       </c>
-      <c r="G140" s="29" t="n">
+      <c r="G140" s="32" t="n">
         <v>98</v>
       </c>
-      <c r="H140" s="28" t="n">
+      <c r="H140" s="31" t="n">
         <v>54.5</v>
       </c>
       <c r="I140" s="3" t="n">
@@ -7198,25 +7801,25 @@
       <c r="A141" s="14" t="n">
         <v>131</v>
       </c>
-      <c r="B141" s="26" t="s">
+      <c r="B141" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="C141" s="27" t="s">
+      <c r="C141" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="D141" s="30" t="s">
+      <c r="D141" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="E141" s="30" t="s">
+      <c r="E141" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F141" s="30" t="s">
+      <c r="F141" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="G141" s="30" t="s">
+      <c r="G141" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="H141" s="30" t="s">
+      <c r="H141" s="33" t="s">
         <v>82</v>
       </c>
       <c r="I141" s="3" t="n">
@@ -7227,25 +7830,25 @@
       <c r="A142" s="14" t="n">
         <v>132</v>
       </c>
-      <c r="B142" s="26" t="s">
+      <c r="B142" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="C142" s="27" t="s">
+      <c r="C142" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="D142" s="28" t="n">
+      <c r="D142" s="31" t="n">
         <v>103.65</v>
       </c>
-      <c r="E142" s="28" t="n">
+      <c r="E142" s="31" t="n">
         <v>107.75</v>
       </c>
-      <c r="F142" s="28" t="n">
+      <c r="F142" s="31" t="n">
         <v>108.85</v>
       </c>
-      <c r="G142" s="29" t="n">
+      <c r="G142" s="32" t="n">
         <v>110.65</v>
       </c>
-      <c r="H142" s="28" t="n">
+      <c r="H142" s="31" t="n">
         <v>11.85</v>
       </c>
       <c r="I142" s="3" t="n">
@@ -7253,28 +7856,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="143">
-      <c r="A143" s="33" t="n">
+      <c r="A143" s="36" t="n">
         <v>133</v>
       </c>
-      <c r="B143" s="34" t="s">
+      <c r="B143" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="C143" s="27" t="s">
+      <c r="C143" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="D143" s="28" t="n">
+      <c r="D143" s="31" t="n">
         <v>75.25</v>
       </c>
-      <c r="E143" s="28" t="n">
+      <c r="E143" s="31" t="n">
         <v>87.3</v>
       </c>
-      <c r="F143" s="28" t="n">
+      <c r="F143" s="31" t="n">
         <v>77.9</v>
       </c>
-      <c r="G143" s="29" t="n">
+      <c r="G143" s="32" t="n">
         <v>90.4</v>
       </c>
-      <c r="H143" s="28" t="n">
+      <c r="H143" s="31" t="n">
         <v>23.05</v>
       </c>
       <c r="I143" s="3" t="n">
@@ -7282,28 +7885,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="144">
-      <c r="A144" s="33" t="n">
+      <c r="A144" s="36" t="n">
         <v>134</v>
       </c>
-      <c r="B144" s="34" t="s">
+      <c r="B144" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="C144" s="27" t="s">
+      <c r="C144" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="D144" s="28" t="n">
+      <c r="D144" s="31" t="n">
         <v>73.9</v>
       </c>
-      <c r="E144" s="28" t="n">
+      <c r="E144" s="31" t="n">
         <v>82.65</v>
       </c>
-      <c r="F144" s="28" t="n">
+      <c r="F144" s="31" t="n">
         <v>75.45</v>
       </c>
-      <c r="G144" s="29" t="n">
+      <c r="G144" s="32" t="n">
         <v>84.2</v>
       </c>
-      <c r="H144" s="28" t="n">
+      <c r="H144" s="31" t="n">
         <v>16.7</v>
       </c>
       <c r="I144" s="3" t="n">
@@ -7311,28 +7914,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="145">
-      <c r="A145" s="33" t="n">
+      <c r="A145" s="36" t="n">
         <v>135</v>
       </c>
-      <c r="B145" s="34" t="s">
+      <c r="B145" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="C145" s="27" t="s">
+      <c r="C145" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="D145" s="28" t="n">
+      <c r="D145" s="31" t="n">
         <v>59.85</v>
       </c>
-      <c r="E145" s="28" t="n">
+      <c r="E145" s="31" t="n">
         <v>68.55</v>
       </c>
-      <c r="F145" s="28" t="n">
+      <c r="F145" s="31" t="n">
         <v>61.9</v>
       </c>
-      <c r="G145" s="29" t="n">
+      <c r="G145" s="32" t="n">
         <v>71.2</v>
       </c>
-      <c r="H145" s="28" t="n">
+      <c r="H145" s="31" t="n">
         <v>19.6</v>
       </c>
       <c r="I145" s="3" t="n">
@@ -7340,28 +7943,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="146">
-      <c r="A146" s="33" t="n">
+      <c r="A146" s="36" t="n">
         <v>136</v>
       </c>
-      <c r="B146" s="34" t="s">
+      <c r="B146" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="C146" s="27" t="s">
+      <c r="C146" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="D146" s="28" t="n">
+      <c r="D146" s="31" t="n">
         <v>84.9</v>
       </c>
-      <c r="E146" s="28" t="n">
+      <c r="E146" s="31" t="n">
         <v>100.3</v>
       </c>
-      <c r="F146" s="28" t="n">
+      <c r="F146" s="31" t="n">
         <v>87.75</v>
       </c>
-      <c r="G146" s="29" t="n">
+      <c r="G146" s="32" t="n">
         <v>101.9</v>
       </c>
-      <c r="H146" s="28" t="n">
+      <c r="H146" s="31" t="n">
         <v>36.3</v>
       </c>
       <c r="I146" s="3" t="n">
@@ -7369,28 +7972,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="147">
-      <c r="A147" s="33" t="n">
+      <c r="A147" s="36" t="n">
         <v>137</v>
       </c>
-      <c r="B147" s="34" t="s">
+      <c r="B147" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="C147" s="27" t="s">
+      <c r="C147" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="D147" s="30" t="s">
+      <c r="D147" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="E147" s="30" t="s">
+      <c r="E147" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F147" s="30" t="s">
+      <c r="F147" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="G147" s="30" t="s">
+      <c r="G147" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="H147" s="30" t="s">
+      <c r="H147" s="33" t="s">
         <v>82</v>
       </c>
       <c r="I147" s="3" t="n">
@@ -7398,28 +8001,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="148">
-      <c r="A148" s="33" t="n">
+      <c r="A148" s="36" t="n">
         <v>138</v>
       </c>
-      <c r="B148" s="34" t="s">
+      <c r="B148" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="C148" s="27" t="s">
+      <c r="C148" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="D148" s="28" t="n">
+      <c r="D148" s="31" t="n">
         <v>72.3</v>
       </c>
-      <c r="E148" s="28" t="n">
+      <c r="E148" s="31" t="n">
         <v>96.45</v>
       </c>
-      <c r="F148" s="28" t="n">
+      <c r="F148" s="31" t="n">
         <v>74.7</v>
       </c>
-      <c r="G148" s="29" t="n">
+      <c r="G148" s="32" t="n">
         <v>98.95</v>
       </c>
-      <c r="H148" s="28" t="n">
+      <c r="H148" s="31" t="n">
         <v>45.7</v>
       </c>
       <c r="I148" s="3" t="n">
@@ -7427,28 +8030,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="149">
-      <c r="A149" s="33" t="n">
+      <c r="A149" s="36" t="n">
         <v>139</v>
       </c>
-      <c r="B149" s="34" t="s">
+      <c r="B149" s="37" t="s">
         <v>291</v>
       </c>
-      <c r="C149" s="27" t="s">
+      <c r="C149" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="D149" s="28" t="n">
+      <c r="D149" s="31" t="n">
         <v>81.95</v>
       </c>
-      <c r="E149" s="28" t="n">
+      <c r="E149" s="31" t="n">
         <v>102.1</v>
       </c>
-      <c r="F149" s="28" t="n">
+      <c r="F149" s="31" t="n">
         <v>84.7</v>
       </c>
-      <c r="G149" s="29" t="n">
+      <c r="G149" s="32" t="n">
         <v>103.5</v>
       </c>
-      <c r="H149" s="28" t="n">
+      <c r="H149" s="31" t="n">
         <v>41.6</v>
       </c>
       <c r="I149" s="3" t="n">
@@ -7456,28 +8059,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="150">
-      <c r="A150" s="33" t="n">
+      <c r="A150" s="36" t="n">
         <v>140</v>
       </c>
-      <c r="B150" s="34" t="s">
+      <c r="B150" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="C150" s="27" t="s">
+      <c r="C150" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="D150" s="28" t="n">
+      <c r="D150" s="31" t="n">
         <v>53.05</v>
       </c>
-      <c r="E150" s="28" t="n">
+      <c r="E150" s="31" t="n">
         <v>56.75</v>
       </c>
-      <c r="F150" s="28" t="n">
+      <c r="F150" s="31" t="n">
         <v>56.2</v>
       </c>
-      <c r="G150" s="29" t="n">
+      <c r="G150" s="32" t="n">
         <v>59.7</v>
       </c>
-      <c r="H150" s="28" t="n">
+      <c r="H150" s="31" t="n">
         <v>4.3</v>
       </c>
       <c r="I150" s="3" t="n">
@@ -7485,28 +8088,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="151">
-      <c r="A151" s="33" t="n">
+      <c r="A151" s="36" t="n">
         <v>141</v>
       </c>
-      <c r="B151" s="34" t="s">
+      <c r="B151" s="37" t="s">
         <v>295</v>
       </c>
-      <c r="C151" s="27" t="s">
+      <c r="C151" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="D151" s="28" t="n">
+      <c r="D151" s="31" t="n">
         <v>53.25</v>
       </c>
-      <c r="E151" s="28" t="n">
+      <c r="E151" s="31" t="n">
         <v>59.7</v>
       </c>
-      <c r="F151" s="28" t="n">
+      <c r="F151" s="31" t="n">
         <v>55.6</v>
       </c>
-      <c r="G151" s="29" t="n">
+      <c r="G151" s="32" t="n">
         <v>65</v>
       </c>
-      <c r="H151" s="28" t="n">
+      <c r="H151" s="31" t="n">
         <v>13.65</v>
       </c>
       <c r="I151" s="3" t="n">
@@ -7514,28 +8117,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="152">
-      <c r="A152" s="33" t="n">
+      <c r="A152" s="36" t="n">
         <v>142</v>
       </c>
-      <c r="B152" s="34" t="s">
+      <c r="B152" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="C152" s="27" t="s">
+      <c r="C152" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="D152" s="28" t="n">
+      <c r="D152" s="31" t="n">
         <v>62.25</v>
       </c>
-      <c r="E152" s="28" t="n">
+      <c r="E152" s="31" t="n">
         <v>63.7</v>
       </c>
-      <c r="F152" s="28" t="n">
+      <c r="F152" s="31" t="n">
         <v>72.75</v>
       </c>
-      <c r="G152" s="29" t="n">
+      <c r="G152" s="32" t="n">
         <v>74.2</v>
       </c>
-      <c r="H152" s="28" t="n">
+      <c r="H152" s="31" t="n">
         <v>4.25</v>
       </c>
       <c r="I152" s="3" t="n">
@@ -7543,28 +8146,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="153">
-      <c r="A153" s="33" t="n">
+      <c r="A153" s="36" t="n">
         <v>143</v>
       </c>
-      <c r="B153" s="33" t="s">
+      <c r="B153" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="C153" s="27" t="s">
+      <c r="C153" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="D153" s="28" t="n">
+      <c r="D153" s="31" t="n">
         <v>41.8</v>
       </c>
-      <c r="E153" s="28" t="n">
+      <c r="E153" s="31" t="n">
         <v>43</v>
       </c>
-      <c r="F153" s="28" t="n">
+      <c r="F153" s="31" t="n">
         <v>43.8</v>
       </c>
-      <c r="G153" s="29" t="n">
+      <c r="G153" s="32" t="n">
         <v>45.05</v>
       </c>
-      <c r="H153" s="28" t="n">
+      <c r="H153" s="31" t="n">
         <v>3</v>
       </c>
       <c r="I153" s="3" t="n">
@@ -7572,28 +8175,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="154">
-      <c r="A154" s="33" t="n">
+      <c r="A154" s="36" t="n">
         <v>144</v>
       </c>
-      <c r="B154" s="33" t="s">
+      <c r="B154" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="C154" s="27" t="s">
+      <c r="C154" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="D154" s="28" t="n">
+      <c r="D154" s="31" t="n">
         <v>53.7</v>
       </c>
-      <c r="E154" s="28" t="n">
+      <c r="E154" s="31" t="n">
         <v>54.9</v>
       </c>
-      <c r="F154" s="28" t="n">
+      <c r="F154" s="31" t="n">
         <v>55.65</v>
       </c>
-      <c r="G154" s="29" t="n">
+      <c r="G154" s="32" t="n">
         <v>56.85</v>
       </c>
-      <c r="H154" s="28" t="n">
+      <c r="H154" s="31" t="n">
         <v>3</v>
       </c>
       <c r="I154" s="3" t="n">
@@ -7601,28 +8204,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="155">
-      <c r="A155" s="33" t="n">
+      <c r="A155" s="36" t="n">
         <v>145</v>
       </c>
-      <c r="B155" s="33" t="s">
+      <c r="B155" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="C155" s="27" t="s">
+      <c r="C155" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="D155" s="28" t="n">
+      <c r="D155" s="31" t="n">
         <v>42.7</v>
       </c>
-      <c r="E155" s="28" t="n">
+      <c r="E155" s="31" t="n">
         <v>43.95</v>
       </c>
-      <c r="F155" s="28" t="n">
+      <c r="F155" s="31" t="n">
         <v>44.7</v>
       </c>
-      <c r="G155" s="29" t="n">
+      <c r="G155" s="32" t="n">
         <v>45.9</v>
       </c>
-      <c r="H155" s="28" t="n">
+      <c r="H155" s="31" t="n">
         <v>3</v>
       </c>
       <c r="I155" s="3" t="n">
@@ -7630,26 +8233,26 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="156">
-      <c r="A156" s="33" t="n">
+      <c r="A156" s="36" t="n">
         <v>146</v>
       </c>
-      <c r="B156" s="33" t="n"/>
-      <c r="C156" s="27" t="s">
+      <c r="B156" s="36" t="n"/>
+      <c r="C156" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="D156" s="28" t="n">
+      <c r="D156" s="31" t="n">
         <v>60.95</v>
       </c>
-      <c r="E156" s="28" t="n">
+      <c r="E156" s="31" t="n">
         <v>62.15</v>
       </c>
-      <c r="F156" s="28" t="n">
+      <c r="F156" s="31" t="n">
         <v>62.95</v>
       </c>
-      <c r="G156" s="29" t="n">
+      <c r="G156" s="32" t="n">
         <v>64.65</v>
       </c>
-      <c r="H156" s="28" t="n">
+      <c r="H156" s="31" t="n">
         <v>3</v>
       </c>
       <c r="I156" s="3" t="n">
@@ -7657,28 +8260,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="157">
-      <c r="A157" s="33" t="n">
+      <c r="A157" s="36" t="n">
         <v>147</v>
       </c>
-      <c r="B157" s="34" t="s">
+      <c r="B157" s="37" t="s">
         <v>306</v>
       </c>
-      <c r="C157" s="27" t="s">
+      <c r="C157" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="D157" s="28" t="n">
+      <c r="D157" s="31" t="n">
         <v>71.55</v>
       </c>
-      <c r="E157" s="28" t="n">
+      <c r="E157" s="31" t="n">
         <v>88.45</v>
       </c>
-      <c r="F157" s="28" t="n">
+      <c r="F157" s="31" t="n">
         <v>74.7</v>
       </c>
-      <c r="G157" s="29" t="n">
+      <c r="G157" s="32" t="n">
         <v>91.65</v>
       </c>
-      <c r="H157" s="28" t="n">
+      <c r="H157" s="31" t="n">
         <v>28.8</v>
       </c>
       <c r="I157" s="3" t="n">
@@ -7686,28 +8289,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="158">
-      <c r="A158" s="33" t="n">
+      <c r="A158" s="36" t="n">
         <v>148</v>
       </c>
-      <c r="B158" s="34" t="s">
+      <c r="B158" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="C158" s="27" t="s">
+      <c r="C158" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="D158" s="28" t="n">
+      <c r="D158" s="31" t="n">
         <v>74.3</v>
       </c>
-      <c r="E158" s="28" t="n">
+      <c r="E158" s="31" t="n">
         <v>79.6</v>
       </c>
-      <c r="F158" s="28" t="n">
+      <c r="F158" s="31" t="n">
         <v>76.75</v>
       </c>
-      <c r="G158" s="29" t="n">
+      <c r="G158" s="32" t="n">
         <v>82</v>
       </c>
-      <c r="H158" s="28" t="n">
+      <c r="H158" s="31" t="n">
         <v>14.95</v>
       </c>
       <c r="I158" s="3" t="n">
@@ -7715,28 +8318,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="159">
-      <c r="A159" s="33" t="n">
+      <c r="A159" s="36" t="n">
         <v>149</v>
       </c>
-      <c r="B159" s="34" t="s">
+      <c r="B159" s="37" t="s">
         <v>310</v>
       </c>
-      <c r="C159" s="27" t="s">
+      <c r="C159" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="D159" s="28" t="n">
+      <c r="D159" s="31" t="n">
         <v>109.2</v>
       </c>
-      <c r="E159" s="28" t="n">
+      <c r="E159" s="31" t="n">
         <v>126.7</v>
       </c>
-      <c r="F159" s="28" t="n">
+      <c r="F159" s="31" t="n">
         <v>111.15</v>
       </c>
-      <c r="G159" s="29" t="n">
+      <c r="G159" s="32" t="n">
         <v>128.65</v>
       </c>
-      <c r="H159" s="28" t="n">
+      <c r="H159" s="31" t="n">
         <v>49.3</v>
       </c>
       <c r="I159" s="3" t="n">
@@ -7744,28 +8347,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="160">
-      <c r="A160" s="33" t="n">
+      <c r="A160" s="36" t="n">
         <v>150</v>
       </c>
-      <c r="B160" s="34" t="s">
+      <c r="B160" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="C160" s="27" t="s">
+      <c r="C160" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="D160" s="28" t="n">
+      <c r="D160" s="31" t="n">
         <v>73.5</v>
       </c>
-      <c r="E160" s="28" t="n">
+      <c r="E160" s="31" t="n">
         <v>103.75</v>
       </c>
-      <c r="F160" s="28" t="n">
+      <c r="F160" s="31" t="n">
         <v>80.25</v>
       </c>
-      <c r="G160" s="29" t="n">
+      <c r="G160" s="32" t="n">
         <v>108.05</v>
       </c>
-      <c r="H160" s="28" t="n">
+      <c r="H160" s="31" t="n">
         <v>61.8</v>
       </c>
       <c r="I160" s="3" t="n">
@@ -7773,28 +8376,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="161">
-      <c r="A161" s="33" t="n">
+      <c r="A161" s="36" t="n">
         <v>151</v>
       </c>
-      <c r="B161" s="34" t="s">
+      <c r="B161" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="C161" s="27" t="s">
+      <c r="C161" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="D161" s="30" t="s">
+      <c r="D161" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E161" s="30" t="s">
+      <c r="E161" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F161" s="30" t="s">
+      <c r="F161" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G161" s="30" t="s">
+      <c r="G161" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H161" s="30" t="s">
+      <c r="H161" s="33" t="s">
         <v>25</v>
       </c>
       <c r="I161" s="3" t="n">
@@ -7802,28 +8405,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="162">
-      <c r="A162" s="33" t="n">
+      <c r="A162" s="36" t="n">
         <v>152</v>
       </c>
-      <c r="B162" s="34" t="s">
+      <c r="B162" s="37" t="s">
         <v>316</v>
       </c>
-      <c r="C162" s="27" t="s">
+      <c r="C162" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="D162" s="28" t="n">
+      <c r="D162" s="31" t="n">
         <v>71.75</v>
       </c>
-      <c r="E162" s="28" t="n">
+      <c r="E162" s="31" t="n">
         <v>97.95</v>
       </c>
-      <c r="F162" s="28" t="n">
+      <c r="F162" s="31" t="n">
         <v>74.85</v>
       </c>
-      <c r="G162" s="29" t="n">
+      <c r="G162" s="32" t="n">
         <v>97.95</v>
       </c>
-      <c r="H162" s="28" t="n">
+      <c r="H162" s="31" t="n">
         <v>45.45</v>
       </c>
       <c r="I162" s="3" t="n">
@@ -7831,28 +8434,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="163">
-      <c r="A163" s="33" t="n">
+      <c r="A163" s="36" t="n">
         <v>153</v>
       </c>
-      <c r="B163" s="34" t="s">
+      <c r="B163" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="C163" s="27" t="s">
+      <c r="C163" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="D163" s="28" t="n">
+      <c r="D163" s="31" t="n">
         <v>83.3</v>
       </c>
-      <c r="E163" s="28" t="n">
+      <c r="E163" s="31" t="n">
         <v>96.7</v>
       </c>
-      <c r="F163" s="28" t="n">
+      <c r="F163" s="31" t="n">
         <v>84.9</v>
       </c>
-      <c r="G163" s="29" t="n">
+      <c r="G163" s="32" t="n">
         <v>98.3</v>
       </c>
-      <c r="H163" s="28" t="n">
+      <c r="H163" s="31" t="n">
         <v>24.15</v>
       </c>
       <c r="I163" s="3" t="n">
@@ -7860,28 +8463,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="164">
-      <c r="A164" s="33" t="n">
+      <c r="A164" s="36" t="n">
         <v>154</v>
       </c>
-      <c r="B164" s="26" t="s">
+      <c r="B164" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="C164" s="27" t="s">
+      <c r="C164" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="D164" s="28" t="n">
+      <c r="D164" s="31" t="n">
         <v>56.9</v>
       </c>
-      <c r="E164" s="28" t="n">
+      <c r="E164" s="31" t="n">
         <v>74.15</v>
       </c>
-      <c r="F164" s="28" t="n">
+      <c r="F164" s="31" t="n">
         <v>58.35</v>
       </c>
-      <c r="G164" s="29" t="n">
+      <c r="G164" s="32" t="n">
         <v>76.25</v>
       </c>
-      <c r="H164" s="28" t="n">
+      <c r="H164" s="31" t="n">
         <v>35.55</v>
       </c>
       <c r="I164" s="3" t="n">
@@ -7889,28 +8492,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="165">
-      <c r="A165" s="33" t="n">
+      <c r="A165" s="36" t="n">
         <v>155</v>
       </c>
-      <c r="B165" s="26" t="s">
+      <c r="B165" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="C165" s="27" t="s">
+      <c r="C165" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="D165" s="28" t="n">
+      <c r="D165" s="31" t="n">
         <v>61.75</v>
       </c>
-      <c r="E165" s="28" t="n">
+      <c r="E165" s="31" t="n">
         <v>72.9</v>
       </c>
-      <c r="F165" s="28" t="n">
+      <c r="F165" s="31" t="n">
         <v>68.3</v>
       </c>
-      <c r="G165" s="29" t="n">
+      <c r="G165" s="32" t="n">
         <v>83.45</v>
       </c>
-      <c r="H165" s="28" t="n">
+      <c r="H165" s="31" t="n">
         <v>22.35</v>
       </c>
       <c r="I165" s="3" t="n">
@@ -7918,28 +8521,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="166">
-      <c r="A166" s="33" t="n">
+      <c r="A166" s="36" t="n">
         <v>156</v>
       </c>
-      <c r="B166" s="26" t="s">
+      <c r="B166" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="C166" s="27" t="s">
+      <c r="C166" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="D166" s="28" t="n">
+      <c r="D166" s="31" t="n">
         <v>71.9</v>
       </c>
-      <c r="E166" s="28" t="n">
+      <c r="E166" s="31" t="n">
         <v>93.2</v>
       </c>
-      <c r="F166" s="28" t="n">
+      <c r="F166" s="31" t="n">
         <v>73.9</v>
       </c>
-      <c r="G166" s="29" t="n">
+      <c r="G166" s="32" t="n">
         <v>95.2</v>
       </c>
-      <c r="H166" s="28" t="n">
+      <c r="H166" s="31" t="n">
         <v>42.65</v>
       </c>
       <c r="I166" s="3" t="n">
@@ -7947,28 +8550,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="167">
-      <c r="A167" s="33" t="n">
+      <c r="A167" s="36" t="n">
         <v>157</v>
       </c>
-      <c r="B167" s="26" t="s">
+      <c r="B167" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="C167" s="27" t="s">
+      <c r="C167" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="D167" s="28" t="n">
+      <c r="D167" s="31" t="n">
         <v>100.05</v>
       </c>
-      <c r="E167" s="28" t="n">
+      <c r="E167" s="31" t="n">
         <v>149.5</v>
       </c>
-      <c r="F167" s="28" t="n">
+      <c r="F167" s="31" t="n">
         <v>107.15</v>
       </c>
-      <c r="G167" s="29" t="n">
+      <c r="G167" s="32" t="n">
         <v>159.05</v>
       </c>
-      <c r="H167" s="28" t="n">
+      <c r="H167" s="31" t="n">
         <v>98.9</v>
       </c>
       <c r="I167" s="3" t="n">
@@ -7976,28 +8579,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="168">
-      <c r="A168" s="33" t="n">
+      <c r="A168" s="36" t="n">
         <v>158</v>
       </c>
-      <c r="B168" s="26" t="s">
+      <c r="B168" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C168" s="27" t="s">
+      <c r="C168" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="D168" s="28" t="n">
+      <c r="D168" s="31" t="n">
         <v>257.25</v>
       </c>
-      <c r="E168" s="28" t="n">
+      <c r="E168" s="31" t="n">
         <v>293.9</v>
       </c>
-      <c r="F168" s="28" t="n">
+      <c r="F168" s="31" t="n">
         <v>258.8</v>
       </c>
-      <c r="G168" s="29" t="n">
+      <c r="G168" s="32" t="n">
         <v>295.45</v>
       </c>
-      <c r="H168" s="28" t="n">
+      <c r="H168" s="31" t="n">
         <v>149</v>
       </c>
       <c r="I168" s="3" t="n">
@@ -8005,28 +8608,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="169">
-      <c r="A169" s="33" t="n">
+      <c r="A169" s="36" t="n">
         <v>159</v>
       </c>
-      <c r="B169" s="26" t="s">
+      <c r="B169" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="C169" s="27" t="s">
+      <c r="C169" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="D169" s="28" t="n">
+      <c r="D169" s="31" t="n">
         <v>70.3</v>
       </c>
-      <c r="E169" s="28" t="n">
+      <c r="E169" s="31" t="n">
         <v>87.5</v>
       </c>
-      <c r="F169" s="28" t="n">
+      <c r="F169" s="31" t="n">
         <v>72.65</v>
       </c>
-      <c r="G169" s="29" t="n">
+      <c r="G169" s="32" t="n">
         <v>89.7</v>
       </c>
-      <c r="H169" s="28" t="n">
+      <c r="H169" s="31" t="n">
         <v>35.3</v>
       </c>
       <c r="I169" s="3" t="n">
@@ -8034,28 +8637,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="170">
-      <c r="A170" s="33" t="n">
+      <c r="A170" s="36" t="n">
         <v>160</v>
       </c>
       <c r="B170" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="C170" s="27" t="s">
+      <c r="C170" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="D170" s="28" t="n">
+      <c r="D170" s="31" t="n">
         <v>66.1</v>
       </c>
-      <c r="E170" s="28" t="n">
+      <c r="E170" s="31" t="n">
         <v>94.4</v>
       </c>
-      <c r="F170" s="28" t="n">
+      <c r="F170" s="31" t="n">
         <v>71.5</v>
       </c>
-      <c r="G170" s="29" t="n">
+      <c r="G170" s="32" t="n">
         <v>96.35</v>
       </c>
-      <c r="H170" s="28" t="n">
+      <c r="H170" s="31" t="n">
         <v>63.25</v>
       </c>
       <c r="I170" s="3" t="n">
@@ -8063,28 +8666,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="171">
-      <c r="A171" s="33" t="n">
+      <c r="A171" s="36" t="n">
         <v>161</v>
       </c>
-      <c r="B171" s="26" t="s">
+      <c r="B171" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="C171" s="27" t="s">
+      <c r="C171" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="D171" s="28" t="n">
+      <c r="D171" s="31" t="n">
         <v>60.4</v>
       </c>
-      <c r="E171" s="28" t="n">
+      <c r="E171" s="31" t="n">
         <v>68.7</v>
       </c>
-      <c r="F171" s="28" t="n">
+      <c r="F171" s="31" t="n">
         <v>62.3</v>
       </c>
-      <c r="G171" s="29" t="n">
+      <c r="G171" s="32" t="n">
         <v>72.55</v>
       </c>
-      <c r="H171" s="28" t="n">
+      <c r="H171" s="31" t="n">
         <v>18</v>
       </c>
       <c r="I171" s="3" t="n">
@@ -8092,28 +8695,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="172">
-      <c r="A172" s="33" t="n">
+      <c r="A172" s="36" t="n">
         <v>162</v>
       </c>
-      <c r="B172" s="26" t="s">
+      <c r="B172" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="C172" s="27" t="s">
+      <c r="C172" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="D172" s="28" t="n">
+      <c r="D172" s="31" t="n">
         <v>65.5</v>
       </c>
-      <c r="E172" s="28" t="n">
+      <c r="E172" s="31" t="n">
         <v>75</v>
       </c>
-      <c r="F172" s="28" t="n">
+      <c r="F172" s="31" t="n">
         <v>69.45</v>
       </c>
-      <c r="G172" s="29" t="n">
+      <c r="G172" s="32" t="n">
         <v>78.9</v>
       </c>
-      <c r="H172" s="28" t="n">
+      <c r="H172" s="31" t="n">
         <v>20.8</v>
       </c>
       <c r="I172" s="3" t="n">
@@ -8121,28 +8724,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="173">
-      <c r="A173" s="33" t="n">
+      <c r="A173" s="36" t="n">
         <v>163</v>
       </c>
-      <c r="B173" s="34" t="s">
+      <c r="B173" s="37" t="s">
         <v>336</v>
       </c>
-      <c r="C173" s="27" t="s">
+      <c r="C173" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="D173" s="30" t="s">
+      <c r="D173" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E173" s="30" t="s">
+      <c r="E173" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F173" s="30" t="s">
+      <c r="F173" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G173" s="30" t="s">
+      <c r="G173" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H173" s="30" t="s">
+      <c r="H173" s="33" t="s">
         <v>25</v>
       </c>
       <c r="I173" s="3" t="n">
@@ -8150,28 +8753,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="174">
-      <c r="A174" s="33" t="n">
+      <c r="A174" s="36" t="n">
         <v>164</v>
       </c>
-      <c r="B174" s="26" t="s">
+      <c r="B174" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="C174" s="27" t="s">
+      <c r="C174" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="D174" s="28" t="n">
+      <c r="D174" s="31" t="n">
         <v>51.4</v>
       </c>
-      <c r="E174" s="28" t="n">
+      <c r="E174" s="31" t="n">
         <v>58.55</v>
       </c>
-      <c r="F174" s="28" t="n">
+      <c r="F174" s="31" t="n">
         <v>52.7</v>
       </c>
-      <c r="G174" s="29" t="n">
+      <c r="G174" s="32" t="n">
         <v>60.6</v>
       </c>
-      <c r="H174" s="28" t="n">
+      <c r="H174" s="31" t="n">
         <v>10.6</v>
       </c>
       <c r="I174" s="3" t="n">
@@ -8179,28 +8782,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="175">
-      <c r="A175" s="33" t="n">
+      <c r="A175" s="36" t="n">
         <v>165</v>
       </c>
-      <c r="B175" s="26" t="s">
+      <c r="B175" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="C175" s="27" t="s">
+      <c r="C175" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="D175" s="28" t="n">
+      <c r="D175" s="31" t="n">
         <v>47.7</v>
       </c>
-      <c r="E175" s="28" t="n">
+      <c r="E175" s="31" t="n">
         <v>51.4</v>
       </c>
-      <c r="F175" s="28" t="n">
+      <c r="F175" s="31" t="n">
         <v>50.1</v>
       </c>
-      <c r="G175" s="29" t="n">
+      <c r="G175" s="32" t="n">
         <v>53.75</v>
       </c>
-      <c r="H175" s="28" t="n">
+      <c r="H175" s="31" t="n">
         <v>10.3</v>
       </c>
       <c r="I175" s="3" t="n">
@@ -8208,28 +8811,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="176">
-      <c r="A176" s="33" t="n">
+      <c r="A176" s="36" t="n">
         <v>166</v>
       </c>
-      <c r="B176" s="26" t="s">
+      <c r="B176" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="C176" s="27" t="s">
+      <c r="C176" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="D176" s="28" t="n">
+      <c r="D176" s="31" t="n">
         <v>50.3</v>
       </c>
-      <c r="E176" s="28" t="n">
+      <c r="E176" s="31" t="n">
         <v>69.4</v>
       </c>
-      <c r="F176" s="28" t="n">
+      <c r="F176" s="31" t="n">
         <v>56.5</v>
       </c>
-      <c r="G176" s="29" t="n">
+      <c r="G176" s="32" t="n">
         <v>79.85</v>
       </c>
-      <c r="H176" s="28" t="n">
+      <c r="H176" s="31" t="n">
         <v>41.4</v>
       </c>
       <c r="I176" s="3" t="n">
@@ -8237,28 +8840,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="177">
-      <c r="A177" s="33" t="n">
+      <c r="A177" s="36" t="n">
         <v>167</v>
       </c>
-      <c r="B177" s="26" t="s">
+      <c r="B177" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="C177" s="27" t="s">
+      <c r="C177" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="D177" s="28" t="n">
+      <c r="D177" s="31" t="n">
         <v>78.35</v>
       </c>
-      <c r="E177" s="28" t="n">
+      <c r="E177" s="31" t="n">
         <v>92.1</v>
       </c>
-      <c r="F177" s="28" t="n">
+      <c r="F177" s="31" t="n">
         <v>80.2</v>
       </c>
-      <c r="G177" s="29" t="n">
+      <c r="G177" s="32" t="n">
         <v>94.1</v>
       </c>
-      <c r="H177" s="28" t="n">
+      <c r="H177" s="31" t="n">
         <v>27.8</v>
       </c>
       <c r="I177" s="3" t="n">
@@ -8266,28 +8869,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="178">
-      <c r="A178" s="33" t="n">
+      <c r="A178" s="36" t="n">
         <v>168</v>
       </c>
-      <c r="B178" s="26" t="s">
+      <c r="B178" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="C178" s="27" t="s">
+      <c r="C178" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="D178" s="28" t="n">
+      <c r="D178" s="31" t="n">
         <v>73.3</v>
       </c>
-      <c r="E178" s="28" t="n">
+      <c r="E178" s="31" t="n">
         <v>89.95</v>
       </c>
-      <c r="F178" s="28" t="n">
+      <c r="F178" s="31" t="n">
         <v>76</v>
       </c>
-      <c r="G178" s="29" t="n">
+      <c r="G178" s="32" t="n">
         <v>93</v>
       </c>
-      <c r="H178" s="28" t="n">
+      <c r="H178" s="31" t="n">
         <v>31.85</v>
       </c>
       <c r="I178" s="3" t="n">
@@ -8295,28 +8898,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="179">
-      <c r="A179" s="33" t="n">
+      <c r="A179" s="36" t="n">
         <v>169</v>
       </c>
-      <c r="B179" s="26" t="s">
+      <c r="B179" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="C179" s="27" t="s">
+      <c r="C179" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="D179" s="28" t="n">
+      <c r="D179" s="31" t="n">
         <v>164.75</v>
       </c>
-      <c r="E179" s="28" t="n">
+      <c r="E179" s="31" t="n">
         <v>178.85</v>
       </c>
-      <c r="F179" s="28" t="n">
+      <c r="F179" s="31" t="n">
         <v>166.75</v>
       </c>
-      <c r="G179" s="29" t="n">
+      <c r="G179" s="32" t="n">
         <v>180.85</v>
       </c>
-      <c r="H179" s="28" t="n">
+      <c r="H179" s="31" t="n">
         <v>28.25</v>
       </c>
       <c r="I179" s="3" t="n">
@@ -8324,28 +8927,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="180">
-      <c r="A180" s="33" t="n">
+      <c r="A180" s="36" t="n">
         <v>170</v>
       </c>
-      <c r="B180" s="39" t="s">
+      <c r="B180" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="C180" s="27" t="s">
+      <c r="C180" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="D180" s="28" t="n">
+      <c r="D180" s="31" t="n">
         <v>164.75</v>
       </c>
-      <c r="E180" s="28" t="n">
+      <c r="E180" s="31" t="n">
         <v>178.85</v>
       </c>
-      <c r="F180" s="28" t="n">
+      <c r="F180" s="31" t="n">
         <v>166.75</v>
       </c>
-      <c r="G180" s="29" t="n">
+      <c r="G180" s="32" t="n">
         <v>180.8</v>
       </c>
-      <c r="H180" s="28" t="n">
+      <c r="H180" s="31" t="n">
         <v>28.25</v>
       </c>
       <c r="I180" s="3" t="n">
@@ -8353,28 +8956,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="181">
-      <c r="A181" s="33" t="n">
+      <c r="A181" s="36" t="n">
         <v>171</v>
       </c>
-      <c r="B181" s="26" t="s">
+      <c r="B181" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="C181" s="27" t="s">
+      <c r="C181" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="D181" s="28" t="n">
+      <c r="D181" s="31" t="n">
         <v>56.25</v>
       </c>
-      <c r="E181" s="28" t="n">
+      <c r="E181" s="31" t="n">
         <v>70.6</v>
       </c>
-      <c r="F181" s="28" t="n">
+      <c r="F181" s="31" t="n">
         <v>71.75</v>
       </c>
-      <c r="G181" s="29" t="n">
+      <c r="G181" s="32" t="n">
         <v>86.25</v>
       </c>
-      <c r="H181" s="28" t="n">
+      <c r="H181" s="31" t="n">
         <v>28.95</v>
       </c>
       <c r="I181" s="3" t="n">
@@ -8382,28 +8985,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="182">
-      <c r="A182" s="33" t="n">
+      <c r="A182" s="36" t="n">
         <v>172</v>
       </c>
-      <c r="B182" s="26" t="s">
+      <c r="B182" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="C182" s="27" t="s">
+      <c r="C182" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="D182" s="28" t="n">
+      <c r="D182" s="31" t="n">
         <v>60.05</v>
       </c>
-      <c r="E182" s="28" t="n">
+      <c r="E182" s="31" t="n">
         <v>69.05</v>
       </c>
-      <c r="F182" s="28" t="n">
+      <c r="F182" s="31" t="n">
         <v>61.95</v>
       </c>
-      <c r="G182" s="29" t="n">
+      <c r="G182" s="32" t="n">
         <v>70.55</v>
       </c>
-      <c r="H182" s="28" t="n">
+      <c r="H182" s="31" t="n">
         <v>17.95</v>
       </c>
       <c r="I182" s="3" t="n">
@@ -8411,28 +9014,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="183">
-      <c r="A183" s="33" t="n">
+      <c r="A183" s="36" t="n">
         <v>173</v>
       </c>
-      <c r="B183" s="26" t="s">
+      <c r="B183" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="C183" s="27" t="s">
+      <c r="C183" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="D183" s="28" t="n">
+      <c r="D183" s="31" t="n">
         <v>57.5</v>
       </c>
-      <c r="E183" s="28" t="n">
+      <c r="E183" s="31" t="n">
         <v>66.2</v>
       </c>
-      <c r="F183" s="28" t="n">
+      <c r="F183" s="31" t="n">
         <v>59.4</v>
       </c>
-      <c r="G183" s="29" t="n">
+      <c r="G183" s="32" t="n">
         <v>67.85</v>
       </c>
-      <c r="H183" s="28" t="n">
+      <c r="H183" s="31" t="n">
         <v>19.25</v>
       </c>
       <c r="I183" s="3" t="n">
@@ -8440,28 +9043,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="184">
-      <c r="A184" s="33" t="n">
+      <c r="A184" s="36" t="n">
         <v>174</v>
       </c>
-      <c r="B184" s="26" t="s">
+      <c r="B184" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="C184" s="27" t="s">
+      <c r="C184" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="D184" s="28" t="n">
+      <c r="D184" s="31" t="n">
         <v>80.15</v>
       </c>
-      <c r="E184" s="28" t="n">
+      <c r="E184" s="31" t="n">
         <v>93.15</v>
       </c>
-      <c r="F184" s="28" t="n">
+      <c r="F184" s="31" t="n">
         <v>82.25</v>
       </c>
-      <c r="G184" s="29" t="n">
+      <c r="G184" s="32" t="n">
         <v>95.35</v>
       </c>
-      <c r="H184" s="28" t="n">
+      <c r="H184" s="31" t="n">
         <v>26.1</v>
       </c>
       <c r="I184" s="3" t="n">
@@ -8469,28 +9072,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="185">
-      <c r="A185" s="33" t="n">
+      <c r="A185" s="36" t="n">
         <v>175</v>
       </c>
-      <c r="B185" s="26" t="s">
+      <c r="B185" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="C185" s="27" t="s">
+      <c r="C185" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="D185" s="28" t="n">
+      <c r="D185" s="31" t="n">
         <v>203.4</v>
       </c>
-      <c r="E185" s="28" t="n">
+      <c r="E185" s="31" t="n">
         <v>247.65</v>
       </c>
-      <c r="F185" s="28" t="n">
+      <c r="F185" s="31" t="n">
         <v>205.25</v>
       </c>
-      <c r="G185" s="29" t="n">
+      <c r="G185" s="32" t="n">
         <v>249.1</v>
       </c>
-      <c r="H185" s="28" t="n">
+      <c r="H185" s="31" t="n">
         <v>124.75</v>
       </c>
       <c r="I185" s="3" t="n">
@@ -8498,28 +9101,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="186">
-      <c r="A186" s="33" t="n">
+      <c r="A186" s="36" t="n">
         <v>176</v>
       </c>
-      <c r="B186" s="26" t="s">
+      <c r="B186" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="C186" s="27" t="s">
+      <c r="C186" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="D186" s="28" t="n">
+      <c r="D186" s="31" t="n">
         <v>75</v>
       </c>
-      <c r="E186" s="28" t="n">
+      <c r="E186" s="31" t="n">
         <v>89.4</v>
       </c>
-      <c r="F186" s="28" t="n">
+      <c r="F186" s="31" t="n">
         <v>77.35</v>
       </c>
-      <c r="G186" s="29" t="n">
+      <c r="G186" s="32" t="n">
         <v>90.95</v>
       </c>
-      <c r="H186" s="28" t="n">
+      <c r="H186" s="31" t="n">
         <v>28.95</v>
       </c>
       <c r="I186" s="3" t="n">
@@ -8527,28 +9130,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="187">
-      <c r="A187" s="33" t="n">
+      <c r="A187" s="36" t="n">
         <v>177</v>
       </c>
       <c r="B187" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="C187" s="27" t="s">
+      <c r="C187" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="D187" s="28" t="n">
+      <c r="D187" s="31" t="n">
         <v>62.7</v>
       </c>
-      <c r="E187" s="28" t="n">
+      <c r="E187" s="31" t="n">
         <v>89.9</v>
       </c>
-      <c r="F187" s="28" t="n">
+      <c r="F187" s="31" t="n">
         <v>73.5</v>
       </c>
-      <c r="G187" s="29" t="n">
+      <c r="G187" s="32" t="n">
         <v>100.15</v>
       </c>
-      <c r="H187" s="28" t="n">
+      <c r="H187" s="31" t="n">
         <v>57.4</v>
       </c>
       <c r="I187" s="3" t="n">
@@ -8556,28 +9159,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="188">
-      <c r="A188" s="33" t="n">
+      <c r="A188" s="36" t="n">
         <v>178</v>
       </c>
-      <c r="B188" s="26" t="s">
+      <c r="B188" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="C188" s="27" t="s">
+      <c r="C188" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="D188" s="28" t="n">
+      <c r="D188" s="31" t="n">
         <v>61.1</v>
       </c>
-      <c r="E188" s="28" t="n">
+      <c r="E188" s="31" t="n">
         <v>80.5</v>
       </c>
-      <c r="F188" s="28" t="n">
+      <c r="F188" s="31" t="n">
         <v>62.7</v>
       </c>
-      <c r="G188" s="29" t="n">
+      <c r="G188" s="32" t="n">
         <v>81.95</v>
       </c>
-      <c r="H188" s="28" t="n">
+      <c r="H188" s="31" t="n">
         <v>38.65</v>
       </c>
       <c r="I188" s="3" t="n">
@@ -8585,28 +9188,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="189">
-      <c r="A189" s="33" t="n">
+      <c r="A189" s="36" t="n">
         <v>179</v>
       </c>
-      <c r="B189" s="26" t="s">
+      <c r="B189" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="C189" s="27" t="s">
+      <c r="C189" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="D189" s="28" t="n">
+      <c r="D189" s="31" t="n">
         <v>70.15</v>
       </c>
-      <c r="E189" s="28" t="n">
+      <c r="E189" s="31" t="n">
         <v>82.8</v>
       </c>
-      <c r="F189" s="28" t="n">
+      <c r="F189" s="31" t="n">
         <v>76.7</v>
       </c>
-      <c r="G189" s="29" t="n">
+      <c r="G189" s="32" t="n">
         <v>89.35</v>
       </c>
-      <c r="H189" s="28" t="n">
+      <c r="H189" s="31" t="n">
         <v>25.4</v>
       </c>
       <c r="I189" s="3" t="n">
@@ -8614,28 +9217,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="190">
-      <c r="A190" s="33" t="n">
+      <c r="A190" s="36" t="n">
         <v>180</v>
       </c>
-      <c r="B190" s="26" t="s">
+      <c r="B190" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="C190" s="27" t="s">
+      <c r="C190" s="30" t="s">
         <v>372</v>
       </c>
-      <c r="D190" s="28" t="n">
+      <c r="D190" s="31" t="n">
         <v>66.8</v>
       </c>
-      <c r="E190" s="28" t="n">
+      <c r="E190" s="31" t="n">
         <v>73.55</v>
       </c>
-      <c r="F190" s="28" t="n">
+      <c r="F190" s="31" t="n">
         <v>69.85</v>
       </c>
-      <c r="G190" s="29" t="n">
+      <c r="G190" s="32" t="n">
         <v>76.75</v>
       </c>
-      <c r="H190" s="28" t="n">
+      <c r="H190" s="31" t="n">
         <v>10.3</v>
       </c>
       <c r="I190" s="3" t="n">
@@ -8643,28 +9246,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="191">
-      <c r="A191" s="33" t="n">
+      <c r="A191" s="36" t="n">
         <v>181</v>
       </c>
-      <c r="B191" s="26" t="s">
+      <c r="B191" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="C191" s="27" t="s">
+      <c r="C191" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="D191" s="28" t="n">
+      <c r="D191" s="31" t="n">
         <v>70.9</v>
       </c>
-      <c r="E191" s="28" t="n">
+      <c r="E191" s="31" t="n">
         <v>73.75</v>
       </c>
-      <c r="F191" s="28" t="n">
+      <c r="F191" s="31" t="n">
         <v>75.3</v>
       </c>
-      <c r="G191" s="29" t="n">
+      <c r="G191" s="32" t="n">
         <v>79.15</v>
       </c>
-      <c r="H191" s="28" t="n">
+      <c r="H191" s="31" t="n">
         <v>7.4</v>
       </c>
       <c r="I191" s="3" t="n">
@@ -8672,28 +9275,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="192">
-      <c r="A192" s="33" t="n">
+      <c r="A192" s="36" t="n">
         <v>182</v>
       </c>
-      <c r="B192" s="26" t="s">
+      <c r="B192" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="C192" s="27" t="s">
+      <c r="C192" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="D192" s="28" t="n">
+      <c r="D192" s="31" t="n">
         <v>77.35</v>
       </c>
-      <c r="E192" s="28" t="n">
+      <c r="E192" s="31" t="n">
         <v>90.35</v>
       </c>
-      <c r="F192" s="28" t="n">
+      <c r="F192" s="31" t="n">
         <v>79.7</v>
       </c>
-      <c r="G192" s="29" t="n">
+      <c r="G192" s="32" t="n">
         <v>92.75</v>
       </c>
-      <c r="H192" s="28" t="n">
+      <c r="H192" s="31" t="n">
         <v>28.55</v>
       </c>
       <c r="I192" s="3" t="n">
@@ -8701,28 +9304,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="193">
-      <c r="A193" s="33" t="n">
+      <c r="A193" s="36" t="n">
         <v>183</v>
       </c>
-      <c r="B193" s="26" t="s">
+      <c r="B193" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="C193" s="27" t="s">
+      <c r="C193" s="30" t="s">
         <v>378</v>
       </c>
-      <c r="D193" s="28" t="n">
+      <c r="D193" s="31" t="n">
         <v>70.45</v>
       </c>
-      <c r="E193" s="28" t="n">
+      <c r="E193" s="31" t="n">
         <v>74.5</v>
       </c>
-      <c r="F193" s="28" t="n">
+      <c r="F193" s="31" t="n">
         <v>70.45</v>
       </c>
-      <c r="G193" s="29" t="n">
+      <c r="G193" s="32" t="n">
         <v>76.95</v>
       </c>
-      <c r="H193" s="28" t="n">
+      <c r="H193" s="31" t="n">
         <v>9.4</v>
       </c>
       <c r="I193" s="3" t="n">
@@ -8730,28 +9333,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="194">
-      <c r="A194" s="33" t="n">
+      <c r="A194" s="36" t="n">
         <v>184</v>
       </c>
-      <c r="B194" s="26" t="s">
+      <c r="B194" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="C194" s="27" t="s">
+      <c r="C194" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="D194" s="30" t="s">
+      <c r="D194" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="E194" s="30" t="s">
+      <c r="E194" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F194" s="30" t="s">
+      <c r="F194" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="G194" s="30" t="s">
+      <c r="G194" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="H194" s="30" t="s">
+      <c r="H194" s="33" t="s">
         <v>82</v>
       </c>
       <c r="I194" s="3" t="n">
@@ -8759,28 +9362,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="195">
-      <c r="A195" s="33" t="n">
+      <c r="A195" s="36" t="n">
         <v>185</v>
       </c>
-      <c r="B195" s="26" t="s">
+      <c r="B195" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="C195" s="27" t="s">
+      <c r="C195" s="30" t="s">
         <v>382</v>
       </c>
-      <c r="D195" s="28" t="n">
+      <c r="D195" s="31" t="n">
         <v>53.5</v>
       </c>
-      <c r="E195" s="28" t="n">
+      <c r="E195" s="31" t="n">
         <v>75.85</v>
       </c>
-      <c r="F195" s="28" t="n">
+      <c r="F195" s="31" t="n">
         <v>75.4</v>
       </c>
-      <c r="G195" s="29" t="n">
+      <c r="G195" s="32" t="n">
         <v>97.75</v>
       </c>
-      <c r="H195" s="28" t="n">
+      <c r="H195" s="31" t="n">
         <v>47</v>
       </c>
       <c r="I195" s="3" t="n">
@@ -8788,28 +9391,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="196">
-      <c r="A196" s="33" t="n">
+      <c r="A196" s="36" t="n">
         <v>186</v>
       </c>
-      <c r="B196" s="26" t="s">
+      <c r="B196" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="C196" s="27" t="s">
+      <c r="C196" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="D196" s="28" t="n">
+      <c r="D196" s="31" t="n">
         <v>71.35</v>
       </c>
-      <c r="E196" s="28" t="n">
+      <c r="E196" s="31" t="n">
         <v>103.15</v>
       </c>
-      <c r="F196" s="28" t="n">
+      <c r="F196" s="31" t="n">
         <v>82.6</v>
       </c>
-      <c r="G196" s="29" t="n">
+      <c r="G196" s="32" t="n">
         <v>109.35</v>
       </c>
-      <c r="H196" s="28" t="n">
+      <c r="H196" s="31" t="n">
         <v>56.55</v>
       </c>
       <c r="I196" s="3" t="n">
@@ -8817,28 +9420,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="197">
-      <c r="A197" s="33" t="n">
+      <c r="A197" s="36" t="n">
         <v>187</v>
       </c>
-      <c r="B197" s="26" t="s">
+      <c r="B197" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="C197" s="27" t="s">
+      <c r="C197" s="30" t="s">
         <v>386</v>
       </c>
-      <c r="D197" s="28" t="n">
+      <c r="D197" s="31" t="n">
         <v>62.5</v>
       </c>
-      <c r="E197" s="28" t="n">
+      <c r="E197" s="31" t="n">
         <v>73.8</v>
       </c>
-      <c r="F197" s="28" t="n">
+      <c r="F197" s="31" t="n">
         <v>63.9</v>
       </c>
-      <c r="G197" s="29" t="n">
+      <c r="G197" s="32" t="n">
         <v>75.5</v>
       </c>
-      <c r="H197" s="28" t="n">
+      <c r="H197" s="31" t="n">
         <v>22.45</v>
       </c>
       <c r="I197" s="3" t="n">
@@ -8846,28 +9449,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="198">
-      <c r="A198" s="33" t="n">
+      <c r="A198" s="36" t="n">
         <v>188</v>
       </c>
-      <c r="B198" s="26" t="s">
+      <c r="B198" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="C198" s="27" t="s">
+      <c r="C198" s="30" t="s">
         <v>388</v>
       </c>
-      <c r="D198" s="30" t="s">
+      <c r="D198" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="E198" s="30" t="s">
+      <c r="E198" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F198" s="30" t="s">
+      <c r="F198" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="G198" s="30" t="s">
+      <c r="G198" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="H198" s="30" t="s">
+      <c r="H198" s="33" t="s">
         <v>82</v>
       </c>
       <c r="I198" s="3" t="n">
@@ -8875,28 +9478,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="199">
-      <c r="A199" s="33" t="n">
+      <c r="A199" s="36" t="n">
         <v>189</v>
       </c>
-      <c r="B199" s="26" t="s">
+      <c r="B199" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="C199" s="27" t="s">
+      <c r="C199" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="D199" s="28" t="n">
+      <c r="D199" s="31" t="n">
         <v>54.7</v>
       </c>
-      <c r="E199" s="28" t="n">
+      <c r="E199" s="31" t="n">
         <v>61.25</v>
       </c>
-      <c r="F199" s="28" t="n">
+      <c r="F199" s="31" t="n">
         <v>64.05</v>
       </c>
-      <c r="G199" s="29" t="n">
+      <c r="G199" s="32" t="n">
         <v>68.95</v>
       </c>
-      <c r="H199" s="28" t="n">
+      <c r="H199" s="31" t="n">
         <v>13.2</v>
       </c>
       <c r="I199" s="3" t="n">
@@ -8904,28 +9507,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="200">
-      <c r="A200" s="33" t="n">
+      <c r="A200" s="36" t="n">
         <v>190</v>
       </c>
-      <c r="B200" s="26" t="s">
+      <c r="B200" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="C200" s="27" t="s">
+      <c r="C200" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="D200" s="28" t="n">
+      <c r="D200" s="31" t="n">
         <v>176.55</v>
       </c>
-      <c r="E200" s="28" t="n">
+      <c r="E200" s="31" t="n">
         <v>200.95</v>
       </c>
-      <c r="F200" s="28" t="n">
+      <c r="F200" s="31" t="n">
         <v>178.85</v>
       </c>
-      <c r="G200" s="29" t="n">
+      <c r="G200" s="32" t="n">
         <v>200.95</v>
       </c>
-      <c r="H200" s="28" t="n">
+      <c r="H200" s="31" t="n">
         <v>38.95</v>
       </c>
       <c r="I200" s="3" t="n">
@@ -8933,28 +9536,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="201">
-      <c r="A201" s="33" t="n">
+      <c r="A201" s="36" t="n">
         <v>191</v>
       </c>
-      <c r="B201" s="26" t="s">
+      <c r="B201" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="C201" s="27" t="s">
+      <c r="C201" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="D201" s="28" t="n">
+      <c r="D201" s="31" t="n">
         <v>42.6</v>
       </c>
-      <c r="E201" s="28" t="n">
+      <c r="E201" s="31" t="n">
         <v>50.05</v>
       </c>
-      <c r="F201" s="28" t="n">
+      <c r="F201" s="31" t="n">
         <v>53</v>
       </c>
-      <c r="G201" s="29" t="n">
+      <c r="G201" s="32" t="n">
         <v>57.9</v>
       </c>
-      <c r="H201" s="28" t="n">
+      <c r="H201" s="31" t="n">
         <v>11.65</v>
       </c>
       <c r="I201" s="3" t="n">
@@ -8962,28 +9565,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="202">
-      <c r="A202" s="33" t="n">
+      <c r="A202" s="36" t="n">
         <v>192</v>
       </c>
-      <c r="B202" s="26" t="s">
+      <c r="B202" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="C202" s="27" t="s">
+      <c r="C202" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="D202" s="28" t="n">
+      <c r="D202" s="31" t="n">
         <v>68</v>
       </c>
-      <c r="E202" s="28" t="n">
+      <c r="E202" s="31" t="n">
         <v>84.9</v>
       </c>
-      <c r="F202" s="28" t="n">
+      <c r="F202" s="31" t="n">
         <v>69.5</v>
       </c>
-      <c r="G202" s="29" t="n">
+      <c r="G202" s="32" t="n">
         <v>86.4</v>
       </c>
-      <c r="H202" s="28" t="n">
+      <c r="H202" s="31" t="n">
         <v>33.75</v>
       </c>
       <c r="I202" s="3" t="n">
@@ -8991,28 +9594,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="203">
-      <c r="A203" s="33" t="n">
+      <c r="A203" s="36" t="n">
         <v>193</v>
       </c>
-      <c r="B203" s="26" t="s">
+      <c r="B203" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="C203" s="27" t="s">
+      <c r="C203" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="D203" s="28" t="n">
+      <c r="D203" s="31" t="n">
         <v>84.1</v>
       </c>
-      <c r="E203" s="28" t="n">
+      <c r="E203" s="31" t="n">
         <v>106.4</v>
       </c>
-      <c r="F203" s="28" t="n">
+      <c r="F203" s="31" t="n">
         <v>86.2</v>
       </c>
-      <c r="G203" s="29" t="n">
+      <c r="G203" s="32" t="n">
         <v>108.45</v>
       </c>
-      <c r="H203" s="28" t="n">
+      <c r="H203" s="31" t="n">
         <v>43.65</v>
       </c>
       <c r="I203" s="3" t="n">
@@ -9020,28 +9623,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="204">
-      <c r="A204" s="33" t="n">
+      <c r="A204" s="36" t="n">
         <v>194</v>
       </c>
-      <c r="B204" s="26" t="s">
+      <c r="B204" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="C204" s="27" t="s">
+      <c r="C204" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="D204" s="28" t="n">
+      <c r="D204" s="31" t="n">
         <v>63.6</v>
       </c>
-      <c r="E204" s="28" t="n">
+      <c r="E204" s="31" t="n">
         <v>76</v>
       </c>
-      <c r="F204" s="28" t="n">
+      <c r="F204" s="31" t="n">
         <v>65.1</v>
       </c>
-      <c r="G204" s="29" t="n">
+      <c r="G204" s="32" t="n">
         <v>77.6</v>
       </c>
-      <c r="H204" s="28" t="n">
+      <c r="H204" s="31" t="n">
         <v>24.95</v>
       </c>
       <c r="I204" s="3" t="n">
@@ -9049,28 +9652,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="205">
-      <c r="A205" s="33" t="n">
+      <c r="A205" s="36" t="n">
         <v>195</v>
       </c>
-      <c r="B205" s="26" t="s">
+      <c r="B205" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="C205" s="27" t="s">
+      <c r="C205" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="D205" s="28" t="n">
+      <c r="D205" s="31" t="n">
         <v>51.3</v>
       </c>
-      <c r="E205" s="28" t="n">
+      <c r="E205" s="31" t="n">
         <v>56.25</v>
       </c>
-      <c r="F205" s="28" t="n">
+      <c r="F205" s="31" t="n">
         <v>53.25</v>
       </c>
-      <c r="G205" s="29" t="n">
+      <c r="G205" s="32" t="n">
         <v>57.75</v>
       </c>
-      <c r="H205" s="28" t="n">
+      <c r="H205" s="31" t="n">
         <v>9.25</v>
       </c>
       <c r="I205" s="3" t="n">
@@ -9078,28 +9681,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="206">
-      <c r="A206" s="33" t="n">
+      <c r="A206" s="36" t="n">
         <v>196</v>
       </c>
-      <c r="B206" s="26" t="s">
+      <c r="B206" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="C206" s="27" t="s">
+      <c r="C206" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="D206" s="28" t="n">
+      <c r="D206" s="31" t="n">
         <v>84.1</v>
       </c>
-      <c r="E206" s="28" t="n">
+      <c r="E206" s="31" t="n">
         <v>107.7</v>
       </c>
-      <c r="F206" s="28" t="n">
+      <c r="F206" s="31" t="n">
         <v>85.65</v>
       </c>
-      <c r="G206" s="29" t="n">
+      <c r="G206" s="32" t="n">
         <v>110.4</v>
       </c>
-      <c r="H206" s="28" t="n">
+      <c r="H206" s="31" t="n">
         <v>48.95</v>
       </c>
       <c r="I206" s="3" t="n">
@@ -9107,28 +9710,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="207">
-      <c r="A207" s="33" t="n">
+      <c r="A207" s="36" t="n">
         <v>197</v>
       </c>
-      <c r="B207" s="26" t="s">
+      <c r="B207" s="29" t="s">
         <v>405</v>
       </c>
-      <c r="C207" s="27" t="s">
+      <c r="C207" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="D207" s="28" t="n">
+      <c r="D207" s="31" t="n">
         <v>83.85</v>
       </c>
-      <c r="E207" s="28" t="n">
+      <c r="E207" s="31" t="n">
         <v>88.2</v>
       </c>
-      <c r="F207" s="28" t="n">
+      <c r="F207" s="31" t="n">
         <v>86.25</v>
       </c>
-      <c r="G207" s="29" t="n">
+      <c r="G207" s="32" t="n">
         <v>90.65</v>
       </c>
-      <c r="H207" s="28" t="n">
+      <c r="H207" s="31" t="n">
         <v>10.2</v>
       </c>
       <c r="I207" s="3" t="n">
@@ -9136,28 +9739,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="208">
-      <c r="A208" s="33" t="n">
+      <c r="A208" s="36" t="n">
         <v>198</v>
       </c>
-      <c r="B208" s="26" t="s">
+      <c r="B208" s="29" t="s">
         <v>407</v>
       </c>
-      <c r="C208" s="27" t="s">
+      <c r="C208" s="30" t="s">
         <v>408</v>
       </c>
-      <c r="D208" s="28" t="n">
+      <c r="D208" s="31" t="n">
         <v>92.1</v>
       </c>
-      <c r="E208" s="28" t="n">
+      <c r="E208" s="31" t="n">
         <v>97.3</v>
       </c>
-      <c r="F208" s="28" t="n">
+      <c r="F208" s="31" t="n">
         <v>94.1</v>
       </c>
-      <c r="G208" s="29" t="n">
+      <c r="G208" s="32" t="n">
         <v>99.25</v>
       </c>
-      <c r="H208" s="28" t="n">
+      <c r="H208" s="31" t="n">
         <v>10.25</v>
       </c>
       <c r="I208" s="3" t="n">
@@ -9165,28 +9768,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="209">
-      <c r="A209" s="33" t="n">
+      <c r="A209" s="36" t="n">
         <v>199</v>
       </c>
-      <c r="B209" s="26" t="s">
+      <c r="B209" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="C209" s="27" t="s">
+      <c r="C209" s="30" t="s">
         <v>410</v>
       </c>
-      <c r="D209" s="28" t="n">
+      <c r="D209" s="31" t="n">
         <v>55.6</v>
       </c>
-      <c r="E209" s="28" t="n">
+      <c r="E209" s="31" t="n">
         <v>64.8</v>
       </c>
-      <c r="F209" s="28" t="n">
+      <c r="F209" s="31" t="n">
         <v>57.15</v>
       </c>
-      <c r="G209" s="29" t="n">
+      <c r="G209" s="32" t="n">
         <v>66.5</v>
       </c>
-      <c r="H209" s="28" t="n">
+      <c r="H209" s="31" t="n">
         <v>19.65</v>
       </c>
       <c r="I209" s="3" t="n">
@@ -9194,28 +9797,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="210">
-      <c r="A210" s="33" t="n">
+      <c r="A210" s="36" t="n">
         <v>200</v>
       </c>
-      <c r="B210" s="26" t="s">
+      <c r="B210" s="29" t="s">
         <v>411</v>
       </c>
-      <c r="C210" s="27" t="s">
+      <c r="C210" s="30" t="s">
         <v>412</v>
       </c>
-      <c r="D210" s="28" t="n">
+      <c r="D210" s="31" t="n">
         <v>70.3</v>
       </c>
-      <c r="E210" s="28" t="n">
+      <c r="E210" s="31" t="n">
         <v>89.95</v>
       </c>
-      <c r="F210" s="28" t="n">
+      <c r="F210" s="31" t="n">
         <v>72.85</v>
       </c>
-      <c r="G210" s="29" t="n">
+      <c r="G210" s="32" t="n">
         <v>93.05</v>
       </c>
-      <c r="H210" s="28" t="n">
+      <c r="H210" s="31" t="n">
         <v>41.6</v>
       </c>
       <c r="I210" s="3" t="n">
@@ -9223,28 +9826,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="211">
-      <c r="A211" s="33" t="n">
+      <c r="A211" s="36" t="n">
         <v>201</v>
       </c>
-      <c r="B211" s="26" t="s">
+      <c r="B211" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="C211" s="27" t="s">
+      <c r="C211" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="D211" s="28" t="n">
+      <c r="D211" s="31" t="n">
         <v>145.05</v>
       </c>
-      <c r="E211" s="28" t="n">
+      <c r="E211" s="31" t="n">
         <v>177.45</v>
       </c>
-      <c r="F211" s="28" t="n">
+      <c r="F211" s="31" t="n">
         <v>145.05</v>
       </c>
-      <c r="G211" s="29" t="n">
+      <c r="G211" s="32" t="n">
         <v>177.45</v>
       </c>
-      <c r="H211" s="28" t="n">
+      <c r="H211" s="31" t="n">
         <v>64.8</v>
       </c>
       <c r="I211" s="3" t="n">
@@ -9252,28 +9855,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="212">
-      <c r="A212" s="33" t="n">
+      <c r="A212" s="36" t="n">
         <v>202</v>
       </c>
-      <c r="B212" s="26" t="s">
+      <c r="B212" s="29" t="s">
         <v>415</v>
       </c>
-      <c r="C212" s="27" t="s">
+      <c r="C212" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="D212" s="28" t="n">
+      <c r="D212" s="31" t="n">
         <v>75.95</v>
       </c>
-      <c r="E212" s="28" t="n">
+      <c r="E212" s="31" t="n">
         <v>91.5</v>
       </c>
-      <c r="F212" s="28" t="n">
+      <c r="F212" s="31" t="n">
         <v>77.55</v>
       </c>
-      <c r="G212" s="29" t="n">
+      <c r="G212" s="32" t="n">
         <v>93</v>
       </c>
-      <c r="H212" s="28" t="n">
+      <c r="H212" s="31" t="n">
         <v>31.55</v>
       </c>
       <c r="I212" s="3" t="n">
@@ -9281,28 +9884,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="213">
-      <c r="A213" s="33" t="n">
+      <c r="A213" s="36" t="n">
         <v>203</v>
       </c>
-      <c r="B213" s="26" t="s">
+      <c r="B213" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="C213" s="27" t="s">
+      <c r="C213" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="D213" s="28" t="n">
+      <c r="D213" s="31" t="n">
         <v>62.4</v>
       </c>
-      <c r="E213" s="28" t="n">
+      <c r="E213" s="31" t="n">
         <v>66.65</v>
       </c>
-      <c r="F213" s="28" t="n">
+      <c r="F213" s="31" t="n">
         <v>64</v>
       </c>
-      <c r="G213" s="29" t="n">
+      <c r="G213" s="32" t="n">
         <v>68.15</v>
       </c>
-      <c r="H213" s="28" t="n">
+      <c r="H213" s="31" t="n">
         <v>7.9</v>
       </c>
       <c r="I213" s="3" t="n">
@@ -9310,28 +9913,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="214">
-      <c r="A214" s="33" t="n">
+      <c r="A214" s="36" t="n">
         <v>204</v>
       </c>
-      <c r="B214" s="26" t="s">
+      <c r="B214" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="C214" s="27" t="s">
+      <c r="C214" s="30" t="s">
         <v>420</v>
       </c>
-      <c r="D214" s="28" t="n">
+      <c r="D214" s="31" t="n">
         <v>81.6</v>
       </c>
-      <c r="E214" s="28" t="n">
+      <c r="E214" s="31" t="n">
         <v>91.7</v>
       </c>
-      <c r="F214" s="28" t="n">
+      <c r="F214" s="31" t="n">
         <v>84</v>
       </c>
-      <c r="G214" s="29" t="n">
+      <c r="G214" s="32" t="n">
         <v>94.1</v>
       </c>
-      <c r="H214" s="28" t="n">
+      <c r="H214" s="31" t="n">
         <v>26.35</v>
       </c>
       <c r="I214" s="3" t="n">
@@ -9339,28 +9942,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="215">
-      <c r="A215" s="33" t="n">
+      <c r="A215" s="36" t="n">
         <v>205</v>
       </c>
-      <c r="B215" s="26" t="s">
+      <c r="B215" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="C215" s="27" t="s">
+      <c r="C215" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="D215" s="28" t="n">
+      <c r="D215" s="31" t="n">
         <v>69.4</v>
       </c>
-      <c r="E215" s="28" t="n">
+      <c r="E215" s="31" t="n">
         <v>89.35</v>
       </c>
-      <c r="F215" s="28" t="n">
+      <c r="F215" s="31" t="n">
         <v>72.6</v>
       </c>
-      <c r="G215" s="29" t="n">
+      <c r="G215" s="32" t="n">
         <v>92.5</v>
       </c>
-      <c r="H215" s="28" t="n">
+      <c r="H215" s="31" t="n">
         <v>39.45</v>
       </c>
       <c r="I215" s="3" t="n">
@@ -9368,28 +9971,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="216">
-      <c r="A216" s="33" t="n">
+      <c r="A216" s="36" t="n">
         <v>206</v>
       </c>
-      <c r="B216" s="26" t="s">
+      <c r="B216" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="C216" s="27" t="s">
+      <c r="C216" s="30" t="s">
         <v>424</v>
       </c>
-      <c r="D216" s="28" t="n">
+      <c r="D216" s="31" t="n">
         <v>75.4</v>
       </c>
-      <c r="E216" s="28" t="n">
+      <c r="E216" s="31" t="n">
         <v>94.1</v>
       </c>
-      <c r="F216" s="28" t="n">
+      <c r="F216" s="31" t="n">
         <v>76.55</v>
       </c>
-      <c r="G216" s="29" t="n">
+      <c r="G216" s="32" t="n">
         <v>95.65</v>
       </c>
-      <c r="H216" s="28" t="n">
+      <c r="H216" s="31" t="n">
         <v>38.65</v>
       </c>
       <c r="I216" s="3" t="n">
@@ -9397,28 +10000,28 @@
       </c>
     </row>
     <row customHeight="true" ht="15" outlineLevel="0" r="217">
-      <c r="A217" s="33" t="n">
+      <c r="A217" s="36" t="n">
         <v>207</v>
       </c>
-      <c r="B217" s="26" t="s">
+      <c r="B217" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="C217" s="27" t="s">
+      <c r="C217" s="30" t="s">
         <v>426</v>
       </c>
-      <c r="D217" s="28" t="n">
+      <c r="D217" s="31" t="n">
         <v>98.15</v>
       </c>
-      <c r="E217" s="28" t="n">
+      <c r="E217" s="31" t="n">
         <v>113.95</v>
       </c>
-      <c r="F217" s="28" t="n">
+      <c r="F217" s="31" t="n">
         <v>99.75</v>
       </c>
-      <c r="G217" s="29" t="n">
+      <c r="G217" s="32" t="n">
         <v>115.5</v>
       </c>
-      <c r="H217" s="28" t="n">
+      <c r="H217" s="31" t="n">
         <v>28.4</v>
       </c>
       <c r="I217" s="3" t="n">
@@ -9480,15 +10083,15 @@
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
-      <c r="A1" s="40" t="n"/>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="42" t="n"/>
+      <c r="B1" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="C1" s="42" t="s"/>
-      <c r="D1" s="42" t="s"/>
-      <c r="E1" s="42" t="s"/>
-      <c r="F1" s="42" t="s"/>
-      <c r="G1" s="43" t="s"/>
+      <c r="C1" s="44" t="s"/>
+      <c r="D1" s="45" t="s"/>
+      <c r="E1" s="46" t="s"/>
+      <c r="F1" s="47" t="s"/>
+      <c r="G1" s="48" t="s"/>
       <c r="H1" s="4" t="n"/>
       <c r="I1" s="4" t="n"/>
       <c r="J1" s="4" t="n"/>
@@ -9546,17 +10149,17 @@
       <c r="BJ1" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="47.2499923706055" outlineLevel="0" r="2">
-      <c r="A2" s="44" t="n">
+      <c r="A2" s="49" t="n">
         <v>208</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="50" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="46" t="s"/>
-      <c r="D2" s="46" t="s"/>
-      <c r="E2" s="46" t="s"/>
-      <c r="F2" s="46" t="s"/>
-      <c r="G2" s="47" t="s"/>
+      <c r="C2" s="51" t="s"/>
+      <c r="D2" s="52" t="s"/>
+      <c r="E2" s="53" t="s"/>
+      <c r="F2" s="54" t="s"/>
+      <c r="G2" s="55" t="s"/>
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
@@ -9614,17 +10217,17 @@
       <c r="BJ2" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="44" t="n">
+      <c r="A3" s="49" t="n">
         <v>209</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="50" t="s">
         <v>429</v>
       </c>
-      <c r="C3" s="46" t="s"/>
-      <c r="D3" s="46" t="s"/>
-      <c r="E3" s="46" t="s"/>
-      <c r="F3" s="47" t="s"/>
-      <c r="G3" s="31" t="n">
+      <c r="C3" s="56" t="s"/>
+      <c r="D3" s="57" t="s"/>
+      <c r="E3" s="58" t="s"/>
+      <c r="F3" s="59" t="s"/>
+      <c r="G3" s="34" t="n">
         <v>8.2</v>
       </c>
       <c r="H3" s="4" t="n"/>
@@ -9684,17 +10287,17 @@
       <c r="BJ3" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="44" t="n">
+      <c r="A4" s="49" t="n">
         <v>210</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="50" t="s">
         <v>430</v>
       </c>
-      <c r="C4" s="46" t="s"/>
-      <c r="D4" s="46" t="s"/>
-      <c r="E4" s="46" t="s"/>
-      <c r="F4" s="47" t="s"/>
-      <c r="G4" s="31" t="n">
+      <c r="C4" s="60" t="s"/>
+      <c r="D4" s="61" t="s"/>
+      <c r="E4" s="62" t="s"/>
+      <c r="F4" s="63" t="s"/>
+      <c r="G4" s="34" t="n">
         <v>0.35</v>
       </c>
       <c r="H4" s="4" t="n"/>
@@ -9754,17 +10357,17 @@
       <c r="BJ4" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="47.0068206787109" outlineLevel="0" r="5">
-      <c r="A5" s="48" t="n">
+      <c r="A5" s="64" t="n">
         <v>211</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="C5" s="49" t="s"/>
-      <c r="D5" s="49" t="s"/>
-      <c r="E5" s="49" t="s"/>
-      <c r="F5" s="49" t="s"/>
-      <c r="G5" s="50" t="s"/>
+      <c r="C5" s="65" t="s"/>
+      <c r="D5" s="66" t="s"/>
+      <c r="E5" s="67" t="s"/>
+      <c r="F5" s="68" t="s"/>
+      <c r="G5" s="69" t="s"/>
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
@@ -9822,17 +10425,17 @@
       <c r="BJ5" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="55.4999847412109" outlineLevel="0" r="6">
-      <c r="A6" s="48" t="n">
+      <c r="A6" s="64" t="n">
         <v>212</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="30" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="49" t="s"/>
-      <c r="D6" s="49" t="s"/>
-      <c r="E6" s="49" t="s"/>
-      <c r="F6" s="49" t="s"/>
-      <c r="G6" s="50" t="s"/>
+      <c r="C6" s="70" t="s"/>
+      <c r="D6" s="71" t="s"/>
+      <c r="E6" s="72" t="s"/>
+      <c r="F6" s="73" t="s"/>
+      <c r="G6" s="74" t="s"/>
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
@@ -9890,17 +10493,17 @@
       <c r="BJ6" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="48" t="n">
+      <c r="A7" s="64" t="n">
         <v>213</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="30" t="s">
         <v>433</v>
       </c>
-      <c r="C7" s="49" t="s"/>
-      <c r="D7" s="49" t="s"/>
-      <c r="E7" s="49" t="s"/>
-      <c r="F7" s="49" t="s"/>
-      <c r="G7" s="50" t="s"/>
+      <c r="C7" s="75" t="s"/>
+      <c r="D7" s="76" t="s"/>
+      <c r="E7" s="77" t="s"/>
+      <c r="F7" s="78" t="s"/>
+      <c r="G7" s="79" t="s"/>
       <c r="H7" s="4" t="n"/>
       <c r="I7" s="4" t="n"/>
       <c r="J7" s="4" t="n"/>
@@ -9958,17 +10561,17 @@
       <c r="BJ7" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="48" t="n">
+      <c r="A8" s="64" t="n">
         <v>214</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="C8" s="49" t="s"/>
-      <c r="D8" s="49" t="s"/>
-      <c r="E8" s="49" t="s"/>
-      <c r="F8" s="50" t="s"/>
-      <c r="G8" s="51" t="n">
+      <c r="C8" s="80" t="s"/>
+      <c r="D8" s="81" t="s"/>
+      <c r="E8" s="82" t="s"/>
+      <c r="F8" s="83" t="s"/>
+      <c r="G8" s="84" t="n">
         <v>0.03</v>
       </c>
       <c r="H8" s="4" t="n"/>
@@ -10028,17 +10631,17 @@
       <c r="BJ8" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="9">
-      <c r="A9" s="48" t="n">
+      <c r="A9" s="64" t="n">
         <v>215</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="50" t="s">
         <v>435</v>
       </c>
-      <c r="C9" s="46" t="s"/>
-      <c r="D9" s="46" t="s"/>
-      <c r="E9" s="46" t="s"/>
-      <c r="F9" s="46" t="s"/>
-      <c r="G9" s="47" t="s"/>
+      <c r="C9" s="85" t="s"/>
+      <c r="D9" s="86" t="s"/>
+      <c r="E9" s="87" t="s"/>
+      <c r="F9" s="88" t="s"/>
+      <c r="G9" s="89" t="s"/>
       <c r="H9" s="4" t="n"/>
       <c r="I9" s="4" t="n"/>
       <c r="J9" s="4" t="n"/>
@@ -10096,17 +10699,17 @@
       <c r="BJ9" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="54.4443054199219" outlineLevel="0" r="10">
-      <c r="A10" s="44" t="n">
+      <c r="A10" s="49" t="n">
         <v>216</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="C10" s="46" t="s"/>
-      <c r="D10" s="46" t="s"/>
-      <c r="E10" s="46" t="s"/>
-      <c r="F10" s="46" t="s"/>
-      <c r="G10" s="47" t="s"/>
+      <c r="C10" s="90" t="s"/>
+      <c r="D10" s="91" t="s"/>
+      <c r="E10" s="92" t="s"/>
+      <c r="F10" s="93" t="s"/>
+      <c r="G10" s="94" t="s"/>
       <c r="H10" s="4" t="n"/>
       <c r="I10" s="4" t="n"/>
       <c r="J10" s="4" t="n"/>

--- a/calc/files/ems_int.xlsx
+++ b/calc/files/ems_int.xlsx
@@ -2713,13 +2713,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <numFmts>
+    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1002"/>
+    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1003"/>
     <numFmt co:extendedFormatCode="### ### ###" formatCode="### ### ###" numFmtId="1001"/>
-    <numFmt co:extendedFormatCode="0" formatCode="0" numFmtId="1003"/>
-    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1002"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
     <numFmt co:extendedFormatCode="0.0%" formatCode="0.0%" numFmtId="1004"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <name val="Calibri"/>
       <sz val="11"/>
@@ -2766,8 +2766,12 @@
       <color rgb="000000" tint="0"/>
       <sz val="10"/>
     </font>
+    <font>
+      <name val="Microsoft Sans Serif"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2777,6 +2781,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD821" tint="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -3360,7 +3369,7 @@
   <cellStyleXfs count="1">
     <xf applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="left"/>
@@ -3477,6 +3486,9 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="3" fontId="10" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center"/>
@@ -7804,23 +7816,23 @@
       <c r="B141" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="C141" s="30" t="s">
+      <c r="C141" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="D141" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E141" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="F141" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="G141" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="H141" s="33" t="s">
-        <v>82</v>
+      <c r="D141" s="31" t="n">
+        <v>110</v>
+      </c>
+      <c r="E141" s="31" t="n">
+        <v>129.05</v>
+      </c>
+      <c r="F141" s="31" t="n">
+        <v>112.45</v>
+      </c>
+      <c r="G141" s="31" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="H141" s="31" t="n">
+        <v>38.1</v>
       </c>
       <c r="I141" s="3" t="n">
         <v>20</v>
@@ -8930,7 +8942,7 @@
       <c r="A180" s="36" t="n">
         <v>170</v>
       </c>
-      <c r="B180" s="41" t="s">
+      <c r="B180" s="42" t="s">
         <v>351</v>
       </c>
       <c r="C180" s="30" t="s">
@@ -10083,15 +10095,15 @@
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
-      <c r="A1" s="42" t="n"/>
-      <c r="B1" s="43" t="s">
+      <c r="A1" s="43" t="n"/>
+      <c r="B1" s="44" t="s">
         <v>427</v>
       </c>
-      <c r="C1" s="44" t="s"/>
-      <c r="D1" s="45" t="s"/>
-      <c r="E1" s="46" t="s"/>
-      <c r="F1" s="47" t="s"/>
-      <c r="G1" s="48" t="s"/>
+      <c r="C1" s="45" t="s"/>
+      <c r="D1" s="46" t="s"/>
+      <c r="E1" s="47" t="s"/>
+      <c r="F1" s="48" t="s"/>
+      <c r="G1" s="49" t="s"/>
       <c r="H1" s="4" t="n"/>
       <c r="I1" s="4" t="n"/>
       <c r="J1" s="4" t="n"/>
@@ -10149,17 +10161,17 @@
       <c r="BJ1" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="47.2499923706055" outlineLevel="0" r="2">
-      <c r="A2" s="49" t="n">
+      <c r="A2" s="50" t="n">
         <v>208</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="51" t="s"/>
-      <c r="D2" s="52" t="s"/>
-      <c r="E2" s="53" t="s"/>
-      <c r="F2" s="54" t="s"/>
-      <c r="G2" s="55" t="s"/>
+      <c r="C2" s="52" t="s"/>
+      <c r="D2" s="53" t="s"/>
+      <c r="E2" s="54" t="s"/>
+      <c r="F2" s="55" t="s"/>
+      <c r="G2" s="56" t="s"/>
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
@@ -10217,16 +10229,16 @@
       <c r="BJ2" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="49" t="n">
+      <c r="A3" s="50" t="n">
         <v>209</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>429</v>
       </c>
-      <c r="C3" s="56" t="s"/>
-      <c r="D3" s="57" t="s"/>
-      <c r="E3" s="58" t="s"/>
-      <c r="F3" s="59" t="s"/>
+      <c r="C3" s="57" t="s"/>
+      <c r="D3" s="58" t="s"/>
+      <c r="E3" s="59" t="s"/>
+      <c r="F3" s="60" t="s"/>
       <c r="G3" s="34" t="n">
         <v>8.2</v>
       </c>
@@ -10287,16 +10299,16 @@
       <c r="BJ3" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="49" t="n">
+      <c r="A4" s="50" t="n">
         <v>210</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>430</v>
       </c>
-      <c r="C4" s="60" t="s"/>
-      <c r="D4" s="61" t="s"/>
-      <c r="E4" s="62" t="s"/>
-      <c r="F4" s="63" t="s"/>
+      <c r="C4" s="61" t="s"/>
+      <c r="D4" s="62" t="s"/>
+      <c r="E4" s="63" t="s"/>
+      <c r="F4" s="64" t="s"/>
       <c r="G4" s="34" t="n">
         <v>0.35</v>
       </c>
@@ -10357,17 +10369,17 @@
       <c r="BJ4" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="47.0068206787109" outlineLevel="0" r="5">
-      <c r="A5" s="64" t="n">
+      <c r="A5" s="65" t="n">
         <v>211</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="C5" s="65" t="s"/>
-      <c r="D5" s="66" t="s"/>
-      <c r="E5" s="67" t="s"/>
-      <c r="F5" s="68" t="s"/>
-      <c r="G5" s="69" t="s"/>
+      <c r="C5" s="66" t="s"/>
+      <c r="D5" s="67" t="s"/>
+      <c r="E5" s="68" t="s"/>
+      <c r="F5" s="69" t="s"/>
+      <c r="G5" s="70" t="s"/>
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
@@ -10425,17 +10437,17 @@
       <c r="BJ5" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="55.4999847412109" outlineLevel="0" r="6">
-      <c r="A6" s="64" t="n">
+      <c r="A6" s="65" t="n">
         <v>212</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="70" t="s"/>
-      <c r="D6" s="71" t="s"/>
-      <c r="E6" s="72" t="s"/>
-      <c r="F6" s="73" t="s"/>
-      <c r="G6" s="74" t="s"/>
+      <c r="C6" s="71" t="s"/>
+      <c r="D6" s="72" t="s"/>
+      <c r="E6" s="73" t="s"/>
+      <c r="F6" s="74" t="s"/>
+      <c r="G6" s="75" t="s"/>
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
@@ -10493,17 +10505,17 @@
       <c r="BJ6" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="64" t="n">
+      <c r="A7" s="65" t="n">
         <v>213</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>433</v>
       </c>
-      <c r="C7" s="75" t="s"/>
-      <c r="D7" s="76" t="s"/>
-      <c r="E7" s="77" t="s"/>
-      <c r="F7" s="78" t="s"/>
-      <c r="G7" s="79" t="s"/>
+      <c r="C7" s="76" t="s"/>
+      <c r="D7" s="77" t="s"/>
+      <c r="E7" s="78" t="s"/>
+      <c r="F7" s="79" t="s"/>
+      <c r="G7" s="80" t="s"/>
       <c r="H7" s="4" t="n"/>
       <c r="I7" s="4" t="n"/>
       <c r="J7" s="4" t="n"/>
@@ -10561,17 +10573,17 @@
       <c r="BJ7" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="64" t="n">
+      <c r="A8" s="65" t="n">
         <v>214</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="C8" s="80" t="s"/>
-      <c r="D8" s="81" t="s"/>
-      <c r="E8" s="82" t="s"/>
-      <c r="F8" s="83" t="s"/>
-      <c r="G8" s="84" t="n">
+      <c r="C8" s="81" t="s"/>
+      <c r="D8" s="82" t="s"/>
+      <c r="E8" s="83" t="s"/>
+      <c r="F8" s="84" t="s"/>
+      <c r="G8" s="85" t="n">
         <v>0.03</v>
       </c>
       <c r="H8" s="4" t="n"/>
@@ -10631,17 +10643,17 @@
       <c r="BJ8" s="4" t="n"/>
     </row>
     <row outlineLevel="0" r="9">
-      <c r="A9" s="64" t="n">
+      <c r="A9" s="65" t="n">
         <v>215</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="51" t="s">
         <v>435</v>
       </c>
-      <c r="C9" s="85" t="s"/>
-      <c r="D9" s="86" t="s"/>
-      <c r="E9" s="87" t="s"/>
-      <c r="F9" s="88" t="s"/>
-      <c r="G9" s="89" t="s"/>
+      <c r="C9" s="86" t="s"/>
+      <c r="D9" s="87" t="s"/>
+      <c r="E9" s="88" t="s"/>
+      <c r="F9" s="89" t="s"/>
+      <c r="G9" s="90" t="s"/>
       <c r="H9" s="4" t="n"/>
       <c r="I9" s="4" t="n"/>
       <c r="J9" s="4" t="n"/>
@@ -10699,17 +10711,17 @@
       <c r="BJ9" s="4" t="n"/>
     </row>
     <row customHeight="true" ht="54.4443054199219" outlineLevel="0" r="10">
-      <c r="A10" s="49" t="n">
+      <c r="A10" s="50" t="n">
         <v>216</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="51" t="s">
         <v>436</v>
       </c>
-      <c r="C10" s="90" t="s"/>
-      <c r="D10" s="91" t="s"/>
-      <c r="E10" s="92" t="s"/>
-      <c r="F10" s="93" t="s"/>
-      <c r="G10" s="94" t="s"/>
+      <c r="C10" s="91" t="s"/>
+      <c r="D10" s="92" t="s"/>
+      <c r="E10" s="93" t="s"/>
+      <c r="F10" s="94" t="s"/>
+      <c r="G10" s="95" t="s"/>
       <c r="H10" s="4" t="n"/>
       <c r="I10" s="4" t="n"/>
       <c r="J10" s="4" t="n"/>
